--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vulsHistory" sheetId="1" r:id="rId1"/>
     <sheet name="whiteList" sheetId="2" r:id="rId2"/>
-    <sheet name="blaskList" sheetId="3" r:id="rId3"/>
+    <sheet name="blackList" sheetId="3" r:id="rId3"/>
     <sheet name="run" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>wordpress</t>
   </si>
@@ -132,6 +132,342 @@
   <si>
     <t>risk</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/remote/?order_by=date&amp;order=desc</t>
+  </si>
+  <si>
+    <t>Th3 MMA mma.php Backdoor Arbitrary File Upload</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>Safari User-Assisted Applescript Exec Attack</t>
+  </si>
+  <si>
+    <t>osx</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/webapps/?order_by=date&amp;order=desc</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/local/?order_by=date&amp;order=desc</t>
+  </si>
+  <si>
+    <t>Mac OS X 10.9.5 / 10.10.5 - rsh/libmalloc Privilege Escalation</t>
+  </si>
+  <si>
+    <t>Windows 10 - pcap Driver Local Privilege Escalation</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/dos/?order_by=date&amp;order=desc</t>
+  </si>
+  <si>
+    <t>Win10Pcap - Local Privilege Escalation Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/security-bulletin?p_p_id=3tech_list_security_bulletin_full_WAR_3tech_list_security_bulletin_fullportlet&amp;_3tech_list_security_bulletin_full_WAR_3tech_list_security_bulletin_fullportlet_cur=</t>
+  </si>
+  <si>
+    <t>Adobe Shockwave Player Remote Code Execution Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>PHP Phar Extension Multiple Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>Joomla Multiple SQL injection vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/index.php?act=sec_bug</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems SQL注入漏洞(CVE-2015-6486)</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems跨站腳本漏洞(CVE-2015-6488)</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems任意文件上傳漏洞(CVE-2015-6491）</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems緩衝區溢出漏洞(CVE-2015-6492）</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems棧緩衝區溢出漏洞(CVE-2015-6490）</t>
+  </si>
+  <si>
+    <t>Adobe Shockwave Player內存破壞漏洞( CVE-2015-7649）</t>
+  </si>
+  <si>
+    <t>Apache HttpComponents HttpClient拒絕服務漏洞(CVE-2015-5262）</t>
+  </si>
+  <si>
+    <t>Cisco ASR 5000 PMIPv6拒絕服務漏洞(CVE-2015-6340）</t>
+  </si>
+  <si>
+    <t>SAP HANA hdbindexserver內存破壞漏洞(CVE-2015-7986）</t>
+  </si>
+  <si>
+    <t>OpenStack Neutron安全限制繞過漏洞(CVE-2015-5240）</t>
+  </si>
+  <si>
+    <t>ownCloud Desktop Client中間人攻擊漏洞(CVE-2015-4456)</t>
+  </si>
+  <si>
+    <t>PostgreSQL crypt函數拒絕服務漏洞(CVE-2015-5288）</t>
+  </si>
+  <si>
+    <t>Apple Xcode Swift安全漏洞(CVE-2015-7030)</t>
+  </si>
+  <si>
+    <t>PostgreSQL 棧緩衝區溢出漏洞(CVE-2015-5289）</t>
+  </si>
+  <si>
+    <t>ownCloud Server任意代碼執行漏洞(CVE-2015-7699)</t>
+  </si>
+  <si>
+    <t>ownCloud Desktop Client中間人攻擊漏洞(CVE-2015-7298)</t>
+  </si>
+  <si>
+    <t>ownCloud Server 目錄遍歷漏洞(CVE-2015-6670)</t>
+  </si>
+  <si>
+    <t>ownCloud Server 目錄遍歷漏洞(CVE-2015-6500)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-5942)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6976)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6977)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6978)</t>
+  </si>
+  <si>
+    <t>Apple iOS 雙重釋放漏洞(CVE-2015-6983)</t>
+  </si>
+  <si>
+    <t>Apple OS X libarchive符號鏈接攻擊漏洞(CVE-2015-6984)</t>
+  </si>
+  <si>
+    <t>Apple OS X ATS內存破壞漏洞(CVE-2015-6985)</t>
+  </si>
+  <si>
+    <t>Apple OS X File Bookmark拒絕服務漏洞(CVE-2015-6987)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X 任意代碼執行漏洞(CVE-2015-6988)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS 內存破壞漏洞(CVE-2015-6989)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6990)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6991)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6993)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X Dish Images內存破壞漏洞(CVE-2015-6994)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X Dish Images內存破壞漏洞(CVE-2015-6995)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS 內存破壞漏洞(CVE-2015-6996)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS 目錄遍歷漏洞(CVE-2015-7006)</t>
+  </si>
+  <si>
+    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-7003)</t>
+  </si>
+  <si>
+    <t>Apple iOS BOM目錄遍歷漏洞(CVE-2015-7006)</t>
+  </si>
+  <si>
+    <t>Apple OS X Script Editor安全限制繞過漏洞(CVE-2015-7007)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-7008)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-7009)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-7010)</t>
+  </si>
+  <si>
+    <t>Apple Safari/iTunes 內存破壞漏洞(CVE-2015-7011)</t>
+  </si>
+  <si>
+    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-7012)</t>
+  </si>
+  <si>
+    <t>Apple Safari/iTunes 內存破壞漏洞(CVE-2015-7013)</t>
+  </si>
+  <si>
+    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-7014)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS&amp;nbsp;&amp;nbsp;堆緩衝區溢出漏洞(CVE-2015-7015)</t>
+  </si>
+  <si>
+    <t>Apple OS X 權限提升漏洞(CVE-2015-7016)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-7018)</t>
+  </si>
+  <si>
+    <t>Apple OS X Graphics Drivers信息泄露及拒絕服務漏洞(CVE-2015-7019)</t>
+  </si>
+  <si>
+    <t>Apple OS X Graphics Drivers信息泄露及拒絕服務漏洞(CVE-2015-7020)</t>
+  </si>
+  <si>
+    <t>Apple OS X Graphics Drivers內存破壞漏洞(CVE-2015-7023)</t>
+  </si>
+  <si>
+    <t>Apple iOS CFNetwork cookie改寫漏洞(CVE-2015-7023)</t>
+  </si>
+  <si>
+    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-6992)</t>
+  </si>
+  <si>
+    <t>Apple iOS 任意代碼執行漏洞(CVE-2015-6986)</t>
+  </si>
+  <si>
+    <t>Apple iOS內存破壞漏洞(CVE-2015-6982)</t>
+  </si>
+  <si>
+    <t>Apple iOS內存破壞漏洞(CVE-2015-6981)</t>
+  </si>
+  <si>
+    <t>Apple iOS GasGauge 內存破壞漏洞(CVE-2015-6979)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/iTunes 內存破壞漏洞(CVE-2015-6975)</t>
+  </si>
+  <si>
+    <t>Apple OS X SecurityAgent安全限制繞過漏洞(CVE-2015-5943)</t>
+  </si>
+  <si>
+    <t>Apple OS X CoreText 內存破壞漏洞(CVE-2015-5944)</t>
+  </si>
+  <si>
+    <t>Apple OS X Sandbox權限提升漏洞(CVE-2015-5945)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS 內存破壞漏洞(CVE-2015-6974)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X 任意代碼執行漏洞(CVE-2015-5940)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS 內存破壞漏洞(CVE-2015-5939)</t>
+  </si>
+  <si>
+    <t>Apple OS X ImageIO 內存破壞漏洞(CVE-2015-5938)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS ImageIO 內存破壞漏洞(CVE-2015-5937)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS ImageIO 內存破壞漏洞(CVE-2015-5936)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS ImageIO 內存破壞漏洞(CVE-2015-5935)</t>
+  </si>
+  <si>
+    <t>Apple OS X Audio 內存破壞漏洞(CVE-2015-5934)</t>
+  </si>
+  <si>
+    <t>Apple OS X 內核權限提升漏洞(CVE-2015-5932)</t>
+  </si>
+  <si>
+    <t>Apple Safari/iTunes WebKit內存破壞漏洞(CVE-2015-5931)</t>
+  </si>
+  <si>
+    <t>Apple Safari/iTunes WebKit內存破壞漏洞(CVE-2015-5930)</t>
+  </si>
+  <si>
+    <t>Apple Safari/iTunes WebKit內存破壞漏洞(CVE-2015-5929)</t>
+  </si>
+  <si>
+    <t>Apple Safari/iTunes WebKit內存破壞漏洞(CVE-2015-5928)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS FontParser 內存破壞漏洞(CVE-2015-5927)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS CoreGraphics組件內存破壞漏洞(CVE-2015-5926)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS CoreGraphics組件內存破壞漏洞(CVE-2015-5925)</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X OpenGL內存破壞漏洞(CVE-2015-5924)</t>
+  </si>
+  <si>
+    <t>Apple Mac EFI未授權訪問漏洞(CVE-2015-7035)</t>
+  </si>
+  <si>
+    <t>Apple OS X Server訪問限制繞過漏洞(CVE-2015-7031)</t>
+  </si>
+  <si>
+    <t>Apple iOS Telephony信息泄露漏洞(CVE-2015-7022)</t>
+  </si>
+  <si>
+    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-7017)</t>
+  </si>
+  <si>
+    <t>Apple iOS內存破壞漏洞(CVE-2015-7005)</t>
+  </si>
+  <si>
+    <t>Apple iOS內核拒絕服務漏洞(CVE-2015-7004)</t>
+  </si>
+  <si>
+    <t>Apple iOS 信息泄露漏洞(CVE-2015-7000)</t>
+  </si>
+  <si>
+    <t>Apple iOS OCSP證書驗證漏洞(CVE-2015-6999)</t>
+  </si>
+  <si>
+    <t>Apple iOS X.509證書驗證漏洞(CVE-2015-6997)</t>
+  </si>
+  <si>
+    <t>Cisco Adaptive Security Appliance拒絕服務漏洞(CVE-2015-6324)</t>
+  </si>
+  <si>
+    <t>Cisco Adaptive Security Appliance拒絕服務漏洞(CVE-2015-6325)</t>
+  </si>
+  <si>
+    <t>Cisco Adaptive Security Appliance拒絕服務漏洞(CVE-2015-6326)</t>
+  </si>
+  <si>
+    <t>Cisco Adaptive Security Appliance拒絕服務漏洞(CVE-2015-6327)</t>
+  </si>
+  <si>
+    <t>Cisco FireSIGHT Management Center任意命令執行漏洞(CVE-2015-6335)</t>
   </si>
 </sst>
 </file>
@@ -184,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,6 +529,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -689,14 +1028,1352 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="82.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="3"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="3"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="3"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="3"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="3"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="3"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="3"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="3"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="3"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="3"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="3"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="3"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="3"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>wordpress</t>
   </si>
@@ -143,7 +143,10 @@
     <t>Platform</t>
   </si>
   <si>
-    <t>https://www.exploit-db.com/remote/?order_by=date&amp;order=desc</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CVE</t>
   </si>
   <si>
     <t>Th3 MMA mma.php Backdoor Arbitrary File Upload</t>
@@ -152,322 +155,151 @@
     <t>php</t>
   </si>
   <si>
-    <t>Safari User-Assisted Applescript Exec Attack</t>
+    <t>https://www.exploit-db.com/exploits/38541/</t>
+  </si>
+  <si>
+    <t>Mac OS X 10.9.5 / 10.10.5 - rsh/libmalloc Privilege Escalation</t>
   </si>
   <si>
     <t>osx</t>
   </si>
   <si>
-    <t>https://www.exploit-db.com/webapps/?order_by=date&amp;order=desc</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/local/?order_by=date&amp;order=desc</t>
-  </si>
-  <si>
-    <t>Mac OS X 10.9.5 / 10.10.5 - rsh/libmalloc Privilege Escalation</t>
-  </si>
-  <si>
-    <t>Windows 10 - pcap Driver Local Privilege Escalation</t>
+    <t>https://www.exploit-db.com/exploits/38540/</t>
+  </si>
+  <si>
+    <t>Win10Pcap - Local Privilege Escalation Vulnerability</t>
   </si>
   <si>
     <t>windows</t>
   </si>
   <si>
-    <t>https://www.exploit-db.com/dos/?order_by=date&amp;order=desc</t>
-  </si>
-  <si>
-    <t>Win10Pcap - Local Privilege Escalation Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/security-bulletin?p_p_id=3tech_list_security_bulletin_full_WAR_3tech_list_security_bulletin_fullportlet&amp;_3tech_list_security_bulletin_full_WAR_3tech_list_security_bulletin_fullportlet_cur=</t>
+    <t>https://www.exploit-db.com/exploits/38542/</t>
   </si>
   <si>
     <t>Adobe Shockwave Player Remote Code Execution Vulnerabilitynew</t>
   </si>
   <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15102802</t>
+  </si>
+  <si>
     <t>PHP Phar Extension Multiple Vulnerabilitiesnew</t>
   </si>
   <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15102801</t>
+  </si>
+  <si>
     <t>Joomla Multiple SQL injection vulnerabilitiesnew</t>
   </si>
   <si>
-    <t>http://www.nsfocus.net/index.php?act=sec_bug</t>
+    <t>https://www.hkcert.org/my_url/en/alert/15102701</t>
   </si>
   <si>
     <t>Rockwell Automation Micrologix 1100/1400 PLC Systems SQL注入漏洞(CVE-2015-6486)</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31392</t>
+  </si>
+  <si>
     <t>Rockwell Automation Micrologix 1100/1400 PLC Systems跨站腳本漏洞(CVE-2015-6488)</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31391</t>
+  </si>
+  <si>
     <t>Rockwell Automation Micrologix 1100/1400 PLC Systems任意文件上傳漏洞(CVE-2015-6491）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31390</t>
+  </si>
+  <si>
     <t>Rockwell Automation Micrologix 1100/1400 PLC Systems緩衝區溢出漏洞(CVE-2015-6492）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31389</t>
+  </si>
+  <si>
     <t>Rockwell Automation Micrologix 1100/1400 PLC Systems棧緩衝區溢出漏洞(CVE-2015-6490）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31388</t>
+  </si>
+  <si>
     <t>Adobe Shockwave Player內存破壞漏洞( CVE-2015-7649）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31387</t>
+  </si>
+  <si>
     <t>Apache HttpComponents HttpClient拒絕服務漏洞(CVE-2015-5262）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31386</t>
+  </si>
+  <si>
     <t>Cisco ASR 5000 PMIPv6拒絕服務漏洞(CVE-2015-6340）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31385</t>
+  </si>
+  <si>
     <t>SAP HANA hdbindexserver內存破壞漏洞(CVE-2015-7986）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31384</t>
+  </si>
+  <si>
     <t>OpenStack Neutron安全限制繞過漏洞(CVE-2015-5240）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31383</t>
+  </si>
+  <si>
     <t>ownCloud Desktop Client中間人攻擊漏洞(CVE-2015-4456)</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31312</t>
+  </si>
+  <si>
     <t>PostgreSQL crypt函數拒絕服務漏洞(CVE-2015-5288）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31311</t>
+  </si>
+  <si>
     <t>Apple Xcode Swift安全漏洞(CVE-2015-7030)</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31310</t>
+  </si>
+  <si>
     <t>PostgreSQL 棧緩衝區溢出漏洞(CVE-2015-5289）</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31309</t>
+  </si>
+  <si>
     <t>ownCloud Server任意代碼執行漏洞(CVE-2015-7699)</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31308</t>
+  </si>
+  <si>
     <t>ownCloud Desktop Client中間人攻擊漏洞(CVE-2015-7298)</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31307</t>
+  </si>
+  <si>
     <t>ownCloud Server 目錄遍歷漏洞(CVE-2015-6670)</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net//vulndb/31306</t>
+  </si>
+  <si>
     <t>ownCloud Server 目錄遍歷漏洞(CVE-2015-6500)</t>
   </si>
   <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-5942)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6976)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6977)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6978)</t>
-  </si>
-  <si>
-    <t>Apple iOS 雙重釋放漏洞(CVE-2015-6983)</t>
-  </si>
-  <si>
-    <t>Apple OS X libarchive符號鏈接攻擊漏洞(CVE-2015-6984)</t>
-  </si>
-  <si>
-    <t>Apple OS X ATS內存破壞漏洞(CVE-2015-6985)</t>
-  </si>
-  <si>
-    <t>Apple OS X File Bookmark拒絕服務漏洞(CVE-2015-6987)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X 任意代碼執行漏洞(CVE-2015-6988)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS 內存破壞漏洞(CVE-2015-6989)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6990)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6991)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-6993)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X Dish Images內存破壞漏洞(CVE-2015-6994)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X Dish Images內存破壞漏洞(CVE-2015-6995)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS 內存破壞漏洞(CVE-2015-6996)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS 目錄遍歷漏洞(CVE-2015-7006)</t>
-  </si>
-  <si>
-    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-7003)</t>
-  </si>
-  <si>
-    <t>Apple iOS BOM目錄遍歷漏洞(CVE-2015-7006)</t>
-  </si>
-  <si>
-    <t>Apple OS X Script Editor安全限制繞過漏洞(CVE-2015-7007)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-7008)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-7009)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-7010)</t>
-  </si>
-  <si>
-    <t>Apple Safari/iTunes 內存破壞漏洞(CVE-2015-7011)</t>
-  </si>
-  <si>
-    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-7012)</t>
-  </si>
-  <si>
-    <t>Apple Safari/iTunes 內存破壞漏洞(CVE-2015-7013)</t>
-  </si>
-  <si>
-    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-7014)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS&amp;nbsp;&amp;nbsp;堆緩衝區溢出漏洞(CVE-2015-7015)</t>
-  </si>
-  <si>
-    <t>Apple OS X 權限提升漏洞(CVE-2015-7016)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X FontParser 內存破壞漏洞(CVE-2015-7018)</t>
-  </si>
-  <si>
-    <t>Apple OS X Graphics Drivers信息泄露及拒絕服務漏洞(CVE-2015-7019)</t>
-  </si>
-  <si>
-    <t>Apple OS X Graphics Drivers信息泄露及拒絕服務漏洞(CVE-2015-7020)</t>
-  </si>
-  <si>
-    <t>Apple OS X Graphics Drivers內存破壞漏洞(CVE-2015-7023)</t>
-  </si>
-  <si>
-    <t>Apple iOS CFNetwork cookie改寫漏洞(CVE-2015-7023)</t>
-  </si>
-  <si>
-    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-6992)</t>
-  </si>
-  <si>
-    <t>Apple iOS 任意代碼執行漏洞(CVE-2015-6986)</t>
-  </si>
-  <si>
-    <t>Apple iOS內存破壞漏洞(CVE-2015-6982)</t>
-  </si>
-  <si>
-    <t>Apple iOS內存破壞漏洞(CVE-2015-6981)</t>
-  </si>
-  <si>
-    <t>Apple iOS GasGauge 內存破壞漏洞(CVE-2015-6979)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/iTunes 內存破壞漏洞(CVE-2015-6975)</t>
-  </si>
-  <si>
-    <t>Apple OS X SecurityAgent安全限制繞過漏洞(CVE-2015-5943)</t>
-  </si>
-  <si>
-    <t>Apple OS X CoreText 內存破壞漏洞(CVE-2015-5944)</t>
-  </si>
-  <si>
-    <t>Apple OS X Sandbox權限提升漏洞(CVE-2015-5945)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS 內存破壞漏洞(CVE-2015-6974)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X 任意代碼執行漏洞(CVE-2015-5940)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS 內存破壞漏洞(CVE-2015-5939)</t>
-  </si>
-  <si>
-    <t>Apple OS X ImageIO 內存破壞漏洞(CVE-2015-5938)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS ImageIO 內存破壞漏洞(CVE-2015-5937)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS ImageIO 內存破壞漏洞(CVE-2015-5936)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS ImageIO 內存破壞漏洞(CVE-2015-5935)</t>
-  </si>
-  <si>
-    <t>Apple OS X Audio 內存破壞漏洞(CVE-2015-5934)</t>
-  </si>
-  <si>
-    <t>Apple OS X 內核權限提升漏洞(CVE-2015-5932)</t>
-  </si>
-  <si>
-    <t>Apple Safari/iTunes WebKit內存破壞漏洞(CVE-2015-5931)</t>
-  </si>
-  <si>
-    <t>Apple Safari/iTunes WebKit內存破壞漏洞(CVE-2015-5930)</t>
-  </si>
-  <si>
-    <t>Apple Safari/iTunes WebKit內存破壞漏洞(CVE-2015-5929)</t>
-  </si>
-  <si>
-    <t>Apple Safari/iTunes WebKit內存破壞漏洞(CVE-2015-5928)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS FontParser 內存破壞漏洞(CVE-2015-5927)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS CoreGraphics組件內存破壞漏洞(CVE-2015-5926)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X/watchOS CoreGraphics組件內存破壞漏洞(CVE-2015-5925)</t>
-  </si>
-  <si>
-    <t>Apple iOS/OS X OpenGL內存破壞漏洞(CVE-2015-5924)</t>
-  </si>
-  <si>
-    <t>Apple Mac EFI未授權訪問漏洞(CVE-2015-7035)</t>
-  </si>
-  <si>
-    <t>Apple OS X Server訪問限制繞過漏洞(CVE-2015-7031)</t>
-  </si>
-  <si>
-    <t>Apple iOS Telephony信息泄露漏洞(CVE-2015-7022)</t>
-  </si>
-  <si>
-    <t>Apple iOS/Safari/iTunes 內存破壞漏洞(CVE-2015-7017)</t>
-  </si>
-  <si>
-    <t>Apple iOS內存破壞漏洞(CVE-2015-7005)</t>
-  </si>
-  <si>
-    <t>Apple iOS內核拒絕服務漏洞(CVE-2015-7004)</t>
-  </si>
-  <si>
-    <t>Apple iOS 信息泄露漏洞(CVE-2015-7000)</t>
-  </si>
-  <si>
-    <t>Apple iOS OCSP證書驗證漏洞(CVE-2015-6999)</t>
-  </si>
-  <si>
-    <t>Apple iOS X.509證書驗證漏洞(CVE-2015-6997)</t>
-  </si>
-  <si>
-    <t>Cisco Adaptive Security Appliance拒絕服務漏洞(CVE-2015-6324)</t>
-  </si>
-  <si>
-    <t>Cisco Adaptive Security Appliance拒絕服務漏洞(CVE-2015-6325)</t>
-  </si>
-  <si>
-    <t>Cisco Adaptive Security Appliance拒絕服務漏洞(CVE-2015-6326)</t>
-  </si>
-  <si>
-    <t>Cisco Adaptive Security Appliance拒絕服務漏洞(CVE-2015-6327)</t>
-  </si>
-  <si>
-    <t>Cisco FireSIGHT Management Center任意命令執行漏洞(CVE-2015-6335)</t>
+    <t>http://www.nsfocus.net//vulndb/31305</t>
   </si>
 </sst>
 </file>
@@ -1028,19 +860,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="2" width="82.75" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="78.75" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1050,865 +884,545 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>42304</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>42304</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>42303</v>
+        <v>42305</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>42305</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>42305</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>42305</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>42305</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B50" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="3">
-        <v>42303</v>
-      </c>
-      <c r="B107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:1">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:1">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:1">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:1">
       <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1">

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>wordpress</t>
   </si>
@@ -134,172 +134,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CVE-2015-6486</t>
+  </si>
+  <si>
+    <t>CVE-2015-6488</t>
+  </si>
+  <si>
+    <t>CVE-2015-6491</t>
+  </si>
+  <si>
+    <t>CVE-2015-6492</t>
+  </si>
+  <si>
+    <t>CVE-2015-6490</t>
+  </si>
+  <si>
+    <t>CVE-2015-7649</t>
+  </si>
+  <si>
+    <t>CVE-2015-5262</t>
+  </si>
+  <si>
+    <t>CVE-2015-6340</t>
+  </si>
+  <si>
+    <t>CVE-2015-7986</t>
+  </si>
+  <si>
+    <t>CVE-2015-5240</t>
+  </si>
+  <si>
+    <t>CVE-2015-4456</t>
+  </si>
+  <si>
+    <t>CVE-2015-5288</t>
+  </si>
+  <si>
+    <t>CVE-2015-7030</t>
+  </si>
+  <si>
+    <t>CVE-2015-5289</t>
+  </si>
+  <si>
+    <t>CVE-2015-7699</t>
+  </si>
+  <si>
+    <t>CVE-2015-7298</t>
+  </si>
+  <si>
+    <t>CVE-2015-6670</t>
+  </si>
+  <si>
+    <t>CVE-2015-6500</t>
+  </si>
+  <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CVE</t>
-  </si>
-  <si>
-    <t>Th3 MMA mma.php Backdoor Arbitrary File Upload</t>
-  </si>
-  <si>
-    <t>php</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38541/</t>
-  </si>
-  <si>
-    <t>Mac OS X 10.9.5 / 10.10.5 - rsh/libmalloc Privilege Escalation</t>
-  </si>
-  <si>
-    <t>osx</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38540/</t>
-  </si>
-  <si>
-    <t>Win10Pcap - Local Privilege Escalation Vulnerability</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38542/</t>
-  </si>
-  <si>
-    <t>Adobe Shockwave Player Remote Code Execution Vulnerabilitynew</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15102802</t>
-  </si>
-  <si>
-    <t>PHP Phar Extension Multiple Vulnerabilitiesnew</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15102801</t>
-  </si>
-  <si>
-    <t>Joomla Multiple SQL injection vulnerabilitiesnew</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15102701</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems SQL注入漏洞(CVE-2015-6486)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31392</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems跨站腳本漏洞(CVE-2015-6488)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31391</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems任意文件上傳漏洞(CVE-2015-6491）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31390</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems緩衝區溢出漏洞(CVE-2015-6492）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31389</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems棧緩衝區溢出漏洞(CVE-2015-6490）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31388</t>
-  </si>
-  <si>
-    <t>Adobe Shockwave Player內存破壞漏洞( CVE-2015-7649）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31387</t>
-  </si>
-  <si>
-    <t>Apache HttpComponents HttpClient拒絕服務漏洞(CVE-2015-5262）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31386</t>
-  </si>
-  <si>
-    <t>Cisco ASR 5000 PMIPv6拒絕服務漏洞(CVE-2015-6340）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31385</t>
-  </si>
-  <si>
-    <t>SAP HANA hdbindexserver內存破壞漏洞(CVE-2015-7986）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31384</t>
-  </si>
-  <si>
-    <t>OpenStack Neutron安全限制繞過漏洞(CVE-2015-5240）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31383</t>
-  </si>
-  <si>
-    <t>ownCloud Desktop Client中間人攻擊漏洞(CVE-2015-4456)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31312</t>
-  </si>
-  <si>
-    <t>PostgreSQL crypt函數拒絕服務漏洞(CVE-2015-5288）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31311</t>
-  </si>
-  <si>
-    <t>Apple Xcode Swift安全漏洞(CVE-2015-7030)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31310</t>
-  </si>
-  <si>
-    <t>PostgreSQL 棧緩衝區溢出漏洞(CVE-2015-5289）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31309</t>
-  </si>
-  <si>
-    <t>ownCloud Server任意代碼執行漏洞(CVE-2015-7699)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31308</t>
-  </si>
-  <si>
-    <t>ownCloud Desktop Client中間人攻擊漏洞(CVE-2015-7298)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31307</t>
-  </si>
-  <si>
-    <t>ownCloud Server 目錄遍歷漏洞(CVE-2015-6670)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31306</t>
-  </si>
-  <si>
-    <t>ownCloud Server 目錄遍歷漏洞(CVE-2015-6500)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net//vulndb/31305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems SQL注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31392</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31391</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems任意文件上傳漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31390</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31389</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems棧緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31388</t>
+  </si>
+  <si>
+    <t>Adobe Shockwave Player內存破壞漏洞(</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31387</t>
+  </si>
+  <si>
+    <t>Apache HttpComponents HttpClient拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31386</t>
+  </si>
+  <si>
+    <t>Cisco ASR 5000 PMIPv6拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31385</t>
+  </si>
+  <si>
+    <t>SAP HANA hdbindexserver內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31384</t>
+  </si>
+  <si>
+    <t>OpenStack Neutron安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31383</t>
+  </si>
+  <si>
+    <t>ownCloud Desktop Client中間人攻擊漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31312</t>
+  </si>
+  <si>
+    <t>PostgreSQL crypt函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31311</t>
+  </si>
+  <si>
+    <t>Apple Xcode Swift安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31310</t>
+  </si>
+  <si>
+    <t>PostgreSQL 棧緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31309</t>
+  </si>
+  <si>
+    <t>ownCloud Server任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31308</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31307</t>
+  </si>
+  <si>
+    <t>ownCloud Server 目錄遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31306</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31305</t>
   </si>
 </sst>
 </file>
@@ -863,7 +871,7 @@
   <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -876,61 +884,61 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -938,10 +946,13 @@
         <v>42305</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -949,21 +960,27 @@
         <v>42305</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -971,10 +988,13 @@
         <v>42305</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -982,10 +1002,13 @@
         <v>42305</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -993,10 +1016,13 @@
         <v>42305</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1004,185 +1030,164 @@
         <v>42305</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>42304</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>42304</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>42304</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1">

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="298">
   <si>
     <t>wordpress</t>
   </si>
@@ -134,180 +134,811 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>Th3 MMA mma.php Backdoor Arbitrary File Upload</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38541/</t>
+  </si>
+  <si>
+    <t>CVE-N/A</t>
+  </si>
+  <si>
+    <t>Safari User-Assisted Applescript Exec Attack</t>
+  </si>
+  <si>
+    <t>osx</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38535/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7007</t>
+  </si>
+  <si>
+    <t>Mac OS X 10.9.5 / 10.10.5 - rsh/libmalloc Privilege Escalation</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38540/</t>
+  </si>
+  <si>
+    <t>CVE-2015-5889</t>
+  </si>
+  <si>
+    <t>Windows 10 - pcap Driver Local Privilege Escalation</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38533/</t>
+  </si>
+  <si>
+    <t>Win10Pcap - Local Privilege Escalation Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38542/</t>
+  </si>
+  <si>
+    <t>Adobe Shockwave Player Remote Code Execution Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15102802</t>
+  </si>
+  <si>
+    <t>CVE-2015-7649,</t>
+  </si>
+  <si>
+    <t>PHP Phar Extension Multiple Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15102801</t>
+  </si>
+  <si>
+    <t>CVE-2015-7803,CVE-2015-7804,</t>
+  </si>
+  <si>
+    <t>Joomla Multiple SQL injection vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15102701</t>
+  </si>
+  <si>
+    <t>CVE-2015-7297,CVE-2015-7857,CVE-2015-7858,</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems SQL注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31392</t>
+  </si>
+  <si>
     <t>CVE-2015-6486</t>
   </si>
   <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31391</t>
+  </si>
+  <si>
     <t>CVE-2015-6488</t>
   </si>
   <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems任意文件上傳漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31390</t>
+  </si>
+  <si>
     <t>CVE-2015-6491</t>
   </si>
   <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31389</t>
+  </si>
+  <si>
     <t>CVE-2015-6492</t>
   </si>
   <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems棧緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31388</t>
+  </si>
+  <si>
     <t>CVE-2015-6490</t>
   </si>
   <si>
+    <t>Adobe Shockwave Player內存破壞漏洞(</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31387</t>
+  </si>
+  <si>
     <t>CVE-2015-7649</t>
   </si>
   <si>
+    <t>Apache HttpComponents HttpClient拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31386</t>
+  </si>
+  <si>
     <t>CVE-2015-5262</t>
   </si>
   <si>
+    <t>Cisco ASR 5000 PMIPv6拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31385</t>
+  </si>
+  <si>
     <t>CVE-2015-6340</t>
   </si>
   <si>
+    <t>SAP HANA hdbindexserver內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31384</t>
+  </si>
+  <si>
     <t>CVE-2015-7986</t>
   </si>
   <si>
+    <t>OpenStack Neutron安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31383</t>
+  </si>
+  <si>
     <t>CVE-2015-5240</t>
   </si>
   <si>
+    <t>ownCloud Desktop Client中間人攻擊漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31312</t>
+  </si>
+  <si>
     <t>CVE-2015-4456</t>
   </si>
   <si>
+    <t>PostgreSQL crypt函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31311</t>
+  </si>
+  <si>
     <t>CVE-2015-5288</t>
   </si>
   <si>
+    <t>Apple Xcode Swift安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31310</t>
+  </si>
+  <si>
     <t>CVE-2015-7030</t>
   </si>
   <si>
+    <t>PostgreSQL 棧緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31309</t>
+  </si>
+  <si>
     <t>CVE-2015-5289</t>
   </si>
   <si>
+    <t>ownCloud Server任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31308</t>
+  </si>
+  <si>
     <t>CVE-2015-7699</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net/vulndb/31307</t>
+  </si>
+  <si>
     <t>CVE-2015-7298</t>
   </si>
   <si>
+    <t>ownCloud Server 目錄遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31306</t>
+  </si>
+  <si>
     <t>CVE-2015-6670</t>
   </si>
   <si>
+    <t>http://www.nsfocus.net/vulndb/31305</t>
+  </si>
+  <si>
     <t>CVE-2015-6500</t>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems SQL注入漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31392</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31391</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems任意文件上傳漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31390</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31389</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems棧緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31388</t>
-  </si>
-  <si>
-    <t>Adobe Shockwave Player內存破壞漏洞(</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31387</t>
-  </si>
-  <si>
-    <t>Apache HttpComponents HttpClient拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31386</t>
-  </si>
-  <si>
-    <t>Cisco ASR 5000 PMIPv6拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31385</t>
-  </si>
-  <si>
-    <t>SAP HANA hdbindexserver內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31384</t>
-  </si>
-  <si>
-    <t>OpenStack Neutron安全限制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31383</t>
-  </si>
-  <si>
-    <t>ownCloud Desktop Client中間人攻擊漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31312</t>
-  </si>
-  <si>
-    <t>PostgreSQL crypt函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31311</t>
-  </si>
-  <si>
-    <t>Apple Xcode Swift安全漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31310</t>
-  </si>
-  <si>
-    <t>PostgreSQL 棧緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31309</t>
-  </si>
-  <si>
-    <t>ownCloud Server任意代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31308</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31307</t>
-  </si>
-  <si>
-    <t>ownCloud Server 目錄遍歷漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31306</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31305</t>
+    <t>Apple iOS/OS X FontParser 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31382</t>
+  </si>
+  <si>
+    <t>CVE-2015-5942</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31381</t>
+  </si>
+  <si>
+    <t>CVE-2015-6976</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31380</t>
+  </si>
+  <si>
+    <t>CVE-2015-6977</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31379</t>
+  </si>
+  <si>
+    <t>CVE-2015-6978</t>
+  </si>
+  <si>
+    <t>Apple iOS 雙重釋放漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31378</t>
+  </si>
+  <si>
+    <t>CVE-2015-6983</t>
+  </si>
+  <si>
+    <t>Apple OS X libarchive符號鏈接攻擊漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31377</t>
+  </si>
+  <si>
+    <t>CVE-2015-6984</t>
+  </si>
+  <si>
+    <t>Apple OS X ATS內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31376</t>
+  </si>
+  <si>
+    <t>CVE-2015-6985</t>
+  </si>
+  <si>
+    <t>Apple OS X File Bookmark拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31375</t>
+  </si>
+  <si>
+    <t>CVE-2015-6987</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X 任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31374</t>
+  </si>
+  <si>
+    <t>CVE-2015-6988</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31373</t>
+  </si>
+  <si>
+    <t>CVE-2015-6989</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31372</t>
+  </si>
+  <si>
+    <t>CVE-2015-6990</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31371</t>
+  </si>
+  <si>
+    <t>CVE-2015-6991</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31370</t>
+  </si>
+  <si>
+    <t>CVE-2015-6993</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X Dish Images內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31369</t>
+  </si>
+  <si>
+    <t>CVE-2015-6994</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31368</t>
+  </si>
+  <si>
+    <t>CVE-2015-6995</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31367</t>
+  </si>
+  <si>
+    <t>CVE-2015-6996</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS 目錄遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31366</t>
+  </si>
+  <si>
+    <t>CVE-2015-7006</t>
+  </si>
+  <si>
+    <t>Apple iOS/Safari/iTunes 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31365</t>
+  </si>
+  <si>
+    <t>CVE-2015-7003</t>
+  </si>
+  <si>
+    <t>Apple iOS BOM目錄遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31364</t>
+  </si>
+  <si>
+    <t>Apple OS X Script Editor安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31363</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31362</t>
+  </si>
+  <si>
+    <t>CVE-2015-7008</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31361</t>
+  </si>
+  <si>
+    <t>CVE-2015-7009</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31360</t>
+  </si>
+  <si>
+    <t>CVE-2015-7010</t>
+  </si>
+  <si>
+    <t>Apple Safari/iTunes 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31359</t>
+  </si>
+  <si>
+    <t>CVE-2015-7011</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31358</t>
+  </si>
+  <si>
+    <t>CVE-2015-7012</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31357</t>
+  </si>
+  <si>
+    <t>CVE-2015-7013</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31356</t>
+  </si>
+  <si>
+    <t>CVE-2015-7014</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS&amp;nbsp;&amp;nbsp;堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31355</t>
+  </si>
+  <si>
+    <t>CVE-2015-7015</t>
+  </si>
+  <si>
+    <t>Apple OS X 權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31354</t>
+  </si>
+  <si>
+    <t>CVE-2015-7016</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31353</t>
+  </si>
+  <si>
+    <t>CVE-2015-7018</t>
+  </si>
+  <si>
+    <t>Apple OS X Graphics Drivers信息泄露及拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31352</t>
+  </si>
+  <si>
+    <t>CVE-2015-7019</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31351</t>
+  </si>
+  <si>
+    <t>CVE-2015-7020</t>
+  </si>
+  <si>
+    <t>Apple OS X Graphics Drivers內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31350</t>
+  </si>
+  <si>
+    <t>CVE-2015-7023</t>
+  </si>
+  <si>
+    <t>Apple iOS CFNetwork cookie改寫漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31349</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31348</t>
+  </si>
+  <si>
+    <t>CVE-2015-6992</t>
+  </si>
+  <si>
+    <t>Apple iOS 任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31347</t>
+  </si>
+  <si>
+    <t>CVE-2015-6986</t>
+  </si>
+  <si>
+    <t>Apple iOS內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31346</t>
+  </si>
+  <si>
+    <t>CVE-2015-6982</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31345</t>
+  </si>
+  <si>
+    <t>CVE-2015-6981</t>
+  </si>
+  <si>
+    <t>Apple iOS GasGauge 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31344</t>
+  </si>
+  <si>
+    <t>CVE-2015-6979</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/iTunes 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31343</t>
+  </si>
+  <si>
+    <t>CVE-2015-6975</t>
+  </si>
+  <si>
+    <t>Apple OS X SecurityAgent安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31342</t>
+  </si>
+  <si>
+    <t>CVE-2015-5943</t>
+  </si>
+  <si>
+    <t>Apple OS X CoreText 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31341</t>
+  </si>
+  <si>
+    <t>CVE-2015-5944</t>
+  </si>
+  <si>
+    <t>Apple OS X Sandbox權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31340</t>
+  </si>
+  <si>
+    <t>CVE-2015-5945</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31339</t>
+  </si>
+  <si>
+    <t>CVE-2015-6974</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31338</t>
+  </si>
+  <si>
+    <t>CVE-2015-5940</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31337</t>
+  </si>
+  <si>
+    <t>CVE-2015-5939</t>
+  </si>
+  <si>
+    <t>Apple OS X ImageIO 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31336</t>
+  </si>
+  <si>
+    <t>CVE-2015-5938</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS ImageIO 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31335</t>
+  </si>
+  <si>
+    <t>CVE-2015-5937</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31334</t>
+  </si>
+  <si>
+    <t>CVE-2015-5936</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31333</t>
+  </si>
+  <si>
+    <t>CVE-2015-5935</t>
+  </si>
+  <si>
+    <t>Apple OS X Audio 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31332</t>
+  </si>
+  <si>
+    <t>CVE-2015-5934</t>
+  </si>
+  <si>
+    <t>Apple OS X 內核權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31330</t>
+  </si>
+  <si>
+    <t>CVE-2015-5932</t>
+  </si>
+  <si>
+    <t>Apple Safari/iTunes WebKit內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31329</t>
+  </si>
+  <si>
+    <t>CVE-2015-5931</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31328</t>
+  </si>
+  <si>
+    <t>CVE-2015-5930</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31327</t>
+  </si>
+  <si>
+    <t>CVE-2015-5929</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31326</t>
+  </si>
+  <si>
+    <t>CVE-2015-5928</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS FontParser 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31325</t>
+  </si>
+  <si>
+    <t>CVE-2015-5927</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X/watchOS CoreGraphics組件內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31324</t>
+  </si>
+  <si>
+    <t>CVE-2015-5926</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31323</t>
+  </si>
+  <si>
+    <t>CVE-2015-5925</t>
+  </si>
+  <si>
+    <t>Apple iOS/OS X OpenGL內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31322</t>
+  </si>
+  <si>
+    <t>CVE-2015-5924</t>
+  </si>
+  <si>
+    <t>Apple Mac EFI未授權訪問漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31321</t>
+  </si>
+  <si>
+    <t>CVE-2015-7035</t>
+  </si>
+  <si>
+    <t>Apple OS X Server訪問限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31320</t>
+  </si>
+  <si>
+    <t>CVE-2015-7031</t>
+  </si>
+  <si>
+    <t>Apple iOS Telephony信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31319</t>
+  </si>
+  <si>
+    <t>CVE-2015-7022</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31318</t>
+  </si>
+  <si>
+    <t>CVE-2015-7017</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31317</t>
+  </si>
+  <si>
+    <t>CVE-2015-7005</t>
+  </si>
+  <si>
+    <t>Apple iOS內核拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31316</t>
+  </si>
+  <si>
+    <t>CVE-2015-7004</t>
+  </si>
+  <si>
+    <t>Apple iOS 信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31315</t>
+  </si>
+  <si>
+    <t>CVE-2015-7000</t>
+  </si>
+  <si>
+    <t>Apple iOS OCSP證書驗證漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31314</t>
+  </si>
+  <si>
+    <t>CVE-2015-6999</t>
+  </si>
+  <si>
+    <t>Apple iOS X.509證書驗證漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31313</t>
+  </si>
+  <si>
+    <t>CVE-2015-6997</t>
+  </si>
+  <si>
+    <t>Cisco Adaptive Security Appliance拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31304</t>
+  </si>
+  <si>
+    <t>CVE-2015-6324</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31303</t>
+  </si>
+  <si>
+    <t>CVE-2015-6325</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31302</t>
+  </si>
+  <si>
+    <t>CVE-2015-6326</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31301</t>
+  </si>
+  <si>
+    <t>CVE-2015-6327</t>
+  </si>
+  <si>
+    <t>Cisco FireSIGHT Management Center任意命令執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31300</t>
+  </si>
+  <si>
+    <t>CVE-2015-6335</t>
   </si>
 </sst>
 </file>
@@ -874,99 +1505,114 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="18.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="78.75" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="53.125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>42305</v>
+        <v>42303</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>42305</v>
+        <v>42303</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -974,13 +1620,13 @@
         <v>42305</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -988,27 +1634,27 @@
         <v>42305</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>42305</v>
+        <v>42304</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1016,13 +1662,13 @@
         <v>42305</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1030,102 +1676,102 @@
         <v>42305</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
         <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -1134,300 +1780,1202 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
+        <v>42305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
         <v>42304</v>
       </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="3"/>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="A32" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
+        <v>217</v>
+      </c>
+      <c r="E70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B75" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B76" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B77" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B83" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" t="s">
+        <v>248</v>
+      </c>
+      <c r="E83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" t="s">
+        <v>254</v>
+      </c>
+      <c r="E85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B88" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" t="s">
+        <v>262</v>
+      </c>
+      <c r="E88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B89" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B90" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" t="s">
+        <v>268</v>
+      </c>
+      <c r="E90" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" t="s">
+        <v>270</v>
+      </c>
+      <c r="E91" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" t="s">
+        <v>272</v>
+      </c>
+      <c r="E92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="D93" t="s">
+        <v>275</v>
+      </c>
+      <c r="E93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" t="s">
+        <v>278</v>
+      </c>
+      <c r="E94" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B95" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" t="s">
+        <v>281</v>
+      </c>
+      <c r="E95" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" t="s">
+        <v>284</v>
+      </c>
+      <c r="E96" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" t="s">
+        <v>287</v>
+      </c>
+      <c r="E97" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B98" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" t="s">
+        <v>289</v>
+      </c>
+      <c r="E98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B100" t="s">
+        <v>286</v>
+      </c>
+      <c r="D100" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3">
+        <v>42303</v>
+      </c>
+      <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="D101" t="s">
+        <v>296</v>
+      </c>
+      <c r="E101" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1">

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vulsHistory" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="blackList" sheetId="3" r:id="rId3"/>
     <sheet name="run" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">run!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="308">
   <si>
     <t>wordpress</t>
   </si>
@@ -146,15 +149,9 @@
     <t>CVE-N/A</t>
   </si>
   <si>
-    <t>Safari User-Assisted Applescript Exec Attack</t>
-  </si>
-  <si>
     <t>osx</t>
   </si>
   <si>
-    <t>https://www.exploit-db.com/exploits/38535/</t>
-  </si>
-  <si>
     <t>CVE-2015-7007</t>
   </si>
   <si>
@@ -167,39 +164,15 @@
     <t>CVE-2015-5889</t>
   </si>
   <si>
-    <t>Windows 10 - pcap Driver Local Privilege Escalation</t>
-  </si>
-  <si>
     <t>windows</t>
   </si>
   <si>
-    <t>https://www.exploit-db.com/exploits/38533/</t>
-  </si>
-  <si>
     <t>Win10Pcap - Local Privilege Escalation Vulnerability</t>
   </si>
   <si>
     <t>https://www.exploit-db.com/exploits/38542/</t>
   </si>
   <si>
-    <t>Adobe Shockwave Player Remote Code Execution Vulnerabilitynew</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15102802</t>
-  </si>
-  <si>
-    <t>CVE-2015-7649,</t>
-  </si>
-  <si>
-    <t>PHP Phar Extension Multiple Vulnerabilitiesnew</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15102801</t>
-  </si>
-  <si>
-    <t>CVE-2015-7803,CVE-2015-7804,</t>
-  </si>
-  <si>
     <t>Joomla Multiple SQL injection vulnerabilitiesnew</t>
   </si>
   <si>
@@ -209,42 +182,6 @@
     <t>CVE-2015-7297,CVE-2015-7857,CVE-2015-7858,</t>
   </si>
   <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems SQL注入漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31392</t>
-  </si>
-  <si>
-    <t>CVE-2015-6486</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31391</t>
-  </si>
-  <si>
-    <t>CVE-2015-6488</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems任意文件上傳漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31390</t>
-  </si>
-  <si>
-    <t>CVE-2015-6491</t>
-  </si>
-  <si>
-    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31389</t>
-  </si>
-  <si>
-    <t>CVE-2015-6492</t>
-  </si>
-  <si>
     <t>Rockwell Automation Micrologix 1100/1400 PLC Systems棧緩衝區溢出漏洞</t>
   </si>
   <si>
@@ -927,6 +864,19 @@
   </si>
   <si>
     <t>NoCVE</t>
+  </si>
+  <si>
+    <t>New,New,New,</t>
+  </si>
+  <si>
+    <t>CVErepeat</t>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black,New</t>
   </si>
   <si>
     <t>Date</t>
@@ -953,24 +903,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Safari User-Assisted Applescript Exec Attack</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38535/</t>
+  </si>
+  <si>
+    <t>Windows 10 - pcap Driver Local Privilege Escalation</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38533/</t>
+  </si>
+  <si>
+    <t>Adobe Shockwave Player Remote Code Execution Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15102802</t>
+  </si>
+  <si>
+    <t>CVE-2015-7649,</t>
+  </si>
+  <si>
     <t>New,</t>
   </si>
   <si>
+    <t>PHP Phar Extension Multiple Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15102801</t>
+  </si>
+  <si>
+    <t>CVE-2015-7803,CVE-2015-7804,</t>
+  </si>
+  <si>
     <t>New,New,</t>
   </si>
   <si>
-    <t>New,New,New,</t>
-  </si>
-  <si>
-    <t>CVErepeat</t>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems SQL注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31392</t>
+  </si>
+  <si>
+    <t>CVE-2015-6486</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31391</t>
+  </si>
+  <si>
+    <t>CVE-2015-6488</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems任意文件上傳漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31390</t>
+  </si>
+  <si>
+    <t>CVE-2015-6491</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Micrologix 1100/1400 PLC Systems緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31389</t>
+  </si>
+  <si>
+    <t>CVE-2015-6492</t>
+  </si>
+  <si>
+    <t>black,CVErepeat</t>
   </si>
   <si>
     <t>Apple iOS內核拒絕服務漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1497,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1524,7 +1532,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1538,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F266"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5" defaultRowHeight="16.5"/>
@@ -1553,22 +1561,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1588,7 +1596,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1596,19 +1604,19 @@
         <v>42303</v>
       </c>
       <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1616,19 +1624,19 @@
         <v>42304</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1636,19 +1644,19 @@
         <v>42303</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1656,19 +1664,19 @@
         <v>42304</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1676,16 +1684,16 @@
         <v>42305</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1693,16 +1701,16 @@
         <v>42305</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1710,16 +1718,16 @@
         <v>42304</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1727,16 +1735,16 @@
         <v>42305</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1744,16 +1752,16 @@
         <v>42305</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1761,16 +1769,16 @@
         <v>42305</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1778,16 +1786,16 @@
         <v>42305</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1795,16 +1803,16 @@
         <v>42305</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1812,16 +1820,16 @@
         <v>42305</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1829,16 +1837,16 @@
         <v>42305</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1846,16 +1854,16 @@
         <v>42305</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1863,16 +1871,16 @@
         <v>42305</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1880,16 +1888,16 @@
         <v>42305</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1897,16 +1905,16 @@
         <v>42304</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1914,16 +1922,16 @@
         <v>42304</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1931,16 +1939,16 @@
         <v>42304</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1948,16 +1956,16 @@
         <v>42304</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1965,16 +1973,16 @@
         <v>42304</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1982,16 +1990,16 @@
         <v>42304</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1999,16 +2007,16 @@
         <v>42304</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2016,16 +2024,16 @@
         <v>42304</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2033,16 +2041,16 @@
         <v>42303</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2050,16 +2058,16 @@
         <v>42303</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2067,16 +2075,16 @@
         <v>42303</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2084,16 +2092,16 @@
         <v>42303</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2101,16 +2109,16 @@
         <v>42303</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2118,16 +2126,16 @@
         <v>42303</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2135,16 +2143,16 @@
         <v>42303</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2152,16 +2160,16 @@
         <v>42303</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2169,16 +2177,16 @@
         <v>42303</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2186,16 +2194,16 @@
         <v>42303</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2203,16 +2211,16 @@
         <v>42303</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2220,16 +2228,16 @@
         <v>42303</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2237,16 +2245,16 @@
         <v>42303</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2254,16 +2262,16 @@
         <v>42303</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2271,16 +2279,16 @@
         <v>42303</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2288,16 +2296,16 @@
         <v>42303</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2305,16 +2313,16 @@
         <v>42303</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2322,16 +2330,16 @@
         <v>42303</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2339,16 +2347,16 @@
         <v>42303</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2356,16 +2364,16 @@
         <v>42303</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2373,16 +2381,16 @@
         <v>42303</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2390,16 +2398,16 @@
         <v>42303</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F49" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2407,16 +2415,16 @@
         <v>42303</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F50" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2424,16 +2432,16 @@
         <v>42303</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2441,16 +2449,16 @@
         <v>42303</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2458,16 +2466,16 @@
         <v>42303</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2475,16 +2483,16 @@
         <v>42303</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F54" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2492,16 +2500,16 @@
         <v>42303</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2509,16 +2517,16 @@
         <v>42303</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2526,16 +2534,16 @@
         <v>42303</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2543,16 +2551,16 @@
         <v>42303</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2560,16 +2568,16 @@
         <v>42303</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2577,16 +2585,16 @@
         <v>42303</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2594,16 +2602,16 @@
         <v>42303</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E61" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2611,16 +2619,16 @@
         <v>42303</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F62" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2628,16 +2636,16 @@
         <v>42303</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2645,16 +2653,16 @@
         <v>42303</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F64" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2662,16 +2670,16 @@
         <v>42303</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F65" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2679,16 +2687,16 @@
         <v>42303</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F66" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2696,16 +2704,16 @@
         <v>42303</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D67" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F67" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2713,16 +2721,16 @@
         <v>42303</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="F68" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2730,16 +2738,16 @@
         <v>42303</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="F69" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2747,16 +2755,16 @@
         <v>42303</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2764,16 +2772,16 @@
         <v>42303</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2781,16 +2789,16 @@
         <v>42303</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F72" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2798,16 +2806,16 @@
         <v>42303</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="F73" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2815,16 +2823,16 @@
         <v>42303</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="F74" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2832,16 +2840,16 @@
         <v>42303</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F75" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2849,16 +2857,16 @@
         <v>42303</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F76" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2866,16 +2874,16 @@
         <v>42303</v>
       </c>
       <c r="B77" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E77" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F77" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2883,16 +2891,16 @@
         <v>42303</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E78" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2900,16 +2908,16 @@
         <v>42303</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F79" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2917,16 +2925,16 @@
         <v>42303</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F80" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2934,16 +2942,16 @@
         <v>42303</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F81" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2951,16 +2959,16 @@
         <v>42303</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F82" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2968,16 +2976,16 @@
         <v>42303</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D83" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F83" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2985,16 +2993,16 @@
         <v>42303</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E84" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="F84" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3002,16 +3010,16 @@
         <v>42303</v>
       </c>
       <c r="B85" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="D85" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E85" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="F85" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3019,16 +3027,16 @@
         <v>42303</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F86" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3036,16 +3044,16 @@
         <v>42303</v>
       </c>
       <c r="B87" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D87" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E87" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3053,16 +3061,16 @@
         <v>42303</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D88" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="F88" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3070,16 +3078,16 @@
         <v>42303</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3087,16 +3095,16 @@
         <v>42303</v>
       </c>
       <c r="B90" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E90" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="F90" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3104,16 +3112,16 @@
         <v>42303</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E91" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F91" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3121,16 +3129,16 @@
         <v>42303</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E92" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F92" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3138,16 +3146,16 @@
         <v>42303</v>
       </c>
       <c r="B93" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D93" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E93" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="F93" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3155,16 +3163,16 @@
         <v>42303</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="F94" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3172,16 +3180,16 @@
         <v>42303</v>
       </c>
       <c r="B95" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D95" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="E95" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="F95" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3189,16 +3197,16 @@
         <v>42303</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D96" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E96" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3206,16 +3214,16 @@
         <v>42303</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="E97" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="F97" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3223,16 +3231,16 @@
         <v>42303</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E98" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F98" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3240,16 +3248,16 @@
         <v>42303</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="E99" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3257,16 +3265,16 @@
         <v>42303</v>
       </c>
       <c r="B100" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="E100" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="F100" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3274,16 +3282,16 @@
         <v>42303</v>
       </c>
       <c r="B101" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D101" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E101" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="F101" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3782,6 +3790,7 @@
       <c r="A266" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -10,14 +10,14 @@
     <sheet name="vulsHistory" sheetId="1" r:id="rId1"/>
     <sheet name="whiteList" sheetId="2" r:id="rId2"/>
     <sheet name="blackList" sheetId="3" r:id="rId3"/>
-    <sheet name="run" sheetId="6" r:id="rId4"/>
+    <sheet name="run" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="420">
   <si>
     <t>wordpress</t>
   </si>
@@ -134,25 +134,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>microsoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Huawei HG630a and HG630a-50 - Default SSH Admin Password on ADSL Modems</t>
@@ -203,6 +214,12 @@
     <t>https://www.exploit-db.com/exploits/38644/</t>
   </si>
   <si>
+    <t>WordPress WP Fastest Cache Plugin 0.8.4.8 - Blind SQL Injection</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38678/</t>
+  </si>
+  <si>
     <t>Jenkins 1.633 - Unauthenticated Credential Recovery</t>
   </si>
   <si>
@@ -263,6 +280,39 @@
     <t>https://www.exploit-db.com/exploits/38646/</t>
   </si>
   <si>
+    <t>vBulletin 5.1.x - PreAuth 0day Remote Code Execution Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38629/</t>
+  </si>
+  <si>
+    <t>OpenSSL Alternative Chains Certificate Forgery</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38640/</t>
+  </si>
+  <si>
+    <t>CVE-2015-1793</t>
+  </si>
+  <si>
+    <t>JSSE SKIP-TLS Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38641/</t>
+  </si>
+  <si>
+    <t>CVE-2014-6593</t>
+  </si>
+  <si>
+    <t>FBZX 2.10 - Local Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38681/</t>
+  </si>
+  <si>
     <t>POP Peeper 4.0.1 - SEH Over-Write</t>
   </si>
   <si>
@@ -281,6 +331,141 @@
     <t>https://www.exploit-db.com/exploits/38650/</t>
   </si>
   <si>
+    <t>Google Chrome Multiple vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111201</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player Multiple Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111113</t>
+  </si>
+  <si>
+    <t>CVE-2015-7651,CVE-2015-7652,CVE-2015-7653,CVE-2015-7654,CVE-2015-7655,CVE-2015-7656,CVE-2015-7657,CVE-2015-7658,CVE-2015-7659,CVE-2015-7660,CVE-2015-7661,CVE-2015-7662,CVE-2015-7663,CVE-2015-8042,CVE-2015-8043,CVE-2015-8044,CVE-2015-8046</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Microsoft Skype for Business Server and Microsoft Lync Information Dislcosure Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111112</t>
+  </si>
+  <si>
+    <t>CVE-2015-6061</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Kerberos Security Feature Bypass Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111111</t>
+  </si>
+  <si>
+    <t>CVE-2015-6095</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Schannel Spoofing Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111110</t>
+  </si>
+  <si>
+    <t>CVE-2015-6112</t>
+  </si>
+  <si>
+    <t>Microsoft Windows IPSec Denial of Service Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111109</t>
+  </si>
+  <si>
+    <t>CVE-2015-6111</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Winsock Elevation of Privilege Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111108</t>
+  </si>
+  <si>
+    <t>CVE-2015-2478</t>
+  </si>
+  <si>
+    <t>Microsoft .NET Framework Elevation of Privilege Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111107</t>
+  </si>
+  <si>
+    <t>CVE-2015-6096,CVE-2015-6099,CVE-2015-6115</t>
+  </si>
+  <si>
+    <t>Microsoft Windows NDIS Elevation of Privilege Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111106</t>
+  </si>
+  <si>
+    <t>CVE-2015-6098</t>
+  </si>
+  <si>
+    <t>Microsoft Office Remote Code Execution Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111105</t>
+  </si>
+  <si>
+    <t>CVE-2015-2503,CVE-2015-6038,CVE-2015-6091,CVE-2015-6092,CVE-2015-6093,CVE-2015-6094,CVE-2015-6132</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Remote Code Execution Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111104</t>
+  </si>
+  <si>
+    <t>CVE-2015-6100,CVE-2015-6101,CVE-2015-6102,CVE-2015-6103,CVE-2015-6104,CVE-2015-6109,CVE-2015-6113</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Journal Remote Code Execution Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111103</t>
+  </si>
+  <si>
+    <t>CVE-2015-6097</t>
+  </si>
+  <si>
+    <t>Microsoft Edge Cumulative Security Updatenew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111102</t>
+  </si>
+  <si>
+    <t>CVE-2015-6064,CVE-2015-6073,CVE-2015-6078,CVE-2015-6088</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer Cumulative Security Updatenew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111101</t>
+  </si>
+  <si>
+    <t>CVE-2015-2427,CVE-2015-6065,CVE-2015-6066,CVE-2015-6068,CVE-2015-6069,CVE-2015-6071,CVE-2015-6072,CVE-2015-6074,CVE-2015-6075,CVE-2015-6076,CVE-2015-6077,CVE-2015-6079,CVE-2015-6080,CVE-2015-6081,CVE-2015-6082,CVE-2015-6084,CVE-2015-6085,CVE-2015-6086,CVE-2015-6087,CVE-2015-6089</t>
+  </si>
+  <si>
     <t>Apache Commons Java Library Remote Code Execution Vulnerabilitynew</t>
   </si>
   <si>
@@ -296,19 +481,13 @@
     <t>CVE-2015-4551,CVE-2015-5212,CVE-2015-5213,CVE-2015-5214</t>
   </si>
   <si>
-    <t>Not Create,Not Create,Not Create,Not Create</t>
-  </si>
-  <si>
-    <t>New,New,New,New</t>
-  </si>
-  <si>
     <t>LibreOffice Multiple Vulnerabilities</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15110602</t>
   </si>
   <si>
-    <t>CVErepeat,CVErepeat,CVErepeat,CVErepeat</t>
+    <t>CVErepeat</t>
   </si>
   <si>
     <t>MIT Kerberos Multiple Vulnerabilities</t>
@@ -320,11 +499,820 @@
     <t>CVE-2015-2695,CVE-2015-2696,CVE-2015-2697</t>
   </si>
   <si>
-    <t>New,New,New</t>
-  </si>
-  <si>
-    <t>7.1,7.1,6.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Google Android Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15110502</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15110501</t>
+  </si>
+  <si>
+    <t>Microsoft .NET Framework 跨站腳本漏洞(MS15-118)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31560</t>
+  </si>
+  <si>
+    <t>CVE-2015-6099</t>
+  </si>
+  <si>
+    <t>Microsoft Windows內核權限提升漏洞(MS15-115)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31559</t>
+  </si>
+  <si>
+    <t>CVE-2015-6100</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31558</t>
+  </si>
+  <si>
+    <t>CVE-2015-6101</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Kerberos安全功能繞過漏洞(MS15-122)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31557</t>
+  </si>
+  <si>
+    <t>Microsoft .NET Framework 信息泄露漏洞(MS15-118)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31556</t>
+  </si>
+  <si>
+    <t>CVE-2015-6096</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Journal堆溢出漏洞(MS15-114)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31555</t>
+  </si>
+  <si>
+    <t>Microsoft Office內存破壞漏洞(MS15-116)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31554</t>
+  </si>
+  <si>
+    <t>CVE-2015-6094</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31553</t>
+  </si>
+  <si>
+    <t>CVE-2015-6093</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31552</t>
+  </si>
+  <si>
+    <t>CVE-2015-6092</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31551</t>
+  </si>
+  <si>
+    <t>CVE-2015-6091</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer腳本引擎內存破壞漏洞(MS15-112)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31550</t>
+  </si>
+  <si>
+    <t>CVE-2015-6089</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer ASLR繞過漏洞(MS15-112)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31549</t>
+  </si>
+  <si>
+    <t>CVE-2015-6088</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer內存破壞漏洞(MS15-112)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31548</t>
+  </si>
+  <si>
+    <t>CVE-2015-6087</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31547</t>
+  </si>
+  <si>
+    <t>CVE-2015-6085</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer信息泄露漏洞(MS15-112)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31546</t>
+  </si>
+  <si>
+    <t>CVE-2015-6086</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31545</t>
+  </si>
+  <si>
+    <t>CVE-2015-6084</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31544</t>
+  </si>
+  <si>
+    <t>CVE-2015-6082</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31543</t>
+  </si>
+  <si>
+    <t>CVE-2015-6081</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31542</t>
+  </si>
+  <si>
+    <t>CVE-2015-6079</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31541</t>
+  </si>
+  <si>
+    <t>CVE-2015-6080</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31540</t>
+  </si>
+  <si>
+    <t>CVE-2015-6078</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31539</t>
+  </si>
+  <si>
+    <t>CVE-2015-6077</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31538</t>
+  </si>
+  <si>
+    <t>CVE-2015-6076</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31537</t>
+  </si>
+  <si>
+    <t>CVE-2015-6075</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31536</t>
+  </si>
+  <si>
+    <t>CVE-2015-6074</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer內存破壞漏洞(MS15-112/113)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31535</t>
+  </si>
+  <si>
+    <t>CVE-2015-6073</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31534</t>
+  </si>
+  <si>
+    <t>CVE-2015-6072</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31533</t>
+  </si>
+  <si>
+    <t>CVE-2015-6071</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31532</t>
+  </si>
+  <si>
+    <t>CVE-2015-6070</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31531</t>
+  </si>
+  <si>
+    <t>CVE-2015-6069</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31530</t>
+  </si>
+  <si>
+    <t>CVE-2015-6068</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31529</t>
+  </si>
+  <si>
+    <t>CVE-2015-6066</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31528</t>
+  </si>
+  <si>
+    <t>CVE-2015-6065</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31527</t>
+  </si>
+  <si>
+    <t>CVE-2015-6064</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31526</t>
+  </si>
+  <si>
+    <t>CVE-2015-2427</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31525</t>
+  </si>
+  <si>
+    <t>CVE-2015-6038</t>
+  </si>
+  <si>
+    <t>Microsoft Office權限提升漏洞(MS15-116)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31524</t>
+  </si>
+  <si>
+    <t>CVE-2015-2503</t>
+  </si>
+  <si>
+    <t>Microsoft Skype for Business/Lync信息泄露漏洞(MS15-123)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31523</t>
+  </si>
+  <si>
+    <t>Google Chrome同源策略繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31522</t>
+  </si>
+  <si>
+    <t>CVE-2015-1302</t>
+  </si>
+  <si>
+    <t>Microsoft Winsock權限提升漏洞(MS15-119)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31521</t>
+  </si>
+  <si>
+    <t>Microsoft Windows NDIS權限提升漏洞(MS15-117)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31520</t>
+  </si>
+  <si>
+    <t>Microsoft .NET Framework ASLR繞過漏洞(MS15-118)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31519</t>
+  </si>
+  <si>
+    <t>CVE-2015-6115</t>
+  </si>
+  <si>
+    <t>Microsoft Windows內核安全功能繞過漏洞(MS15-115)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31518</t>
+  </si>
+  <si>
+    <t>CVE-2015-6113</t>
+  </si>
+  <si>
+    <t>Microsoft Windows內核內存信息泄露漏洞(MS15-115)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31517</t>
+  </si>
+  <si>
+    <t>CVE-2015-6109</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 信息泄露漏洞(MS15-121)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31516</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 拒絕服務漏洞(MS15-121)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31515</t>
+  </si>
+  <si>
+    <t>Microsoft Windows遠程代碼執行漏洞(MS15-115)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31514</t>
+  </si>
+  <si>
+    <t>CVE-2015-6104</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31513</t>
+  </si>
+  <si>
+    <t>CVE-2015-6103</t>
+  </si>
+  <si>
+    <t>Microsoft Windows內核信息泄露漏洞(MS15-115)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31512</t>
+  </si>
+  <si>
+    <t>CVE-2015-6102</t>
+  </si>
+  <si>
+    <t>Microsoft Excel跨站腳本漏洞(MS15-116)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31511</t>
+  </si>
+  <si>
+    <t>CVE-2015-6123</t>
+  </si>
+  <si>
+    <t>vBulletin decodeArguments()方法unserialize()函數遠程php代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31510</t>
+  </si>
+  <si>
+    <t>CVE-2015-7808</t>
+  </si>
+  <si>
+    <t>Roundcube webmail跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31509</t>
+  </si>
+  <si>
+    <t>CVE-2015-8105</t>
+  </si>
+  <si>
+    <t>SAP HANA Database任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31508</t>
+  </si>
+  <si>
+    <t>CVE-2015-7994</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31507</t>
+  </si>
+  <si>
+    <t>CVE-2015-7828</t>
+  </si>
+  <si>
+    <t>SAP HANA Database信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31506</t>
+  </si>
+  <si>
+    <t>CVE-2015-7991</t>
+  </si>
+  <si>
+    <t>SAP HANA Database拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31505</t>
+  </si>
+  <si>
+    <t>CVE-2015-7992</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31504</t>
+  </si>
+  <si>
+    <t>CVE-2015-7993</t>
+  </si>
+  <si>
+    <t>Google Picasa堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31503</t>
+  </si>
+  <si>
+    <t>CVE-2015-8096</t>
+  </si>
+  <si>
+    <t>QEMU hw/virtio/virtio.c拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31502</t>
+  </si>
+  <si>
+    <t>CVE-2015-7295</t>
+  </si>
+  <si>
+    <t>MediaWiki 信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31501</t>
+  </si>
+  <si>
+    <t>CVE-2015-8005</t>
+  </si>
+  <si>
+    <t>MediaWiki 未授權操作漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31500</t>
+  </si>
+  <si>
+    <t>CVE-2015-8004</t>
+  </si>
+  <si>
+    <t>MediaWiki 拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31499</t>
+  </si>
+  <si>
+    <t>CVE-2015-8001</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31498</t>
+  </si>
+  <si>
+    <t>CVE-2015-8002</t>
+  </si>
+  <si>
+    <t>MediaWiki 任意文件上傳漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31497</t>
+  </si>
+  <si>
+    <t>CVE-2015-8003</t>
+  </si>
+  <si>
+    <t>MIT krb5 build_principal_va拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31496</t>
+  </si>
+  <si>
+    <t>CVE-2015-2697</t>
+  </si>
+  <si>
+    <t>MIT krb5 lib/gssapi/krb5/iakerb.c拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31495</t>
+  </si>
+  <si>
+    <t>CVE-2015-2696</t>
+  </si>
+  <si>
+    <t>MIT krb5 lib/gssapi/spnego/spnego_mech.c拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31494</t>
+  </si>
+  <si>
+    <t>CVE-2015-2695</t>
+  </si>
+  <si>
+    <t>Huawei HG532路由器路徑遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31493</t>
+  </si>
+  <si>
+    <t>CVE-2015-7254</t>
+  </si>
+  <si>
+    <t>Xen arch/x86/mm.c mod_l2_entry權限提升漏洞</t>
+  </si>
+  <si>
+    <t>xen</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31492</t>
+  </si>
+  <si>
+    <t>CVE-2015-7835</t>
+  </si>
+  <si>
+    <t>Advantech EKI硬編碼SSH密鑰漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31491</t>
+  </si>
+  <si>
+    <t>CVE-2015-6476</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31490</t>
+  </si>
+  <si>
+    <t>CVE-2015-7188</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31489</t>
+  </si>
+  <si>
+    <t>CVE-2015-7189</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox地址欄欺騙漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31488</t>
+  </si>
+  <si>
+    <t>CVE-2015-7185</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox同源策略繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31487</t>
+  </si>
+  <si>
+    <t>CVE-2015-7186</t>
+  </si>
+  <si>
+    <t>Mozilla NSS/Firefox跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31486</t>
+  </si>
+  <si>
+    <t>CVE-2015-7183</t>
+  </si>
+  <si>
+    <t>Mozilla NSS/Firefox拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31485</t>
+  </si>
+  <si>
+    <t>CVE-2015-7181</t>
+  </si>
+  <si>
+    <t>Mozilla NSS/Firefox堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31484</t>
+  </si>
+  <si>
+    <t>CVE-2015-7182</t>
+  </si>
+  <si>
+    <t>Cisco AsyncOS 拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>cisco</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31483</t>
+  </si>
+  <si>
+    <t>CVE-2015-6291</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox CSP機制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31482</t>
+  </si>
+  <si>
+    <t>CVE-2015-4518</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31481</t>
+  </si>
+  <si>
+    <t>CVE-2015-6293</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31480</t>
+  </si>
+  <si>
+    <t>CVE-2015-6321</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31479</t>
+  </si>
+  <si>
+    <t>CVE-2015-7187</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31474</t>
+  </si>
+  <si>
+    <t>CVE-2015-4513</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31473</t>
+  </si>
+  <si>
+    <t>CVE-2015-4514</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31472</t>
+  </si>
+  <si>
+    <t>CVE-2015-4515</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox狀態檢查漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31471</t>
+  </si>
+  <si>
+    <t>CVE-2015-7200</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31470</t>
+  </si>
+  <si>
+    <t>CVE-2015-7198</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31469</t>
+  </si>
+  <si>
+    <t>CVE-2015-7199</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31468</t>
+  </si>
+  <si>
+    <t>CVE-2015-7197</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31467</t>
+  </si>
+  <si>
+    <t>CVE-2015-7196</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31466</t>
+  </si>
+  <si>
+    <t>CVE-2015-7194</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31465</t>
+  </si>
+  <si>
+    <t>CVE-2015-7195</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31464</t>
+  </si>
+  <si>
+    <t>CVE-2015-7192</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31463</t>
+  </si>
+  <si>
+    <t>CVE-2015-7193</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox XSS漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31462</t>
+  </si>
+  <si>
+    <t>CVE-2015-7191</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox 信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31461</t>
+  </si>
+  <si>
+    <t>CVE-2015-7190</t>
+  </si>
+  <si>
+    <t>Adobe Reader及Acrobat內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31478</t>
+  </si>
+  <si>
+    <t>CVE-2015-7650</t>
+  </si>
+  <si>
+    <t>HP Vertica遠程命令執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31477</t>
+  </si>
+  <si>
+    <t>CVE-2015-6867</t>
+  </si>
+  <si>
+    <t>Cisco Social Miner WeChat頁跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31476</t>
+  </si>
+  <si>
+    <t>CVE-2015-6355</t>
+  </si>
+  <si>
+    <t>Cisco Unified Computing System (UCS)信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31475</t>
+  </si>
+  <si>
+    <t>HP ArcSight 權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31460</t>
+  </si>
+  <si>
+    <t>CVE-2015-6030</t>
+  </si>
+  <si>
+    <t>HP ArcSight Logger SOAP接口漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31459</t>
+  </si>
+  <si>
+    <t>CVE-2015-6029</t>
+  </si>
+  <si>
+    <t>HP ArcSight SmartConnectors硬編碼漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31458</t>
+  </si>
+  <si>
+    <t>CVE-2015-2903</t>
+  </si>
+  <si>
+    <t>HP ArcSight SmartConnectors中間人攻擊漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31457</t>
+  </si>
+  <si>
+    <t>CVE-2015-2902</t>
   </si>
 </sst>
 </file>
@@ -355,12 +1343,24 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,7 +1377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +1388,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +1699,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -696,7 +1708,7 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="20.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -733,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+      <selection activeCell="B20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -777,61 +1789,66 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -847,7 +1864,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -885,398 +1902,2801 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
-    <col min="5" max="5" width="56.375" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="74.75" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1">
+      <c r="A2" s="4">
         <v>42318</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1">
+      <c r="A3" s="4">
         <v>42317</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1">
+      <c r="A4" s="4">
+        <v>42315</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1">
+      <c r="A5" s="4">
+        <v>42314</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1">
+      <c r="A6" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1">
+      <c r="A7" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1">
+      <c r="A8" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1">
+      <c r="A9" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1">
+      <c r="A10" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1">
+      <c r="A11" s="4">
         <v>42315</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1">
+      <c r="A12" s="4">
+        <v>42315</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1">
+      <c r="A13" s="4">
+        <v>42315</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
+      <c r="A14" s="4">
+        <v>42314</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1">
+      <c r="A15" s="4">
+        <v>42314</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1">
+      <c r="A16" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1">
+      <c r="A17" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1">
+      <c r="A18" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1">
+      <c r="A19" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1">
+      <c r="A20" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1">
+      <c r="A21" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1">
+      <c r="A22" s="4">
+        <v>42315</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1">
+      <c r="A23" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1">
+      <c r="A37" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1">
+      <c r="A38" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1">
+      <c r="A39" s="6">
+        <v>42314</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1">
+      <c r="A40" s="4">
+        <v>42314</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1">
+      <c r="A41" s="6">
+        <v>42313</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1">
+      <c r="A42" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1">
+      <c r="A43" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1">
+      <c r="A44" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1">
+      <c r="A45" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1">
+      <c r="A46" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1">
+      <c r="A47" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1">
+      <c r="A48" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1">
+      <c r="A49" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1">
+      <c r="A50" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1">
+      <c r="A51" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="7" customFormat="1">
+      <c r="A52" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="7" customFormat="1">
+      <c r="A53" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="7" customFormat="1">
+      <c r="A54" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="7" customFormat="1">
+      <c r="A55" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="7" customFormat="1">
+      <c r="A56" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="7" customFormat="1">
+      <c r="A57" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="7" customFormat="1">
+      <c r="A58" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="7" customFormat="1">
+      <c r="A59" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1">
+      <c r="A60" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="7" customFormat="1">
+      <c r="A61" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1">
+      <c r="A62" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1">
+      <c r="A63" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1">
+      <c r="A64" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1">
+      <c r="A65" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1">
+      <c r="A66" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1">
+      <c r="A67" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1">
+      <c r="A68" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1">
+      <c r="A69" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1">
+      <c r="A70" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3">
+        <v>42320</v>
+      </c>
+      <c r="B71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="7" customFormat="1">
+      <c r="A72" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="7" customFormat="1">
+      <c r="A73" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="7" customFormat="1">
+      <c r="A74" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1">
+      <c r="A75" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="7" customFormat="1">
+      <c r="A76" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="7" customFormat="1">
+      <c r="A77" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="7" customFormat="1">
+      <c r="A78" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1">
+      <c r="A79" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="7" customFormat="1">
+      <c r="A80" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1">
+      <c r="A81" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="7" customFormat="1">
+      <c r="A82" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="7" customFormat="1">
+      <c r="A83" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="7" customFormat="1">
+      <c r="A84" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="7" customFormat="1">
+      <c r="A85" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="7" customFormat="1">
+      <c r="A86" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="7" customFormat="1">
+      <c r="A87" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="7" customFormat="1">
+      <c r="A88" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="7" customFormat="1">
+      <c r="A89" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="7" customFormat="1">
+      <c r="A90" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="7" customFormat="1">
+      <c r="A91" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3">
+        <v>42320</v>
+      </c>
+      <c r="B92" t="s">
+        <v>266</v>
+      </c>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" t="s">
+        <v>268</v>
+      </c>
+      <c r="F92" t="s">
+        <v>48</v>
+      </c>
+      <c r="G92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3">
+        <v>42320</v>
+      </c>
+      <c r="B93" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F93" t="s">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1">
+      <c r="A94" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="5" customFormat="1">
+      <c r="A95" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1">
+      <c r="A96" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1">
+      <c r="A97" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1">
+      <c r="A98" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1">
+      <c r="A99" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="5" customFormat="1">
+      <c r="A100" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F100" s="5">
+        <v>10</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="5" customFormat="1">
+      <c r="A101" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F101" s="5">
+        <v>5</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="5" customFormat="1">
+      <c r="A102" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F102" s="5">
+        <v>5</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="5" customFormat="1">
+      <c r="A103" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F103" s="5">
+        <v>4</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1">
+      <c r="A104" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F104" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="5" customFormat="1">
+      <c r="A105" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F105" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="5" customFormat="1">
+      <c r="A106" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F106" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="7" customFormat="1">
+      <c r="A107" s="6">
+        <v>42317</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="7" customFormat="1">
+      <c r="A108" s="6">
+        <v>42317</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="7" customFormat="1">
+      <c r="A109" s="6">
+        <v>42317</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="5" customFormat="1">
+      <c r="A110" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F110" s="5">
+        <v>5</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3">
+        <v>42317</v>
+      </c>
+      <c r="B111" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" t="s">
+        <v>321</v>
+      </c>
+      <c r="D111" t="s">
+        <v>322</v>
+      </c>
+      <c r="E111" t="s">
+        <v>323</v>
+      </c>
+      <c r="F111">
+        <v>7.2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="5" customFormat="1">
+      <c r="A112" s="4">
         <v>42314</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B112" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F112" s="5">
+        <v>10</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>42318</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>42318</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>42317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>42317</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
-        <v>42315</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
-        <v>42315</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3">
-        <v>42315</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3">
         <v>42314</v>
       </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="B113" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" t="s">
+        <v>328</v>
+      </c>
+      <c r="D113" t="s">
+        <v>329</v>
+      </c>
+      <c r="E113" t="s">
+        <v>330</v>
+      </c>
+      <c r="F113">
+        <v>7.5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3">
         <v>42314</v>
       </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
-        <v>42317</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
-        <v>42317</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>42315</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>42318</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>42317</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
+      <c r="B114" t="s">
+        <v>331</v>
+      </c>
+      <c r="C114" t="s">
+        <v>328</v>
+      </c>
+      <c r="D114" t="s">
+        <v>332</v>
+      </c>
+      <c r="E114" t="s">
+        <v>333</v>
+      </c>
+      <c r="F114">
+        <v>6.8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3">
         <v>42314</v>
       </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3">
+      <c r="B115" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" t="s">
+        <v>328</v>
+      </c>
+      <c r="D115" t="s">
+        <v>335</v>
+      </c>
+      <c r="E115" t="s">
+        <v>336</v>
+      </c>
+      <c r="F115">
+        <v>4.3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3">
         <v>42314</v>
       </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
+      <c r="B116" t="s">
+        <v>337</v>
+      </c>
+      <c r="C116" t="s">
+        <v>328</v>
+      </c>
+      <c r="D116" t="s">
+        <v>338</v>
+      </c>
+      <c r="E116" t="s">
+        <v>339</v>
+      </c>
+      <c r="F116">
+        <v>4.3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B117" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" t="s">
+        <v>328</v>
+      </c>
+      <c r="D117" t="s">
+        <v>341</v>
+      </c>
+      <c r="E117" t="s">
+        <v>342</v>
+      </c>
+      <c r="F117">
+        <v>7.5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B118" t="s">
+        <v>343</v>
+      </c>
+      <c r="C118" t="s">
+        <v>328</v>
+      </c>
+      <c r="D118" t="s">
+        <v>344</v>
+      </c>
+      <c r="E118" t="s">
+        <v>345</v>
+      </c>
+      <c r="F118">
+        <v>7.5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B119" t="s">
+        <v>346</v>
+      </c>
+      <c r="C119" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" t="s">
+        <v>347</v>
+      </c>
+      <c r="E119" t="s">
+        <v>348</v>
+      </c>
+      <c r="F119">
+        <v>7.5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B120" t="s">
+        <v>349</v>
+      </c>
+      <c r="C120" t="s">
+        <v>350</v>
+      </c>
+      <c r="D120" t="s">
+        <v>351</v>
+      </c>
+      <c r="E120" t="s">
+        <v>352</v>
+      </c>
+      <c r="F120">
+        <v>7.8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B121" t="s">
+        <v>353</v>
+      </c>
+      <c r="C121" t="s">
+        <v>328</v>
+      </c>
+      <c r="D121" t="s">
+        <v>354</v>
+      </c>
+      <c r="E121" t="s">
+        <v>355</v>
+      </c>
+      <c r="F121">
+        <v>4.3</v>
+      </c>
+      <c r="G121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B122" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" t="s">
+        <v>350</v>
+      </c>
+      <c r="D122" t="s">
+        <v>356</v>
+      </c>
+      <c r="E122" t="s">
+        <v>357</v>
+      </c>
+      <c r="F122">
+        <v>7.8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B123" t="s">
+        <v>349</v>
+      </c>
+      <c r="C123" t="s">
+        <v>350</v>
+      </c>
+      <c r="D123" t="s">
+        <v>358</v>
+      </c>
+      <c r="E123" t="s">
+        <v>359</v>
+      </c>
+      <c r="F123">
+        <v>7.8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B124" t="s">
+        <v>327</v>
+      </c>
+      <c r="C124" t="s">
+        <v>328</v>
+      </c>
+      <c r="D124" t="s">
+        <v>360</v>
+      </c>
+      <c r="E124" t="s">
+        <v>361</v>
+      </c>
+      <c r="F124">
+        <v>4.3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B125" t="s">
+        <v>362</v>
+      </c>
+      <c r="C125" t="s">
+        <v>328</v>
+      </c>
+      <c r="D125" t="s">
+        <v>363</v>
+      </c>
+      <c r="E125" t="s">
+        <v>364</v>
+      </c>
+      <c r="F125">
+        <v>7.5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B126" t="s">
+        <v>362</v>
+      </c>
+      <c r="C126" t="s">
+        <v>328</v>
+      </c>
+      <c r="D126" t="s">
+        <v>365</v>
+      </c>
+      <c r="E126" t="s">
+        <v>366</v>
+      </c>
+      <c r="F126">
+        <v>7.5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B127" t="s">
+        <v>362</v>
+      </c>
+      <c r="C127" t="s">
+        <v>328</v>
+      </c>
+      <c r="D127" t="s">
+        <v>367</v>
+      </c>
+      <c r="E127" t="s">
+        <v>368</v>
+      </c>
+      <c r="F127">
+        <v>4.3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B128" t="s">
+        <v>369</v>
+      </c>
+      <c r="C128" t="s">
+        <v>328</v>
+      </c>
+      <c r="D128" t="s">
+        <v>370</v>
+      </c>
+      <c r="E128" t="s">
+        <v>371</v>
+      </c>
+      <c r="F128">
+        <v>7.5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B129" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" t="s">
+        <v>328</v>
+      </c>
+      <c r="D129" t="s">
+        <v>372</v>
+      </c>
+      <c r="E129" t="s">
+        <v>373</v>
+      </c>
+      <c r="F129">
+        <v>7.5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B130" t="s">
+        <v>362</v>
+      </c>
+      <c r="C130" t="s">
+        <v>328</v>
+      </c>
+      <c r="D130" t="s">
+        <v>374</v>
+      </c>
+      <c r="E130" t="s">
+        <v>375</v>
+      </c>
+      <c r="F130">
+        <v>7.5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B131" t="s">
+        <v>376</v>
+      </c>
+      <c r="C131" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" t="s">
+        <v>377</v>
+      </c>
+      <c r="E131" t="s">
+        <v>378</v>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B132" t="s">
+        <v>379</v>
+      </c>
+      <c r="C132" t="s">
+        <v>328</v>
+      </c>
+      <c r="D132" t="s">
+        <v>380</v>
+      </c>
+      <c r="E132" t="s">
+        <v>381</v>
+      </c>
+      <c r="F132">
+        <v>6.8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B133" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" t="s">
+        <v>328</v>
+      </c>
+      <c r="D133" t="s">
+        <v>382</v>
+      </c>
+      <c r="E133" t="s">
+        <v>383</v>
+      </c>
+      <c r="F133">
+        <v>7.5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B134" t="s">
+        <v>384</v>
+      </c>
+      <c r="C134" t="s">
+        <v>328</v>
+      </c>
+      <c r="D134" t="s">
+        <v>385</v>
+      </c>
+      <c r="E134" t="s">
+        <v>386</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B135" t="s">
+        <v>379</v>
+      </c>
+      <c r="C135" t="s">
+        <v>328</v>
+      </c>
+      <c r="D135" t="s">
+        <v>387</v>
+      </c>
+      <c r="E135" t="s">
+        <v>388</v>
+      </c>
+      <c r="F135">
+        <v>7.5</v>
+      </c>
+      <c r="G135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B136" t="s">
+        <v>376</v>
+      </c>
+      <c r="C136" t="s">
+        <v>328</v>
+      </c>
+      <c r="D136" t="s">
+        <v>389</v>
+      </c>
+      <c r="E136" t="s">
+        <v>390</v>
+      </c>
+      <c r="F136">
+        <v>7.5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B137" t="s">
+        <v>391</v>
+      </c>
+      <c r="C137" t="s">
+        <v>328</v>
+      </c>
+      <c r="D137" t="s">
+        <v>392</v>
+      </c>
+      <c r="E137" t="s">
+        <v>393</v>
+      </c>
+      <c r="F137">
+        <v>4.3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B138" t="s">
+        <v>394</v>
+      </c>
+      <c r="C138" t="s">
+        <v>328</v>
+      </c>
+      <c r="D138" t="s">
+        <v>395</v>
+      </c>
+      <c r="E138" t="s">
+        <v>396</v>
+      </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
+      <c r="G138" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="3">
+        <v>42313</v>
+      </c>
+      <c r="B139" t="s">
+        <v>397</v>
+      </c>
+      <c r="C139" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139" t="s">
+        <v>398</v>
+      </c>
+      <c r="E139" t="s">
+        <v>399</v>
+      </c>
+      <c r="F139">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G139" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="5" customFormat="1">
+      <c r="A140" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F140" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="3">
+        <v>42313</v>
+      </c>
+      <c r="B141" t="s">
+        <v>403</v>
+      </c>
+      <c r="C141" t="s">
+        <v>350</v>
+      </c>
+      <c r="D141" t="s">
+        <v>404</v>
+      </c>
+      <c r="E141" t="s">
+        <v>405</v>
+      </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="7" customFormat="1">
+      <c r="A142" s="6">
+        <v>42313</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="5" customFormat="1">
+      <c r="A143" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F143" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="5" customFormat="1">
+      <c r="A144" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F144" s="5">
+        <v>5</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="5" customFormat="1">
+      <c r="A145" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F145" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="5" customFormat="1">
+      <c r="A146" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F146" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="vulsHistory" sheetId="1" r:id="rId1"/>
     <sheet name="whiteList" sheetId="2" r:id="rId2"/>
     <sheet name="blackList" sheetId="3" r:id="rId3"/>
-    <sheet name="run" sheetId="10" r:id="rId4"/>
+    <sheet name="run1105_1112" sheetId="10" r:id="rId4"/>
+    <sheet name="run" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="436">
   <si>
     <t>wordpress</t>
   </si>
@@ -138,32 +139,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>add date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Risk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Huawei HG630a and HG630a-50 - Default SSH Admin Password on ADSL Modems</t>
@@ -199,7 +197,7 @@
     <t>CVE-2013-4103</t>
   </si>
   <si>
-    <t>Not Create</t>
+    <t>Not Found</t>
   </si>
   <si>
     <t>New</t>
@@ -214,6 +212,12 @@
     <t>https://www.exploit-db.com/exploits/38644/</t>
   </si>
   <si>
+    <t>R-Scripts Vacation Rental Script 7R - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38684/</t>
+  </si>
+  <si>
     <t>WordPress WP Fastest Cache Plugin 0.8.4.8 - Blind SQL Injection</t>
   </si>
   <si>
@@ -280,6 +284,12 @@
     <t>https://www.exploit-db.com/exploits/38646/</t>
   </si>
   <si>
+    <t>WordPress My Calendar Plugin 2.4.10 - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38648/</t>
+  </si>
+  <si>
     <t>vBulletin 5.1.x - PreAuth 0day Remote Code Execution Exploit</t>
   </si>
   <si>
@@ -295,6 +305,9 @@
     <t>CVE-2015-1793</t>
   </si>
   <si>
+    <t>中</t>
+  </si>
+  <si>
     <t>JSSE SKIP-TLS Exploit</t>
   </si>
   <si>
@@ -304,15 +317,33 @@
     <t>CVE-2014-6593</t>
   </si>
   <si>
+    <t>TACK 1.07 - Local Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38685/</t>
+  </si>
+  <si>
+    <t>TUDU 0.82 - Local Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38686/</t>
+  </si>
+  <si>
     <t>FBZX 2.10 - Local Stack-Based Buffer Overflow</t>
   </si>
   <si>
-    <t>linux</t>
-  </si>
-  <si>
     <t>https://www.exploit-db.com/exploits/38681/</t>
   </si>
   <si>
+    <t>Sam Spade 1.14 - S-Lang Command Field SEH Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38687/</t>
+  </si>
+  <si>
     <t>POP Peeper 4.0.1 - SEH Over-Write</t>
   </si>
   <si>
@@ -331,7 +362,7 @@
     <t>https://www.exploit-db.com/exploits/38650/</t>
   </si>
   <si>
-    <t>Google Chrome Multiple vulnerabilitiesnew</t>
+    <t>Google Chrome Multiple vulnerabilities</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111201</t>
@@ -340,7 +371,7 @@
     <t>Black</t>
   </si>
   <si>
-    <t>Adobe Flash Player Multiple Vulnerabilitiesnew</t>
+    <t>Adobe Flash Player Multiple Vulnerabilities</t>
   </si>
   <si>
     <t>adobe</t>
@@ -352,10 +383,13 @@
     <t>CVE-2015-7651,CVE-2015-7652,CVE-2015-7653,CVE-2015-7654,CVE-2015-7655,CVE-2015-7656,CVE-2015-7657,CVE-2015-7658,CVE-2015-7659,CVE-2015-7660,CVE-2015-7661,CVE-2015-7662,CVE-2015-7663,CVE-2015-8042,CVE-2015-8043,CVE-2015-8044,CVE-2015-8046</t>
   </si>
   <si>
+    <t>高</t>
+  </si>
+  <si>
     <t>White</t>
   </si>
   <si>
-    <t>Microsoft Skype for Business Server and Microsoft Lync Information Dislcosure Vulnerabilitynew</t>
+    <t>Microsoft Skype for Business Server and Microsoft Lync Information Dislcosure Vulnerability</t>
   </si>
   <si>
     <t>microsoft</t>
@@ -367,7 +401,7 @@
     <t>CVE-2015-6061</t>
   </si>
   <si>
-    <t>Microsoft Windows Kerberos Security Feature Bypass Vulnerabilitynew</t>
+    <t>Microsoft Windows Kerberos Security Feature Bypass Vulnerability</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111111</t>
@@ -376,7 +410,7 @@
     <t>CVE-2015-6095</t>
   </si>
   <si>
-    <t>Microsoft Windows Schannel Spoofing Vulnerabilitynew</t>
+    <t>Microsoft Windows Schannel Spoofing Vulnerabilityupdate</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111110</t>
@@ -385,7 +419,7 @@
     <t>CVE-2015-6112</t>
   </si>
   <si>
-    <t>Microsoft Windows IPSec Denial of Service Vulnerabilitynew</t>
+    <t>Microsoft Windows IPSec Denial of Service Vulnerability</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111109</t>
@@ -394,7 +428,7 @@
     <t>CVE-2015-6111</t>
   </si>
   <si>
-    <t>Microsoft Windows Winsock Elevation of Privilege Vulnerabilitynew</t>
+    <t>Microsoft Windows Winsock Elevation of Privilege Vulnerability</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111108</t>
@@ -403,7 +437,7 @@
     <t>CVE-2015-2478</t>
   </si>
   <si>
-    <t>Microsoft .NET Framework Elevation of Privilege Vulnerabilitiesnew</t>
+    <t>Microsoft .NET Framework Elevation of Privilege Vulnerabilities</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111107</t>
@@ -412,7 +446,7 @@
     <t>CVE-2015-6096,CVE-2015-6099,CVE-2015-6115</t>
   </si>
   <si>
-    <t>Microsoft Windows NDIS Elevation of Privilege Vulnerabilitynew</t>
+    <t>Microsoft Windows NDIS Elevation of Privilege Vulnerability</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111106</t>
@@ -421,7 +455,7 @@
     <t>CVE-2015-6098</t>
   </si>
   <si>
-    <t>Microsoft Office Remote Code Execution Vulnerabilitiesnew</t>
+    <t>Microsoft Office Remote Code Execution Vulnerabilities</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111105</t>
@@ -430,7 +464,7 @@
     <t>CVE-2015-2503,CVE-2015-6038,CVE-2015-6091,CVE-2015-6092,CVE-2015-6093,CVE-2015-6094,CVE-2015-6132</t>
   </si>
   <si>
-    <t>Microsoft Windows Remote Code Execution Vulnerabilitiesnew</t>
+    <t>Microsoft Windows Remote Code Execution Vulnerabilities</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111104</t>
@@ -439,7 +473,10 @@
     <t>CVE-2015-6100,CVE-2015-6101,CVE-2015-6102,CVE-2015-6103,CVE-2015-6104,CVE-2015-6109,CVE-2015-6113</t>
   </si>
   <si>
-    <t>Microsoft Windows Journal Remote Code Execution Vulnerabilitynew</t>
+    <t>低 ~ 高</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Journal Remote Code Execution Vulnerability</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111103</t>
@@ -448,7 +485,7 @@
     <t>CVE-2015-6097</t>
   </si>
   <si>
-    <t>Microsoft Edge Cumulative Security Updatenew</t>
+    <t>Microsoft Edge Cumulative Security Update</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111102</t>
@@ -457,7 +494,10 @@
     <t>CVE-2015-6064,CVE-2015-6073,CVE-2015-6078,CVE-2015-6088</t>
   </si>
   <si>
-    <t>Microsoft Internet Explorer Cumulative Security Updatenew</t>
+    <t>中 ~ 高</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer Cumulative Security Update</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111101</t>
@@ -466,13 +506,13 @@
     <t>CVE-2015-2427,CVE-2015-6065,CVE-2015-6066,CVE-2015-6068,CVE-2015-6069,CVE-2015-6071,CVE-2015-6072,CVE-2015-6074,CVE-2015-6075,CVE-2015-6076,CVE-2015-6077,CVE-2015-6079,CVE-2015-6080,CVE-2015-6081,CVE-2015-6082,CVE-2015-6084,CVE-2015-6085,CVE-2015-6086,CVE-2015-6087,CVE-2015-6089</t>
   </si>
   <si>
-    <t>Apache Commons Java Library Remote Code Execution Vulnerabilitynew</t>
+    <t>Apache Commons Java Library Remote Code Execution Vulnerability</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15111001</t>
   </si>
   <si>
-    <t>Apache OpenOffice Remote Code Execution Vulnerabilitiesnew</t>
+    <t>Apache OpenOffice Remote Code Execution Vulnerabilities</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15110901</t>
@@ -878,6 +918,9 @@
   </si>
   <si>
     <t>CVE-2015-8105</t>
+  </si>
+  <si>
+    <t>低</t>
   </si>
   <si>
     <t>SAP HANA Database任意代碼執行漏洞</t>
@@ -1698,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1745,94 +1788,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:B20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1902,42 +1949,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C132" sqref="B129:C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="74.75" customWidth="1"/>
-    <col min="4" max="4" width="46.5" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1">
@@ -1945,16 +1994,16 @@
         <v>42318</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1">
@@ -1962,16 +2011,16 @@
         <v>42317</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
@@ -1979,22 +2028,22 @@
         <v>42315</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1">
@@ -2002,50 +2051,50 @@
         <v>42314</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1">
       <c r="A6" s="4">
-        <v>42319</v>
+        <v>42320</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1">
       <c r="A7" s="4">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1">
@@ -2056,30 +2105,30 @@
         <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1">
       <c r="A9" s="4">
-        <v>42317</v>
+        <v>42318</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1">
@@ -2087,33 +2136,33 @@
         <v>42317</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1">
       <c r="A11" s="4">
-        <v>42315</v>
+        <v>42317</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1">
@@ -2121,16 +2170,16 @@
         <v>42315</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1">
@@ -2138,33 +2187,33 @@
         <v>42315</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1">
       <c r="A14" s="4">
-        <v>42314</v>
+        <v>42315</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1">
@@ -2175,53 +2224,47 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1">
       <c r="A16" s="4">
-        <v>42313</v>
+        <v>42314</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1">
       <c r="A17" s="4">
-        <v>42313</v>
+        <v>42314</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="5">
-        <v>6.4</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1">
@@ -2232,201 +2275,192 @@
         <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="5">
-        <v>4</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1">
       <c r="A19" s="4">
-        <v>42319</v>
+        <v>42313</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>85</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1">
       <c r="A20" s="4">
-        <v>42317</v>
+        <v>42313</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="E20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G20" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1">
       <c r="A21" s="4">
-        <v>42317</v>
+        <v>42320</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1">
       <c r="A22" s="4">
+        <v>42320</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1">
+      <c r="A23" s="4">
+        <v>42319</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1">
+      <c r="A24" s="4">
+        <v>42320</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1">
+      <c r="A25" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1">
+      <c r="A26" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1">
+      <c r="A27" s="4">
         <v>42315</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1">
-      <c r="A23" s="6">
-        <v>42320</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3">
-        <v>42319</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3">
-        <v>42319</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3">
-        <v>42319</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="G27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1">
+      <c r="A28" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3">
-        <v>42319</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3">
-        <v>42319</v>
-      </c>
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2434,19 +2468,22 @@
         <v>42319</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2454,19 +2491,22 @@
         <v>42319</v>
       </c>
       <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
         <v>116</v>
       </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
+      <c r="F30" t="s">
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2474,19 +2514,22 @@
         <v>42319</v>
       </c>
       <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
         <v>119</v>
       </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
+      <c r="F31" t="s">
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2494,19 +2537,22 @@
         <v>42319</v>
       </c>
       <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>124</v>
+      <c r="F32" t="s">
+        <v>85</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2514,19 +2560,22 @@
         <v>42319</v>
       </c>
       <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
         <v>125</v>
       </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" t="s">
-        <v>127</v>
+      <c r="F33" t="s">
+        <v>85</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2534,19 +2583,22 @@
         <v>42319</v>
       </c>
       <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" t="s">
-        <v>130</v>
+      <c r="F34" t="s">
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2554,19 +2606,22 @@
         <v>42319</v>
       </c>
       <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
         <v>131</v>
       </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
-        <v>133</v>
+      <c r="F35" t="s">
+        <v>85</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2574,194 +2629,233 @@
         <v>42319</v>
       </c>
       <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
         <v>134</v>
       </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B37" t="s">
         <v>135</v>
       </c>
-      <c r="E36" t="s">
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
         <v>136</v>
       </c>
-      <c r="G36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1">
-      <c r="A37" s="4">
-        <v>42318</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="E37" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B38" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1">
-      <c r="A38" s="4">
-        <v>42317</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
-      <c r="A39" s="6">
-        <v>42314</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B39" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="E39" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1">
-      <c r="A40" s="4">
-        <v>42314</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B40" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="7" customFormat="1">
-      <c r="A41" s="6">
-        <v>42313</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="F40" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="G40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>42319</v>
+      </c>
+      <c r="B41" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>94</v>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="5" customFormat="1">
       <c r="A42" s="4">
-        <v>42313</v>
+        <v>42318</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="7" customFormat="1">
-      <c r="A43" s="6">
-        <v>42320</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1">
+      <c r="A43" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>144</v>
+      <c r="D43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1">
       <c r="A44" s="6">
-        <v>42320</v>
+        <v>42314</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="7" customFormat="1">
-      <c r="A45" s="6">
-        <v>42320</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1">
+      <c r="A45" s="4">
+        <v>42314</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1">
       <c r="A46" s="6">
-        <v>42320</v>
+        <v>42313</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="7" customFormat="1">
-      <c r="A47" s="6">
-        <v>42320</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>144</v>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1">
+      <c r="A47" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1">
@@ -2769,16 +2863,16 @@
         <v>42320</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1">
@@ -2786,16 +2880,16 @@
         <v>42320</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1">
@@ -2803,16 +2897,16 @@
         <v>42320</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="7" customFormat="1">
@@ -2820,16 +2914,16 @@
         <v>42320</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="7" customFormat="1">
@@ -2837,16 +2931,16 @@
         <v>42320</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="7" customFormat="1">
@@ -2854,16 +2948,16 @@
         <v>42320</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="7" customFormat="1">
@@ -2871,16 +2965,16 @@
         <v>42320</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="7" customFormat="1">
@@ -2891,13 +2985,13 @@
         <v>182</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="7" customFormat="1">
@@ -2908,13 +3002,13 @@
         <v>182</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="7" customFormat="1">
@@ -2922,16 +3016,16 @@
         <v>42320</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1">
@@ -2939,16 +3033,16 @@
         <v>42320</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1">
@@ -2956,16 +3050,16 @@
         <v>42320</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1">
@@ -2973,16 +3067,16 @@
         <v>42320</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1">
@@ -2990,16 +3084,16 @@
         <v>42320</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1">
@@ -3007,16 +3101,16 @@
         <v>42320</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1">
@@ -3024,16 +3118,16 @@
         <v>42320</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1">
@@ -3041,16 +3135,16 @@
         <v>42320</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1">
@@ -3058,16 +3152,16 @@
         <v>42320</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1">
@@ -3075,16 +3169,16 @@
         <v>42320</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1">
@@ -3092,16 +3186,16 @@
         <v>42320</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1">
@@ -3109,16 +3203,16 @@
         <v>42320</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1">
@@ -3126,16 +3220,16 @@
         <v>42320</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="7" customFormat="1">
@@ -3143,39 +3237,33 @@
         <v>42320</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="3">
-        <v>42320</v>
-      </c>
-      <c r="B71" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" t="s">
-        <v>218</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
-      </c>
-      <c r="G71" t="s">
-        <v>99</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="7" customFormat="1">
+      <c r="A71" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1">
@@ -3183,16 +3271,16 @@
         <v>42320</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="7" customFormat="1">
@@ -3200,16 +3288,16 @@
         <v>42320</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="7" customFormat="1">
@@ -3217,16 +3305,16 @@
         <v>42320</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="7" customFormat="1">
@@ -3234,33 +3322,39 @@
         <v>42320</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="7" customFormat="1">
-      <c r="A76" s="6">
-        <v>42320</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3">
+        <v>42320</v>
+      </c>
+      <c r="B76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="7" customFormat="1">
@@ -3268,16 +3362,16 @@
         <v>42320</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="7" customFormat="1">
@@ -3285,16 +3379,16 @@
         <v>42320</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="7" customFormat="1">
@@ -3302,16 +3396,16 @@
         <v>42320</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="7" customFormat="1">
@@ -3319,16 +3413,16 @@
         <v>42320</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1">
@@ -3336,16 +3430,16 @@
         <v>42320</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="7" customFormat="1">
@@ -3353,16 +3447,16 @@
         <v>42320</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1">
@@ -3370,16 +3464,16 @@
         <v>42320</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="7" customFormat="1">
@@ -3387,16 +3481,16 @@
         <v>42320</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1">
@@ -3404,16 +3498,16 @@
         <v>42320</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="7" customFormat="1">
@@ -3421,16 +3515,16 @@
         <v>42320</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="7" customFormat="1">
@@ -3438,16 +3532,16 @@
         <v>42320</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="7" customFormat="1">
@@ -3455,16 +3549,16 @@
         <v>42320</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="7" customFormat="1">
@@ -3472,16 +3566,16 @@
         <v>42320</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="7" customFormat="1">
@@ -3489,16 +3583,16 @@
         <v>42320</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="7" customFormat="1">
@@ -3506,162 +3600,147 @@
         <v>42320</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="3">
-        <v>42320</v>
-      </c>
-      <c r="B92" t="s">
-        <v>266</v>
-      </c>
-      <c r="C92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92" t="s">
-        <v>267</v>
-      </c>
-      <c r="E92" t="s">
-        <v>268</v>
-      </c>
-      <c r="F92" t="s">
-        <v>48</v>
-      </c>
-      <c r="G92" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="3">
-        <v>42320</v>
-      </c>
-      <c r="B93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="7" customFormat="1">
+      <c r="A92" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="D92" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E92" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="7" customFormat="1">
+      <c r="A93" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F93" t="s">
-        <v>48</v>
-      </c>
-      <c r="G93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="5" customFormat="1">
-      <c r="A94" s="4">
-        <v>42319</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="D93" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="E93" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="7" customFormat="1">
+      <c r="A94" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="D94" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="E94" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="7" customFormat="1">
+      <c r="A95" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="7" customFormat="1">
+      <c r="A96" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3">
+        <v>42320</v>
+      </c>
+      <c r="B97" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" t="s">
+        <v>282</v>
+      </c>
+      <c r="E97" t="s">
+        <v>283</v>
+      </c>
+      <c r="F97" t="s">
+        <v>85</v>
+      </c>
+      <c r="G97" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3">
+        <v>42320</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" t="s">
+        <v>285</v>
+      </c>
+      <c r="E98" t="s">
+        <v>286</v>
+      </c>
+      <c r="F98" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" s="5" customFormat="1">
-      <c r="A95" s="4">
-        <v>42319</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="5" customFormat="1">
-      <c r="A96" s="4">
-        <v>42319</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="5" customFormat="1">
-      <c r="A97" s="4">
-        <v>42319</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="5" customFormat="1">
-      <c r="A98" s="4">
-        <v>42319</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>49</v>
+      <c r="G98" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="5" customFormat="1">
@@ -3669,119 +3748,119 @@
         <v>42319</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="5" customFormat="1">
       <c r="A100" s="4">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F100" s="5">
-        <v>10</v>
+        <v>293</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1">
       <c r="A101" s="4">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>291</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F101" s="5">
-        <v>5</v>
+        <v>295</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="5" customFormat="1">
       <c r="A102" s="4">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F102" s="5">
-        <v>5</v>
+        <v>298</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="5" customFormat="1">
       <c r="A103" s="4">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F103" s="5">
-        <v>4</v>
+        <v>301</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="5" customFormat="1">
       <c r="A104" s="4">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F104" s="5">
-        <v>3.5</v>
+        <v>303</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="5" customFormat="1">
@@ -3789,19 +3868,19 @@
         <v>42318</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F105" s="5">
-        <v>6.8</v>
+        <v>306</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="5" customFormat="1">
@@ -3809,213 +3888,201 @@
         <v>42318</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F106" s="5">
-        <v>6.8</v>
+        <v>309</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="7" customFormat="1">
-      <c r="A107" s="6">
-        <v>42317</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E107" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="5" customFormat="1">
+      <c r="A107" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="7" customFormat="1">
-      <c r="A108" s="6">
-        <v>42317</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="D107" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="E107" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="F107" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="5" customFormat="1">
+      <c r="A108" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="7" customFormat="1">
-      <c r="A109" s="6">
-        <v>42317</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="D108" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="E108" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="F108" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="5" customFormat="1">
+      <c r="A109" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G109" s="7" t="s">
-        <v>144</v>
+      <c r="D109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="5" customFormat="1">
       <c r="A110" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="5" customFormat="1">
+      <c r="A111" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="7" customFormat="1">
+      <c r="A112" s="6">
         <v>42317</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F110" s="5">
-        <v>5</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="3">
+      <c r="B112" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="7" customFormat="1">
+      <c r="A113" s="6">
         <v>42317</v>
       </c>
-      <c r="B111" t="s">
-        <v>320</v>
-      </c>
-      <c r="C111" t="s">
-        <v>321</v>
-      </c>
-      <c r="D111" t="s">
-        <v>322</v>
-      </c>
-      <c r="E111" t="s">
-        <v>323</v>
-      </c>
-      <c r="F111">
-        <v>7.2</v>
-      </c>
-      <c r="G111" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="5" customFormat="1">
-      <c r="A112" s="4">
-        <v>42314</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F112" s="5">
-        <v>10</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="3">
-        <v>42314</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="B113" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="7" customFormat="1">
+      <c r="A114" s="6">
+        <v>42317</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F113">
-        <v>7.5</v>
-      </c>
-      <c r="G113" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="3">
-        <v>42314</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="D114" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C114" t="s">
-        <v>328</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="E114" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E114" t="s">
+      <c r="G114" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="5" customFormat="1">
+      <c r="A115" s="4">
+        <v>42317</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F114">
-        <v>6.8</v>
-      </c>
-      <c r="G114" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="3">
-        <v>42314</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="D115" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C115" t="s">
-        <v>328</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="E115" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E115" t="s">
-        <v>336</v>
-      </c>
-      <c r="F115">
-        <v>4.3</v>
-      </c>
-      <c r="G115" t="s">
-        <v>99</v>
+      <c r="F115" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="3">
-        <v>42314</v>
+        <v>42317</v>
       </c>
       <c r="B116" t="s">
+        <v>336</v>
+      </c>
+      <c r="C116" t="s">
         <v>337</v>
-      </c>
-      <c r="C116" t="s">
-        <v>328</v>
       </c>
       <c r="D116" t="s">
         <v>338</v>
@@ -4023,34 +4090,31 @@
       <c r="E116" t="s">
         <v>339</v>
       </c>
-      <c r="F116">
-        <v>4.3</v>
+      <c r="F116" t="s">
+        <v>111</v>
       </c>
       <c r="G116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="5" customFormat="1">
+      <c r="A117" s="4">
         <v>42314</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C117" t="s">
-        <v>328</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="D117" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="F117">
-        <v>7.5</v>
-      </c>
-      <c r="G117" t="s">
-        <v>99</v>
+      <c r="F117" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4061,19 +4125,19 @@
         <v>343</v>
       </c>
       <c r="C118" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D118" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E118" t="s">
-        <v>345</v>
-      </c>
-      <c r="F118">
-        <v>7.5</v>
+        <v>346</v>
+      </c>
+      <c r="F118" t="s">
+        <v>111</v>
       </c>
       <c r="G118" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4081,22 +4145,22 @@
         <v>42314</v>
       </c>
       <c r="B119" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C119" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E119" t="s">
-        <v>348</v>
-      </c>
-      <c r="F119">
-        <v>7.5</v>
+        <v>349</v>
+      </c>
+      <c r="F119" t="s">
+        <v>85</v>
       </c>
       <c r="G119" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4104,10 +4168,10 @@
         <v>42314</v>
       </c>
       <c r="B120" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C120" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D120" t="s">
         <v>351</v>
@@ -4115,11 +4179,11 @@
       <c r="E120" t="s">
         <v>352</v>
       </c>
-      <c r="F120">
-        <v>7.8</v>
+      <c r="F120" t="s">
+        <v>85</v>
       </c>
       <c r="G120" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4130,7 +4194,7 @@
         <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D121" t="s">
         <v>354</v>
@@ -4138,11 +4202,11 @@
       <c r="E121" t="s">
         <v>355</v>
       </c>
-      <c r="F121">
-        <v>4.3</v>
+      <c r="F121" t="s">
+        <v>85</v>
       </c>
       <c r="G121" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4150,22 +4214,22 @@
         <v>42314</v>
       </c>
       <c r="B122" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C122" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D122" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E122" t="s">
-        <v>357</v>
-      </c>
-      <c r="F122">
-        <v>7.8</v>
+        <v>358</v>
+      </c>
+      <c r="F122" t="s">
+        <v>111</v>
       </c>
       <c r="G122" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4173,22 +4237,22 @@
         <v>42314</v>
       </c>
       <c r="B123" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C123" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D123" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E123" t="s">
-        <v>359</v>
-      </c>
-      <c r="F123">
-        <v>7.8</v>
+        <v>361</v>
+      </c>
+      <c r="F123" t="s">
+        <v>111</v>
       </c>
       <c r="G123" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4196,22 +4260,22 @@
         <v>42314</v>
       </c>
       <c r="B124" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="C124" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D124" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E124" t="s">
-        <v>361</v>
-      </c>
-      <c r="F124">
-        <v>4.3</v>
+        <v>364</v>
+      </c>
+      <c r="F124" t="s">
+        <v>111</v>
       </c>
       <c r="G124" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4219,22 +4283,22 @@
         <v>42314</v>
       </c>
       <c r="B125" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C125" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E125" t="s">
-        <v>364</v>
-      </c>
-      <c r="F125">
-        <v>7.5</v>
+        <v>368</v>
+      </c>
+      <c r="F125" t="s">
+        <v>111</v>
       </c>
       <c r="G125" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4242,22 +4306,22 @@
         <v>42314</v>
       </c>
       <c r="B126" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C126" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D126" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E126" t="s">
-        <v>366</v>
-      </c>
-      <c r="F126">
-        <v>7.5</v>
+        <v>371</v>
+      </c>
+      <c r="F126" t="s">
+        <v>85</v>
       </c>
       <c r="G126" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4265,22 +4329,22 @@
         <v>42314</v>
       </c>
       <c r="B127" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C127" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="D127" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E127" t="s">
-        <v>368</v>
-      </c>
-      <c r="F127">
-        <v>4.3</v>
+        <v>373</v>
+      </c>
+      <c r="F127" t="s">
+        <v>111</v>
       </c>
       <c r="G127" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4288,22 +4352,22 @@
         <v>42314</v>
       </c>
       <c r="B128" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C128" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E128" t="s">
-        <v>371</v>
-      </c>
-      <c r="F128">
-        <v>7.5</v>
+        <v>375</v>
+      </c>
+      <c r="F128" t="s">
+        <v>111</v>
       </c>
       <c r="G128" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4311,22 +4375,22 @@
         <v>42314</v>
       </c>
       <c r="B129" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C129" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D129" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E129" t="s">
-        <v>373</v>
-      </c>
-      <c r="F129">
-        <v>7.5</v>
+        <v>377</v>
+      </c>
+      <c r="F129" t="s">
+        <v>85</v>
       </c>
       <c r="G129" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4334,22 +4398,22 @@
         <v>42314</v>
       </c>
       <c r="B130" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C130" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D130" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E130" t="s">
-        <v>375</v>
-      </c>
-      <c r="F130">
-        <v>7.5</v>
+        <v>380</v>
+      </c>
+      <c r="F130" t="s">
+        <v>111</v>
       </c>
       <c r="G130" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4357,22 +4421,22 @@
         <v>42314</v>
       </c>
       <c r="B131" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D131" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E131" t="s">
-        <v>378</v>
-      </c>
-      <c r="F131">
-        <v>5</v>
+        <v>382</v>
+      </c>
+      <c r="F131" t="s">
+        <v>111</v>
       </c>
       <c r="G131" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4380,22 +4444,22 @@
         <v>42314</v>
       </c>
       <c r="B132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C132" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D132" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E132" t="s">
-        <v>381</v>
-      </c>
-      <c r="F132">
-        <v>6.8</v>
+        <v>384</v>
+      </c>
+      <c r="F132" t="s">
+        <v>85</v>
       </c>
       <c r="G132" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4403,22 +4467,22 @@
         <v>42314</v>
       </c>
       <c r="B133" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="C133" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D133" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E133" t="s">
-        <v>383</v>
-      </c>
-      <c r="F133">
-        <v>7.5</v>
+        <v>387</v>
+      </c>
+      <c r="F133" t="s">
+        <v>111</v>
       </c>
       <c r="G133" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4426,22 +4490,22 @@
         <v>42314</v>
       </c>
       <c r="B134" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D134" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E134" t="s">
-        <v>386</v>
-      </c>
-      <c r="F134">
-        <v>5</v>
+        <v>389</v>
+      </c>
+      <c r="F134" t="s">
+        <v>49</v>
       </c>
       <c r="G134" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4449,22 +4513,22 @@
         <v>42314</v>
       </c>
       <c r="B135" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D135" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E135" t="s">
-        <v>388</v>
-      </c>
-      <c r="F135">
-        <v>7.5</v>
+        <v>391</v>
+      </c>
+      <c r="F135" t="s">
+        <v>49</v>
       </c>
       <c r="G135" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4472,22 +4536,22 @@
         <v>42314</v>
       </c>
       <c r="B136" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C136" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D136" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E136" t="s">
-        <v>390</v>
-      </c>
-      <c r="F136">
-        <v>7.5</v>
+        <v>394</v>
+      </c>
+      <c r="F136" t="s">
+        <v>85</v>
       </c>
       <c r="G136" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4495,22 +4559,22 @@
         <v>42314</v>
       </c>
       <c r="B137" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C137" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D137" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E137" t="s">
-        <v>393</v>
-      </c>
-      <c r="F137">
-        <v>4.3</v>
+        <v>397</v>
+      </c>
+      <c r="F137" t="s">
+        <v>49</v>
       </c>
       <c r="G137" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4518,145 +4582,160 @@
         <v>42314</v>
       </c>
       <c r="B138" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D138" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E138" t="s">
-        <v>396</v>
-      </c>
-      <c r="F138">
-        <v>5</v>
+        <v>399</v>
+      </c>
+      <c r="F138" t="s">
+        <v>111</v>
       </c>
       <c r="G138" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3">
-        <v>42313</v>
+        <v>42314</v>
       </c>
       <c r="B139" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C139" t="s">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="D139" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E139" t="s">
-        <v>399</v>
-      </c>
-      <c r="F139">
-        <v>9.3000000000000007</v>
+        <v>402</v>
+      </c>
+      <c r="F139" t="s">
+        <v>85</v>
       </c>
       <c r="G139" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="5" customFormat="1">
-      <c r="A140" s="4">
-        <v>42313</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F140" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>49</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B140" t="s">
+        <v>395</v>
+      </c>
+      <c r="C140" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" t="s">
+        <v>403</v>
+      </c>
+      <c r="E140" t="s">
+        <v>404</v>
+      </c>
+      <c r="F140" t="s">
+        <v>111</v>
+      </c>
+      <c r="G140" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B141" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" t="s">
+        <v>405</v>
+      </c>
+      <c r="E141" t="s">
+        <v>406</v>
+      </c>
+      <c r="F141" t="s">
+        <v>111</v>
+      </c>
+      <c r="G141" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B142" t="s">
+        <v>407</v>
+      </c>
+      <c r="C142" t="s">
+        <v>344</v>
+      </c>
+      <c r="D142" t="s">
+        <v>408</v>
+      </c>
+      <c r="E142" t="s">
+        <v>409</v>
+      </c>
+      <c r="F142" t="s">
+        <v>85</v>
+      </c>
+      <c r="G142" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B143" t="s">
+        <v>410</v>
+      </c>
+      <c r="C143" t="s">
+        <v>344</v>
+      </c>
+      <c r="D143" t="s">
+        <v>411</v>
+      </c>
+      <c r="E143" t="s">
+        <v>412</v>
+      </c>
+      <c r="F143" t="s">
+        <v>85</v>
+      </c>
+      <c r="G143" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="3">
         <v>42313</v>
       </c>
-      <c r="B141" t="s">
-        <v>403</v>
-      </c>
-      <c r="C141" t="s">
-        <v>350</v>
-      </c>
-      <c r="D141" t="s">
-        <v>404</v>
-      </c>
-      <c r="E141" t="s">
-        <v>405</v>
-      </c>
-      <c r="F141">
-        <v>5</v>
-      </c>
-      <c r="G141" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="7" customFormat="1">
-      <c r="A142" s="6">
-        <v>42313</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="5" customFormat="1">
-      <c r="A143" s="4">
-        <v>42313</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F143" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="5" customFormat="1">
-      <c r="A144" s="4">
-        <v>42313</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E144" s="5" t="s">
+      <c r="B144" t="s">
         <v>413</v>
       </c>
-      <c r="F144" s="5">
-        <v>5</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>49</v>
+      <c r="C144" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144" t="s">
+        <v>415</v>
+      </c>
+      <c r="F144" t="s">
+        <v>111</v>
+      </c>
+      <c r="G144" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="5" customFormat="1">
@@ -4664,43 +4743,156 @@
         <v>42313</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F145" s="5">
-        <v>6.9</v>
+        <v>418</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="5" customFormat="1">
-      <c r="A146" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="3">
         <v>42313</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E146" s="5" t="s">
+      <c r="B146" t="s">
         <v>419</v>
       </c>
-      <c r="F146" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>49</v>
+      <c r="C146" t="s">
+        <v>366</v>
+      </c>
+      <c r="D146" t="s">
+        <v>420</v>
+      </c>
+      <c r="E146" t="s">
+        <v>421</v>
+      </c>
+      <c r="F146" t="s">
+        <v>85</v>
+      </c>
+      <c r="G146" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="7" customFormat="1">
+      <c r="A147" s="6">
+        <v>42313</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="5" customFormat="1">
+      <c r="A148" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="5" customFormat="1">
+      <c r="A149" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="5" customFormat="1">
+      <c r="A150" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="5" customFormat="1">
+      <c r="A151" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -4,39 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="vulsHistory" sheetId="1" r:id="rId1"/>
-    <sheet name="whiteList" sheetId="2" r:id="rId2"/>
-    <sheet name="blackList" sheetId="3" r:id="rId3"/>
-    <sheet name="run1105_1112" sheetId="10" r:id="rId4"/>
-    <sheet name="run" sheetId="12" r:id="rId5"/>
+    <sheet name="whiteList" sheetId="2" r:id="rId1"/>
+    <sheet name="blackList" sheetId="3" r:id="rId2"/>
+    <sheet name="run1105_1112" sheetId="10" r:id="rId3"/>
+    <sheet name="run1112_1119" sheetId="12" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">run1105_1112!$A$1:$G$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">run1112_1119!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="549">
   <si>
     <t>wordpress</t>
-  </si>
-  <si>
-    <t>runTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>php</t>
@@ -115,18 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">recorder </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>risk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,6 +1331,371 @@
   </si>
   <si>
     <t>CVE-2015-2902</t>
+  </si>
+  <si>
+    <t>d-link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b374k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaspersky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-Link DIR-815, DIR-850L - SSDP Command Injection</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38715/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-890L/R - Multiple Buffer Overflow Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38716/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-866L - Multiple Buffer Overflow Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38717/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-825 (vC) - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38718/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-818W - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38719/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-817LW - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38720/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-815 - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38721/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-645 - Multiple UPNP Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38722/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-615 - Multiple Buffer Overflow Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38723/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-601 - Command Injection Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38724/</t>
+  </si>
+  <si>
+    <t>D-Link DIR-880L - Multiple Buffer Overflow Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38725/</t>
+  </si>
+  <si>
+    <t>D-Link DGL5500 - HNAP Buffer Overflow Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38726/</t>
+  </si>
+  <si>
+    <t>ClipperCMS 1.3.0 - Code Execution Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38730/</t>
+  </si>
+  <si>
+    <t>XCart 5.2.6 - Code Execution Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38731/</t>
+  </si>
+  <si>
+    <t>Idera Up.Time Monitoring Station 7.0 post2file.php Arbitrary File Upload</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38732/</t>
+  </si>
+  <si>
+    <t>Idera Up.Time Monitoring Station 7.4 post2file.php Arbitrary File Upload</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38733/</t>
+  </si>
+  <si>
+    <t>WordPress Users Ultra Plugin 1.5.50 - Unrestricted File Upload</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38750/</t>
+  </si>
+  <si>
+    <t>CF Image Host 1.65 - CSRF Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38698/</t>
+  </si>
+  <si>
+    <t>CF Image Host 1.65 - PHP Command Injection</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38699/</t>
+  </si>
+  <si>
+    <t>VLC Web Interface 2.2.1 - Metadata Title XSS Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38706/</t>
+  </si>
+  <si>
+    <t>D-link Wireless Router DIR-816L – CSRF Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38707/</t>
+  </si>
+  <si>
+    <t>AlegroCart 1.2.8 - Multiple SQL Injection Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38727/</t>
+  </si>
+  <si>
+    <t>AlegroCart 1.2.8 - LFI/RFI Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38728/</t>
+  </si>
+  <si>
+    <t>ClipperCMS 1.3.0 - Multiple SQL Injection Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38729/</t>
+  </si>
+  <si>
+    <t>b374k Web Shell - CSRF Command Injection</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38688/</t>
+  </si>
+  <si>
+    <t>IBM i Access 7.1 - Buffer Overflow Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38751/</t>
+  </si>
+  <si>
+    <t>CVE-2015-2023</t>
+  </si>
+  <si>
+    <t>TECO SG2 LAD Client 3.51 - .gen SEH Overwrite Buffer Overflow Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38700/</t>
+  </si>
+  <si>
+    <t>TECO JN5 L510-DriveLink 1.482 - .lf5 SEH Overwrite Buffer Overflow Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38704/</t>
+  </si>
+  <si>
+    <t>TECO SG2 FBD Client 3.51 - .gfb SEH Overwrite Buffer Overflow Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38701/</t>
+  </si>
+  <si>
+    <t>TECO TP3-PCLINK 2.1 - .tpc File Handling Buffer Overflow Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38702/</t>
+  </si>
+  <si>
+    <t>TECO AP-PCLINK 1.094 - .tpc File Handling Buffer Overflow Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38703/</t>
+  </si>
+  <si>
+    <t>Sam Spade 1.14 - Browse URL Buffer Overflow PoC</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38705/</t>
+  </si>
+  <si>
+    <t>foobar2000 1.3.9 - (.pls; .m3u; .m3u8) Local Crash PoC</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38710/</t>
+  </si>
+  <si>
+    <t>foobar2000 1.3.9 - (.asx) Local Crash PoC</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38711/</t>
+  </si>
+  <si>
+    <t>Windows Kernel win32k.sys Malformed TrueType Program TTF Font Processing Pool-Based...</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38713/</t>
+  </si>
+  <si>
+    <t>Windows Kernel win32k.sys Malformed OS/2 Table TTF Font Processing Pool-Based Buffer...</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38714/</t>
+  </si>
+  <si>
+    <t>Kaspersky Antivirus - Certificate Handling Path Traversal</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38734/</t>
+  </si>
+  <si>
+    <t>Kaspersky Antivirus - DEX File Format Memory Corruption</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38735/</t>
+  </si>
+  <si>
+    <t>Kaspersky Antivirus - ZIP File Format Use-After-Free Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38736/</t>
+  </si>
+  <si>
+    <t>Adobe Products Multiple Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111801</t>
+  </si>
+  <si>
+    <t>CVE-2015-5255,CVE-2015-8051,CVE-2015-8052,CVE-2015-8053</t>
+  </si>
+  <si>
+    <t>Xen Denial of Service Vulnerabilitiesnew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111701</t>
+  </si>
+  <si>
+    <t>CVE-2015-5307,CVE-2015-8104</t>
+  </si>
+  <si>
+    <t>Cisco IOS Software Tunnel Interfaces Security Bypass Vulnerabilitynew</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15111601</t>
+  </si>
+  <si>
+    <t>CVE-2015-6366</t>
+  </si>
+  <si>
+    <t>Adobe Reader DC AGM堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31569</t>
+  </si>
+  <si>
+    <t>CVE-2015-6696</t>
+  </si>
+  <si>
+    <t>libsndfile堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31568</t>
+  </si>
+  <si>
+    <t>CVE-2015-7805</t>
+  </si>
+  <si>
+    <t>PowerDNS Authoritative Server拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31567</t>
+  </si>
+  <si>
+    <t>CVE-2015-5311</t>
+  </si>
+  <si>
+    <t>Ipsilon IdP服務器拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31566</t>
+  </si>
+  <si>
+    <t>CVE-2015-5301</t>
+  </si>
+  <si>
+    <t>GNOME NetworkManager &amp;#39;ipv6/addrconf.c&amp;#39;拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31565</t>
+  </si>
+  <si>
+    <t>CVE-2015-0272</t>
+  </si>
+  <si>
+    <t>FFmpeg ff_hevc_parse_sps函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31564</t>
+  </si>
+  <si>
+    <t>CVE-2015-8217</t>
+  </si>
+  <si>
+    <t>FFmpeg decode_uncompressed函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31563</t>
+  </si>
+  <si>
+    <t>CVE-2015-8218</t>
+  </si>
+  <si>
+    <t>FFmpeg init_tile函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31562</t>
+  </si>
+  <si>
+    <t>CVE-2015-8219</t>
+  </si>
+  <si>
+    <t>Google Picasa CAMF區域整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31561</t>
+  </si>
+  <si>
+    <t>CVE-2015-8221</t>
   </si>
 </sst>
 </file>
@@ -1739,59 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1803,20 +2094,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1826,77 +2117,92 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -1906,12 +2212,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1922,22 +2228,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -1947,12 +2263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C132" sqref="B129:C132"/>
+      <selection activeCell="A151" sqref="A151:XFD151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1968,25 +2284,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1">
@@ -1994,16 +2310,16 @@
         <v>42318</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1">
@@ -2011,16 +2327,16 @@
         <v>42317</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
@@ -2028,22 +2344,22 @@
         <v>42315</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1">
@@ -2051,16 +2367,16 @@
         <v>42314</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1">
@@ -2068,16 +2384,16 @@
         <v>42320</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1">
@@ -2085,16 +2401,16 @@
         <v>42319</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1">
@@ -2102,16 +2418,16 @@
         <v>42318</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1">
@@ -2119,16 +2435,16 @@
         <v>42318</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1">
@@ -2136,16 +2452,16 @@
         <v>42317</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1">
@@ -2153,16 +2469,16 @@
         <v>42317</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1">
@@ -2170,16 +2486,16 @@
         <v>42315</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1">
@@ -2187,16 +2503,16 @@
         <v>42315</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1">
@@ -2204,16 +2520,16 @@
         <v>42315</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1">
@@ -2221,16 +2537,16 @@
         <v>42314</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1">
@@ -2238,16 +2554,16 @@
         <v>42314</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1">
@@ -2255,16 +2571,16 @@
         <v>42314</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1">
@@ -2272,16 +2588,16 @@
         <v>42313</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1">
@@ -2289,22 +2605,22 @@
         <v>42313</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1">
@@ -2312,22 +2628,22 @@
         <v>42313</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1">
@@ -2335,16 +2651,16 @@
         <v>42320</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1">
@@ -2352,16 +2668,16 @@
         <v>42320</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1">
@@ -2369,16 +2685,16 @@
         <v>42319</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1">
@@ -2386,16 +2702,16 @@
         <v>42320</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1">
@@ -2403,16 +2719,16 @@
         <v>42317</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1">
@@ -2420,16 +2736,16 @@
         <v>42317</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1">
@@ -2437,16 +2753,16 @@
         <v>42315</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1">
@@ -2454,13 +2770,13 @@
         <v>42320</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2468,22 +2784,22 @@
         <v>42319</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2491,22 +2807,22 @@
         <v>42319</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2514,22 +2830,22 @@
         <v>42319</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2537,22 +2853,22 @@
         <v>42319</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
         <v>114</v>
       </c>
-      <c r="D32" t="s">
-        <v>121</v>
-      </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2560,22 +2876,22 @@
         <v>42319</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2583,22 +2899,22 @@
         <v>42319</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2606,22 +2922,22 @@
         <v>42319</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2629,22 +2945,22 @@
         <v>42319</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2652,22 +2968,22 @@
         <v>42319</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2675,22 +2991,22 @@
         <v>42319</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2698,22 +3014,22 @@
         <v>42319</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2721,22 +3037,22 @@
         <v>42319</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2744,22 +3060,22 @@
         <v>42319</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="5" customFormat="1">
@@ -2767,13 +3083,13 @@
         <v>42318</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="5" customFormat="1">
@@ -2781,19 +3097,19 @@
         <v>42317</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1">
@@ -2801,13 +3117,13 @@
         <v>42314</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="5" customFormat="1">
@@ -2815,19 +3131,19 @@
         <v>42314</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1">
@@ -2835,13 +3151,13 @@
         <v>42313</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="5" customFormat="1">
@@ -2849,13 +3165,13 @@
         <v>42313</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1">
@@ -2863,16 +3179,16 @@
         <v>42320</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1">
@@ -2880,16 +3196,16 @@
         <v>42320</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1">
@@ -2897,16 +3213,16 @@
         <v>42320</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="7" customFormat="1">
@@ -2914,16 +3230,16 @@
         <v>42320</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="7" customFormat="1">
@@ -2931,16 +3247,16 @@
         <v>42320</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="7" customFormat="1">
@@ -2948,16 +3264,16 @@
         <v>42320</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="7" customFormat="1">
@@ -2965,16 +3281,16 @@
         <v>42320</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="7" customFormat="1">
@@ -2982,16 +3298,16 @@
         <v>42320</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="7" customFormat="1">
@@ -2999,16 +3315,16 @@
         <v>42320</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="7" customFormat="1">
@@ -3016,16 +3332,16 @@
         <v>42320</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="E57" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1">
@@ -3033,16 +3349,16 @@
         <v>42320</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1">
@@ -3050,16 +3366,16 @@
         <v>42320</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1">
@@ -3067,16 +3383,16 @@
         <v>42320</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1">
@@ -3084,16 +3400,16 @@
         <v>42320</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1">
@@ -3101,16 +3417,16 @@
         <v>42320</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1">
@@ -3118,16 +3434,16 @@
         <v>42320</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1">
@@ -3135,16 +3451,16 @@
         <v>42320</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1">
@@ -3152,16 +3468,16 @@
         <v>42320</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1">
@@ -3169,16 +3485,16 @@
         <v>42320</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1">
@@ -3186,16 +3502,16 @@
         <v>42320</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1">
@@ -3203,16 +3519,16 @@
         <v>42320</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1">
@@ -3220,16 +3536,16 @@
         <v>42320</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="7" customFormat="1">
@@ -3237,16 +3553,16 @@
         <v>42320</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="7" customFormat="1">
@@ -3254,16 +3570,16 @@
         <v>42320</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1">
@@ -3271,16 +3587,16 @@
         <v>42320</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="7" customFormat="1">
@@ -3288,16 +3604,16 @@
         <v>42320</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="7" customFormat="1">
@@ -3305,16 +3621,16 @@
         <v>42320</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="7" customFormat="1">
@@ -3322,16 +3638,16 @@
         <v>42320</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3339,22 +3655,22 @@
         <v>42320</v>
       </c>
       <c r="B76" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E76" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F76" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="7" customFormat="1">
@@ -3362,16 +3678,16 @@
         <v>42320</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="7" customFormat="1">
@@ -3379,16 +3695,16 @@
         <v>42320</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="7" customFormat="1">
@@ -3396,16 +3712,16 @@
         <v>42320</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="7" customFormat="1">
@@ -3413,16 +3729,16 @@
         <v>42320</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1">
@@ -3430,16 +3746,16 @@
         <v>42320</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="7" customFormat="1">
@@ -3447,16 +3763,16 @@
         <v>42320</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1">
@@ -3464,16 +3780,16 @@
         <v>42320</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="7" customFormat="1">
@@ -3481,16 +3797,16 @@
         <v>42320</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1">
@@ -3498,16 +3814,16 @@
         <v>42320</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="7" customFormat="1">
@@ -3515,16 +3831,16 @@
         <v>42320</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="7" customFormat="1">
@@ -3532,16 +3848,16 @@
         <v>42320</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="7" customFormat="1">
@@ -3549,16 +3865,16 @@
         <v>42320</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="7" customFormat="1">
@@ -3566,16 +3882,16 @@
         <v>42320</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="7" customFormat="1">
@@ -3583,16 +3899,16 @@
         <v>42320</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="7" customFormat="1">
@@ -3600,16 +3916,16 @@
         <v>42320</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="7" customFormat="1">
@@ -3617,16 +3933,16 @@
         <v>42320</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="7" customFormat="1">
@@ -3634,16 +3950,16 @@
         <v>42320</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="7" customFormat="1">
@@ -3651,16 +3967,16 @@
         <v>42320</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="7" customFormat="1">
@@ -3668,16 +3984,16 @@
         <v>42320</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="7" customFormat="1">
@@ -3685,16 +4001,16 @@
         <v>42320</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3702,22 +4018,22 @@
         <v>42320</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3725,22 +4041,22 @@
         <v>42320</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="5" customFormat="1">
@@ -3748,19 +4064,19 @@
         <v>42319</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="5" customFormat="1">
@@ -3768,19 +4084,19 @@
         <v>42319</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1">
@@ -3788,19 +4104,19 @@
         <v>42319</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="5" customFormat="1">
@@ -3808,19 +4124,19 @@
         <v>42319</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="5" customFormat="1">
@@ -3828,19 +4144,19 @@
         <v>42319</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="5" customFormat="1">
@@ -3848,19 +4164,19 @@
         <v>42319</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="5" customFormat="1">
@@ -3868,19 +4184,19 @@
         <v>42318</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="5" customFormat="1">
@@ -3888,19 +4204,19 @@
         <v>42318</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="5" customFormat="1">
@@ -3908,19 +4224,19 @@
         <v>42318</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="5" customFormat="1">
@@ -3928,19 +4244,19 @@
         <v>42318</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="5" customFormat="1">
@@ -3948,19 +4264,19 @@
         <v>42318</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="5" customFormat="1">
@@ -3968,19 +4284,19 @@
         <v>42318</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="5" customFormat="1">
@@ -3988,19 +4304,19 @@
         <v>42318</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="7" customFormat="1">
@@ -4008,16 +4324,16 @@
         <v>42317</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="7" customFormat="1">
@@ -4025,16 +4341,16 @@
         <v>42317</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="7" customFormat="1">
@@ -4042,16 +4358,16 @@
         <v>42317</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="5" customFormat="1">
@@ -4059,19 +4375,19 @@
         <v>42317</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4079,22 +4395,22 @@
         <v>42317</v>
       </c>
       <c r="B116" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D116" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E116" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F116" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G116" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="5" customFormat="1">
@@ -4102,19 +4418,19 @@
         <v>42314</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4122,22 +4438,22 @@
         <v>42314</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D118" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E118" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F118" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G118" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4145,22 +4461,22 @@
         <v>42314</v>
       </c>
       <c r="B119" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C119" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D119" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E119" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F119" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G119" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4168,22 +4484,22 @@
         <v>42314</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C120" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" t="s">
         <v>344</v>
       </c>
-      <c r="D120" t="s">
-        <v>351</v>
-      </c>
       <c r="E120" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F120" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G120" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4191,22 +4507,22 @@
         <v>42314</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C121" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D121" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E121" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F121" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G121" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4214,22 +4530,22 @@
         <v>42314</v>
       </c>
       <c r="B122" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D122" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E122" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F122" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G122" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4237,22 +4553,22 @@
         <v>42314</v>
       </c>
       <c r="B123" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D123" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E123" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F123" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G123" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4260,22 +4576,22 @@
         <v>42314</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C124" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D124" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E124" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F124" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G124" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4283,22 +4599,22 @@
         <v>42314</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C125" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D125" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E125" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F125" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G125" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4306,22 +4622,22 @@
         <v>42314</v>
       </c>
       <c r="B126" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C126" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D126" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E126" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4329,22 +4645,22 @@
         <v>42314</v>
       </c>
       <c r="B127" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" t="s">
+        <v>359</v>
+      </c>
+      <c r="D127" t="s">
         <v>365</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E127" t="s">
         <v>366</v>
       </c>
-      <c r="D127" t="s">
-        <v>372</v>
-      </c>
-      <c r="E127" t="s">
-        <v>373</v>
-      </c>
       <c r="F127" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G127" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4352,22 +4668,22 @@
         <v>42314</v>
       </c>
       <c r="B128" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C128" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D128" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E128" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F128" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G128" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4375,22 +4691,22 @@
         <v>42314</v>
       </c>
       <c r="B129" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C129" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D129" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E129" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F129" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G129" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4398,22 +4714,22 @@
         <v>42314</v>
       </c>
       <c r="B130" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C130" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D130" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E130" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F130" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G130" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4421,22 +4737,22 @@
         <v>42314</v>
       </c>
       <c r="B131" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C131" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D131" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E131" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F131" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G131" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4444,22 +4760,22 @@
         <v>42314</v>
       </c>
       <c r="B132" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C132" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D132" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E132" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F132" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G132" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4467,22 +4783,22 @@
         <v>42314</v>
       </c>
       <c r="B133" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D133" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E133" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F133" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G133" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4490,22 +4806,22 @@
         <v>42314</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C134" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D134" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E134" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4513,22 +4829,22 @@
         <v>42314</v>
       </c>
       <c r="B135" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C135" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D135" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E135" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F135" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4536,22 +4852,22 @@
         <v>42314</v>
       </c>
       <c r="B136" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C136" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D136" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E136" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F136" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G136" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4559,22 +4875,22 @@
         <v>42314</v>
       </c>
       <c r="B137" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C137" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D137" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E137" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4582,22 +4898,22 @@
         <v>42314</v>
       </c>
       <c r="B138" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C138" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D138" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E138" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F138" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G138" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4605,22 +4921,22 @@
         <v>42314</v>
       </c>
       <c r="B139" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C139" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D139" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E139" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F139" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G139" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4628,22 +4944,22 @@
         <v>42314</v>
       </c>
       <c r="B140" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D140" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E140" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F140" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G140" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4651,22 +4967,22 @@
         <v>42314</v>
       </c>
       <c r="B141" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C141" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D141" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E141" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F141" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G141" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4674,22 +4990,22 @@
         <v>42314</v>
       </c>
       <c r="B142" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C142" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D142" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E142" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F142" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G142" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4697,22 +5013,22 @@
         <v>42314</v>
       </c>
       <c r="B143" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C143" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D143" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E143" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F143" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G143" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4720,22 +5036,22 @@
         <v>42313</v>
       </c>
       <c r="B144" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C144" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D144" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E144" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F144" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G144" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="5" customFormat="1">
@@ -4743,19 +5059,19 @@
         <v>42313</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4763,22 +5079,22 @@
         <v>42313</v>
       </c>
       <c r="B146" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C146" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D146" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E146" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F146" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G146" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="7" customFormat="1">
@@ -4786,16 +5102,16 @@
         <v>42313</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="5" customFormat="1">
@@ -4803,19 +5119,19 @@
         <v>42313</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="5" customFormat="1">
@@ -4823,19 +5139,19 @@
         <v>42313</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="5" customFormat="1">
@@ -4843,19 +5159,19 @@
         <v>42313</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="5" customFormat="1">
@@ -4863,19 +5179,19 @@
         <v>42313</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4884,14 +5200,1916 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="59.625" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1">
+      <c r="A2" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1">
+      <c r="A3" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1">
+      <c r="A4" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1">
+      <c r="A5" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1">
+      <c r="A6" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1">
+      <c r="A7" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1">
+      <c r="A8" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1">
+      <c r="A9" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1">
+      <c r="A10" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1">
+      <c r="A11" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1">
+      <c r="A12" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1">
+      <c r="A13" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
+      <c r="A14" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1">
+      <c r="A15" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1">
+      <c r="A16" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1">
+      <c r="A17" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1">
+      <c r="A18" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1">
+      <c r="A19" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1">
+      <c r="A20" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1">
+      <c r="A21" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1">
+      <c r="A22" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1">
+      <c r="A23" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1">
+      <c r="A24" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1">
+      <c r="A25" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1">
+      <c r="A26" s="6">
+        <v>42321</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1">
+      <c r="A27" s="4">
+        <v>42320</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1">
+      <c r="A28" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1">
+      <c r="A29" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1">
+      <c r="A30" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1">
+      <c r="A31" s="4">
+        <v>42320</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1">
+      <c r="A32" s="4">
+        <v>42320</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1">
+      <c r="A33" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1">
+      <c r="A34" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1">
+      <c r="A35" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1">
+      <c r="A36" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1">
+      <c r="A37" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1">
+      <c r="A38" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1">
+      <c r="A39" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1">
+      <c r="A40" s="6">
+        <v>42324</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1">
+      <c r="A41" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1">
+      <c r="A42" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1">
+      <c r="A43" s="4">
+        <v>42324</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="5" customFormat="1">
+      <c r="A44" s="4">
+        <v>42320</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>42326</v>
+      </c>
+      <c r="B45" t="s">
+        <v>513</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>514</v>
+      </c>
+      <c r="E45" t="s">
+        <v>515</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>42325</v>
+      </c>
+      <c r="B46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" t="s">
+        <v>517</v>
+      </c>
+      <c r="E46" t="s">
+        <v>518</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>42324</v>
+      </c>
+      <c r="B47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C47" t="s">
+        <v>359</v>
+      </c>
+      <c r="D47" t="s">
+        <v>520</v>
+      </c>
+      <c r="E47" t="s">
+        <v>521</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1">
+      <c r="A48" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>42326</v>
+      </c>
+      <c r="B49" t="s">
+        <v>522</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>523</v>
+      </c>
+      <c r="E49" t="s">
+        <v>524</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="5" customFormat="1">
+      <c r="A50" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1">
+      <c r="A51" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1">
+      <c r="A52" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="5" customFormat="1">
+      <c r="A53" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1">
+      <c r="A54" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="5" customFormat="1">
+      <c r="A55" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="5" customFormat="1">
+      <c r="A56" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="5" customFormat="1">
+      <c r="A57" s="4">
+        <v>42326</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="7" customFormat="1">
+      <c r="A58" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="7" customFormat="1">
+      <c r="A59" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1">
+      <c r="A60" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="7" customFormat="1">
+      <c r="A61" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1">
+      <c r="A62" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1">
+      <c r="A63" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1">
+      <c r="A64" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1">
+      <c r="A65" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1">
+      <c r="A66" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1">
+      <c r="A67" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1">
+      <c r="A68" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1">
+      <c r="A69" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1">
+      <c r="A70" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="7" customFormat="1">
+      <c r="A71" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="7" customFormat="1">
+      <c r="A72" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="7" customFormat="1">
+      <c r="A73" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="7" customFormat="1">
+      <c r="A74" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1">
+      <c r="A75" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="7" customFormat="1">
+      <c r="A76" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="7" customFormat="1">
+      <c r="A77" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="7" customFormat="1">
+      <c r="A78" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1">
+      <c r="A79" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="7" customFormat="1">
+      <c r="A80" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1">
+      <c r="A81" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="7" customFormat="1">
+      <c r="A82" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="7" customFormat="1">
+      <c r="A83" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="7" customFormat="1">
+      <c r="A84" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="7" customFormat="1">
+      <c r="A85" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="7" customFormat="1">
+      <c r="A86" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="7" customFormat="1">
+      <c r="A87" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="7" customFormat="1">
+      <c r="A88" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="7" customFormat="1">
+      <c r="A89" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="7" customFormat="1">
+      <c r="A90" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="7" customFormat="1">
+      <c r="A91" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="7" customFormat="1">
+      <c r="A92" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="7" customFormat="1">
+      <c r="A93" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="7" customFormat="1">
+      <c r="A94" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="7" customFormat="1">
+      <c r="A95" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="7" customFormat="1">
+      <c r="A96" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="7" customFormat="1">
+      <c r="A97" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="7" customFormat="1">
+      <c r="A98" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="7" customFormat="1">
+      <c r="A99" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="7" customFormat="1">
+      <c r="A100" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="7" customFormat="1">
+      <c r="A101" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="7" customFormat="1">
+      <c r="A102" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="7" customFormat="1">
+      <c r="A103" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="7" customFormat="1">
+      <c r="A104" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="7" customFormat="1">
+      <c r="A105" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="7" customFormat="1">
+      <c r="A106" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="7" customFormat="1">
+      <c r="A107" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="7" customFormat="1">
+      <c r="A108" s="6">
+        <v>42320</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="whiteList" sheetId="2" r:id="rId1"/>
-    <sheet name="blackList" sheetId="3" r:id="rId2"/>
-    <sheet name="run1105_1112" sheetId="10" r:id="rId3"/>
-    <sheet name="run1112_1119" sheetId="12" r:id="rId4"/>
+    <sheet name="vulsHistory" sheetId="13" r:id="rId1"/>
+    <sheet name="whiteList" sheetId="2" r:id="rId2"/>
+    <sheet name="blackList" sheetId="3" r:id="rId3"/>
+    <sheet name="run1105_1112" sheetId="10" r:id="rId4"/>
+    <sheet name="run1112_1119" sheetId="12" r:id="rId5"/>
+    <sheet name="run" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">run1105_1112!$A$1:$G$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">run1112_1119!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">run1105_1112!$A$1:$G$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">run1112_1119!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -2079,6 +2081,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B21:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2212,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -2263,7 +2280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G151"/>
   <sheetViews>
@@ -5200,11 +5217,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -7113,4 +7130,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -10,15 +10,15 @@
     <sheet name="vulsHistory" sheetId="13" r:id="rId1"/>
     <sheet name="whiteList" sheetId="2" r:id="rId2"/>
     <sheet name="blackList" sheetId="3" r:id="rId3"/>
-    <sheet name="run1105_1119" sheetId="15" r:id="rId4"/>
-    <sheet name="run" sheetId="14" r:id="rId5"/>
+    <sheet name="run1105_1126" sheetId="15" r:id="rId4"/>
+    <sheet name="run" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="745">
   <si>
     <t>wordpress</t>
   </si>
@@ -1218,667 +1218,1108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CVE-2013-6025</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38797/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7297,CVE-2015-7857,CVE-2015-7858</t>
+  </si>
+  <si>
+    <t>F5 iControl iCall::Script Root Command Execution</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38764/</t>
+  </si>
+  <si>
+    <t>CVE-2015-3628</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38803/</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38790/</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38772/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7257,CVE-2015-7258,CVE-2015-7259</t>
+  </si>
+  <si>
+    <t>ZTE ZXHN H108N R1A, ZXV10 W300 Routers - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38773/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7248,CVE-2015-7249,CVE-2015-7250,CVE-2015-7251,CVE-2015-7252</t>
+  </si>
+  <si>
+    <t>cgi</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38776/</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38762/</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38765/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7984</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38792/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7865</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38775/</t>
+  </si>
+  <si>
+    <t>CVE-2014-0476</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38787/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7622</t>
+  </si>
+  <si>
+    <t>Oracle Outside In PDF 8.5.2 - Parsing Memory Corruption Vulnerability</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38788/</t>
+  </si>
+  <si>
+    <t>CVE-2015-4877</t>
+  </si>
+  <si>
+    <t>Oracle Outside In PDF 8.5.2 - Parsing Memory Corruption Vulnerability 2</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38789/</t>
+  </si>
+  <si>
+    <t>CVE-2015-4878</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38791/</t>
+  </si>
+  <si>
+    <t>Windows ndis.sys IOCTL 0x170034 (ndis!ndisNsiGetIfNameForIfIndex) - Pool Buffer Overflow (MS15-117)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38793/</t>
+  </si>
+  <si>
+    <t>Windows Cursor Object Potential Memory Leak (MS15-115)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38794/</t>
+  </si>
+  <si>
+    <t>Windows Race Condition DestroySMWP Use-After-Free (MS15-115)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38795/</t>
+  </si>
+  <si>
+    <t>Windows Kernel Device Contexts and NtGdiSelectBitmap Use-After-Free (MS15-115)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38796/</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38758/</t>
+  </si>
+  <si>
+    <t>SuperScan 4.1 - Tools Hostname/IP/URL Field Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38759/</t>
+  </si>
+  <si>
+    <t>SuperScan 4.1 - Windows Enumeration Hostname/IP/URL Field SEH Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38760/</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15112501</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31635</t>
+  </si>
+  <si>
+    <t>CVE-2015-8213</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31634</t>
+  </si>
+  <si>
+    <t>loadrunner</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31633</t>
+  </si>
+  <si>
+    <t>CVE-2015-6857</t>
+  </si>
+  <si>
+    <t>CloudBees Jenkins信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31632</t>
+  </si>
+  <si>
+    <t>CVE-2015-5317</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31631</t>
+  </si>
+  <si>
+    <t>CVE-2015-5318</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31630</t>
+  </si>
+  <si>
+    <t>CVE-2015-5319</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31629</t>
+  </si>
+  <si>
+    <t>CVE-2015-5320</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31627</t>
+  </si>
+  <si>
+    <t>CVE-2015-5321</t>
+  </si>
+  <si>
+    <t>CloudBees Jenkins目錄遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31626</t>
+  </si>
+  <si>
+    <t>CVE-2015-5322</t>
+  </si>
+  <si>
+    <t>CloudBees Jenkins權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31625</t>
+  </si>
+  <si>
+    <t>CVE-2015-5323</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31624</t>
+  </si>
+  <si>
+    <t>CVE-2015-5324</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31623</t>
+  </si>
+  <si>
+    <t>CVE-2015-5325</t>
+  </si>
+  <si>
+    <t>CloudBees Jenkins跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31622</t>
+  </si>
+  <si>
+    <t>CVE-2015-5326</t>
+  </si>
+  <si>
+    <t>CloudBees Jenkins任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31621</t>
+  </si>
+  <si>
+    <t>CVE-2015-8103</t>
+  </si>
+  <si>
+    <t>Cisco Adaptive Security Appliance (ASA) XML解析器拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31620</t>
+  </si>
+  <si>
+    <t>CVE-2015-6379</t>
+  </si>
+  <si>
+    <t>Cisco Email Security Appliance遠程安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31628</t>
+  </si>
+  <si>
+    <t>CVE-2015-4184</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31619</t>
+  </si>
+  <si>
+    <t>CVE-2015-8229</t>
+  </si>
+  <si>
+    <t>Huawei AR路由器SFTP服務器目錄遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31618</t>
+  </si>
+  <si>
+    <t>CVE-2015-8228</t>
+  </si>
+  <si>
+    <t>Huawei VP9660信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31617</t>
+  </si>
+  <si>
+    <t>CVE-2015-8227</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31614</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31613</t>
+  </si>
+  <si>
+    <t>CVE-2015-8236</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31612</t>
+  </si>
+  <si>
+    <t>CVE-2015-8090</t>
+  </si>
+  <si>
+    <t>Cisco Prime Collaboration Assurance跨站請求僞造漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31611</t>
+  </si>
+  <si>
+    <t>CVE-2015-6330</t>
+  </si>
+  <si>
+    <t>Apache Cordova白名單繞過漏洞</t>
+  </si>
+  <si>
+    <t>apache</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31610</t>
+  </si>
+  <si>
+    <t>CVE-2015-5256</t>
+  </si>
+  <si>
+    <t>Apache Cordova BridgeSecret弱隨機化漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31609</t>
+  </si>
+  <si>
+    <t>CVE-2015-5257</t>
+  </si>
+  <si>
+    <t>Tibbo AggreGate SCADA/HMI Server uploadDirectory遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31608</t>
+  </si>
+  <si>
+    <t>CVE-2015-7912</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31607</t>
+  </si>
+  <si>
+    <t>CVE-2015-7913</t>
+  </si>
+  <si>
+    <t>Huawei eSpace CLI模塊拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31603</t>
+  </si>
+  <si>
+    <t>CVE-2015-7845</t>
+  </si>
+  <si>
+    <t>Huawei eSpace統一網關拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31602</t>
+  </si>
+  <si>
+    <t>CVE-2015-8083</t>
+  </si>
+  <si>
+    <t>Apache WSS4J信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31601</t>
+  </si>
+  <si>
+    <t>CVE-2015-0226</t>
+  </si>
+  <si>
+    <t>IBM WebSphere Application Server遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>websphere</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31600</t>
+  </si>
+  <si>
+    <t>CVE-2015-7450</t>
+  </si>
+  <si>
+    <t>Huawei路由器VPN路由轉發跳躍漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31599</t>
+  </si>
+  <si>
+    <t>CVE-2015-8087</t>
+  </si>
+  <si>
+    <t>Apache Commons Collections &amp;#39;InvokerTransformer.java&amp;#39;遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31598</t>
+  </si>
+  <si>
+    <t>Libxml2 &amp;#39;parser.c&amp;#39;緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31583</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31582</t>
+  </si>
+  <si>
+    <t>CVE-2015-7036</t>
+  </si>
+  <si>
+    <t>libpng png_set_PLTE/png_get_PLTE越界寫漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31581</t>
+  </si>
+  <si>
+    <t>CVE-2015-8126</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31580</t>
+  </si>
+  <si>
+    <t>CVE-2015-7981</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31578</t>
+  </si>
+  <si>
+    <t>CVE-2015-8035</t>
+  </si>
+  <si>
+    <t>libxml2 拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>CVE-2015-1819</t>
+  </si>
+  <si>
+    <t>CVE-2015-7941</t>
+  </si>
+  <si>
+    <t>libxml2 xmlParseConditionalSections 拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31575</t>
+  </si>
+  <si>
+    <t>CVE-2015-7942</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31574</t>
+  </si>
+  <si>
+    <t>CVE-2015-6374</t>
+  </si>
+  <si>
+    <t>Cisco Firepower 9000系列交換機信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31573</t>
+  </si>
+  <si>
+    <t>CVE-2015-6371</t>
+  </si>
+  <si>
+    <t>Cisco Firepower 9000設備MIO任意命令執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31572</t>
+  </si>
+  <si>
+    <t>CVE-2015-6370</t>
+  </si>
+  <si>
+    <t>Cisco Firepower 9000設備信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31571</t>
+  </si>
+  <si>
+    <t>CVE-2015-6368</t>
+  </si>
+  <si>
+    <t>Cisco Firepower 9000設備USB驅動程序拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31570</t>
+  </si>
+  <si>
+    <t>CVE-2015-6369</t>
+  </si>
+  <si>
+    <t>CloudBees Jenkins CSRF機制繞過漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudBees Jenkins信息泄露漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libxml2 拒絕服務漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVIDIA Stereoscopic 3D Driver Service 7.17.13.5382 - Arbitrary Run Key Creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38805/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SAP Sybase Adaptive Server Enterprise XML External Entity Information Disclosure Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38805/</t>
-  </si>
-  <si>
-    <t>CVE-2013-6025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Joomla Content History SQLi Remote Code Execution</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38797/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7297,CVE-2015-7857,CVE-2015-7858</t>
-  </si>
-  <si>
-    <t>F5 iControl iCall::Script Root Command Execution</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38764/</t>
-  </si>
-  <si>
-    <t>CVE-2015-3628</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuperScan 4.1 - Scan Hostname/IP Field Buffer Overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python-django日期模板過濾器信息泄露漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudBees Jenkins安全限制繞過漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huawei eSpace U2980/2990 拒絕服務漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cisco Firepower 9000系列交換機單擊劫持漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libxml2 xz_decomp拒絕服務漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libpng png_set_tIME()/png_convert_to_rfc1123()越界讀漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite fts3_tokenizer遠程代碼執行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tibbo AggreGate SCADA/HMI ag_server_service.exe權限提升漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIBCO LogLogic Unity權限提升漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proftpd v1.3.5a堆溢出漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dell eDellRoot Certificate Spoofing Vulnerability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam Spade 1.14 - Decode URL Buffer Overflow Crash PoC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTE ADSL ZXV10 W300 Modems - Multiple Vulnerabilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WP-Client 3.8.7 - Stored XSS Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38803/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vBulletin 5.x - Remote Code Execution Exploit</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38790/</t>
-  </si>
-  <si>
-    <t>ZTE ADSL ZXV10 W300 Modems - Multiple Vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38772/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7257,CVE-2015-7258,CVE-2015-7259</t>
-  </si>
-  <si>
-    <t>ZTE ZXHN H108N R1A, ZXV10 W300 Routers - Multiple Vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38773/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7248,CVE-2015-7249,CVE-2015-7250,CVE-2015-7251,CVE-2015-7252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arista EOS遠程任意代碼執行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP Loadrunner Virtual Table Server遠程代碼執行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chkrootkit Local Privilege Escalation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audacious 3.7 - ID3 Local Crash PoC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acrobat Reader DC 15.008.20082.15957 - PDF Parsing Memory Corruption Vulnerability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netwin SurgeFTP Sever 23d6 - Stored Cross Site Scripting Vulnerabilities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cambium ePMP 1000 - Multiple Vulnerabilities</t>
-  </si>
-  <si>
-    <t>cgi</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38776/</t>
-  </si>
-  <si>
-    <t>Netwin SurgeFTP Sever 23d6 - Stored Cross Site Scripting Vulnerabilities.</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38762/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Horde Groupware 5.2.10 - CSRF Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38765/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7984</t>
-  </si>
-  <si>
-    <t>NVIDIA Stereoscopic 3D Driver Service 7.17.13.5382 - Arbitrary Run Key Creation</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38792/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7865</t>
-  </si>
-  <si>
-    <t>Chkrootkit Local Privilege Escalation</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38775/</t>
-  </si>
-  <si>
-    <t>CVE-2014-0476</t>
-  </si>
-  <si>
-    <t>Acrobat Reader DC 15.008.20082.15957 - PDF Parsing Memory Corruption Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38787/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7622</t>
-  </si>
-  <si>
-    <t>Oracle Outside In PDF 8.5.2 - Parsing Memory Corruption Vulnerability</t>
-  </si>
-  <si>
-    <t>oracle</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38788/</t>
-  </si>
-  <si>
-    <t>CVE-2015-4877</t>
-  </si>
-  <si>
-    <t>Oracle Outside In PDF 8.5.2 - Parsing Memory Corruption Vulnerability 2</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38789/</t>
-  </si>
-  <si>
-    <t>CVE-2015-4878</t>
-  </si>
-  <si>
-    <t>Audacious 3.7 - ID3 Local Crash PoC</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38791/</t>
-  </si>
-  <si>
-    <t>Windows ndis.sys IOCTL 0x170034 (ndis!ndisNsiGetIfNameForIfIndex) - Pool Buffer Overflow (MS15-117)</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38793/</t>
-  </si>
-  <si>
-    <t>Windows Cursor Object Potential Memory Leak (MS15-115)</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38794/</t>
-  </si>
-  <si>
-    <t>Windows Race Condition DestroySMWP Use-After-Free (MS15-115)</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38795/</t>
-  </si>
-  <si>
-    <t>Windows Kernel Device Contexts and NtGdiSelectBitmap Use-After-Free (MS15-115)</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38796/</t>
-  </si>
-  <si>
-    <t>SuperScan 4.1 - Scan Hostname/IP Field Buffer Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38758/</t>
-  </si>
-  <si>
-    <t>SuperScan 4.1 - Tools Hostname/IP/URL Field Buffer Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38759/</t>
-  </si>
-  <si>
-    <t>SuperScan 4.1 - Windows Enumeration Hostname/IP/URL Field SEH Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38760/</t>
-  </si>
-  <si>
-    <t>Sam Spade 1.14 - Decode URL Buffer Overflow Crash PoC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.exploit-db.com/exploits/38761/</t>
-  </si>
-  <si>
-    <t>Chrome - open-vcdiff OOB Read in Browser Process Integer Overflow</t>
-  </si>
-  <si>
-    <t>lin_x86</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38763/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIS Manager SQL注入漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119_1126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advantech Switch Bash Environment Variable Code Injection (Shellshock)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38849/</t>
+  </si>
+  <si>
+    <t>CVE-2014-6271</t>
+  </si>
+  <si>
+    <t>Easy File Sharing Web Server 7.2 - Remote SEH Buffer Overflow (DEP Bypass with ROP)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38829/</t>
+  </si>
+  <si>
+    <t>Kodi 15 - Arbitrary File Aaccess (Web Interface)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38833/</t>
+  </si>
+  <si>
+    <t>Belkin N150 Wireless Home Router F9K1009 v1 - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38840/</t>
+  </si>
+  <si>
+    <t>Zenphoto 1.4.10 - Local File Inclusion</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38841/</t>
+  </si>
+  <si>
+    <t>ntop-ng &amp;lt;= 2.0.151021 - Privilege Escalation</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38836/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8368</t>
+  </si>
+  <si>
+    <t>HumHub 0.11.2 and 0.20.0-beta.2 - SQL Injection</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38831/</t>
+  </si>
+  <si>
+    <t>Acunetix WVS 10 - Local Privilege escalation</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38847/</t>
+  </si>
+  <si>
+    <t>CVE-2015-4027</t>
+  </si>
+  <si>
+    <t>RHEL 7.0/7.1 - abrt/sosreport Local Root</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38832/</t>
+  </si>
+  <si>
+    <t>CVE-2015-5287</t>
+  </si>
+  <si>
+    <t>Centos 7.1/Fedora 22 - abrt Local Root</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38835/</t>
+  </si>
+  <si>
+    <t>CVE-2015-5273</t>
+  </si>
+  <si>
+    <t>Google Chrome Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120301</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
-    <t>Dell eDellRoot Certificate Spoofing Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15112501</t>
+    <t>McAfee ESM/ESMLM/ESMREC身份驗證繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31680</t>
+  </si>
+  <si>
+    <t>CVE-2015-8024</t>
+  </si>
+  <si>
+    <t>PCRE拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31679</t>
+  </si>
+  <si>
+    <t>CVE-2015-2327</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31678</t>
+  </si>
+  <si>
+    <t>CVE-2015-2328</t>
+  </si>
+  <si>
+    <t>PCRE pcre_exec函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31677</t>
+  </si>
+  <si>
+    <t>CVE-2015-8380</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31676</t>
+  </si>
+  <si>
+    <t>CVE-2015-8384</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31675</t>
+  </si>
+  <si>
+    <t>CVE-2015-8385</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31674</t>
+  </si>
+  <si>
+    <t>CVE-2015-8383</t>
+  </si>
+  <si>
+    <t>PCRE&amp;nbsp;&amp;nbsp;match函數信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31673</t>
+  </si>
+  <si>
+    <t>CVE-2015-8382</t>
+  </si>
+  <si>
+    <t>PCRE compile_regex函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31672</t>
+  </si>
+  <si>
+    <t>CVE-2015-8381</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31671</t>
+  </si>
+  <si>
+    <t>CVE-2015-8386</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31670</t>
+  </si>
+  <si>
+    <t>CVE-2015-8387</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31669</t>
+  </si>
+  <si>
+    <t>CVE-2015-8388</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31668</t>
+  </si>
+  <si>
+    <t>CVE-2015-8389</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31667</t>
+  </si>
+  <si>
+    <t>CVE-2015-8390</t>
+  </si>
+  <si>
+    <t>PCRE pcre_compile函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31666</t>
+  </si>
+  <si>
+    <t>CVE-2015-8391</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31665</t>
+  </si>
+  <si>
+    <t>CVE-2015-8395</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31664</t>
+  </si>
+  <si>
+    <t>CVE-2015-8394</t>
+  </si>
+  <si>
+    <t>PCRE pcregrep拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31663</t>
+  </si>
+  <si>
+    <t>CVE-2015-8393</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31662</t>
+  </si>
+  <si>
+    <t>CVE-2015-8392</t>
+  </si>
+  <si>
+    <t>Cisco IOS publish-event event-manager功能任意命令執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31658</t>
+  </si>
+  <si>
+    <t>CVE-2015-6385</t>
+  </si>
+  <si>
+    <t>Cisco Web Security Appliance拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31657</t>
+  </si>
+  <si>
+    <t>CVE-2015-6386</t>
+  </si>
+  <si>
+    <t>QEMU net/pcnet.c緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31661</t>
+  </si>
+  <si>
+    <t>CVE-2015-7512</t>
+  </si>
+  <si>
+    <t>QEMU pcnet_receive堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31660</t>
+  </si>
+  <si>
+    <t>CVE-2015-7504</t>
+  </si>
+  <si>
+    <t>Oracle WebLogic Server遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31659</t>
+  </si>
+  <si>
+    <t>CVE-2015-4852</t>
+  </si>
+  <si>
+    <t>Role Scoper WordPress插件反射型跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31656</t>
+  </si>
+  <si>
+    <t>CVE-2015-8353</t>
+  </si>
+  <si>
+    <t>Ultimate Member WordPress插件反射型跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31655</t>
+  </si>
+  <si>
+    <t>CVE-2015-8354</t>
+  </si>
+  <si>
+    <t>Calls to Action WordPress插件反射型跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31654</t>
+  </si>
+  <si>
+    <t>CVE-2015-8350</t>
+  </si>
+  <si>
+    <t>Gwolle Guestbook WordPress插件遠程文件包含漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31653</t>
+  </si>
+  <si>
+    <t>CVE-2015-8351</t>
+  </si>
+  <si>
+    <t>libxslt &amp;#39;libxslt/preproc.c&amp;#39;類型轉換拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31652</t>
+  </si>
+  <si>
+    <t>CVE-2015-7995</t>
+  </si>
+  <si>
+    <t>Xen hypercall_create_continuation函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31651</t>
+  </si>
+  <si>
+    <t>CVE-2015-7812</t>
+  </si>
+  <si>
+    <t>Schneider Electric IMT25 Magnetic Flow DTM內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31650</t>
+  </si>
+  <si>
+    <t>CVE-2015-3977</t>
+  </si>
+  <si>
+    <t>Wireshark pcapng_read_if_descr_block函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31649</t>
+  </si>
+  <si>
+    <t>CVE-2015-7830</t>
+  </si>
+  <si>
+    <t>Linux kernel prepend_path函數安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31648</t>
+  </si>
+  <si>
+    <t>CVE-2015-2925</t>
+  </si>
+  <si>
+    <t>Linux Kernel &amp;#39;get_bitmap_file()&amp;#39;函數本地信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31647</t>
+  </si>
+  <si>
+    <t>CVE-2015-5697</t>
+  </si>
+  <si>
+    <t>HP Asset Manager本地信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31646</t>
+  </si>
+  <si>
+    <t>CVE-2015-5448</t>
+  </si>
+  <si>
+    <t>Linux Kernel空指針間接引用拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31645</t>
+  </si>
+  <si>
+    <t>CVE-2015-7990</t>
+  </si>
+  <si>
+    <t>Siemens SIMATIC通信機模塊信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31644</t>
+  </si>
+  <si>
+    <t>CVE-2015-8214</t>
+  </si>
+  <si>
+    <t>EMC Isilon OneFS權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31643</t>
+  </si>
+  <si>
+    <t>CVE-2015-6848</t>
+  </si>
+  <si>
+    <t>SmokePing任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31642</t>
+  </si>
+  <si>
+    <t>CVE-2015-0859</t>
+  </si>
+  <si>
+    <t>dpkg棧緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31641</t>
+  </si>
+  <si>
+    <t>CVE-2015-0860</t>
+  </si>
+  <si>
+    <t>FFmpeg ff_ivi_init_planes函數整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31640</t>
+  </si>
+  <si>
+    <t>CVE-2015-8364</t>
+  </si>
+  <si>
+    <t>FFmpeg jpeg2000_read_main_headers函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31639</t>
+  </si>
+  <si>
+    <t>CVE-2015-8363</t>
+  </si>
+  <si>
+    <t>FFmpeg smka_decode_frame函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31638</t>
+  </si>
+  <si>
+    <t>CVE-2015-8365</t>
+  </si>
+  <si>
+    <t>Cisco ASR 5000 Series Telnetd拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31637</t>
+  </si>
+  <si>
+    <t>CVE-2015-6382</t>
+  </si>
+  <si>
+    <t>Cisco Virtual Topology System (VTS)拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31636</t>
+  </si>
+  <si>
+    <t>CVE-2015-6377</t>
   </si>
   <si>
     <t>python-django日期模板過濾器信息泄露漏洞</t>
   </si>
   <si>
-    <t>http://www.nsfocus.net/vulndb/31635</t>
-  </si>
-  <si>
-    <t>CVE-2015-8213</t>
+    <t>CVErepeat</t>
   </si>
   <si>
     <t>CIS Manager SQL注入漏洞</t>
   </si>
   <si>
-    <t>http://www.nsfocus.net/vulndb/31634</t>
-  </si>
-  <si>
     <t>HP Loadrunner Virtual Table Server遠程代碼執行漏洞</t>
   </si>
   <si>
-    <t>loadrunner</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31633</t>
-  </si>
-  <si>
-    <t>CVE-2015-6857</t>
-  </si>
-  <si>
-    <t>CloudBees Jenkins信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31632</t>
-  </si>
-  <si>
-    <t>CVE-2015-5317</t>
-  </si>
-  <si>
     <t>CloudBees Jenkins CSRF機制繞過漏洞</t>
   </si>
   <si>
-    <t>http://www.nsfocus.net/vulndb/31631</t>
-  </si>
-  <si>
-    <t>CVE-2015-5318</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31630</t>
-  </si>
-  <si>
-    <t>CVE-2015-5319</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31629</t>
-  </si>
-  <si>
-    <t>CVE-2015-5320</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31627</t>
-  </si>
-  <si>
-    <t>CVE-2015-5321</t>
-  </si>
-  <si>
-    <t>CloudBees Jenkins目錄遍歷漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31626</t>
-  </si>
-  <si>
-    <t>CVE-2015-5322</t>
-  </si>
-  <si>
-    <t>CloudBees Jenkins權限提升漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31625</t>
-  </si>
-  <si>
-    <t>CVE-2015-5323</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31624</t>
-  </si>
-  <si>
-    <t>CVE-2015-5324</t>
-  </si>
-  <si>
     <t>CloudBees Jenkins安全限制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31623</t>
-  </si>
-  <si>
-    <t>CVE-2015-5325</t>
-  </si>
-  <si>
-    <t>CloudBees Jenkins跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31622</t>
-  </si>
-  <si>
-    <t>CVE-2015-5326</t>
-  </si>
-  <si>
-    <t>CloudBees Jenkins任意代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31621</t>
-  </si>
-  <si>
-    <t>CVE-2015-8103</t>
-  </si>
-  <si>
-    <t>Cisco Adaptive Security Appliance (ASA) XML解析器拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31620</t>
-  </si>
-  <si>
-    <t>CVE-2015-6379</t>
-  </si>
-  <si>
-    <t>Cisco Email Security Appliance遠程安全限制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31628</t>
-  </si>
-  <si>
-    <t>CVE-2015-4184</t>
-  </si>
-  <si>
-    <t>Huawei eSpace U2980/2990 拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31619</t>
-  </si>
-  <si>
-    <t>CVE-2015-8229</t>
-  </si>
-  <si>
-    <t>Huawei AR路由器SFTP服務器目錄遍歷漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31618</t>
-  </si>
-  <si>
-    <t>CVE-2015-8228</t>
-  </si>
-  <si>
-    <t>Huawei VP9660信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31617</t>
-  </si>
-  <si>
-    <t>CVE-2015-8227</t>
-  </si>
-  <si>
-    <t>NVIDIA 3D Driver權限提升漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31616</t>
-  </si>
-  <si>
-    <t>CVErepeat</t>
-  </si>
-  <si>
-    <t>Adobe BlazeDS SSRF漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31615</t>
-  </si>
-  <si>
-    <t>CVE-2015-5255</t>
-  </si>
-  <si>
-    <t>Proftpd v1.3.5a堆溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31614</t>
-  </si>
-  <si>
-    <t>Arista EOS遠程任意代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31613</t>
-  </si>
-  <si>
-    <t>CVE-2015-8236</t>
-  </si>
-  <si>
-    <t>TIBCO LogLogic Unity權限提升漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31612</t>
-  </si>
-  <si>
-    <t>CVE-2015-8090</t>
-  </si>
-  <si>
-    <t>Cisco Prime Collaboration Assurance跨站請求僞造漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31611</t>
-  </si>
-  <si>
-    <t>CVE-2015-6330</t>
-  </si>
-  <si>
-    <t>Apache Cordova白名單繞過漏洞</t>
-  </si>
-  <si>
-    <t>apache</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31610</t>
-  </si>
-  <si>
-    <t>CVE-2015-5256</t>
-  </si>
-  <si>
-    <t>Apache Cordova BridgeSecret弱隨機化漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31609</t>
-  </si>
-  <si>
-    <t>CVE-2015-5257</t>
-  </si>
-  <si>
-    <t>Tibbo AggreGate SCADA/HMI Server uploadDirectory遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31608</t>
-  </si>
-  <si>
-    <t>CVE-2015-7912</t>
-  </si>
-  <si>
-    <t>Tibbo AggreGate SCADA/HMI ag_server_service.exe權限提升漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31607</t>
-  </si>
-  <si>
-    <t>CVE-2015-7913</t>
-  </si>
-  <si>
-    <t>Apple Mac OS X及Remote Desktop本地安全限制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31606</t>
-  </si>
-  <si>
-    <t>CVE-2013-5229</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software安全限制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31605</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR安全限制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31604</t>
-  </si>
-  <si>
-    <t>CVE-2015-7662</t>
-  </si>
-  <si>
-    <t>Huawei eSpace CLI模塊拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31603</t>
-  </si>
-  <si>
-    <t>CVE-2015-7845</t>
-  </si>
-  <si>
-    <t>Huawei eSpace統一網關拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31602</t>
-  </si>
-  <si>
-    <t>CVE-2015-8083</t>
-  </si>
-  <si>
-    <t>Apache WSS4J信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31601</t>
-  </si>
-  <si>
-    <t>CVE-2015-0226</t>
-  </si>
-  <si>
-    <t>IBM WebSphere Application Server遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>websphere</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31600</t>
-  </si>
-  <si>
-    <t>CVE-2015-7450</t>
-  </si>
-  <si>
-    <t>Huawei路由器VPN路由轉發跳躍漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31599</t>
-  </si>
-  <si>
-    <t>CVE-2015-8087</t>
-  </si>
-  <si>
-    <t>Apache Commons Collections &amp;#39;InvokerTransformer.java&amp;#39;遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31598</t>
-  </si>
-  <si>
-    <t>Jenkins反序列化遠程代碼執行漏洞（CVE-2015-8103）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31597</t>
-  </si>
-  <si>
-    <t>Adobe ColdFusion跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31584</t>
-  </si>
-  <si>
-    <t>CVE-2015-8053</t>
-  </si>
-  <si>
-    <t>Libxml2 &amp;#39;parser.c&amp;#39;緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31583</t>
-  </si>
-  <si>
-    <t>SQLite fts3_tokenizer遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31582</t>
-  </si>
-  <si>
-    <t>CVE-2015-7036</t>
-  </si>
-  <si>
-    <t>libpng png_set_PLTE/png_get_PLTE越界寫漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31581</t>
-  </si>
-  <si>
-    <t>CVE-2015-8126</t>
-  </si>
-  <si>
-    <t>libpng png_set_tIME()/png_convert_to_rfc1123()越界讀漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31580</t>
-  </si>
-  <si>
-    <t>CVE-2015-7981</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31579</t>
-  </si>
-  <si>
-    <t>CVE-2015-8052</t>
-  </si>
-  <si>
-    <t>libxml2 xz_decomp拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31578</t>
-  </si>
-  <si>
-    <t>CVE-2015-8035</t>
-  </si>
-  <si>
-    <t>libxml2 拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31577</t>
-  </si>
-  <si>
-    <t>CVE-2015-1819</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31576</t>
-  </si>
-  <si>
-    <t>CVE-2015-7941</t>
-  </si>
-  <si>
-    <t>libxml2 xmlParseConditionalSections 拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31575</t>
-  </si>
-  <si>
-    <t>CVE-2015-7942</t>
-  </si>
-  <si>
-    <t>Cisco Firepower 9000系列交換機單擊劫持漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31574</t>
-  </si>
-  <si>
-    <t>CVE-2015-6374</t>
-  </si>
-  <si>
-    <t>Cisco Firepower 9000系列交換機信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31573</t>
-  </si>
-  <si>
-    <t>CVE-2015-6371</t>
-  </si>
-  <si>
-    <t>Cisco Firepower 9000設備MIO任意命令執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31572</t>
-  </si>
-  <si>
-    <t>CVE-2015-6370</t>
-  </si>
-  <si>
-    <t>Cisco Firepower 9000設備信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31571</t>
-  </si>
-  <si>
-    <t>CVE-2015-6368</t>
-  </si>
-  <si>
-    <t>Cisco Firepower 9000設備USB驅動程序拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31570</t>
-  </si>
-  <si>
-    <t>CVE-2015-6369</t>
   </si>
 </sst>
 </file>
@@ -2447,7 +2888,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2495,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5363,6 +5804,1506 @@
         <v>42</v>
       </c>
     </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="4">
+        <v>42333</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="4">
+        <v>42331</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="3">
+        <v>42327</v>
+      </c>
+      <c r="B141" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" t="s">
+        <v>393</v>
+      </c>
+      <c r="D141" t="s">
+        <v>394</v>
+      </c>
+      <c r="E141" t="s">
+        <v>395</v>
+      </c>
+      <c r="F141" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="4">
+        <v>42332</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="4">
+        <v>42331</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="4">
+        <v>42328</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="4">
+        <v>42328</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="4">
+        <v>42328</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="4">
+        <v>42331</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="4">
+        <v>42328</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="4">
+        <v>42331</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="3">
+        <v>42331</v>
+      </c>
+      <c r="B152" t="s">
+        <v>414</v>
+      </c>
+      <c r="C152" t="s">
+        <v>415</v>
+      </c>
+      <c r="D152" t="s">
+        <v>416</v>
+      </c>
+      <c r="E152" t="s">
+        <v>417</v>
+      </c>
+      <c r="F152" t="s">
+        <v>163</v>
+      </c>
+      <c r="G152" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="3">
+        <v>42331</v>
+      </c>
+      <c r="B153" t="s">
+        <v>418</v>
+      </c>
+      <c r="C153" t="s">
+        <v>415</v>
+      </c>
+      <c r="D153" t="s">
+        <v>419</v>
+      </c>
+      <c r="E153" t="s">
+        <v>420</v>
+      </c>
+      <c r="F153" t="s">
+        <v>163</v>
+      </c>
+      <c r="G153" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="4">
+        <v>42331</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="8">
+        <v>42331</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="8">
+        <v>42331</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="8">
+        <v>42331</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="8">
+        <v>42331</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="8">
+        <v>42327</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="4">
+        <v>42333</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="3">
+        <v>42334</v>
+      </c>
+      <c r="B166" t="s">
+        <v>578</v>
+      </c>
+      <c r="C166" t="s">
+        <v>439</v>
+      </c>
+      <c r="D166" t="s">
+        <v>440</v>
+      </c>
+      <c r="E166" t="s">
+        <v>441</v>
+      </c>
+      <c r="F166" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="3">
+        <v>42334</v>
+      </c>
+      <c r="B178" t="s">
+        <v>469</v>
+      </c>
+      <c r="C178" t="s">
+        <v>230</v>
+      </c>
+      <c r="D178" t="s">
+        <v>470</v>
+      </c>
+      <c r="E178" t="s">
+        <v>471</v>
+      </c>
+      <c r="F178" t="s">
+        <v>77</v>
+      </c>
+      <c r="G178" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="3">
+        <v>42333</v>
+      </c>
+      <c r="B179" t="s">
+        <v>472</v>
+      </c>
+      <c r="C179" t="s">
+        <v>230</v>
+      </c>
+      <c r="D179" t="s">
+        <v>473</v>
+      </c>
+      <c r="E179" t="s">
+        <v>474</v>
+      </c>
+      <c r="F179" t="s">
+        <v>77</v>
+      </c>
+      <c r="G179" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="4">
+        <v>42333</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="4">
+        <v>42333</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="4">
+        <v>42333</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="4">
+        <v>42332</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="4">
+        <v>42332</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="4">
+        <v>42332</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="3">
+        <v>42332</v>
+      </c>
+      <c r="B186" t="s">
+        <v>488</v>
+      </c>
+      <c r="C186" t="s">
+        <v>230</v>
+      </c>
+      <c r="D186" t="s">
+        <v>489</v>
+      </c>
+      <c r="E186" t="s">
+        <v>490</v>
+      </c>
+      <c r="F186" t="s">
+        <v>77</v>
+      </c>
+      <c r="G186" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="3">
+        <v>42331</v>
+      </c>
+      <c r="B187" t="s">
+        <v>491</v>
+      </c>
+      <c r="C187" t="s">
+        <v>492</v>
+      </c>
+      <c r="D187" t="s">
+        <v>493</v>
+      </c>
+      <c r="E187" t="s">
+        <v>494</v>
+      </c>
+      <c r="F187" t="s">
+        <v>77</v>
+      </c>
+      <c r="G187" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="3">
+        <v>42331</v>
+      </c>
+      <c r="B188" t="s">
+        <v>495</v>
+      </c>
+      <c r="C188" t="s">
+        <v>492</v>
+      </c>
+      <c r="D188" t="s">
+        <v>496</v>
+      </c>
+      <c r="E188" t="s">
+        <v>497</v>
+      </c>
+      <c r="F188" t="s">
+        <v>77</v>
+      </c>
+      <c r="G188" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="4">
+        <v>42331</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="4">
+        <v>42331</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="4">
+        <v>42328</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="4">
+        <v>42328</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="3">
+        <v>42328</v>
+      </c>
+      <c r="B193" t="s">
+        <v>509</v>
+      </c>
+      <c r="C193" t="s">
+        <v>492</v>
+      </c>
+      <c r="D193" t="s">
+        <v>510</v>
+      </c>
+      <c r="E193" t="s">
+        <v>511</v>
+      </c>
+      <c r="F193" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="3">
+        <v>42328</v>
+      </c>
+      <c r="B194" t="s">
+        <v>512</v>
+      </c>
+      <c r="C194" t="s">
+        <v>513</v>
+      </c>
+      <c r="D194" t="s">
+        <v>514</v>
+      </c>
+      <c r="E194" t="s">
+        <v>515</v>
+      </c>
+      <c r="F194" t="s">
+        <v>41</v>
+      </c>
+      <c r="G194" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="4">
+        <v>42328</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="8">
+        <v>42328</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="4">
+        <v>42327</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="3">
+        <v>42327</v>
+      </c>
+      <c r="B205" t="s">
+        <v>564</v>
+      </c>
+      <c r="C205" t="s">
+        <v>230</v>
+      </c>
+      <c r="D205" t="s">
+        <v>538</v>
+      </c>
+      <c r="E205" t="s">
+        <v>539</v>
+      </c>
+      <c r="F205" t="s">
+        <v>77</v>
+      </c>
+      <c r="G205" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="3">
+        <v>42327</v>
+      </c>
+      <c r="B206" t="s">
+        <v>540</v>
+      </c>
+      <c r="C206" t="s">
+        <v>230</v>
+      </c>
+      <c r="D206" t="s">
+        <v>541</v>
+      </c>
+      <c r="E206" t="s">
+        <v>542</v>
+      </c>
+      <c r="F206" t="s">
+        <v>77</v>
+      </c>
+      <c r="G206" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="3">
+        <v>42327</v>
+      </c>
+      <c r="B207" t="s">
+        <v>543</v>
+      </c>
+      <c r="C207" t="s">
+        <v>230</v>
+      </c>
+      <c r="D207" t="s">
+        <v>544</v>
+      </c>
+      <c r="E207" t="s">
+        <v>545</v>
+      </c>
+      <c r="F207" t="s">
+        <v>100</v>
+      </c>
+      <c r="G207" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="3">
+        <v>42327</v>
+      </c>
+      <c r="B208" t="s">
+        <v>546</v>
+      </c>
+      <c r="C208" t="s">
+        <v>230</v>
+      </c>
+      <c r="D208" t="s">
+        <v>547</v>
+      </c>
+      <c r="E208" t="s">
+        <v>548</v>
+      </c>
+      <c r="F208" t="s">
+        <v>77</v>
+      </c>
+      <c r="G208" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="3">
+        <v>42327</v>
+      </c>
+      <c r="B209" t="s">
+        <v>549</v>
+      </c>
+      <c r="C209" t="s">
+        <v>230</v>
+      </c>
+      <c r="D209" t="s">
+        <v>550</v>
+      </c>
+      <c r="E209" t="s">
+        <v>551</v>
+      </c>
+      <c r="F209" t="s">
+        <v>77</v>
+      </c>
+      <c r="G209" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5371,13 +7312,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="72.875" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -5404,22 +7351,22 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1">
       <c r="A2" s="4">
-        <v>42333</v>
+        <v>42340</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>389</v>
+        <v>588</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>390</v>
+        <v>589</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>391</v>
+        <v>590</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>42</v>
@@ -5427,62 +7374,50 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3" s="4">
-        <v>42331</v>
+        <v>42338</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>392</v>
+        <v>591</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>592</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>42327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1">
+      <c r="A4" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1">
       <c r="A5" s="4">
-        <v>42332</v>
+        <v>42339</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>399</v>
+        <v>595</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>400</v>
+        <v>596</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>34</v>
@@ -5490,16 +7425,16 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1">
       <c r="A6" s="4">
-        <v>42331</v>
+        <v>42339</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>401</v>
+        <v>597</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>402</v>
+        <v>598</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>34</v>
@@ -5507,19 +7442,19 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1">
       <c r="A7" s="4">
-        <v>42328</v>
+        <v>42339</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>403</v>
+        <v>599</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>404</v>
+        <v>600</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>405</v>
+        <v>601</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>41</v>
@@ -5530,125 +7465,119 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1">
       <c r="A8" s="4">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>406</v>
+        <v>602</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>603</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1">
       <c r="A9" s="4">
-        <v>42328</v>
+        <v>42340</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>409</v>
+        <v>604</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>411</v>
+        <v>605</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1">
       <c r="A10" s="4">
-        <v>42327</v>
+        <v>42339</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>412</v>
+        <v>607</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>413</v>
+        <v>608</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1">
       <c r="A11" s="4">
-        <v>42327</v>
+        <v>42339</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>415</v>
+        <v>611</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>416</v>
+        <v>612</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="5" customFormat="1">
-      <c r="A12" s="4">
-        <v>42331</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
+    <row r="12" spans="1:7" s="11" customFormat="1">
+      <c r="A12" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1">
       <c r="A13" s="4">
-        <v>42328</v>
+        <v>42341</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>616</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>421</v>
+        <v>617</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>422</v>
+        <v>618</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>42</v>
@@ -5656,19 +7585,16 @@
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1">
       <c r="A14" s="4">
-        <v>42331</v>
+        <v>42340</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>619</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>424</v>
+        <v>620</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>425</v>
+        <v>621</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>100</v>
@@ -5677,251 +7603,281 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
-        <v>42331</v>
-      </c>
-      <c r="B15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" t="s">
-        <v>428</v>
-      </c>
-      <c r="E15" t="s">
-        <v>429</v>
-      </c>
-      <c r="F15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
-        <v>42331</v>
-      </c>
-      <c r="B16" t="s">
-        <v>430</v>
-      </c>
-      <c r="C16" t="s">
-        <v>427</v>
-      </c>
-      <c r="D16" t="s">
-        <v>431</v>
-      </c>
-      <c r="E16" t="s">
-        <v>432</v>
-      </c>
-      <c r="F16" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" t="s">
-        <v>101</v>
+    <row r="15" spans="1:7" s="5" customFormat="1">
+      <c r="A15" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1">
+      <c r="A16" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1">
       <c r="A17" s="4">
-        <v>42331</v>
+        <v>42340</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>619</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>434</v>
+        <v>627</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="9" customFormat="1">
-      <c r="A18" s="8">
-        <v>42331</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1">
-      <c r="A19" s="8">
-        <v>42331</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="9" customFormat="1">
-      <c r="A20" s="8">
-        <v>42331</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="9" customFormat="1">
-      <c r="A21" s="8">
-        <v>42331</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1">
+      <c r="A18" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1">
+      <c r="A19" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1">
+      <c r="A20" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1">
+      <c r="A21" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1">
       <c r="A22" s="4">
-        <v>42327</v>
+        <v>42340</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>619</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>444</v>
+        <v>639</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1">
       <c r="A23" s="4">
-        <v>42327</v>
+        <v>42340</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>619</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>446</v>
+        <v>641</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1">
-      <c r="A24" s="8">
-        <v>42327</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1">
+      <c r="A24" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1">
       <c r="A25" s="4">
-        <v>42327</v>
+        <v>42340</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>619</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>450</v>
+        <v>645</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="11" customFormat="1">
-      <c r="A26" s="10">
-        <v>42327</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>454</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1">
+      <c r="A26" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1">
       <c r="A27" s="4">
-        <v>42333</v>
+        <v>42340</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>455</v>
+        <v>649</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>456</v>
+        <v>650</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1">
       <c r="A28" s="4">
-        <v>42334</v>
+        <v>42340</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>457</v>
+        <v>619</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>458</v>
+        <v>652</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>459</v>
+        <v>653</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>42</v>
@@ -5929,113 +7885,122 @@
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1">
       <c r="A29" s="4">
-        <v>42334</v>
+        <v>42340</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>460</v>
+        <v>619</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>461</v>
+        <v>654</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3">
-        <v>42334</v>
-      </c>
-      <c r="B30" t="s">
-        <v>462</v>
-      </c>
-      <c r="C30" t="s">
-        <v>463</v>
-      </c>
-      <c r="D30" t="s">
-        <v>464</v>
-      </c>
-      <c r="E30" t="s">
-        <v>465</v>
-      </c>
-      <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1">
+      <c r="A30" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1">
       <c r="A31" s="4">
-        <v>42334</v>
+        <v>42340</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>466</v>
+        <v>619</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>467</v>
+        <v>659</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>468</v>
+        <v>660</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1">
-      <c r="A32" s="4">
-        <v>42334</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="5" customFormat="1">
-      <c r="A33" s="4">
-        <v>42334</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>42</v>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3">
+        <v>42340</v>
+      </c>
+      <c r="B32" t="s">
+        <v>661</v>
+      </c>
+      <c r="C32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" t="s">
+        <v>662</v>
+      </c>
+      <c r="E32" t="s">
+        <v>663</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>42340</v>
+      </c>
+      <c r="B33" t="s">
+        <v>664</v>
+      </c>
+      <c r="C33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" t="s">
+        <v>665</v>
+      </c>
+      <c r="E33" t="s">
+        <v>666</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1">
       <c r="A34" s="4">
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>466</v>
+        <v>667</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>474</v>
+        <v>668</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>475</v>
+        <v>669</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>41</v>
@@ -6046,16 +8011,16 @@
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1">
       <c r="A35" s="4">
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>466</v>
+        <v>670</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>476</v>
+        <v>671</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>477</v>
+        <v>672</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>41</v>
@@ -6064,121 +8029,136 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1">
-      <c r="A36" s="4">
-        <v>42334</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F36" s="5" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B36" t="s">
+        <v>673</v>
+      </c>
+      <c r="C36" t="s">
+        <v>415</v>
+      </c>
+      <c r="D36" t="s">
+        <v>674</v>
+      </c>
+      <c r="E36" t="s">
+        <v>675</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B37" t="s">
+        <v>676</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>677</v>
+      </c>
+      <c r="E37" t="s">
+        <v>678</v>
+      </c>
+      <c r="F37" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1">
-      <c r="A37" s="4">
-        <v>42334</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B38" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>680</v>
+      </c>
+      <c r="E38" t="s">
+        <v>681</v>
+      </c>
+      <c r="F38" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1">
-      <c r="A38" s="4">
-        <v>42334</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B39" t="s">
+        <v>682</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>683</v>
+      </c>
+      <c r="E39" t="s">
+        <v>684</v>
+      </c>
+      <c r="F39" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="5" customFormat="1">
-      <c r="A39" s="4">
-        <v>42334</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B40" t="s">
+        <v>685</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>686</v>
+      </c>
+      <c r="E40" t="s">
+        <v>687</v>
+      </c>
+      <c r="F40" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1">
-      <c r="A40" s="4">
-        <v>42334</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>42</v>
+      <c r="G40" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="5" customFormat="1">
       <c r="A41" s="4">
-        <v>42334</v>
+        <v>42338</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>492</v>
+        <v>688</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>493</v>
+        <v>689</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>494</v>
+        <v>690</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>42</v>
@@ -6186,19 +8166,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3">
-        <v>42334</v>
+        <v>42338</v>
       </c>
       <c r="B42" t="s">
-        <v>495</v>
+        <v>691</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>496</v>
+        <v>692</v>
       </c>
       <c r="E42" t="s">
-        <v>497</v>
+        <v>693</v>
       </c>
       <c r="F42" t="s">
         <v>77</v>
@@ -6207,41 +8187,38 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>42333</v>
-      </c>
-      <c r="B43" t="s">
-        <v>498</v>
-      </c>
-      <c r="C43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D43" t="s">
-        <v>499</v>
-      </c>
-      <c r="E43" t="s">
-        <v>500</v>
-      </c>
-      <c r="F43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s">
-        <v>101</v>
+    <row r="43" spans="1:7" s="5" customFormat="1">
+      <c r="A43" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="5" customFormat="1">
       <c r="A44" s="4">
-        <v>42333</v>
+        <v>42338</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>501</v>
+        <v>697</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>502</v>
+        <v>698</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>503</v>
+        <v>699</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>77</v>
@@ -6252,16 +8229,16 @@
     </row>
     <row r="45" spans="1:7" s="5" customFormat="1">
       <c r="A45" s="4">
-        <v>42333</v>
+        <v>42338</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>504</v>
+        <v>700</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>505</v>
+        <v>701</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>506</v>
+        <v>702</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>77</v>
@@ -6272,84 +8249,96 @@
     </row>
     <row r="46" spans="1:7" s="5" customFormat="1">
       <c r="A46" s="4">
-        <v>42333</v>
+        <v>42338</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>507</v>
+        <v>703</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>509</v>
+        <v>705</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="11" customFormat="1">
-      <c r="A47" s="10">
-        <v>42333</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="11" customFormat="1">
-      <c r="A48" s="10">
-        <v>42332</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>512</v>
+    <row r="47" spans="1:7" s="5" customFormat="1">
+      <c r="A47" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1">
+      <c r="A48" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1">
       <c r="A49" s="4">
-        <v>42332</v>
+        <v>42338</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>516</v>
+        <v>712</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>517</v>
+        <v>713</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1">
       <c r="A50" s="4">
-        <v>42332</v>
+        <v>42335</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>518</v>
+        <v>715</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>519</v>
+        <v>716</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>100</v>
@@ -6360,625 +8349,400 @@
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1">
       <c r="A51" s="4">
-        <v>42332</v>
+        <v>42335</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>521</v>
+        <v>718</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>522</v>
+        <v>719</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>523</v>
+        <v>720</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1">
+      <c r="A52" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="5" customFormat="1">
+      <c r="A53" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3">
-        <v>42332</v>
-      </c>
-      <c r="B52" t="s">
-        <v>524</v>
-      </c>
-      <c r="C52" t="s">
-        <v>230</v>
-      </c>
-      <c r="D52" t="s">
-        <v>525</v>
-      </c>
-      <c r="E52" t="s">
-        <v>526</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G53" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1">
+      <c r="A54" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3">
-        <v>42331</v>
-      </c>
-      <c r="B53" t="s">
-        <v>527</v>
-      </c>
-      <c r="C53" t="s">
-        <v>528</v>
-      </c>
-      <c r="D53" t="s">
-        <v>529</v>
-      </c>
-      <c r="E53" t="s">
-        <v>530</v>
-      </c>
-      <c r="F53" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3">
-        <v>42331</v>
-      </c>
-      <c r="B54" t="s">
-        <v>531</v>
-      </c>
-      <c r="C54" t="s">
-        <v>528</v>
-      </c>
-      <c r="D54" t="s">
-        <v>532</v>
-      </c>
-      <c r="E54" t="s">
-        <v>533</v>
-      </c>
-      <c r="F54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s">
-        <v>101</v>
+      <c r="G54" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1">
       <c r="A55" s="4">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>534</v>
+        <v>730</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>535</v>
+        <v>731</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>536</v>
+        <v>732</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>42335</v>
+      </c>
+      <c r="B56" t="s">
+        <v>733</v>
+      </c>
+      <c r="C56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" t="s">
+        <v>734</v>
+      </c>
+      <c r="E56" t="s">
+        <v>735</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>42335</v>
+      </c>
+      <c r="B57" t="s">
+        <v>736</v>
+      </c>
+      <c r="C57" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" t="s">
+        <v>737</v>
+      </c>
+      <c r="E57" t="s">
+        <v>738</v>
+      </c>
+      <c r="F57" t="s">
         <v>100</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="5" customFormat="1">
-      <c r="A56" s="4">
-        <v>42331</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="11" customFormat="1">
-      <c r="A57" s="10">
-        <v>42331</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>454</v>
+      <c r="G57" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="11" customFormat="1">
       <c r="A58" s="10">
-        <v>42331</v>
+        <v>42334</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>543</v>
+        <v>739</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>544</v>
+        <v>436</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="11" customFormat="1">
-      <c r="A59" s="10">
-        <v>42328</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="5" customFormat="1">
-      <c r="A60" s="4">
-        <v>42328</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="5" customFormat="1">
-      <c r="A61" s="4">
-        <v>42328</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="3">
-        <v>42328</v>
-      </c>
-      <c r="B62" t="s">
-        <v>554</v>
-      </c>
-      <c r="C62" t="s">
-        <v>528</v>
-      </c>
-      <c r="D62" t="s">
-        <v>555</v>
-      </c>
-      <c r="E62" t="s">
-        <v>556</v>
-      </c>
-      <c r="F62" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="3">
-        <v>42328</v>
-      </c>
-      <c r="B63" t="s">
-        <v>557</v>
-      </c>
-      <c r="C63" t="s">
-        <v>558</v>
-      </c>
-      <c r="D63" t="s">
-        <v>559</v>
-      </c>
-      <c r="E63" t="s">
-        <v>560</v>
-      </c>
-      <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="5" customFormat="1">
-      <c r="A64" s="4">
-        <v>42328</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="9" customFormat="1">
-      <c r="A65" s="8">
-        <v>42328</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>101</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="5" customFormat="1">
+      <c r="A59" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="11" customFormat="1">
+      <c r="A60" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="11" customFormat="1">
+      <c r="A61" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="11" customFormat="1">
+      <c r="A62" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="11" customFormat="1">
+      <c r="A63" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="11" customFormat="1">
+      <c r="A64" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="11" customFormat="1">
+      <c r="A65" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="11" customFormat="1">
       <c r="A66" s="10">
-        <v>42327</v>
+        <v>42334</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>566</v>
+        <v>453</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>567</v>
+        <v>454</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>512</v>
+        <v>740</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="11" customFormat="1">
       <c r="A67" s="10">
-        <v>42327</v>
+        <v>42334</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>569</v>
+        <v>457</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>570</v>
+        <v>458</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="5" customFormat="1">
-      <c r="A68" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="5" customFormat="1">
-      <c r="A69" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="5" customFormat="1">
-      <c r="A70" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="5" customFormat="1">
-      <c r="A71" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>42</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="11" customFormat="1">
+      <c r="A68" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="11" customFormat="1">
+      <c r="A69" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="11" customFormat="1">
+      <c r="A70" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="11" customFormat="1">
+      <c r="A71" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="11" customFormat="1">
       <c r="A72" s="10">
-        <v>42327</v>
+        <v>42334</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>568</v>
+        <v>469</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>582</v>
+        <v>470</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>583</v>
+        <v>471</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="5" customFormat="1">
-      <c r="A73" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="5" customFormat="1">
-      <c r="A74" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="5" customFormat="1">
-      <c r="A75" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="5" customFormat="1">
-      <c r="A76" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="3">
-        <v>42327</v>
-      </c>
-      <c r="B77" t="s">
-        <v>595</v>
-      </c>
-      <c r="C77" t="s">
-        <v>230</v>
-      </c>
-      <c r="D77" t="s">
-        <v>596</v>
-      </c>
-      <c r="E77" t="s">
-        <v>597</v>
-      </c>
-      <c r="F77" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="3">
-        <v>42327</v>
-      </c>
-      <c r="B78" t="s">
-        <v>598</v>
-      </c>
-      <c r="C78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" t="s">
-        <v>599</v>
-      </c>
-      <c r="E78" t="s">
-        <v>600</v>
-      </c>
-      <c r="F78" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="3">
-        <v>42327</v>
-      </c>
-      <c r="B79" t="s">
-        <v>601</v>
-      </c>
-      <c r="C79" t="s">
-        <v>230</v>
-      </c>
-      <c r="D79" t="s">
-        <v>602</v>
-      </c>
-      <c r="E79" t="s">
-        <v>603</v>
-      </c>
-      <c r="F79" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="3">
-        <v>42327</v>
-      </c>
-      <c r="B80" t="s">
-        <v>604</v>
-      </c>
-      <c r="C80" t="s">
-        <v>230</v>
-      </c>
-      <c r="D80" t="s">
-        <v>605</v>
-      </c>
-      <c r="E80" t="s">
-        <v>606</v>
-      </c>
-      <c r="F80" t="s">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="3">
-        <v>42327</v>
-      </c>
-      <c r="B81" t="s">
-        <v>607</v>
-      </c>
-      <c r="C81" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" t="s">
-        <v>608</v>
-      </c>
-      <c r="E81" t="s">
-        <v>609</v>
-      </c>
-      <c r="F81" t="s">
-        <v>77</v>
-      </c>
-      <c r="G81" t="s">
-        <v>101</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -10,7 +10,7 @@
     <sheet name="vulsHistory" sheetId="13" r:id="rId1"/>
     <sheet name="whiteList" sheetId="2" r:id="rId2"/>
     <sheet name="blackList" sheetId="3" r:id="rId3"/>
-    <sheet name="run1105_1126" sheetId="15" r:id="rId4"/>
+    <sheet name="run1105_1203" sheetId="15" r:id="rId4"/>
     <sheet name="run" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="1206">
   <si>
     <t>wordpress</t>
   </si>
@@ -1926,400 +1926,1784 @@
     <t>CVE-2015-5273</t>
   </si>
   <si>
+    <t>McAfee ESM/ESMLM/ESMREC身份驗證繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31680</t>
+  </si>
+  <si>
+    <t>CVE-2015-8024</t>
+  </si>
+  <si>
+    <t>PCRE拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31679</t>
+  </si>
+  <si>
+    <t>CVE-2015-2327</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31678</t>
+  </si>
+  <si>
+    <t>CVE-2015-2328</t>
+  </si>
+  <si>
+    <t>PCRE pcre_exec函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31677</t>
+  </si>
+  <si>
+    <t>CVE-2015-8380</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31676</t>
+  </si>
+  <si>
+    <t>CVE-2015-8384</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31675</t>
+  </si>
+  <si>
+    <t>CVE-2015-8385</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31674</t>
+  </si>
+  <si>
+    <t>CVE-2015-8383</t>
+  </si>
+  <si>
+    <t>PCRE&amp;nbsp;&amp;nbsp;match函數信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31673</t>
+  </si>
+  <si>
+    <t>CVE-2015-8382</t>
+  </si>
+  <si>
+    <t>PCRE compile_regex函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31672</t>
+  </si>
+  <si>
+    <t>CVE-2015-8381</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31671</t>
+  </si>
+  <si>
+    <t>CVE-2015-8386</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31670</t>
+  </si>
+  <si>
+    <t>CVE-2015-8387</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31669</t>
+  </si>
+  <si>
+    <t>CVE-2015-8388</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31668</t>
+  </si>
+  <si>
+    <t>CVE-2015-8389</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31667</t>
+  </si>
+  <si>
+    <t>CVE-2015-8390</t>
+  </si>
+  <si>
+    <t>PCRE pcre_compile函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31666</t>
+  </si>
+  <si>
+    <t>CVE-2015-8391</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31665</t>
+  </si>
+  <si>
+    <t>CVE-2015-8395</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31664</t>
+  </si>
+  <si>
+    <t>CVE-2015-8394</t>
+  </si>
+  <si>
+    <t>PCRE pcregrep拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31663</t>
+  </si>
+  <si>
+    <t>CVE-2015-8393</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31662</t>
+  </si>
+  <si>
+    <t>CVE-2015-8392</t>
+  </si>
+  <si>
+    <t>Cisco IOS publish-event event-manager功能任意命令執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31658</t>
+  </si>
+  <si>
+    <t>CVE-2015-6385</t>
+  </si>
+  <si>
+    <t>Cisco Web Security Appliance拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31657</t>
+  </si>
+  <si>
+    <t>CVE-2015-6386</t>
+  </si>
+  <si>
+    <t>QEMU net/pcnet.c緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31661</t>
+  </si>
+  <si>
+    <t>CVE-2015-7512</t>
+  </si>
+  <si>
+    <t>QEMU pcnet_receive堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31660</t>
+  </si>
+  <si>
+    <t>CVE-2015-7504</t>
+  </si>
+  <si>
+    <t>Oracle WebLogic Server遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31659</t>
+  </si>
+  <si>
+    <t>CVE-2015-4852</t>
+  </si>
+  <si>
+    <t>Role Scoper WordPress插件反射型跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31656</t>
+  </si>
+  <si>
+    <t>CVE-2015-8353</t>
+  </si>
+  <si>
+    <t>Ultimate Member WordPress插件反射型跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31655</t>
+  </si>
+  <si>
+    <t>CVE-2015-8354</t>
+  </si>
+  <si>
+    <t>Calls to Action WordPress插件反射型跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31654</t>
+  </si>
+  <si>
+    <t>CVE-2015-8350</t>
+  </si>
+  <si>
+    <t>Gwolle Guestbook WordPress插件遠程文件包含漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31653</t>
+  </si>
+  <si>
+    <t>CVE-2015-8351</t>
+  </si>
+  <si>
+    <t>libxslt &amp;#39;libxslt/preproc.c&amp;#39;類型轉換拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31652</t>
+  </si>
+  <si>
+    <t>CVE-2015-7995</t>
+  </si>
+  <si>
+    <t>Xen hypercall_create_continuation函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31651</t>
+  </si>
+  <si>
+    <t>CVE-2015-7812</t>
+  </si>
+  <si>
+    <t>Schneider Electric IMT25 Magnetic Flow DTM內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31650</t>
+  </si>
+  <si>
+    <t>CVE-2015-3977</t>
+  </si>
+  <si>
+    <t>Wireshark pcapng_read_if_descr_block函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31649</t>
+  </si>
+  <si>
+    <t>CVE-2015-7830</t>
+  </si>
+  <si>
+    <t>Linux kernel prepend_path函數安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31648</t>
+  </si>
+  <si>
+    <t>CVE-2015-2925</t>
+  </si>
+  <si>
+    <t>Linux Kernel &amp;#39;get_bitmap_file()&amp;#39;函數本地信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31647</t>
+  </si>
+  <si>
+    <t>CVE-2015-5697</t>
+  </si>
+  <si>
+    <t>HP Asset Manager本地信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31646</t>
+  </si>
+  <si>
+    <t>CVE-2015-5448</t>
+  </si>
+  <si>
+    <t>Linux Kernel空指針間接引用拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31645</t>
+  </si>
+  <si>
+    <t>CVE-2015-7990</t>
+  </si>
+  <si>
+    <t>Siemens SIMATIC通信機模塊信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31644</t>
+  </si>
+  <si>
+    <t>CVE-2015-8214</t>
+  </si>
+  <si>
+    <t>EMC Isilon OneFS權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31643</t>
+  </si>
+  <si>
+    <t>CVE-2015-6848</t>
+  </si>
+  <si>
+    <t>SmokePing任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31642</t>
+  </si>
+  <si>
+    <t>CVE-2015-0859</t>
+  </si>
+  <si>
+    <t>dpkg棧緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31641</t>
+  </si>
+  <si>
+    <t>CVE-2015-0860</t>
+  </si>
+  <si>
+    <t>FFmpeg ff_ivi_init_planes函數整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31640</t>
+  </si>
+  <si>
+    <t>CVE-2015-8364</t>
+  </si>
+  <si>
+    <t>FFmpeg jpeg2000_read_main_headers函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31639</t>
+  </si>
+  <si>
+    <t>CVE-2015-8363</t>
+  </si>
+  <si>
+    <t>FFmpeg smka_decode_frame函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31638</t>
+  </si>
+  <si>
+    <t>CVE-2015-8365</t>
+  </si>
+  <si>
+    <t>Cisco ASR 5000 Series Telnetd拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31637</t>
+  </si>
+  <si>
+    <t>CVE-2015-6382</t>
+  </si>
+  <si>
+    <t>Cisco Virtual Topology System (VTS)拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31636</t>
+  </si>
+  <si>
+    <t>CVE-2015-6377</t>
+  </si>
+  <si>
+    <t>CIS Manager SQL注入漏洞</t>
+  </si>
+  <si>
+    <t>1126_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft Windows Media Center Library Parsing RCE Vulnerability aka &amp;quot;self-executing&amp;quot; MCL File</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38911/</t>
+  </si>
+  <si>
+    <t>CVE-2015-6131</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Media Center Link File Incorrectly Resolved Reference</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38912/</t>
+  </si>
+  <si>
+    <t>CVE-2015-6127</t>
+  </si>
+  <si>
+    <t>Microsoft Office / COM Object els.dll DLL Planting (MS15-134)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38918/</t>
+  </si>
+  <si>
+    <t>CVE-2015-6128</t>
+  </si>
+  <si>
+    <t>phpFileManager 0.9.8 Remote Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38900/</t>
+  </si>
+  <si>
+    <t>Atlassian HipChat for Jira Plugin Velocity Template Injection</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38905/</t>
+  </si>
+  <si>
+    <t>CVE-2015-5603</t>
+  </si>
+  <si>
+    <t>Oracle BeeHive 2 voice-servlet processEvaluation() Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38859/</t>
+  </si>
+  <si>
+    <t>CVE-2010-4417</t>
+  </si>
+  <si>
+    <t>Oracle BeeHive 2 voice-servlet prepareAudioToPlay() Arbitrary File Upload</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38860/</t>
+  </si>
+  <si>
+    <t>WIMAX LX350P(WIXFMR-108) - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38913/</t>
+  </si>
+  <si>
+    <t>WIMAX MT711x - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38914/</t>
+  </si>
+  <si>
+    <t>Wordpress Plugin WP Easy Poll 1.1.3 - XSS and CSRF</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38915/</t>
+  </si>
+  <si>
+    <t>SIMOGEO FileManager 2.3.0 - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38895/</t>
+  </si>
+  <si>
+    <t>OpenMRS 2.3 (1.11.4) - XML External Entity (XXE) Processing Exploit</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38896/</t>
+  </si>
+  <si>
+    <t>OpenMRS 2.3 (1.11.4) - Expression Language Injection Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38897/</t>
+  </si>
+  <si>
+    <t>OpenMRS 2.3 (1.11.4) - Multiple Cross-Site Scripting Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38898/</t>
+  </si>
+  <si>
+    <t>OpenMRS 2.3 (1.11.4) - Local File Disclosure Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38899/</t>
+  </si>
+  <si>
+    <t>PHP Utility Belt - Remote Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38901/</t>
+  </si>
+  <si>
+    <t>WordPress Polls Widget Plugin 1.0.7 - SQL Injection Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38902/</t>
+  </si>
+  <si>
+    <t>dotCMS 3.2.4 - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38906/</t>
+  </si>
+  <si>
+    <t>Wordpress Plugin Advanced uploader v2.10 - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38867/</t>
+  </si>
+  <si>
+    <t>Wordpress Plugin Sell Download v1.0.16  - Local File Disclosure</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38868/</t>
+  </si>
+  <si>
+    <t>Wordpress Plugin TheCartPress v1.4.7  - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38869/</t>
+  </si>
+  <si>
+    <t>WordPress Users Ultra Plugin 1.5.50 - Blind SQL injection</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38855/</t>
+  </si>
+  <si>
+    <t>WordPress Users Ultra Plugin 1.5.50 - Persistent XSS</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38856/</t>
+  </si>
+  <si>
+    <t>WordPress Gwolle Guestbook Plugin 1.5.3 - Remote File Inclusion</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38861/</t>
+  </si>
+  <si>
+    <t>iniNet SpiderControl SCADA Web Server Service 2.02 - Insecure File Permissions</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38903/</t>
+  </si>
+  <si>
+    <t>iniNet SpiderControl PLC Editor Simatic 6.30.04 - Insecure File Permissions</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38904/</t>
+  </si>
+  <si>
+    <t>Cyclope Employee Surveillance  &amp;lt;= v8.6.1- Insecure File Permissions</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38871/</t>
+  </si>
+  <si>
+    <t>IE 11.0.9600.18097 COmWindowProxy::SwitchMarkup NULL PTR</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38916/</t>
+  </si>
+  <si>
+    <t>MacOS X 10.11 FTS Deep Structure of the File System Buffer Overflow</t>
+  </si>
+  <si>
+    <t>osx</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38917/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7039</t>
+  </si>
+  <si>
+    <t>WinAsm Studio 5.1.8.8 - Buffer Overflow Crash PoC</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38878/</t>
+  </si>
+  <si>
+    <t>Gnome Nautilus 3.16 - Denial of Service</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38857/</t>
+  </si>
+  <si>
+    <t>Malwarebytes Antivirus 2.2.0 - DoS PoC</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38858/</t>
+  </si>
+  <si>
     <t>Google Chrome Multiple vulnerabilities</t>
   </si>
   <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121001</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Apple Multiple OS and Applications Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120914</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120913</t>
+  </si>
+  <si>
+    <t>CVE-2015-8045,CVE-2015-8047,CVE-2015-8048,CVE-2015-8049,CVE-2015-8050,CVE-2015-8054,CVE-2015-8055,CVE-2015-8056,CVE-2015-8057,CVE-2015-8058,CVE-2015-8059,CVE-2015-8060,CVE-2015-8061,CVE-2015-8062,CVE-2015-8063,CVE-2015-8064,CVE-2015-8065,CVE-2015-8066,CVE-2015-8067,CVE-2015-8068,CVE-2015-8069,CVE-2015-8070,CVE-2015-8071,CVE-2015-8401,CVE-2015-8402,CVE-2015-8403,CVE-2015-8404,CVE-2015-8405,CVE-2015-8406,CVE-2015-8407,CVE-2015-8408,CVE-2015-8409,CVE-2015-8410,CVE-2015-8411,CVE-2015-8412,CVE-2015-8413,CVE-2015-8414,CVE-2015-8415,CVE-2015-8416,CVE-2015-8417,CVE-2015-8419,CVE-2015-8420,CVE-2015-8421,CVE-2015-8422,CVE-2015-8423,CVE-2015-8424,CVE-2015-8425,CVE-2015-8426,CVE-2015-8427,CVE-2015-8428,CVE-2015-8429,CVE-2015-8430,CVE-2015-8431,CVE-2015-8432,CVE-2015-8433,CVE-2015-8434,CVE-2015-8435,CVE-2015-8436,CVE-2015-8437,CVE-2015-8438,CVE-2015-8439,CVE-2015-8440,CVE-2015-8441,CVE-2015-8442,CVE-2015-8443,CVE-2015-8444,CVE-2015-8445,CVE-2015-8446,CVE-2015-8447,CVE-2015-8448,CVE-2015-8449,CVE-2015-8450,CVE-2015-8451,CVE-2015-8452,CVE-2015-8453</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Kernel-Mode Drivers Elevation of Privilege Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120912</t>
+  </si>
+  <si>
+    <t>CVE-2015-6171,CVE-2015-6173,CVE-2015-6174,CVE-2015-6175</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Media Center Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120911</t>
+  </si>
+  <si>
+    <t>CVErepeat</t>
+  </si>
+  <si>
+    <t>Microsoft Windows PGM Elevation of Privilege Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120910</t>
+  </si>
+  <si>
+    <t>CVE-2015-6126</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120909</t>
+  </si>
+  <si>
+    <t>CVE-2015-6133</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120908</t>
+  </si>
+  <si>
+    <t>CVE-2015-6040,CVE-2015-6118,CVE-2015-6122,CVE-2015-6124,CVE-2015-6172,CVE-2015-6177</t>
+  </si>
+  <si>
+    <t>Microsoft Uniscribe Remote Code Execution Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120907</t>
+  </si>
+  <si>
+    <t>CVE-2015-6130</t>
+  </si>
+  <si>
+    <t>Microsoft Silverlight Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120906</t>
+  </si>
+  <si>
+    <t>CVE-2015-6114,CVE-2015-6165,CVE-2015-6166</t>
+  </si>
+  <si>
+    <t>Microsoft Graphics Component Remote Code Execution Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120905</t>
+  </si>
+  <si>
+    <t>CVE-2015-6106,CVE-2015-6107,CVE-2015-6108</t>
+  </si>
+  <si>
+    <t>Microsoft Windows DNS Remote Code Execution Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120904</t>
+  </si>
+  <si>
+    <t>CVE-2015-6125</t>
+  </si>
+  <si>
+    <t>Microsoft JScript and VBScript Cumulative Security Update</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120903</t>
+  </si>
+  <si>
+    <t>CVE-2015-6135,CVE-2015-6136</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120902</t>
+  </si>
+  <si>
+    <t>CVE-2015-6139,CVE-2015-6140,CVE-2015-6142,CVE-2015-6148,CVE-2015-6151,CVE-2015-6153,CVE-2015-6154,CVE-2015-6155,CVE-2015-6158,CVE-2015-6159,CVE-2015-6161,CVE-2015-6168,CVE-2015-6169,CVE-2015-6170,CVE-2015-6176</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120901</t>
+  </si>
+  <si>
+    <t>CVE-2015-6083,CVE-2015-6134,CVE-2015-6138,CVE-2015-6141,CVE-2015-6143,CVE-2015-6144,CVE-2015-6145,CVE-2015-6146,CVE-2015-6147,CVE-2015-6149,CVE-2015-6150,CVE-2015-6152,CVE-2015-6156,CVE-2015-6157,CVE-2015-6160,CVE-2015-6162,CVE-2015-6164</t>
+  </si>
+  <si>
+    <t>OpenSSL Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15120701</t>
+  </si>
+  <si>
+    <t>CVE-2015-1794,CVE-2015-3193,CVE-2015-3194,CVE-2015-3195,CVE-2015-3196</t>
+  </si>
+  <si>
     <t>https://www.hkcert.org/my_url/en/alert/15120301</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>McAfee ESM/ESMLM/ESMREC身份驗證繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31680</t>
-  </si>
-  <si>
-    <t>CVE-2015-8024</t>
-  </si>
-  <si>
-    <t>PCRE拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31679</t>
-  </si>
-  <si>
-    <t>CVE-2015-2327</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31678</t>
-  </si>
-  <si>
-    <t>CVE-2015-2328</t>
-  </si>
-  <si>
-    <t>PCRE pcre_exec函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31677</t>
-  </si>
-  <si>
-    <t>CVE-2015-8380</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31676</t>
-  </si>
-  <si>
-    <t>CVE-2015-8384</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31675</t>
-  </si>
-  <si>
-    <t>CVE-2015-8385</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31674</t>
-  </si>
-  <si>
-    <t>CVE-2015-8383</t>
-  </si>
-  <si>
-    <t>PCRE&amp;nbsp;&amp;nbsp;match函數信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31673</t>
-  </si>
-  <si>
-    <t>CVE-2015-8382</t>
-  </si>
-  <si>
-    <t>PCRE compile_regex函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31672</t>
-  </si>
-  <si>
-    <t>CVE-2015-8381</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31671</t>
-  </si>
-  <si>
-    <t>CVE-2015-8386</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31670</t>
-  </si>
-  <si>
-    <t>CVE-2015-8387</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31669</t>
-  </si>
-  <si>
-    <t>CVE-2015-8388</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31668</t>
-  </si>
-  <si>
-    <t>CVE-2015-8389</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31667</t>
-  </si>
-  <si>
-    <t>CVE-2015-8390</t>
-  </si>
-  <si>
-    <t>PCRE pcre_compile函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31666</t>
-  </si>
-  <si>
-    <t>CVE-2015-8391</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31665</t>
-  </si>
-  <si>
-    <t>CVE-2015-8395</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31664</t>
-  </si>
-  <si>
-    <t>CVE-2015-8394</t>
-  </si>
-  <si>
-    <t>PCRE pcregrep拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31663</t>
-  </si>
-  <si>
-    <t>CVE-2015-8393</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31662</t>
-  </si>
-  <si>
-    <t>CVE-2015-8392</t>
-  </si>
-  <si>
-    <t>Cisco IOS publish-event event-manager功能任意命令執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31658</t>
-  </si>
-  <si>
-    <t>CVE-2015-6385</t>
-  </si>
-  <si>
-    <t>Cisco Web Security Appliance拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31657</t>
-  </si>
-  <si>
-    <t>CVE-2015-6386</t>
-  </si>
-  <si>
-    <t>QEMU net/pcnet.c緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31661</t>
-  </si>
-  <si>
-    <t>CVE-2015-7512</t>
-  </si>
-  <si>
-    <t>QEMU pcnet_receive堆緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31660</t>
-  </si>
-  <si>
-    <t>CVE-2015-7504</t>
-  </si>
-  <si>
-    <t>Oracle WebLogic Server遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31659</t>
-  </si>
-  <si>
-    <t>CVE-2015-4852</t>
-  </si>
-  <si>
-    <t>Role Scoper WordPress插件反射型跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31656</t>
-  </si>
-  <si>
-    <t>CVE-2015-8353</t>
-  </si>
-  <si>
-    <t>Ultimate Member WordPress插件反射型跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31655</t>
-  </si>
-  <si>
-    <t>CVE-2015-8354</t>
-  </si>
-  <si>
-    <t>Calls to Action WordPress插件反射型跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31654</t>
-  </si>
-  <si>
-    <t>CVE-2015-8350</t>
-  </si>
-  <si>
-    <t>Gwolle Guestbook WordPress插件遠程文件包含漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31653</t>
-  </si>
-  <si>
-    <t>CVE-2015-8351</t>
-  </si>
-  <si>
-    <t>libxslt &amp;#39;libxslt/preproc.c&amp;#39;類型轉換拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31652</t>
-  </si>
-  <si>
-    <t>CVE-2015-7995</t>
-  </si>
-  <si>
-    <t>Xen hypercall_create_continuation函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31651</t>
-  </si>
-  <si>
-    <t>CVE-2015-7812</t>
-  </si>
-  <si>
-    <t>Schneider Electric IMT25 Magnetic Flow DTM內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31650</t>
-  </si>
-  <si>
-    <t>CVE-2015-3977</t>
-  </si>
-  <si>
-    <t>Wireshark pcapng_read_if_descr_block函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31649</t>
-  </si>
-  <si>
-    <t>CVE-2015-7830</t>
-  </si>
-  <si>
-    <t>Linux kernel prepend_path函數安全限制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31648</t>
-  </si>
-  <si>
-    <t>CVE-2015-2925</t>
-  </si>
-  <si>
-    <t>Linux Kernel &amp;#39;get_bitmap_file()&amp;#39;函數本地信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31647</t>
-  </si>
-  <si>
-    <t>CVE-2015-5697</t>
-  </si>
-  <si>
-    <t>HP Asset Manager本地信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31646</t>
-  </si>
-  <si>
-    <t>CVE-2015-5448</t>
-  </si>
-  <si>
-    <t>Linux Kernel空指針間接引用拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31645</t>
-  </si>
-  <si>
-    <t>CVE-2015-7990</t>
-  </si>
-  <si>
-    <t>Siemens SIMATIC通信機模塊信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31644</t>
-  </si>
-  <si>
-    <t>CVE-2015-8214</t>
-  </si>
-  <si>
-    <t>EMC Isilon OneFS權限提升漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31643</t>
-  </si>
-  <si>
-    <t>CVE-2015-6848</t>
-  </si>
-  <si>
-    <t>SmokePing任意代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31642</t>
-  </si>
-  <si>
-    <t>CVE-2015-0859</t>
-  </si>
-  <si>
-    <t>dpkg棧緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31641</t>
-  </si>
-  <si>
-    <t>CVE-2015-0860</t>
-  </si>
-  <si>
-    <t>FFmpeg ff_ivi_init_planes函數整數溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31640</t>
-  </si>
-  <si>
-    <t>CVE-2015-8364</t>
-  </si>
-  <si>
-    <t>FFmpeg jpeg2000_read_main_headers函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31639</t>
-  </si>
-  <si>
-    <t>CVE-2015-8363</t>
-  </si>
-  <si>
-    <t>FFmpeg smka_decode_frame函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31638</t>
-  </si>
-  <si>
-    <t>CVE-2015-8365</t>
-  </si>
-  <si>
-    <t>Cisco ASR 5000 Series Telnetd拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31637</t>
-  </si>
-  <si>
-    <t>CVE-2015-6382</t>
-  </si>
-  <si>
-    <t>Cisco Virtual Topology System (VTS)拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31636</t>
-  </si>
-  <si>
-    <t>CVE-2015-6377</t>
-  </si>
-  <si>
-    <t>python-django日期模板過濾器信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>CVErepeat</t>
-  </si>
-  <si>
-    <t>CIS Manager SQL注入漏洞</t>
-  </si>
-  <si>
-    <t>HP Loadrunner Virtual Table Server遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>CloudBees Jenkins CSRF機制繞過漏洞</t>
-  </si>
-  <si>
-    <t>CloudBees Jenkins安全限制繞過漏洞</t>
+    <t>Android SystemUI 權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31862</t>
+  </si>
+  <si>
+    <t>CVE-2015-6621</t>
+  </si>
+  <si>
+    <t>Android libstagefright 信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31861</t>
+  </si>
+  <si>
+    <t>CVE-2015-6631</t>
+  </si>
+  <si>
+    <t>Android Media Framework信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31860</t>
+  </si>
+  <si>
+    <t>CVE-2015-6628</t>
+  </si>
+  <si>
+    <t>Android Native Frameworks Library信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31859</t>
+  </si>
+  <si>
+    <t>CVE-2015-6622</t>
+  </si>
+  <si>
+    <t>Android Wi-Fi信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31858</t>
+  </si>
+  <si>
+    <t>CVE-2015-6629</t>
+  </si>
+  <si>
+    <t>Android SystemUI 信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31857</t>
+  </si>
+  <si>
+    <t>CVE-2015-6630</t>
+  </si>
+  <si>
+    <t>Android libstagefright 權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31856</t>
+  </si>
+  <si>
+    <t>CVE-2015-6620</t>
+  </si>
+  <si>
+    <t>Android kernel 權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31855</t>
+  </si>
+  <si>
+    <t>CVE-2015-6619</t>
+  </si>
+  <si>
+    <t>Android Audio組件信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31854</t>
+  </si>
+  <si>
+    <t>CVE-2015-6627</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31853</t>
+  </si>
+  <si>
+    <t>CVE-2015-6626</t>
+  </si>
+  <si>
+    <t>Android System Server信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31852</t>
+  </si>
+  <si>
+    <t>CVE-2015-6625</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31851</t>
+  </si>
+  <si>
+    <t>CVE-2015-6624</t>
+  </si>
+  <si>
+    <t>Android Wi-Fi權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31850</t>
+  </si>
+  <si>
+    <t>CVE-2015-6623</t>
+  </si>
+  <si>
+    <t>Android Skia內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31849</t>
+  </si>
+  <si>
+    <t>CVE-2015-6617</t>
+  </si>
+  <si>
+    <t>Android mediaserver內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31848</t>
+  </si>
+  <si>
+    <t>CVE-2015-6616</t>
+  </si>
+  <si>
+    <t>Foxit PhantomPDF Print釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31847</t>
+  </si>
+  <si>
+    <t>Foxit PhantomPDF App釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31846</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review BMP RLE遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31845</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review FLI RLE遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31844</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review BMP biClrUsed遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31843</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review PCX遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31842</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review GIF DataSubBlock遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31841</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review GIF GlobalColorTable遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31840</t>
+  </si>
+  <si>
+    <t>Lepide Active Directory Self Service權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31839</t>
+  </si>
+  <si>
+    <t>Microsoft IE Mutation CStylesheet 遠程代碼執行漏洞(MS15-124)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31838</t>
+  </si>
+  <si>
+    <t>CVE-2015-6141</t>
+  </si>
+  <si>
+    <t>Microsoft Edge CAttrArray越界讀遠程代碼執行漏洞(MS15-125)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31837</t>
+  </si>
+  <si>
+    <t>CVE-2015-6168</t>
+  </si>
+  <si>
+    <t>Microsoft IE CAttrArray釋放後重利用遠程代碼執行漏洞(MS15-124)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31836</t>
+  </si>
+  <si>
+    <t>CVE-2015-6143</t>
+  </si>
+  <si>
+    <t>Microsoft IE Mutation Observer釋放後重利用遠程代碼執行漏洞(MS15-124)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31835</t>
+  </si>
+  <si>
+    <t>CVE-2015-6160</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31834</t>
+  </si>
+  <si>
+    <t>CVE-2015-8506</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31833</t>
+  </si>
+  <si>
+    <t>CVE-2015-8507</t>
+  </si>
+  <si>
+    <t>Android 顯示驅動程序內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31832</t>
+  </si>
+  <si>
+    <t>CVE-2015-6633</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31831</t>
+  </si>
+  <si>
+    <t>CVE-2015-6634</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31830</t>
+  </si>
+  <si>
+    <t>CVE-2015-8505</t>
+  </si>
+  <si>
+    <t>Symfony 會話固定漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31791</t>
+  </si>
+  <si>
+    <t>CVE-2015-8124</t>
+  </si>
+  <si>
+    <t>Symfony 遠程安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31790</t>
+  </si>
+  <si>
+    <t>CVE-2015-8125</t>
+  </si>
+  <si>
+    <t>多個Huawei產品&amp;#39;DHCP Snooping&amp;#39;函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31789</t>
+  </si>
+  <si>
+    <t>CVE-2015-8084</t>
+  </si>
+  <si>
+    <t>Cisco Nexus 5000 Series USB Driver 拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31788</t>
+  </si>
+  <si>
+    <t>CVE-2015-6394</t>
+  </si>
+  <si>
+    <t>Cisco SIP Phone 3905拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31787</t>
+  </si>
+  <si>
+    <t>CVE-2015-6391</t>
+  </si>
+  <si>
+    <t>Cisco UCS Central Software跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31786</t>
+  </si>
+  <si>
+    <t>CVE-2015-6387</t>
+  </si>
+  <si>
+    <t>Cisco UCS Central Software服務器端請求僞造漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31785</t>
+  </si>
+  <si>
+    <t>CVE-2015-6388</t>
+  </si>
+  <si>
+    <t>Oracle Sun VM Server for SPARC組件遠程安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31829</t>
+  </si>
+  <si>
+    <t>CVE-2015-0452</t>
+  </si>
+  <si>
+    <t>Oracle Fusion Middleware遠程漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31828</t>
+  </si>
+  <si>
+    <t>CVE-2015-2606</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31827</t>
+  </si>
+  <si>
+    <t>CVE-2015-2605</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31826</t>
+  </si>
+  <si>
+    <t>CVE-2015-2604</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31825</t>
+  </si>
+  <si>
+    <t>CVE-2015-2602</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31824</t>
+  </si>
+  <si>
+    <t>CVE-2015-0443</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31823</t>
+  </si>
+  <si>
+    <t>CVE-2015-2593</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31822</t>
+  </si>
+  <si>
+    <t>CVE-2015-0444</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31821</t>
+  </si>
+  <si>
+    <t>CVE-2015-0445</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31820</t>
+  </si>
+  <si>
+    <t>CVE-2015-4759</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31819</t>
+  </si>
+  <si>
+    <t>CVE-2015-0446</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31818</t>
+  </si>
+  <si>
+    <t>CVE-2015-4751</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31817</t>
+  </si>
+  <si>
+    <t>CVE-2015-1926</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31816</t>
+  </si>
+  <si>
+    <t>CVE-2015-4747</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31815</t>
+  </si>
+  <si>
+    <t>CVE-2015-2636</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31814</t>
+  </si>
+  <si>
+    <t>CVE-2015-2635</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31813</t>
+  </si>
+  <si>
+    <t>CVE-2015-2634</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31812</t>
+  </si>
+  <si>
+    <t>CVE-2015-4758</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31811</t>
+  </si>
+  <si>
+    <t>CVE-2015-4742</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31810</t>
+  </si>
+  <si>
+    <t>CVE-2015-2623</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31809</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31808</t>
+  </si>
+  <si>
+    <t>CVE-2015-2658</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31807</t>
+  </si>
+  <si>
+    <t>CVE-2015-2603</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31806</t>
+  </si>
+  <si>
+    <t>CVE-2015-4745</t>
+  </si>
+  <si>
+    <t>Oracle Support Tools SQL Trace Analyzer組件遠程安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31805</t>
+  </si>
+  <si>
+    <t>CVE-2015-0476</t>
+  </si>
+  <si>
+    <t>Oracle MySQL Server遠程安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31804</t>
+  </si>
+  <si>
+    <t>CVE-2015-0511</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31803</t>
+  </si>
+  <si>
+    <t>CVE-2015-2566</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31802</t>
+  </si>
+  <si>
+    <t>CVE-2015-0507</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31801</t>
+  </si>
+  <si>
+    <t>CVE-2015-0506</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31800</t>
+  </si>
+  <si>
+    <t>CVE-2015-0499</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31799</t>
+  </si>
+  <si>
+    <t>CVE-2015-0405</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31798</t>
+  </si>
+  <si>
+    <t>CVE-2015-0441</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31797</t>
+  </si>
+  <si>
+    <t>CVE-2015-0503</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31796</t>
+  </si>
+  <si>
+    <t>CVE-2015-0508</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31795</t>
+  </si>
+  <si>
+    <t>CVE-2015-0439</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31794</t>
+  </si>
+  <si>
+    <t>CVE-2015-2573</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31793</t>
+  </si>
+  <si>
+    <t>CVE-2015-0501</t>
+  </si>
+  <si>
+    <t>Oracle Sun Solaris遠程安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31792</t>
+  </si>
+  <si>
+    <t>CVE-2015-2578</t>
+  </si>
+  <si>
+    <t>Google Chrome AppCache釋放後重利用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31784</t>
+  </si>
+  <si>
+    <t>CVE-2015-6766</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31783</t>
+  </si>
+  <si>
+    <t>CVE-2015-6767</t>
+  </si>
+  <si>
+    <t>Google Chrome DOM繞過同源策略漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31782</t>
+  </si>
+  <si>
+    <t>CVE-2015-6768</t>
+  </si>
+  <si>
+    <t>Google Chrome 釋放後重利用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31781</t>
+  </si>
+  <si>
+    <t>CVE-2015-6765</t>
+  </si>
+  <si>
+    <t>EMC NetWorker遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31780</t>
+  </si>
+  <si>
+    <t>CVE-2015-6849</t>
+  </si>
+  <si>
+    <t>Google Chrome V8 BasicJsonStringifier::SerializeJSArray遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31779</t>
+  </si>
+  <si>
+    <t>CVE-2015-6764</t>
+  </si>
+  <si>
+    <t>Google Chrome 繞過同源策略漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31778</t>
+  </si>
+  <si>
+    <t>CVE-2015-6769</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31777</t>
+  </si>
+  <si>
+    <t>CVE-2015-6770</t>
+  </si>
+  <si>
+    <t>Google Chrome V8 js/array.js遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31776</t>
+  </si>
+  <si>
+    <t>CVE-2015-6771</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31775</t>
+  </si>
+  <si>
+    <t>CVE-2015-6772</t>
+  </si>
+  <si>
+    <t>Google Chrome GetLoadTimes釋放後重利用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31774</t>
+  </si>
+  <si>
+    <t>CVE-2015-6774</t>
+  </si>
+  <si>
+    <t>Google Chrome convolution遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31773</t>
+  </si>
+  <si>
+    <t>CVE-2015-6773</t>
+  </si>
+  <si>
+    <t>Google Chrome PDFium遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31772</t>
+  </si>
+  <si>
+    <t>CVE-2015-6775</t>
+  </si>
+  <si>
+    <t>Google Chrome ContainerNode::notifyNodeInsertedInternal釋放後重利用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31771</t>
+  </si>
+  <si>
+    <t>CVE-2015-6777</t>
+  </si>
+  <si>
+    <t>Google Chrome opj_dwt_decode_1*拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31770</t>
+  </si>
+  <si>
+    <t>CVE-2015-6776</t>
+  </si>
+  <si>
+    <t>Google Chrome PDFium拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31769</t>
+  </si>
+  <si>
+    <t>CVE-2015-6778</t>
+  </si>
+  <si>
+    <t>Google Chrome PDFium安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31768</t>
+  </si>
+  <si>
+    <t>CVE-2015-6779</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31767</t>
+  </si>
+  <si>
+    <t>CVE-2015-6780</t>
+  </si>
+  <si>
+    <t>Google Chrome FontData::Bound函數整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31766</t>
+  </si>
+  <si>
+    <t>CVE-2015-6781</t>
+  </si>
+  <si>
+    <t>Google Chrome Document::open函數欺騙漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31765</t>
+  </si>
+  <si>
+    <t>CVE-2015-6782</t>
+  </si>
+  <si>
+    <t>Google Chrome FindStartOffsetOfFileInZipFile函數安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31764</t>
+  </si>
+  <si>
+    <t>CVE-2015-6783</t>
+  </si>
+  <si>
+    <t>Google Chrome HTML注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31763</t>
+  </si>
+  <si>
+    <t>CVE-2015-6784</t>
+  </si>
+  <si>
+    <t>Google Chrome CSPSource::hostMatches函數安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31762</t>
+  </si>
+  <si>
+    <t>CVE-2015-6785</t>
+  </si>
+  <si>
+    <t>OpenSSL ssl3_get_key_exchange遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31761</t>
+  </si>
+  <si>
+    <t>CVE-2015-1794</t>
+  </si>
+  <si>
+    <t>OpenSSL crypto/bn/asm/x86_64-mont5.pl信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31760</t>
+  </si>
+  <si>
+    <t>CVE-2015-3193</t>
+  </si>
+  <si>
+    <t>Google Chrome CSPSourceList::matches函數安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31759</t>
+  </si>
+  <si>
+    <t>CVE-2015-6786</t>
+  </si>
+  <si>
+    <t>Google Chrome 遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31758</t>
+  </si>
+  <si>
+    <t>CVE-2015-6787</t>
+  </si>
+  <si>
+    <t>Google Chrome V8遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31757</t>
+  </si>
+  <si>
+    <t>CVE-2015-8478</t>
+  </si>
+  <si>
+    <t>Google Chrome AudioOutputDevice::OnDeviceAuthorized釋放後重利用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31756</t>
+  </si>
+  <si>
+    <t>CVE-2015-8479</t>
+  </si>
+  <si>
+    <t>Google Chrome VideoFramePool::PoolImpl::CreateFrame遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31755</t>
+  </si>
+  <si>
+    <t>CVE-2015-8480</t>
+  </si>
+  <si>
+    <t>OpenSSL ssl/s3_clnt.c遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31754</t>
+  </si>
+  <si>
+    <t>CVE-2015-3196</t>
+  </si>
+  <si>
+    <t>OpenSSL ASN1_TFLG_COMBINE信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31753</t>
+  </si>
+  <si>
+    <t>CVE-2015-3195</t>
+  </si>
+  <si>
+    <t>OpenSSL crypto/rsa/rsa_ameth.c遠程拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31752</t>
+  </si>
+  <si>
+    <t>CVE-2015-3194</t>
+  </si>
+  <si>
+    <t>Schneider Electric ProClima ActiveX控件漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31751</t>
+  </si>
+  <si>
+    <t>CVE-2015-7918</t>
+  </si>
+  <si>
+    <t>Cyrus IMAP index_urlfetch信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31704</t>
+  </si>
+  <si>
+    <t>CVE-2015-8076</t>
+  </si>
+  <si>
+    <t>Cyrus IMAP index_urlfetch整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31703</t>
+  </si>
+  <si>
+    <t>CVE-2015-8078</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31702</t>
+  </si>
+  <si>
+    <t>CVE-2015-8077</t>
+  </si>
+  <si>
+    <t>Ceph Object Gateway CRLF漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31701</t>
+  </si>
+  <si>
+    <t>CVE-2015-5245</t>
+  </si>
+  <si>
+    <t>Cisco IOS XE權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31700</t>
+  </si>
+  <si>
+    <t>CVE-2015-6383</t>
+  </si>
+  <si>
+    <t>Cisco Unity Connection跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31699</t>
+  </si>
+  <si>
+    <t>CVE-2015-6390</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 MovieClip setMask釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31698</t>
+  </si>
+  <si>
+    <t>CVE-2015-7660</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 NetConnection類型混淆遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31697</t>
+  </si>
+  <si>
+    <t>CVE-2015-7659</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 actionCallMethod釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31696</t>
+  </si>
+  <si>
+    <t>CVE-2015-7657</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 actionExtends釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31695</t>
+  </si>
+  <si>
+    <t>CVE-2015-7655</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 Sound attachSound 釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31694</t>
+  </si>
+  <si>
+    <t>CVE-2015-7654</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 MovieClip globalToLocal 釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31693</t>
+  </si>
+  <si>
+    <t>CVE-2015-7653</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 actionInstanceOf釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31692</t>
+  </si>
+  <si>
+    <t>CVE-2015-7658</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 Sound loadSound釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31691</t>
+  </si>
+  <si>
+    <t>CVE-2015-8042</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 MovieClip getBounds釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31690</t>
+  </si>
+  <si>
+    <t>CVE-2015-7661</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 TextField gridFitType釋放後重利用遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31689</t>
+  </si>
+  <si>
+    <t>CVE-2015-7652</t>
+  </si>
+  <si>
+    <t>Adobe Flash AS2 DefineFunction無效釋放遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31688</t>
+  </si>
+  <si>
+    <t>CVE-2015-7651</t>
+  </si>
+  <si>
+    <t>IBM System Networking Switch Center ZipDownload.jsp信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31687</t>
+  </si>
+  <si>
+    <t>CVE-2015-7820</t>
+  </si>
+  <si>
+    <t>IBM System Networking Switch Center遠程權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31686</t>
+  </si>
+  <si>
+    <t>CVE-2015-7819</t>
+  </si>
+  <si>
+    <t>IBM System Networking Switch Center FileReader.jsp信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31685</t>
+  </si>
+  <si>
+    <t>CVE-2015-7817</t>
+  </si>
+  <si>
+    <t>IBM System Networking Switch Center本地權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31684</t>
+  </si>
+  <si>
+    <t>CVE-2015-7818</t>
+  </si>
+  <si>
+    <t>Unitronics UniDownloader/Unitronics VisiLogic OPLC IDE遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31683</t>
+  </si>
+  <si>
+    <t>CVE-2015-7905</t>
+  </si>
+  <si>
+    <t>Unitronics VisiLogic OPLC IDE TeeChart.ChartGrid.5 ActiveX控件ColWidths遠程代碼執行漏洞(CV</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31682</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer TreeWalker釋放後重利用遠程代碼執行漏洞(MS15-065)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31681</t>
+  </si>
+  <si>
+    <t>CVE-2015-1767</t>
   </si>
 </sst>
 </file>
@@ -2936,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7304,6 +8688,1155 @@
         <v>101</v>
       </c>
     </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="5" customFormat="1">
+      <c r="A211" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="5" customFormat="1">
+      <c r="A212" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="5" customFormat="1">
+      <c r="A213" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="5" customFormat="1">
+      <c r="A214" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="5" customFormat="1">
+      <c r="A215" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="5" customFormat="1">
+      <c r="A216" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="5" customFormat="1">
+      <c r="A217" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="5" customFormat="1">
+      <c r="A218" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="5" customFormat="1">
+      <c r="A219" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="5" customFormat="1">
+      <c r="A220" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="5" customFormat="1">
+      <c r="A221" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="5" customFormat="1">
+      <c r="A222" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="5" customFormat="1">
+      <c r="A223" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="5" customFormat="1">
+      <c r="A224" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="5" customFormat="1">
+      <c r="A225" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="5" customFormat="1">
+      <c r="A226" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="5" customFormat="1">
+      <c r="A227" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="5" customFormat="1">
+      <c r="A228" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="5" customFormat="1">
+      <c r="A229" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="5" customFormat="1">
+      <c r="A230" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="5" customFormat="1">
+      <c r="A231" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="5" customFormat="1">
+      <c r="A232" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="5" customFormat="1">
+      <c r="A233" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="5" customFormat="1">
+      <c r="A234" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="5" customFormat="1">
+      <c r="A235" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="5" customFormat="1">
+      <c r="A236" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="5" customFormat="1">
+      <c r="A237" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="5" customFormat="1">
+      <c r="A238" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="5" customFormat="1">
+      <c r="A239" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="3">
+        <v>42340</v>
+      </c>
+      <c r="B240" t="s">
+        <v>658</v>
+      </c>
+      <c r="C240" t="s">
+        <v>230</v>
+      </c>
+      <c r="D240" t="s">
+        <v>659</v>
+      </c>
+      <c r="E240" t="s">
+        <v>660</v>
+      </c>
+      <c r="F240" t="s">
+        <v>100</v>
+      </c>
+      <c r="G240" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="3">
+        <v>42340</v>
+      </c>
+      <c r="B241" t="s">
+        <v>661</v>
+      </c>
+      <c r="C241" t="s">
+        <v>230</v>
+      </c>
+      <c r="D241" t="s">
+        <v>662</v>
+      </c>
+      <c r="E241" t="s">
+        <v>663</v>
+      </c>
+      <c r="F241" t="s">
+        <v>77</v>
+      </c>
+      <c r="G241" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="5" customFormat="1">
+      <c r="A242" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="5" customFormat="1">
+      <c r="A243" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B244" t="s">
+        <v>670</v>
+      </c>
+      <c r="C244" t="s">
+        <v>415</v>
+      </c>
+      <c r="D244" t="s">
+        <v>671</v>
+      </c>
+      <c r="E244" t="s">
+        <v>672</v>
+      </c>
+      <c r="F244" t="s">
+        <v>100</v>
+      </c>
+      <c r="G244" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B245" t="s">
+        <v>673</v>
+      </c>
+      <c r="C245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>674</v>
+      </c>
+      <c r="E245" t="s">
+        <v>675</v>
+      </c>
+      <c r="F245" t="s">
+        <v>41</v>
+      </c>
+      <c r="G245" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B246" t="s">
+        <v>676</v>
+      </c>
+      <c r="C246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>677</v>
+      </c>
+      <c r="E246" t="s">
+        <v>678</v>
+      </c>
+      <c r="F246" t="s">
+        <v>41</v>
+      </c>
+      <c r="G246" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B247" t="s">
+        <v>679</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247" t="s">
+        <v>680</v>
+      </c>
+      <c r="E247" t="s">
+        <v>681</v>
+      </c>
+      <c r="F247" t="s">
+        <v>41</v>
+      </c>
+      <c r="G247" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B248" t="s">
+        <v>682</v>
+      </c>
+      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248" t="s">
+        <v>683</v>
+      </c>
+      <c r="E248" t="s">
+        <v>684</v>
+      </c>
+      <c r="F248" t="s">
+        <v>41</v>
+      </c>
+      <c r="G248" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="5" customFormat="1">
+      <c r="A249" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="3">
+        <v>42338</v>
+      </c>
+      <c r="B250" t="s">
+        <v>688</v>
+      </c>
+      <c r="C250" t="s">
+        <v>201</v>
+      </c>
+      <c r="D250" t="s">
+        <v>689</v>
+      </c>
+      <c r="E250" t="s">
+        <v>690</v>
+      </c>
+      <c r="F250" t="s">
+        <v>77</v>
+      </c>
+      <c r="G250" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="5" customFormat="1">
+      <c r="A251" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="5" customFormat="1">
+      <c r="A252" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="5" customFormat="1">
+      <c r="A253" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="5" customFormat="1">
+      <c r="A254" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="5" customFormat="1">
+      <c r="A255" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="5" customFormat="1">
+      <c r="A256" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="5" customFormat="1">
+      <c r="A257" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="5" customFormat="1">
+      <c r="A258" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="5" customFormat="1">
+      <c r="A259" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="5" customFormat="1">
+      <c r="A260" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="5" customFormat="1">
+      <c r="A261" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="5" customFormat="1">
+      <c r="A262" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="5" customFormat="1">
+      <c r="A263" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="3">
+        <v>42335</v>
+      </c>
+      <c r="B264" t="s">
+        <v>730</v>
+      </c>
+      <c r="C264" t="s">
+        <v>230</v>
+      </c>
+      <c r="D264" t="s">
+        <v>731</v>
+      </c>
+      <c r="E264" t="s">
+        <v>732</v>
+      </c>
+      <c r="F264" t="s">
+        <v>77</v>
+      </c>
+      <c r="G264" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="3">
+        <v>42335</v>
+      </c>
+      <c r="B265" t="s">
+        <v>733</v>
+      </c>
+      <c r="C265" t="s">
+        <v>230</v>
+      </c>
+      <c r="D265" t="s">
+        <v>734</v>
+      </c>
+      <c r="E265" t="s">
+        <v>735</v>
+      </c>
+      <c r="F265" t="s">
+        <v>100</v>
+      </c>
+      <c r="G265" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" s="5" customFormat="1">
+      <c r="A266" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7312,18 +9845,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="72.875" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="63.75" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7349,575 +9883,530 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1">
-      <c r="A2" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F2" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
-      <c r="A3" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="4">
-        <v>42339</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1">
-      <c r="A5" s="4">
-        <v>42339</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>34</v>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E4" t="s">
+        <v>746</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1">
+      <c r="A5" s="8">
+        <v>42346</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1">
       <c r="A6" s="4">
-        <v>42339</v>
+        <v>42346</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>597</v>
+        <v>749</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>598</v>
+        <v>750</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1">
-      <c r="A7" s="4">
-        <v>42339</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1">
-      <c r="A8" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>42341</v>
+      </c>
+      <c r="B7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" t="s">
+        <v>753</v>
+      </c>
+      <c r="E7" t="s">
+        <v>754</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1">
+      <c r="A8" s="8">
+        <v>42341</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1">
       <c r="A9" s="4">
-        <v>42340</v>
+        <v>42347</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>604</v>
+        <v>757</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>758</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1">
       <c r="A10" s="4">
-        <v>42339</v>
+        <v>42347</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>607</v>
+        <v>759</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>760</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1">
-      <c r="A11" s="4">
-        <v>42339</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1">
-      <c r="A12" s="10">
-        <v>42341</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>615</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1">
+      <c r="A11" s="8">
+        <v>42347</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1">
+      <c r="A12" s="4">
+        <v>42346</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1">
       <c r="A13" s="4">
-        <v>42341</v>
+        <v>42346</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>616</v>
+        <v>765</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>41</v>
+        <v>767</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1">
       <c r="A14" s="4">
-        <v>42340</v>
+        <v>42346</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>619</v>
+        <v>768</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>100</v>
+        <v>769</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1">
       <c r="A15" s="4">
-        <v>42340</v>
+        <v>42346</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>619</v>
+        <v>770</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>100</v>
+        <v>771</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1">
       <c r="A16" s="4">
-        <v>42340</v>
+        <v>42346</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>624</v>
+        <v>772</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>100</v>
+        <v>773</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1">
-      <c r="A17" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1">
-      <c r="A18" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1">
+      <c r="A17" s="8">
+        <v>42346</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="9" customFormat="1">
+      <c r="A18" s="8">
+        <v>42346</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1">
       <c r="A19" s="4">
-        <v>42340</v>
+        <v>42346</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>619</v>
+        <v>778</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>100</v>
+        <v>779</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1">
-      <c r="A20" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1">
-      <c r="A21" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1">
-      <c r="A22" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1">
-      <c r="A23" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1">
-      <c r="A24" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1">
-      <c r="A25" s="4">
-        <v>42340</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="9" customFormat="1">
+      <c r="A20" s="8">
+        <v>42342</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="9" customFormat="1">
+      <c r="A21" s="8">
+        <v>42342</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="9" customFormat="1">
+      <c r="A22" s="8">
+        <v>42342</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1">
+      <c r="A23" s="8">
+        <v>42341</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1">
+      <c r="A24" s="8">
+        <v>42341</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1">
+      <c r="A25" s="8">
+        <v>42341</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1">
       <c r="A26" s="4">
-        <v>42340</v>
+        <v>42346</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>619</v>
+        <v>792</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>100</v>
+        <v>793</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1">
       <c r="A27" s="4">
-        <v>42340</v>
+        <v>42346</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>649</v>
+        <v>794</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>100</v>
+        <v>795</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1">
       <c r="A28" s="4">
-        <v>42340</v>
+        <v>42344</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>619</v>
+        <v>796</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>100</v>
+        <v>797</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1">
       <c r="A29" s="4">
-        <v>42340</v>
+        <v>42347</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>619</v>
+        <v>798</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>100</v>
+        <v>799</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1">
       <c r="A30" s="4">
-        <v>42340</v>
+        <v>42347</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>656</v>
+        <v>800</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>657</v>
+        <v>802</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>42</v>
@@ -7925,128 +10414,101 @@
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1">
       <c r="A31" s="4">
-        <v>42340</v>
+        <v>42344</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>619</v>
+        <v>804</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>100</v>
+        <v>805</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3">
-        <v>42340</v>
-      </c>
-      <c r="B32" t="s">
-        <v>661</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" t="s">
-        <v>662</v>
-      </c>
-      <c r="E32" t="s">
-        <v>663</v>
-      </c>
-      <c r="F32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3">
-        <v>42340</v>
-      </c>
-      <c r="B33" t="s">
-        <v>664</v>
-      </c>
-      <c r="C33" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" t="s">
-        <v>665</v>
-      </c>
-      <c r="E33" t="s">
-        <v>666</v>
-      </c>
-      <c r="F33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1">
-      <c r="A34" s="4">
-        <v>42339</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1">
-      <c r="A35" s="4">
-        <v>42339</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1">
+      <c r="A32" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1">
+      <c r="A33" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="11" customFormat="1">
+      <c r="A34" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="11" customFormat="1">
+      <c r="A35" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3">
-        <v>42339</v>
+        <v>42347</v>
       </c>
       <c r="B36" t="s">
-        <v>673</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>415</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>674</v>
+        <v>815</v>
       </c>
       <c r="E36" t="s">
-        <v>675</v>
+        <v>816</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>101</v>
@@ -8054,68 +10516,59 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3">
-        <v>42339</v>
+        <v>42347</v>
       </c>
       <c r="B37" t="s">
-        <v>676</v>
+        <v>817</v>
       </c>
       <c r="C37" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>677</v>
+        <v>818</v>
       </c>
       <c r="E37" t="s">
-        <v>678</v>
+        <v>819</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3">
-        <v>42339</v>
-      </c>
-      <c r="B38" t="s">
-        <v>679</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>680</v>
-      </c>
-      <c r="E38" t="s">
-        <v>681</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>101</v>
+    <row r="38" spans="1:7" s="11" customFormat="1">
+      <c r="A38" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3">
-        <v>42339</v>
+        <v>42347</v>
       </c>
       <c r="B39" t="s">
-        <v>682</v>
+        <v>823</v>
       </c>
       <c r="C39" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>683</v>
+        <v>824</v>
       </c>
       <c r="E39" t="s">
-        <v>684</v>
+        <v>825</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G39" t="s">
         <v>101</v>
@@ -8123,626 +10576,2848 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3">
-        <v>42339</v>
+        <v>42347</v>
       </c>
       <c r="B40" t="s">
-        <v>685</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>686</v>
+        <v>826</v>
       </c>
       <c r="E40" t="s">
-        <v>687</v>
+        <v>827</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1">
-      <c r="A41" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>42</v>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>828</v>
+      </c>
+      <c r="E41" t="s">
+        <v>829</v>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3">
-        <v>42338</v>
+        <v>42347</v>
       </c>
       <c r="B42" t="s">
-        <v>691</v>
+        <v>830</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>692</v>
+        <v>831</v>
       </c>
       <c r="E42" t="s">
-        <v>693</v>
+        <v>832</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="5" customFormat="1">
-      <c r="A43" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="F43" s="5" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B43" t="s">
+        <v>833</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>834</v>
+      </c>
+      <c r="E43" t="s">
+        <v>835</v>
+      </c>
+      <c r="F43" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B44" t="s">
+        <v>836</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>837</v>
+      </c>
+      <c r="E44" t="s">
+        <v>838</v>
+      </c>
+      <c r="F44" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="5" customFormat="1">
-      <c r="A44" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="5" customFormat="1">
-      <c r="A45" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="5" customFormat="1">
-      <c r="A46" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="5" customFormat="1">
-      <c r="A47" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="5" customFormat="1">
-      <c r="A48" s="4">
-        <v>42338</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>42</v>
+      <c r="G44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B45" t="s">
+        <v>839</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>840</v>
+      </c>
+      <c r="E45" t="s">
+        <v>841</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B46" t="s">
+        <v>842</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>843</v>
+      </c>
+      <c r="E46" t="s">
+        <v>844</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>845</v>
+      </c>
+      <c r="E47" t="s">
+        <v>846</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>847</v>
+      </c>
+      <c r="E48" t="s">
+        <v>848</v>
+      </c>
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1">
       <c r="A49" s="4">
-        <v>42338</v>
+        <v>42345</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>712</v>
+        <v>849</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>713</v>
+        <v>850</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>714</v>
+        <v>851</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="5" customFormat="1">
-      <c r="A50" s="4">
-        <v>42335</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="5" customFormat="1">
-      <c r="A51" s="4">
-        <v>42335</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="5" customFormat="1">
-      <c r="A52" s="4">
-        <v>42335</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="5" customFormat="1">
-      <c r="A53" s="4">
-        <v>42335</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="5" customFormat="1">
-      <c r="A54" s="4">
-        <v>42335</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="5" customFormat="1">
-      <c r="A55" s="4">
-        <v>42335</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="3">
-        <v>42335</v>
-      </c>
-      <c r="B56" t="s">
-        <v>733</v>
-      </c>
-      <c r="C56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" t="s">
-        <v>734</v>
-      </c>
-      <c r="E56" t="s">
-        <v>735</v>
-      </c>
-      <c r="F56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="3">
-        <v>42335</v>
-      </c>
-      <c r="B57" t="s">
-        <v>736</v>
-      </c>
-      <c r="C57" t="s">
-        <v>230</v>
-      </c>
-      <c r="D57" t="s">
-        <v>737</v>
-      </c>
-      <c r="E57" t="s">
-        <v>738</v>
-      </c>
-      <c r="F57" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" t="s">
-        <v>101</v>
+    <row r="50" spans="1:7" s="11" customFormat="1">
+      <c r="A50" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="11" customFormat="1">
+      <c r="A51" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="11" customFormat="1">
+      <c r="A52" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="11" customFormat="1">
+      <c r="A53" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="11" customFormat="1">
+      <c r="A54" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="11" customFormat="1">
+      <c r="A55" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="11" customFormat="1">
+      <c r="A56" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="11" customFormat="1">
+      <c r="A57" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="11" customFormat="1">
       <c r="A58" s="10">
-        <v>42334</v>
+        <v>42347</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>739</v>
+        <v>874</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>436</v>
+        <v>875</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>437</v>
+        <v>876</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="5" customFormat="1">
-      <c r="A59" s="4">
-        <v>42334</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>34</v>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="11" customFormat="1">
+      <c r="A59" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="11" customFormat="1">
       <c r="A60" s="10">
-        <v>42334</v>
+        <v>42347</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>742</v>
+        <v>856</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>441</v>
+        <v>881</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="11" customFormat="1">
       <c r="A61" s="10">
-        <v>42334</v>
+        <v>42347</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>442</v>
+        <v>882</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>443</v>
+        <v>883</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>444</v>
+        <v>884</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="11" customFormat="1">
       <c r="A62" s="10">
-        <v>42334</v>
+        <v>42347</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>743</v>
+        <v>882</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>445</v>
+        <v>885</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>446</v>
+        <v>886</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="11" customFormat="1">
       <c r="A63" s="10">
-        <v>42334</v>
+        <v>42347</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>442</v>
+        <v>887</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>447</v>
+        <v>888</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>448</v>
+        <v>889</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="11" customFormat="1">
       <c r="A64" s="10">
-        <v>42334</v>
+        <v>42347</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>442</v>
+        <v>890</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>449</v>
+        <v>891</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>450</v>
+        <v>892</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="11" customFormat="1">
       <c r="A65" s="10">
-        <v>42334</v>
+        <v>42347</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>442</v>
+        <v>893</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>451</v>
+        <v>894</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>452</v>
+        <v>895</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="11" customFormat="1">
-      <c r="A66" s="10">
-        <v>42334</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="11" customFormat="1">
-      <c r="A67" s="10">
-        <v>42334</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="11" customFormat="1">
-      <c r="A68" s="10">
-        <v>42334</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="11" customFormat="1">
-      <c r="A69" s="10">
-        <v>42334</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="11" customFormat="1">
-      <c r="A70" s="10">
-        <v>42334</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="11" customFormat="1">
-      <c r="A71" s="10">
-        <v>42334</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="11" customFormat="1">
-      <c r="A72" s="10">
-        <v>42334</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>740</v>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="5" customFormat="1">
+      <c r="A66" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1">
+      <c r="A67" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1">
+      <c r="A68" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1">
+      <c r="A69" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="5" customFormat="1">
+      <c r="A70" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="5" customFormat="1">
+      <c r="A71" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="5" customFormat="1">
+      <c r="A72" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="5" customFormat="1">
+      <c r="A73" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="5" customFormat="1">
+      <c r="A74" s="4">
+        <v>42347</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="11" customFormat="1">
+      <c r="A75" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="11" customFormat="1">
+      <c r="A76" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="11" customFormat="1">
+      <c r="A77" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="11" customFormat="1">
+      <c r="A78" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="11" customFormat="1">
+      <c r="A79" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="11" customFormat="1">
+      <c r="A80" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="11" customFormat="1">
+      <c r="A81" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="11" customFormat="1">
+      <c r="A82" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="11" customFormat="1">
+      <c r="A83" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1">
+      <c r="A84" s="4">
+        <v>42346</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="A85" s="4">
+        <v>42346</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1">
+      <c r="A86" s="4">
+        <v>42346</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3">
+        <v>42346</v>
+      </c>
+      <c r="B87" t="s">
+        <v>946</v>
+      </c>
+      <c r="C87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" t="s">
+        <v>947</v>
+      </c>
+      <c r="E87" t="s">
+        <v>948</v>
+      </c>
+      <c r="F87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3">
+        <v>42346</v>
+      </c>
+      <c r="B88" t="s">
+        <v>949</v>
+      </c>
+      <c r="C88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" t="s">
+        <v>950</v>
+      </c>
+      <c r="E88" t="s">
+        <v>951</v>
+      </c>
+      <c r="F88" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="3">
+        <v>42346</v>
+      </c>
+      <c r="B89" t="s">
+        <v>952</v>
+      </c>
+      <c r="C89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" t="s">
+        <v>953</v>
+      </c>
+      <c r="E89" t="s">
+        <v>954</v>
+      </c>
+      <c r="F89" t="s">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="3">
+        <v>42346</v>
+      </c>
+      <c r="B90" t="s">
+        <v>955</v>
+      </c>
+      <c r="C90" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" t="s">
+        <v>956</v>
+      </c>
+      <c r="E90" t="s">
+        <v>957</v>
+      </c>
+      <c r="F90" t="s">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B91" t="s">
+        <v>958</v>
+      </c>
+      <c r="C91" t="s">
+        <v>415</v>
+      </c>
+      <c r="D91" t="s">
+        <v>959</v>
+      </c>
+      <c r="E91" t="s">
+        <v>960</v>
+      </c>
+      <c r="F91" t="s">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B92" t="s">
+        <v>961</v>
+      </c>
+      <c r="C92" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" t="s">
+        <v>962</v>
+      </c>
+      <c r="E92" t="s">
+        <v>963</v>
+      </c>
+      <c r="F92" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B93" t="s">
+        <v>961</v>
+      </c>
+      <c r="C93" t="s">
+        <v>415</v>
+      </c>
+      <c r="D93" t="s">
+        <v>964</v>
+      </c>
+      <c r="E93" t="s">
+        <v>965</v>
+      </c>
+      <c r="F93" t="s">
+        <v>100</v>
+      </c>
+      <c r="G93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B94" t="s">
+        <v>961</v>
+      </c>
+      <c r="C94" t="s">
+        <v>415</v>
+      </c>
+      <c r="D94" t="s">
+        <v>966</v>
+      </c>
+      <c r="E94" t="s">
+        <v>967</v>
+      </c>
+      <c r="F94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B95" t="s">
+        <v>961</v>
+      </c>
+      <c r="C95" t="s">
+        <v>415</v>
+      </c>
+      <c r="D95" t="s">
+        <v>968</v>
+      </c>
+      <c r="E95" t="s">
+        <v>969</v>
+      </c>
+      <c r="F95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B96" t="s">
+        <v>961</v>
+      </c>
+      <c r="C96" t="s">
+        <v>415</v>
+      </c>
+      <c r="D96" t="s">
+        <v>970</v>
+      </c>
+      <c r="E96" t="s">
+        <v>971</v>
+      </c>
+      <c r="F96" t="s">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B97" t="s">
+        <v>961</v>
+      </c>
+      <c r="C97" t="s">
+        <v>415</v>
+      </c>
+      <c r="D97" t="s">
+        <v>972</v>
+      </c>
+      <c r="E97" t="s">
+        <v>973</v>
+      </c>
+      <c r="F97" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B98" t="s">
+        <v>961</v>
+      </c>
+      <c r="C98" t="s">
+        <v>415</v>
+      </c>
+      <c r="D98" t="s">
+        <v>974</v>
+      </c>
+      <c r="E98" t="s">
+        <v>975</v>
+      </c>
+      <c r="F98" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B99" t="s">
+        <v>961</v>
+      </c>
+      <c r="C99" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" t="s">
+        <v>976</v>
+      </c>
+      <c r="E99" t="s">
+        <v>977</v>
+      </c>
+      <c r="F99" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C100" t="s">
+        <v>415</v>
+      </c>
+      <c r="D100" t="s">
+        <v>978</v>
+      </c>
+      <c r="E100" t="s">
+        <v>979</v>
+      </c>
+      <c r="F100" t="s">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B101" t="s">
+        <v>961</v>
+      </c>
+      <c r="C101" t="s">
+        <v>415</v>
+      </c>
+      <c r="D101" t="s">
+        <v>980</v>
+      </c>
+      <c r="E101" t="s">
+        <v>981</v>
+      </c>
+      <c r="F101" t="s">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B102" t="s">
+        <v>961</v>
+      </c>
+      <c r="C102" t="s">
+        <v>415</v>
+      </c>
+      <c r="D102" t="s">
+        <v>982</v>
+      </c>
+      <c r="E102" t="s">
+        <v>983</v>
+      </c>
+      <c r="F102" t="s">
+        <v>77</v>
+      </c>
+      <c r="G102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B103" t="s">
+        <v>961</v>
+      </c>
+      <c r="C103" t="s">
+        <v>415</v>
+      </c>
+      <c r="D103" t="s">
+        <v>984</v>
+      </c>
+      <c r="E103" t="s">
+        <v>985</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B104" t="s">
+        <v>961</v>
+      </c>
+      <c r="C104" t="s">
+        <v>415</v>
+      </c>
+      <c r="D104" t="s">
+        <v>986</v>
+      </c>
+      <c r="E104" t="s">
+        <v>987</v>
+      </c>
+      <c r="F104" t="s">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B105" t="s">
+        <v>961</v>
+      </c>
+      <c r="C105" t="s">
+        <v>415</v>
+      </c>
+      <c r="D105" t="s">
+        <v>988</v>
+      </c>
+      <c r="E105" t="s">
+        <v>989</v>
+      </c>
+      <c r="F105" t="s">
+        <v>100</v>
+      </c>
+      <c r="G105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B106" t="s">
+        <v>961</v>
+      </c>
+      <c r="C106" t="s">
+        <v>415</v>
+      </c>
+      <c r="D106" t="s">
+        <v>990</v>
+      </c>
+      <c r="E106" t="s">
+        <v>991</v>
+      </c>
+      <c r="F106" t="s">
+        <v>77</v>
+      </c>
+      <c r="G106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B107" t="s">
+        <v>961</v>
+      </c>
+      <c r="C107" t="s">
+        <v>415</v>
+      </c>
+      <c r="D107" t="s">
+        <v>992</v>
+      </c>
+      <c r="E107" t="s">
+        <v>993</v>
+      </c>
+      <c r="F107" t="s">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B108" t="s">
+        <v>961</v>
+      </c>
+      <c r="C108" t="s">
+        <v>415</v>
+      </c>
+      <c r="D108" t="s">
+        <v>994</v>
+      </c>
+      <c r="E108" t="s">
+        <v>995</v>
+      </c>
+      <c r="F108" t="s">
+        <v>77</v>
+      </c>
+      <c r="G108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B109" t="s">
+        <v>961</v>
+      </c>
+      <c r="C109" t="s">
+        <v>415</v>
+      </c>
+      <c r="D109" t="s">
+        <v>996</v>
+      </c>
+      <c r="E109" t="s">
+        <v>997</v>
+      </c>
+      <c r="F109" t="s">
+        <v>77</v>
+      </c>
+      <c r="G109" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B110" t="s">
+        <v>961</v>
+      </c>
+      <c r="C110" t="s">
+        <v>415</v>
+      </c>
+      <c r="D110" t="s">
+        <v>998</v>
+      </c>
+      <c r="E110" t="s">
+        <v>999</v>
+      </c>
+      <c r="F110" t="s">
+        <v>77</v>
+      </c>
+      <c r="G110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="11" customFormat="1">
+      <c r="A111" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B112" t="s">
+        <v>961</v>
+      </c>
+      <c r="C112" t="s">
+        <v>415</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F112" t="s">
+        <v>77</v>
+      </c>
+      <c r="G112" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B113" t="s">
+        <v>961</v>
+      </c>
+      <c r="C113" t="s">
+        <v>415</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F113" t="s">
+        <v>100</v>
+      </c>
+      <c r="G113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B114" t="s">
+        <v>961</v>
+      </c>
+      <c r="C114" t="s">
+        <v>415</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F114" t="s">
+        <v>100</v>
+      </c>
+      <c r="G114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C115" t="s">
+        <v>415</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C116" t="s">
+        <v>415</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F116" t="s">
+        <v>163</v>
+      </c>
+      <c r="G116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C117" t="s">
+        <v>415</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F117" t="s">
+        <v>163</v>
+      </c>
+      <c r="G117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C118" t="s">
+        <v>415</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F118" t="s">
+        <v>163</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C119" t="s">
+        <v>415</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F119" t="s">
+        <v>163</v>
+      </c>
+      <c r="G119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C120" t="s">
+        <v>415</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F120" t="s">
+        <v>163</v>
+      </c>
+      <c r="G120" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C121" t="s">
+        <v>415</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F121" t="s">
+        <v>77</v>
+      </c>
+      <c r="G121" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C122" t="s">
+        <v>415</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F122" t="s">
+        <v>77</v>
+      </c>
+      <c r="G122" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C123" t="s">
+        <v>415</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F123" t="s">
+        <v>77</v>
+      </c>
+      <c r="G123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C124" t="s">
+        <v>415</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F124" t="s">
+        <v>77</v>
+      </c>
+      <c r="G124" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C125" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F125" t="s">
+        <v>77</v>
+      </c>
+      <c r="G125" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C126" t="s">
+        <v>415</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F126" t="s">
+        <v>77</v>
+      </c>
+      <c r="G126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C127" t="s">
+        <v>415</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F127" t="s">
+        <v>77</v>
+      </c>
+      <c r="G127" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C128" t="s">
+        <v>415</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F128" t="s">
+        <v>100</v>
+      </c>
+      <c r="G128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="11" customFormat="1">
+      <c r="A129" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="11" customFormat="1">
+      <c r="A130" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="11" customFormat="1">
+      <c r="A131" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="11" customFormat="1">
+      <c r="A132" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="5" customFormat="1">
+      <c r="A133" s="4">
+        <v>42345</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="11" customFormat="1">
+      <c r="A134" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="11" customFormat="1">
+      <c r="A135" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="11" customFormat="1">
+      <c r="A136" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="11" customFormat="1">
+      <c r="A137" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="11" customFormat="1">
+      <c r="A138" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="11" customFormat="1">
+      <c r="A139" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="11" customFormat="1">
+      <c r="A140" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="11" customFormat="1">
+      <c r="A141" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="11" customFormat="1">
+      <c r="A142" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="11" customFormat="1">
+      <c r="A143" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="11" customFormat="1">
+      <c r="A144" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="11" customFormat="1">
+      <c r="A145" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="11" customFormat="1">
+      <c r="A146" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="11" customFormat="1">
+      <c r="A147" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="11" customFormat="1">
+      <c r="A148" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="11" customFormat="1">
+      <c r="A149" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="11" customFormat="1">
+      <c r="A150" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="11" customFormat="1">
+      <c r="A151" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="11" customFormat="1">
+      <c r="A152" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="11" customFormat="1">
+      <c r="A153" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="11" customFormat="1">
+      <c r="A154" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="11" customFormat="1">
+      <c r="A155" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="11" customFormat="1">
+      <c r="A156" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="11" customFormat="1">
+      <c r="A157" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="11" customFormat="1">
+      <c r="A158" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="11" customFormat="1">
+      <c r="A159" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="11" customFormat="1">
+      <c r="A160" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="11" customFormat="1">
+      <c r="A161" s="10">
+        <v>42345</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="5" customFormat="1">
+      <c r="A162" s="4">
+        <v>42342</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="5" customFormat="1">
+      <c r="A163" s="4">
+        <v>42342</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="5" customFormat="1">
+      <c r="A164" s="4">
+        <v>42342</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="5" customFormat="1">
+      <c r="A165" s="4">
+        <v>42342</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="5" customFormat="1">
+      <c r="A166" s="4">
+        <v>42342</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="3">
+        <v>42341</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C167" t="s">
+        <v>230</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F167" t="s">
+        <v>100</v>
+      </c>
+      <c r="G167" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="3">
+        <v>42341</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C168" t="s">
+        <v>230</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F168" t="s">
+        <v>77</v>
+      </c>
+      <c r="G168" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="11" customFormat="1">
+      <c r="A169" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="11" customFormat="1">
+      <c r="A170" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="11" customFormat="1">
+      <c r="A171" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="11" customFormat="1">
+      <c r="A172" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="11" customFormat="1">
+      <c r="A173" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="11" customFormat="1">
+      <c r="A174" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="11" customFormat="1">
+      <c r="A175" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="11" customFormat="1">
+      <c r="A176" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="11" customFormat="1">
+      <c r="A177" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="11" customFormat="1">
+      <c r="A178" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="11" customFormat="1">
+      <c r="A179" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="5" customFormat="1">
+      <c r="A180" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="5" customFormat="1">
+      <c r="A181" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="5" customFormat="1">
+      <c r="A182" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="5" customFormat="1">
+      <c r="A183" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="5" customFormat="1">
+      <c r="A184" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="5" customFormat="1">
+      <c r="A185" s="4">
+        <v>42341</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="3">
+        <v>42341</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C186" t="s">
+        <v>103</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F186" t="s">
+        <v>100</v>
+      </c>
+      <c r="G186" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="11" customFormat="1">
+      <c r="A187" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1495">
   <si>
     <t>wordpress</t>
   </si>
@@ -3177,6 +3177,1411 @@
   </si>
   <si>
     <t>1203_1210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireEye Wormable Remote Code Execution in MIP JAR Analysis</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39007/</t>
+  </si>
+  <si>
+    <t>Joomla 1.5 - 3.4.5 - Object Injection Remote Command Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38977/</t>
+  </si>
+  <si>
+    <t>ManageEngine Desktop Central 9 FileUploadServlet ConnectionId Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38982/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8249</t>
+  </si>
+  <si>
+    <t>Jenkins CLI RMI Java Deserialization Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38983/</t>
+  </si>
+  <si>
+    <t>CVErepeat</t>
+  </si>
+  <si>
+    <t>Siemens Simatic S7 1200 CPU Command Module (MSF)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38964/</t>
+  </si>
+  <si>
+    <t>Microsoft Office / COM Object DLL Planting with comsvcs.dll Delay Load of mqrt.dll (MS15-132)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38968/</t>
+  </si>
+  <si>
+    <t>Legend Perl IRC Bot Remote Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38973/</t>
+  </si>
+  <si>
+    <t>Xdh / LinuxNet Perlbot / fBot IRC Bot Remote Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38974/</t>
+  </si>
+  <si>
+    <t>Ovidentia newsletter Module 2.2 - (admin.php) Remote File Inclusion Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38991/</t>
+  </si>
+  <si>
+    <t>Ovidentia absences Module 2.64 - Remote File Inclusion</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38981/</t>
+  </si>
+  <si>
+    <t>Ovidentia bulletindoc Module 2.9 - Multiple Remote File Inclusion Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38989/</t>
+  </si>
+  <si>
+    <t>ECommerceMajor - (productdtl.php, prodid param) SQL Injection Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38965/</t>
+  </si>
+  <si>
+    <t>WordPress Admin Management Xtended Plugin 2.4.0 - Privilege escalation</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38966/</t>
+  </si>
+  <si>
+    <t>Polycom VVX-Series Business Media Phones - Path Traversal Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38971/</t>
+  </si>
+  <si>
+    <t>Bitrix bitrix.mpbuilder Module 1.0.10 - Local File Inclusion</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38975/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8358</t>
+  </si>
+  <si>
+    <t>Bitrix bitrix.xscan Module 1.0.3 - Directory Traversal</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38976/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8357</t>
+  </si>
+  <si>
+    <t>Wireshark - iseries_parse_packet Heap-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38992/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissect_tds7_colmetadata_token Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38993/</t>
+  </si>
+  <si>
+    <t>Wireshark - wmem_alloc Assertion Failure</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38994/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissect_zcl_pwr_prof_pwrprofstatersp Static Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38995/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissct_rsl_ipaccess_msg Static Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38996/</t>
+  </si>
+  <si>
+    <t>Wireshark - file_read (wtap_read_bytes_or_eof/mp2t_find_next_pcr) Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38997/</t>
+  </si>
+  <si>
+    <t>Wireshark - memcpy (get_value / dissect_btatt) SIGSEGV</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38998/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissect_nbap_MACdPDU_Size SIGSEGV</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38999/</t>
+  </si>
+  <si>
+    <t>Wireshark - my_dgt_tbcd_unpack Static Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39000/</t>
+  </si>
+  <si>
+    <t>Wireshark - ascend_seek Static Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39001/</t>
+  </si>
+  <si>
+    <t>Wireshark - addresses_equal (dissect_rsvp_common) Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39002/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissect_diameter_base_framed_ipv6_prefix Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39003/</t>
+  </si>
+  <si>
+    <t>Wireshark - find_signature Stack-Based Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39004/</t>
+  </si>
+  <si>
+    <t>Wireshark - AirPDcapPacketProcess Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39005/</t>
+  </si>
+  <si>
+    <t>Wireshark - getRate Stack-Based Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39006/</t>
+  </si>
+  <si>
+    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - Invalid Pointer Dereference</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38978/</t>
+  </si>
+  <si>
+    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - _FXCLI_SetConfFileChunk Stack Buffer...</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38979/</t>
+  </si>
+  <si>
+    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - _FXCLI_GetConfFileChunk Stack Buffer...</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38980/</t>
+  </si>
+  <si>
+    <t>Adobe Flash Type Confusion in IExternalizable.readExternal When Performing Local Serialization</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38969/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7647</t>
+  </si>
+  <si>
+    <t>Adobe Flash Type Confusion in Serialization with ObjectEncoder.dynamicPropertyWriter</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38970/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7648</t>
+  </si>
+  <si>
+    <t>Internet Explorer 11 MSHTML!CObjectElement Use-After-Free Vulnerability (MS15-124)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38972/</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38930/</t>
+  </si>
+  <si>
+    <t>IBM WebSphere Application Server Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121701</t>
+  </si>
+  <si>
+    <t>CVE-2014-3577,CVE-2012-6153</t>
+  </si>
+  <si>
+    <t>Apache TomEE Remote Code Execution Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121604</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121603</t>
+  </si>
+  <si>
+    <t>BIND Multiple Denial of Service Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121602</t>
+  </si>
+  <si>
+    <t>CVE-2015-8000,CVE-2015-8461</t>
+  </si>
+  <si>
+    <t>Google Chrome Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121601</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Joomla Remote Code Execution Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121501</t>
+  </si>
+  <si>
+    <t>Apple iTunes Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121402</t>
+  </si>
+  <si>
+    <t>Fortinet Product OpenSSL Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>openssl</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121401</t>
+  </si>
+  <si>
+    <t>CVE-2015-1788,CVE-2015-1789,CVE-2015-1790,CVE-2015-1791,CVE-2015-1792</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121001</t>
+  </si>
+  <si>
+    <t>Cisco Small Business TFTP固件圖形上傳漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32034</t>
+  </si>
+  <si>
+    <t>CVE-2015-6403</t>
+  </si>
+  <si>
+    <t>Schneider Electric ProClima 多個緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32033</t>
+  </si>
+  <si>
+    <t>libxml2 xmlParseXMLDecl函數信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32032</t>
+  </si>
+  <si>
+    <t>CVE-2015-8317</t>
+  </si>
+  <si>
+    <t>思科多個產品Java反序列化漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32031</t>
+  </si>
+  <si>
+    <t>CVE-2015-6420</t>
+  </si>
+  <si>
+    <t>Cacti host_new_graphs_save函數SQL注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32000</t>
+  </si>
+  <si>
+    <t>CVE-2015-8377</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31999</t>
+  </si>
+  <si>
+    <t>CVE-2015-8570</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31998</t>
+  </si>
+  <si>
+    <t>CVE-2015-8571</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31997</t>
+  </si>
+  <si>
+    <t>CVE-2015-8572</t>
+  </si>
+  <si>
+    <t>Adobe Reader DC AGM 遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31996</t>
+  </si>
+  <si>
+    <t>CVE-2015-8458</t>
+  </si>
+  <si>
+    <t>Apache TomEE遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31995</t>
+  </si>
+  <si>
+    <t>Apple Xcode安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31994</t>
+  </si>
+  <si>
+    <t>CVE-2015-7082</t>
+  </si>
+  <si>
+    <t>Apple Safari WebKit內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31993</t>
+  </si>
+  <si>
+    <t>CVE-2015-7101</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31992</t>
+  </si>
+  <si>
+    <t>CVE-2015-7102</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31991</t>
+  </si>
+  <si>
+    <t>CVE-2015-7103</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31990</t>
+  </si>
+  <si>
+    <t>CVE-2015-7100</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31989</t>
+  </si>
+  <si>
+    <t>CVE-2015-7098</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31988</t>
+  </si>
+  <si>
+    <t>CVE-2015-7099</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31987</t>
+  </si>
+  <si>
+    <t>CVE-2015-7097</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31986</t>
+  </si>
+  <si>
+    <t>CVE-2015-7084</t>
+  </si>
+  <si>
+    <t>Apple iOS kernel 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31985</t>
+  </si>
+  <si>
+    <t>CVE-2015-7083</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31984</t>
+  </si>
+  <si>
+    <t>CVE-2015-7096</t>
+  </si>
+  <si>
+    <t>Apple Safari URL欺騙漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31983</t>
+  </si>
+  <si>
+    <t>CVE-2015-7093</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31982</t>
+  </si>
+  <si>
+    <t>CVE-2015-7095</t>
+  </si>
+  <si>
+    <t>Apple Safari HSTS機制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31981</t>
+  </si>
+  <si>
+    <t>CVE-2015-7094</t>
+  </si>
+  <si>
+    <t>PHP phar_parse_zipfile函數單字節溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32030</t>
+  </si>
+  <si>
+    <t>CVE-2015-7804</t>
+  </si>
+  <si>
+    <t>Cisco Unity Connection跨站請求僞造漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32029</t>
+  </si>
+  <si>
+    <t>CVE-2015-6408</t>
+  </si>
+  <si>
+    <t>Cisco Prime Service Catalog Web接口未授權訪問漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32028</t>
+  </si>
+  <si>
+    <t>CVE-2015-6395</t>
+  </si>
+  <si>
+    <t>Apple iOS LaunchServices組件內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32027</t>
+  </si>
+  <si>
+    <t>CVE-2015-7113</t>
+  </si>
+  <si>
+    <t>Apple iOS IOHIDFamily API內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32026</t>
+  </si>
+  <si>
+    <t>CVE-2015-7112</t>
+  </si>
+  <si>
+    <t>Apple OS X CoreMedia Playback內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32025</t>
+  </si>
+  <si>
+    <t>CVE-2015-7075</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32024</t>
+  </si>
+  <si>
+    <t>CVE-2015-7111</t>
+  </si>
+  <si>
+    <t>Apple iOS Intel Graphics Driver內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32023</t>
+  </si>
+  <si>
+    <t>CVE-2015-7106</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32022</t>
+  </si>
+  <si>
+    <t>CVE-2015-7104</t>
+  </si>
+  <si>
+    <t>Apple iOS QuickLook內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32021</t>
+  </si>
+  <si>
+    <t>CVE-2015-7107</t>
+  </si>
+  <si>
+    <t>Apple OS X IOAcceleratorFamily內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32020</t>
+  </si>
+  <si>
+    <t>CVE-2015-7109</t>
+  </si>
+  <si>
+    <t>Apple OS X Disk Images組件內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32019</t>
+  </si>
+  <si>
+    <t>CVE-2015-7110</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32018</t>
+  </si>
+  <si>
+    <t>CVE-2015-7074</t>
+  </si>
+  <si>
+    <t>Apple iOS CoreGraphics內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32017</t>
+  </si>
+  <si>
+    <t>CVE-2015-7105</t>
+  </si>
+  <si>
+    <t>Apple OS X 空指針間接引用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32016</t>
+  </si>
+  <si>
+    <t>CVE-2015-7076</t>
+  </si>
+  <si>
+    <t>Apple OS X 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32015</t>
+  </si>
+  <si>
+    <t>CVE-2015-7108</t>
+  </si>
+  <si>
+    <t>Apple OS X內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32014</t>
+  </si>
+  <si>
+    <t>CVE-2015-7073</t>
+  </si>
+  <si>
+    <t>Cisco Unified Computing System (UCS)拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32013</t>
+  </si>
+  <si>
+    <t>CVE-2015-6415</t>
+  </si>
+  <si>
+    <t>Cisco FireSIGHT Management Center GET請求信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32012</t>
+  </si>
+  <si>
+    <t>CVE-2015-6419</t>
+  </si>
+  <si>
+    <t>Cisco DPC3939路由器管理Web接口命令注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32011</t>
+  </si>
+  <si>
+    <t>CVE-2015-6361</t>
+  </si>
+  <si>
+    <t>Cisco Prime Collaboration Assurance默認帳戶憑證漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32010</t>
+  </si>
+  <si>
+    <t>CVE-2015-6389</t>
+  </si>
+  <si>
+    <t>Cisco Emergency Responder 跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32009</t>
+  </si>
+  <si>
+    <t>CVE-2015-6400</t>
+  </si>
+  <si>
+    <t>Cisco Emergency Responder 跨站請求僞造漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32008</t>
+  </si>
+  <si>
+    <t>CVE-2015-6405</t>
+  </si>
+  <si>
+    <t>Apple iOS iBooks信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32007</t>
+  </si>
+  <si>
+    <t>CVE-2015-7081</t>
+  </si>
+  <si>
+    <t>Cisco Emergency Responder 目錄遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32006</t>
+  </si>
+  <si>
+    <t>CVE-2015-6406</t>
+  </si>
+  <si>
+    <t>Apple iOS Siri信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32005</t>
+  </si>
+  <si>
+    <t>CVE-2015-7080</t>
+  </si>
+  <si>
+    <t>Apple iOS dyld 任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32004</t>
+  </si>
+  <si>
+    <t>CVE-2015-7079</t>
+  </si>
+  <si>
+    <t>Apple OS X 權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32003</t>
+  </si>
+  <si>
+    <t>CVE-2015-7078</t>
+  </si>
+  <si>
+    <t>Apple OS X 越界內存訪問漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32002</t>
+  </si>
+  <si>
+    <t>CVE-2015-7077</t>
+  </si>
+  <si>
+    <t>Cisco Emergency Responder Web框架任意文件上傳漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32001</t>
+  </si>
+  <si>
+    <t>CVE-2015-6407</t>
+  </si>
+  <si>
+    <t>Cisco Small Business RV路由器信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31980</t>
+  </si>
+  <si>
+    <t>CVE-2015-6418</t>
+  </si>
+  <si>
+    <t>Cisco TelePresence Video Communication Server信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31979</t>
+  </si>
+  <si>
+    <t>CVE-2015-6414</t>
+  </si>
+  <si>
+    <t>Cisco TelePresence Video Communication Server Expressway未授權訪問漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31978</t>
+  </si>
+  <si>
+    <t>CVE-2015-6413</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR內存破壞漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31977</t>
+  </si>
+  <si>
+    <t>CVE-2015-8419</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31976</t>
+  </si>
+  <si>
+    <t>CVE-2015-8408</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR訪問限制繞過漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31975</t>
+  </si>
+  <si>
+    <t>CVE-2015-8409</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31974</t>
+  </si>
+  <si>
+    <t>CVE-2015-8410</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31973</t>
+  </si>
+  <si>
+    <t>CVE-2015-8411</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31972</t>
+  </si>
+  <si>
+    <t>CVE-2015-8412</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31971</t>
+  </si>
+  <si>
+    <t>CVE-2015-8413</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31970</t>
+  </si>
+  <si>
+    <t>CVE-2015-8414</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31969</t>
+  </si>
+  <si>
+    <t>CVE-2015-8415</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31968</t>
+  </si>
+  <si>
+    <t>CVE-2015-8416</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31967</t>
+  </si>
+  <si>
+    <t>CVE-2015-8417</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31966</t>
+  </si>
+  <si>
+    <t>CVE-2015-8418</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR棧緩衝區溢出漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31965</t>
+  </si>
+  <si>
+    <t>CVE-2015-8407</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31964</t>
+  </si>
+  <si>
+    <t>CVE-2015-8406</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31963</t>
+  </si>
+  <si>
+    <t>CVE-2015-8405</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31962</t>
+  </si>
+  <si>
+    <t>CVE-2015-8404</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31961</t>
+  </si>
+  <si>
+    <t>CVE-2015-8403</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31960</t>
+  </si>
+  <si>
+    <t>CVE-2015-8402</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31959</t>
+  </si>
+  <si>
+    <t>CVE-2015-8401</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31958</t>
+  </si>
+  <si>
+    <t>CVE-2015-8071</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31957</t>
+  </si>
+  <si>
+    <t>CVE-2015-8069</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31956</t>
+  </si>
+  <si>
+    <t>CVE-2015-8068</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31955</t>
+  </si>
+  <si>
+    <t>CVE-2015-8067</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31954</t>
+  </si>
+  <si>
+    <t>CVE-2015-8066</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31953</t>
+  </si>
+  <si>
+    <t>CVE-2015-8065</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31952</t>
+  </si>
+  <si>
+    <t>CVE-2015-8064</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31951</t>
+  </si>
+  <si>
+    <t>CVE-2015-8063</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31950</t>
+  </si>
+  <si>
+    <t>CVE-2015-8062</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31949</t>
+  </si>
+  <si>
+    <t>CVE-2015-8061</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31948</t>
+  </si>
+  <si>
+    <t>CVE-2015-8060</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31947</t>
+  </si>
+  <si>
+    <t>CVE-2015-8059</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31946</t>
+  </si>
+  <si>
+    <t>CVE-2015-8058</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31945</t>
+  </si>
+  <si>
+    <t>CVE-2015-8056</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31944</t>
+  </si>
+  <si>
+    <t>CVE-2015-8057</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31943</t>
+  </si>
+  <si>
+    <t>CVE-2015-8055</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31942</t>
+  </si>
+  <si>
+    <t>CVE-2015-8050</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31941</t>
+  </si>
+  <si>
+    <t>CVE-2015-8049</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31940</t>
+  </si>
+  <si>
+    <t>CVE-2015-8048</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31939</t>
+  </si>
+  <si>
+    <t>CVE-2015-8047</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31938</t>
+  </si>
+  <si>
+    <t>CVE-2015-8045</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31937</t>
+  </si>
+  <si>
+    <t>CVE-2015-8420</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31936</t>
+  </si>
+  <si>
+    <t>CVE-2015-8421</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31935</t>
+  </si>
+  <si>
+    <t>CVE-2015-8422</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31934</t>
+  </si>
+  <si>
+    <t>CVE-2015-8423</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31933</t>
+  </si>
+  <si>
+    <t>CVE-2015-8424</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31932</t>
+  </si>
+  <si>
+    <t>CVE-2015-8425</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31931</t>
+  </si>
+  <si>
+    <t>CVE-2015-8426</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31930</t>
+  </si>
+  <si>
+    <t>CVE-2015-8427</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31929</t>
+  </si>
+  <si>
+    <t>CVE-2015-8428</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31928</t>
+  </si>
+  <si>
+    <t>CVE-2015-8429</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR類型混淆漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31927</t>
+  </si>
+  <si>
+    <t>CVE-2015-8439</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR堆緩衝區溢出漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31926</t>
+  </si>
+  <si>
+    <t>CVE-2015-8438</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR Selection對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31925</t>
+  </si>
+  <si>
+    <t>CVE-2015-8437</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR PrintJob對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31924</t>
+  </si>
+  <si>
+    <t>CVE-2015-8436</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31923</t>
+  </si>
+  <si>
+    <t>CVE-2015-8430</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31922</t>
+  </si>
+  <si>
+    <t>CVE-2015-8431</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31921</t>
+  </si>
+  <si>
+    <t>CVE-2015-8432</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31920</t>
+  </si>
+  <si>
+    <t>CVE-2015-8433</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31919</t>
+  </si>
+  <si>
+    <t>CVE-2015-8434</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31918</t>
+  </si>
+  <si>
+    <t>CVE-2015-8435</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31917</t>
+  </si>
+  <si>
+    <t>CVE-2015-8441</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31916</t>
+  </si>
+  <si>
+    <t>CVE-2015-8440</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31915</t>
+  </si>
+  <si>
+    <t>CVE-2015-8446</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR整數溢出漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31914</t>
+  </si>
+  <si>
+    <t>CVE-2015-8445</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31913</t>
+  </si>
+  <si>
+    <t>CVE-2015-8444</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31912</t>
+  </si>
+  <si>
+    <t>CVE-2015-8443</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR MovieClip對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31911</t>
+  </si>
+  <si>
+    <t>CVE-2015-8442</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR DisplacementMapFilter對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31910</t>
+  </si>
+  <si>
+    <t>CVE-2015-8448</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR Color對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31909</t>
+  </si>
+  <si>
+    <t>CVE-2015-8447</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31908</t>
+  </si>
+  <si>
+    <t>CVE-2015-8449</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31907</t>
+  </si>
+  <si>
+    <t>CVE-2015-8454</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR ASLR保護機制繞過漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31906</t>
+  </si>
+  <si>
+    <t>CVE-2015-8453</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31905</t>
+  </si>
+  <si>
+    <t>CVE-2015-8452</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31904</t>
+  </si>
+  <si>
+    <t>CVE-2015-8451</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31903</t>
+  </si>
+  <si>
+    <t>CVE-2015-8450</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31902</t>
+  </si>
+  <si>
+    <t>CVE-2015-8455</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR遠程代碼執行及棧緩衝區溢出漏洞（APSB15-32）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31901</t>
+  </si>
+  <si>
+    <t>CVE-2015-8457</t>
+  </si>
+  <si>
+    <t>多個F5產品中間人信息泄露漏洞（CVE-2014-8730）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31900</t>
+  </si>
+  <si>
+    <t>CVE-2014-8730</t>
+  </si>
+  <si>
+    <t>Microsoft IE及Edge ASLR安全措施繞過漏洞(MS15-125)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31880</t>
+  </si>
+  <si>
+    <t>CVE-2015-6161</t>
+  </si>
+  <si>
+    <t>Microsoft IE及Edge遠程內存破壞漏洞(MS15-125)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31879</t>
+  </si>
+  <si>
+    <t>CVE-2015-6155</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31878</t>
+  </si>
+  <si>
+    <t>CVE-2015-6159</t>
+  </si>
+  <si>
+    <t>Microsoft Silverlight遠程代碼執行漏洞(MS15-129)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31877</t>
+  </si>
+  <si>
+    <t>CVE-2015-6166</t>
+  </si>
+  <si>
+    <t>Microsoft Silverlight信息泄露漏洞(MS15-129)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31876</t>
+  </si>
+  <si>
+    <t>CVE-2015-6165</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31875</t>
+  </si>
+  <si>
+    <t>CVE-2015-6151</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31874</t>
+  </si>
+  <si>
+    <t>CVE-2015-6154</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31873</t>
+  </si>
+  <si>
+    <t>CVE-2015-6153</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Kernel本地權限提升漏洞(MS15-135)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31869</t>
+  </si>
+  <si>
+    <t>CVE-2015-6171</t>
+  </si>
+  <si>
+    <t>Microsoft Office遠程代碼執行漏洞(MS15-131)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31868</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31867</t>
+  </si>
+  <si>
+    <t>CVE-2015-6173</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31866</t>
+  </si>
+  <si>
+    <t>CVE-2015-6174</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31865</t>
+  </si>
+  <si>
+    <t>CVE-2015-6175</t>
+  </si>
+  <si>
+    <t>Microsoft Office內存破壞漏洞(MS15-131)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31864</t>
+  </si>
+  <si>
+    <t>CVE-2015-6177</t>
+  </si>
+  <si>
+    <t>Microsoft Edge欺騙漏洞(MS15-125)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31863</t>
+  </si>
+  <si>
+    <t>CVE-2015-6169</t>
+  </si>
+  <si>
+    <t>CVE-2015-6172</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3222,7 +4627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3241,6 +4646,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3256,7 +4667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3285,6 +4696,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3806,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G388"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11895,14 +13312,3676 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="A1:G122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="81.625" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1">
+      <c r="A2" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1">
+      <c r="A3" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1">
+      <c r="A4" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1">
+      <c r="A5" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1">
+      <c r="A6" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1">
+      <c r="A7" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1">
+      <c r="A8" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1">
+      <c r="A9" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1">
+      <c r="A10" s="8">
+        <v>42354</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1">
+      <c r="A11" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1">
+      <c r="A12" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1">
+      <c r="A13" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1">
+      <c r="A14" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1">
+      <c r="A15" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1">
+      <c r="A16" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1">
+      <c r="A17" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1">
+      <c r="A18" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1">
+      <c r="A19" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1">
+      <c r="A20" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1">
+      <c r="A21" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1">
+      <c r="A22" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1">
+      <c r="A23" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1">
+      <c r="A24" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1">
+      <c r="A25" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1">
+      <c r="A26" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1">
+      <c r="A27" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1">
+      <c r="A28" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1">
+      <c r="A29" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1">
+      <c r="A30" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1">
+      <c r="A31" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1">
+      <c r="A32" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1">
+      <c r="A33" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1">
+      <c r="A34" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1">
+      <c r="A35" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1">
+      <c r="A36" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1">
+      <c r="A37" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1">
+      <c r="A38" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="11" customFormat="1">
+      <c r="A41" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1">
+      <c r="A42" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1">
+      <c r="A43" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="5" customFormat="1">
+      <c r="A44" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1">
+      <c r="A45" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1">
+      <c r="A46" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>512</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1">
+      <c r="A48" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="5" customFormat="1">
+      <c r="A49" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="5" customFormat="1">
+      <c r="A50" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="11" customFormat="1">
+      <c r="A51" s="10">
+        <v>42354</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1">
+      <c r="A52" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="11" customFormat="1">
+      <c r="A53" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="11" customFormat="1">
+      <c r="A55" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>42354</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="11" customFormat="1">
+      <c r="A57" s="10">
+        <v>42354</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="5" customFormat="1">
+      <c r="A58" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="5" customFormat="1">
+      <c r="A59" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="5" customFormat="1">
+      <c r="A60" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="5" customFormat="1">
+      <c r="A61" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="11" customFormat="1">
+      <c r="A62" s="10">
+        <v>42354</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="11" customFormat="1">
+      <c r="A63" s="10">
+        <v>42354</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
+        <v>42353</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="9" customFormat="1">
+      <c r="A65" s="8">
+        <v>42353</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="11" customFormat="1">
+      <c r="A66" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="11" customFormat="1">
+      <c r="A67" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="11" customFormat="1">
+      <c r="A68" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="11" customFormat="1">
+      <c r="A69" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="11" customFormat="1">
+      <c r="A70" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="11" customFormat="1">
+      <c r="A71" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="11" customFormat="1">
+      <c r="A72" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="11" customFormat="1">
+      <c r="A73" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="11" customFormat="1">
+      <c r="A74" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="11" customFormat="1">
+      <c r="A75" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="11" customFormat="1">
+      <c r="A76" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="11" customFormat="1">
+      <c r="A77" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="11" customFormat="1">
+      <c r="A78" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="11" customFormat="1">
+      <c r="A79" s="10">
+        <v>42353</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F80" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F81" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F82" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="11" customFormat="1">
+      <c r="A83" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="11" customFormat="1">
+      <c r="A84" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="11" customFormat="1">
+      <c r="A85" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="11" customFormat="1">
+      <c r="A86" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="11" customFormat="1">
+      <c r="A87" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="11" customFormat="1">
+      <c r="A88" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="11" customFormat="1">
+      <c r="A89" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="11" customFormat="1">
+      <c r="A90" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="11" customFormat="1">
+      <c r="A91" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="11" customFormat="1">
+      <c r="A92" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="11" customFormat="1">
+      <c r="A93" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="11" customFormat="1">
+      <c r="A94" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="11" customFormat="1">
+      <c r="A95" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="11" customFormat="1">
+      <c r="A96" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F98" t="s">
+        <v>76</v>
+      </c>
+      <c r="G98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C99" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F99" t="s">
+        <v>76</v>
+      </c>
+      <c r="G99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C100" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F100" t="s">
+        <v>99</v>
+      </c>
+      <c r="G100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C101" t="s">
+        <v>229</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F101" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F102" t="s">
+        <v>76</v>
+      </c>
+      <c r="G102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="11" customFormat="1">
+      <c r="A103" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C104" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F104" t="s">
+        <v>76</v>
+      </c>
+      <c r="G104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="11" customFormat="1">
+      <c r="A105" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="11" customFormat="1">
+      <c r="A106" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="11" customFormat="1">
+      <c r="A107" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="11" customFormat="1">
+      <c r="A108" s="10">
+        <v>42352</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C109" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F109" t="s">
+        <v>76</v>
+      </c>
+      <c r="G109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C110" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F110" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F111" t="s">
+        <v>162</v>
+      </c>
+      <c r="G111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C112" t="s">
+        <v>229</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F112" t="s">
+        <v>76</v>
+      </c>
+      <c r="G112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="11" customFormat="1">
+      <c r="A113" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="11" customFormat="1">
+      <c r="A114" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="11" customFormat="1">
+      <c r="A115" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="11" customFormat="1">
+      <c r="A116" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="11" customFormat="1">
+      <c r="A117" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="11" customFormat="1">
+      <c r="A118" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="11" customFormat="1">
+      <c r="A119" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="11" customFormat="1">
+      <c r="A120" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="11" customFormat="1">
+      <c r="A121" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="11" customFormat="1">
+      <c r="A122" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="11" customFormat="1">
+      <c r="A123" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C124" t="s">
+        <v>96</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F124" t="s">
+        <v>99</v>
+      </c>
+      <c r="G124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="11" customFormat="1">
+      <c r="A125" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="11" customFormat="1">
+      <c r="A126" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="11" customFormat="1">
+      <c r="A127" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="11" customFormat="1">
+      <c r="A128" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="11" customFormat="1">
+      <c r="A129" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="11" customFormat="1">
+      <c r="A130" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="11" customFormat="1">
+      <c r="A131" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="11" customFormat="1">
+      <c r="A132" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="11" customFormat="1">
+      <c r="A133" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="11" customFormat="1">
+      <c r="A134" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="11" customFormat="1">
+      <c r="A135" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="11" customFormat="1">
+      <c r="A136" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="11" customFormat="1">
+      <c r="A137" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="11" customFormat="1">
+      <c r="A138" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="11" customFormat="1">
+      <c r="A139" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="11" customFormat="1">
+      <c r="A140" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="11" customFormat="1">
+      <c r="A141" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="11" customFormat="1">
+      <c r="A142" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="11" customFormat="1">
+      <c r="A143" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="11" customFormat="1">
+      <c r="A144" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="11" customFormat="1">
+      <c r="A145" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="11" customFormat="1">
+      <c r="A146" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="11" customFormat="1">
+      <c r="A147" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="11" customFormat="1">
+      <c r="A148" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="11" customFormat="1">
+      <c r="A149" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="11" customFormat="1">
+      <c r="A150" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="11" customFormat="1">
+      <c r="A151" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="11" customFormat="1">
+      <c r="A152" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="11" customFormat="1">
+      <c r="A153" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="11" customFormat="1">
+      <c r="A154" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="11" customFormat="1">
+      <c r="A155" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="11" customFormat="1">
+      <c r="A156" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="11" customFormat="1">
+      <c r="A157" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="11" customFormat="1">
+      <c r="A158" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="11" customFormat="1">
+      <c r="A159" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="11" customFormat="1">
+      <c r="A160" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="11" customFormat="1">
+      <c r="A161" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="11" customFormat="1">
+      <c r="A162" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="11" customFormat="1">
+      <c r="A163" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="11" customFormat="1">
+      <c r="A164" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="11" customFormat="1">
+      <c r="A165" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="11" customFormat="1">
+      <c r="A166" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="11" customFormat="1">
+      <c r="A167" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="11" customFormat="1">
+      <c r="A168" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="11" customFormat="1">
+      <c r="A169" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="11" customFormat="1">
+      <c r="A170" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="11" customFormat="1">
+      <c r="A171" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="11" customFormat="1">
+      <c r="A172" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="11" customFormat="1">
+      <c r="A173" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="11" customFormat="1">
+      <c r="A174" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="11" customFormat="1">
+      <c r="A175" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="11" customFormat="1">
+      <c r="A176" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="11" customFormat="1">
+      <c r="A177" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="11" customFormat="1">
+      <c r="A178" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="11" customFormat="1">
+      <c r="A179" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="11" customFormat="1">
+      <c r="A180" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="11" customFormat="1">
+      <c r="A181" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="11" customFormat="1">
+      <c r="A182" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C183" t="s">
+        <v>96</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F183" t="s">
+        <v>99</v>
+      </c>
+      <c r="G183" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="11" customFormat="1">
+      <c r="A184" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="11" customFormat="1">
+      <c r="A185" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="11" customFormat="1">
+      <c r="A186" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="11" customFormat="1">
+      <c r="A187" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C188" t="s">
+        <v>96</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F188" t="s">
+        <v>99</v>
+      </c>
+      <c r="G188" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C189" t="s">
+        <v>96</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F189" t="s">
+        <v>99</v>
+      </c>
+      <c r="G189" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C190" t="s">
+        <v>392</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F190" t="s">
+        <v>76</v>
+      </c>
+      <c r="G190" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="11" customFormat="1">
+      <c r="A191" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="11" customFormat="1">
+      <c r="A192" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="11" customFormat="1">
+      <c r="A193" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="11" customFormat="1">
+      <c r="A194" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G194" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="11" customFormat="1">
+      <c r="A195" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="11" customFormat="1">
+      <c r="A196" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="11" customFormat="1">
+      <c r="A197" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="11" customFormat="1">
+      <c r="A198" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="11" customFormat="1">
+      <c r="A199" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="11" customFormat="1">
+      <c r="A200" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G200" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="11" customFormat="1">
+      <c r="A201" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G201" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="11" customFormat="1">
+      <c r="A202" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G202" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="11" customFormat="1">
+      <c r="A203" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G203" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="11" customFormat="1">
+      <c r="A204" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="11" customFormat="1">
+      <c r="A205" s="10">
+        <v>42348</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G205" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="1496">
   <si>
     <t>wordpress</t>
   </si>
@@ -3288,1300 +3288,1305 @@
     <t>CVE-2015-8357</t>
   </si>
   <si>
+    <t>https://www.exploit-db.com/exploits/38992/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissect_tds7_colmetadata_token Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38993/</t>
+  </si>
+  <si>
+    <t>Wireshark - wmem_alloc Assertion Failure</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38994/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissect_zcl_pwr_prof_pwrprofstatersp Static Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38995/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissct_rsl_ipaccess_msg Static Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38996/</t>
+  </si>
+  <si>
+    <t>Wireshark - file_read (wtap_read_bytes_or_eof/mp2t_find_next_pcr) Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38997/</t>
+  </si>
+  <si>
+    <t>Wireshark - memcpy (get_value / dissect_btatt) SIGSEGV</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38998/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissect_nbap_MACdPDU_Size SIGSEGV</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38999/</t>
+  </si>
+  <si>
+    <t>Wireshark - my_dgt_tbcd_unpack Static Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39000/</t>
+  </si>
+  <si>
+    <t>Wireshark - ascend_seek Static Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39001/</t>
+  </si>
+  <si>
+    <t>Wireshark - addresses_equal (dissect_rsvp_common) Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39002/</t>
+  </si>
+  <si>
+    <t>Wireshark - dissect_diameter_base_framed_ipv6_prefix Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39003/</t>
+  </si>
+  <si>
+    <t>Wireshark - find_signature Stack-Based Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39004/</t>
+  </si>
+  <si>
+    <t>Wireshark - AirPDcapPacketProcess Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39005/</t>
+  </si>
+  <si>
+    <t>Wireshark - getRate Stack-Based Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39006/</t>
+  </si>
+  <si>
+    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - Invalid Pointer Dereference</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38978/</t>
+  </si>
+  <si>
+    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - _FXCLI_SetConfFileChunk Stack Buffer...</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38979/</t>
+  </si>
+  <si>
+    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - _FXCLI_GetConfFileChunk Stack Buffer...</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38980/</t>
+  </si>
+  <si>
+    <t>Adobe Flash Type Confusion in IExternalizable.readExternal When Performing Local Serialization</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38969/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7647</t>
+  </si>
+  <si>
+    <t>Adobe Flash Type Confusion in Serialization with ObjectEncoder.dynamicPropertyWriter</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38970/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7648</t>
+  </si>
+  <si>
+    <t>Internet Explorer 11 MSHTML!CObjectElement Use-After-Free Vulnerability (MS15-124)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38972/</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38930/</t>
+  </si>
+  <si>
+    <t>IBM WebSphere Application Server Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121701</t>
+  </si>
+  <si>
+    <t>CVE-2014-3577,CVE-2012-6153</t>
+  </si>
+  <si>
+    <t>Apache TomEE Remote Code Execution Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121604</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121603</t>
+  </si>
+  <si>
+    <t>BIND Multiple Denial of Service Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121602</t>
+  </si>
+  <si>
+    <t>CVE-2015-8000,CVE-2015-8461</t>
+  </si>
+  <si>
+    <t>Google Chrome Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121601</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Joomla Remote Code Execution Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121501</t>
+  </si>
+  <si>
+    <t>Apple iTunes Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121402</t>
+  </si>
+  <si>
+    <t>Fortinet Product OpenSSL Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>openssl</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121401</t>
+  </si>
+  <si>
+    <t>CVE-2015-1788,CVE-2015-1789,CVE-2015-1790,CVE-2015-1791,CVE-2015-1792</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15121001</t>
+  </si>
+  <si>
+    <t>Cisco Small Business TFTP固件圖形上傳漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32034</t>
+  </si>
+  <si>
+    <t>CVE-2015-6403</t>
+  </si>
+  <si>
+    <t>Schneider Electric ProClima 多個緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32033</t>
+  </si>
+  <si>
+    <t>libxml2 xmlParseXMLDecl函數信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32032</t>
+  </si>
+  <si>
+    <t>CVE-2015-8317</t>
+  </si>
+  <si>
+    <t>思科多個產品Java反序列化漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32031</t>
+  </si>
+  <si>
+    <t>CVE-2015-6420</t>
+  </si>
+  <si>
+    <t>Cacti host_new_graphs_save函數SQL注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32000</t>
+  </si>
+  <si>
+    <t>CVE-2015-8377</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31999</t>
+  </si>
+  <si>
+    <t>CVE-2015-8570</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31998</t>
+  </si>
+  <si>
+    <t>CVE-2015-8571</t>
+  </si>
+  <si>
+    <t>Autodesk Design Review緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31997</t>
+  </si>
+  <si>
+    <t>CVE-2015-8572</t>
+  </si>
+  <si>
+    <t>Adobe Reader DC AGM 遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31996</t>
+  </si>
+  <si>
+    <t>CVE-2015-8458</t>
+  </si>
+  <si>
+    <t>Apache TomEE遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31995</t>
+  </si>
+  <si>
+    <t>Apple Xcode安全漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31994</t>
+  </si>
+  <si>
+    <t>CVE-2015-7082</t>
+  </si>
+  <si>
+    <t>Apple Safari WebKit內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31993</t>
+  </si>
+  <si>
+    <t>CVE-2015-7101</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31992</t>
+  </si>
+  <si>
+    <t>CVE-2015-7102</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31991</t>
+  </si>
+  <si>
+    <t>CVE-2015-7103</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31990</t>
+  </si>
+  <si>
+    <t>CVE-2015-7100</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31989</t>
+  </si>
+  <si>
+    <t>CVE-2015-7098</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31988</t>
+  </si>
+  <si>
+    <t>CVE-2015-7099</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31987</t>
+  </si>
+  <si>
+    <t>CVE-2015-7097</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31986</t>
+  </si>
+  <si>
+    <t>CVE-2015-7084</t>
+  </si>
+  <si>
+    <t>Apple iOS kernel 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31985</t>
+  </si>
+  <si>
+    <t>CVE-2015-7083</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31984</t>
+  </si>
+  <si>
+    <t>CVE-2015-7096</t>
+  </si>
+  <si>
+    <t>Apple Safari URL欺騙漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31983</t>
+  </si>
+  <si>
+    <t>CVE-2015-7093</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31982</t>
+  </si>
+  <si>
+    <t>CVE-2015-7095</t>
+  </si>
+  <si>
+    <t>Apple Safari HSTS機制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31981</t>
+  </si>
+  <si>
+    <t>CVE-2015-7094</t>
+  </si>
+  <si>
+    <t>PHP phar_parse_zipfile函數單字節溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32030</t>
+  </si>
+  <si>
+    <t>CVE-2015-7804</t>
+  </si>
+  <si>
+    <t>Cisco Unity Connection跨站請求僞造漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32029</t>
+  </si>
+  <si>
+    <t>CVE-2015-6408</t>
+  </si>
+  <si>
+    <t>Cisco Prime Service Catalog Web接口未授權訪問漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32028</t>
+  </si>
+  <si>
+    <t>CVE-2015-6395</t>
+  </si>
+  <si>
+    <t>Apple iOS LaunchServices組件內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32027</t>
+  </si>
+  <si>
+    <t>CVE-2015-7113</t>
+  </si>
+  <si>
+    <t>Apple iOS IOHIDFamily API內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32026</t>
+  </si>
+  <si>
+    <t>CVE-2015-7112</t>
+  </si>
+  <si>
+    <t>Apple OS X CoreMedia Playback內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32025</t>
+  </si>
+  <si>
+    <t>CVE-2015-7075</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32024</t>
+  </si>
+  <si>
+    <t>CVE-2015-7111</t>
+  </si>
+  <si>
+    <t>Apple iOS Intel Graphics Driver內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32023</t>
+  </si>
+  <si>
+    <t>CVE-2015-7106</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32022</t>
+  </si>
+  <si>
+    <t>CVE-2015-7104</t>
+  </si>
+  <si>
+    <t>Apple iOS QuickLook內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32021</t>
+  </si>
+  <si>
+    <t>CVE-2015-7107</t>
+  </si>
+  <si>
+    <t>Apple OS X IOAcceleratorFamily內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32020</t>
+  </si>
+  <si>
+    <t>CVE-2015-7109</t>
+  </si>
+  <si>
+    <t>Apple OS X Disk Images組件內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32019</t>
+  </si>
+  <si>
+    <t>CVE-2015-7110</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32018</t>
+  </si>
+  <si>
+    <t>CVE-2015-7074</t>
+  </si>
+  <si>
+    <t>Apple iOS CoreGraphics內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32017</t>
+  </si>
+  <si>
+    <t>CVE-2015-7105</t>
+  </si>
+  <si>
+    <t>Apple OS X 空指針間接引用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32016</t>
+  </si>
+  <si>
+    <t>CVE-2015-7076</t>
+  </si>
+  <si>
+    <t>Apple OS X 內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32015</t>
+  </si>
+  <si>
+    <t>CVE-2015-7108</t>
+  </si>
+  <si>
+    <t>Apple OS X內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32014</t>
+  </si>
+  <si>
+    <t>CVE-2015-7073</t>
+  </si>
+  <si>
+    <t>Cisco Unified Computing System (UCS)拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32013</t>
+  </si>
+  <si>
+    <t>CVE-2015-6415</t>
+  </si>
+  <si>
+    <t>Cisco FireSIGHT Management Center GET請求信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32012</t>
+  </si>
+  <si>
+    <t>CVE-2015-6419</t>
+  </si>
+  <si>
+    <t>Cisco DPC3939路由器管理Web接口命令注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32011</t>
+  </si>
+  <si>
+    <t>CVE-2015-6361</t>
+  </si>
+  <si>
+    <t>Cisco Prime Collaboration Assurance默認帳戶憑證漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32010</t>
+  </si>
+  <si>
+    <t>CVE-2015-6389</t>
+  </si>
+  <si>
+    <t>Cisco Emergency Responder 跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32009</t>
+  </si>
+  <si>
+    <t>CVE-2015-6400</t>
+  </si>
+  <si>
+    <t>Cisco Emergency Responder 跨站請求僞造漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32008</t>
+  </si>
+  <si>
+    <t>CVE-2015-6405</t>
+  </si>
+  <si>
+    <t>Apple iOS iBooks信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32007</t>
+  </si>
+  <si>
+    <t>CVE-2015-7081</t>
+  </si>
+  <si>
+    <t>Cisco Emergency Responder 目錄遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32006</t>
+  </si>
+  <si>
+    <t>CVE-2015-6406</t>
+  </si>
+  <si>
+    <t>Apple iOS Siri信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32005</t>
+  </si>
+  <si>
+    <t>CVE-2015-7080</t>
+  </si>
+  <si>
+    <t>Apple iOS dyld 任意代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32004</t>
+  </si>
+  <si>
+    <t>CVE-2015-7079</t>
+  </si>
+  <si>
+    <t>Apple OS X 權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32003</t>
+  </si>
+  <si>
+    <t>CVE-2015-7078</t>
+  </si>
+  <si>
+    <t>Apple OS X 越界內存訪問漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32002</t>
+  </si>
+  <si>
+    <t>CVE-2015-7077</t>
+  </si>
+  <si>
+    <t>Cisco Emergency Responder Web框架任意文件上傳漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32001</t>
+  </si>
+  <si>
+    <t>CVE-2015-6407</t>
+  </si>
+  <si>
+    <t>Cisco Small Business RV路由器信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31980</t>
+  </si>
+  <si>
+    <t>CVE-2015-6418</t>
+  </si>
+  <si>
+    <t>Cisco TelePresence Video Communication Server信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31979</t>
+  </si>
+  <si>
+    <t>CVE-2015-6414</t>
+  </si>
+  <si>
+    <t>Cisco TelePresence Video Communication Server Expressway未授權訪問漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31978</t>
+  </si>
+  <si>
+    <t>CVE-2015-6413</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR內存破壞漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31977</t>
+  </si>
+  <si>
+    <t>CVE-2015-8419</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31976</t>
+  </si>
+  <si>
+    <t>CVE-2015-8408</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR訪問限制繞過漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31975</t>
+  </si>
+  <si>
+    <t>CVE-2015-8409</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31974</t>
+  </si>
+  <si>
+    <t>CVE-2015-8410</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31973</t>
+  </si>
+  <si>
+    <t>CVE-2015-8411</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31972</t>
+  </si>
+  <si>
+    <t>CVE-2015-8412</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31971</t>
+  </si>
+  <si>
+    <t>CVE-2015-8413</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31970</t>
+  </si>
+  <si>
+    <t>CVE-2015-8414</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31969</t>
+  </si>
+  <si>
+    <t>CVE-2015-8415</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31968</t>
+  </si>
+  <si>
+    <t>CVE-2015-8416</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31967</t>
+  </si>
+  <si>
+    <t>CVE-2015-8417</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31966</t>
+  </si>
+  <si>
+    <t>CVE-2015-8418</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR棧緩衝區溢出漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31965</t>
+  </si>
+  <si>
+    <t>CVE-2015-8407</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31964</t>
+  </si>
+  <si>
+    <t>CVE-2015-8406</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31963</t>
+  </si>
+  <si>
+    <t>CVE-2015-8405</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31962</t>
+  </si>
+  <si>
+    <t>CVE-2015-8404</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31961</t>
+  </si>
+  <si>
+    <t>CVE-2015-8403</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31960</t>
+  </si>
+  <si>
+    <t>CVE-2015-8402</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31959</t>
+  </si>
+  <si>
+    <t>CVE-2015-8401</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31958</t>
+  </si>
+  <si>
+    <t>CVE-2015-8071</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31957</t>
+  </si>
+  <si>
+    <t>CVE-2015-8069</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31956</t>
+  </si>
+  <si>
+    <t>CVE-2015-8068</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31955</t>
+  </si>
+  <si>
+    <t>CVE-2015-8067</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31954</t>
+  </si>
+  <si>
+    <t>CVE-2015-8066</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31953</t>
+  </si>
+  <si>
+    <t>CVE-2015-8065</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31952</t>
+  </si>
+  <si>
+    <t>CVE-2015-8064</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31951</t>
+  </si>
+  <si>
+    <t>CVE-2015-8063</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31950</t>
+  </si>
+  <si>
+    <t>CVE-2015-8062</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31949</t>
+  </si>
+  <si>
+    <t>CVE-2015-8061</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31948</t>
+  </si>
+  <si>
+    <t>CVE-2015-8060</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31947</t>
+  </si>
+  <si>
+    <t>CVE-2015-8059</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31946</t>
+  </si>
+  <si>
+    <t>CVE-2015-8058</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31945</t>
+  </si>
+  <si>
+    <t>CVE-2015-8056</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31944</t>
+  </si>
+  <si>
+    <t>CVE-2015-8057</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31943</t>
+  </si>
+  <si>
+    <t>CVE-2015-8055</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31942</t>
+  </si>
+  <si>
+    <t>CVE-2015-8050</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31941</t>
+  </si>
+  <si>
+    <t>CVE-2015-8049</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31940</t>
+  </si>
+  <si>
+    <t>CVE-2015-8048</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31939</t>
+  </si>
+  <si>
+    <t>CVE-2015-8047</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31938</t>
+  </si>
+  <si>
+    <t>CVE-2015-8045</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31937</t>
+  </si>
+  <si>
+    <t>CVE-2015-8420</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31936</t>
+  </si>
+  <si>
+    <t>CVE-2015-8421</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31935</t>
+  </si>
+  <si>
+    <t>CVE-2015-8422</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31934</t>
+  </si>
+  <si>
+    <t>CVE-2015-8423</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31933</t>
+  </si>
+  <si>
+    <t>CVE-2015-8424</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31932</t>
+  </si>
+  <si>
+    <t>CVE-2015-8425</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31931</t>
+  </si>
+  <si>
+    <t>CVE-2015-8426</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31930</t>
+  </si>
+  <si>
+    <t>CVE-2015-8427</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31929</t>
+  </si>
+  <si>
+    <t>CVE-2015-8428</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31928</t>
+  </si>
+  <si>
+    <t>CVE-2015-8429</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR類型混淆漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31927</t>
+  </si>
+  <si>
+    <t>CVE-2015-8439</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR堆緩衝區溢出漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31926</t>
+  </si>
+  <si>
+    <t>CVE-2015-8438</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR Selection對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31925</t>
+  </si>
+  <si>
+    <t>CVE-2015-8437</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR PrintJob對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31924</t>
+  </si>
+  <si>
+    <t>CVE-2015-8436</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31923</t>
+  </si>
+  <si>
+    <t>CVE-2015-8430</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31922</t>
+  </si>
+  <si>
+    <t>CVE-2015-8431</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31921</t>
+  </si>
+  <si>
+    <t>CVE-2015-8432</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31920</t>
+  </si>
+  <si>
+    <t>CVE-2015-8433</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31919</t>
+  </si>
+  <si>
+    <t>CVE-2015-8434</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31918</t>
+  </si>
+  <si>
+    <t>CVE-2015-8435</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31917</t>
+  </si>
+  <si>
+    <t>CVE-2015-8441</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31916</t>
+  </si>
+  <si>
+    <t>CVE-2015-8440</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31915</t>
+  </si>
+  <si>
+    <t>CVE-2015-8446</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR整數溢出漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31914</t>
+  </si>
+  <si>
+    <t>CVE-2015-8445</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31913</t>
+  </si>
+  <si>
+    <t>CVE-2015-8444</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31912</t>
+  </si>
+  <si>
+    <t>CVE-2015-8443</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR MovieClip對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31911</t>
+  </si>
+  <si>
+    <t>CVE-2015-8442</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR DisplacementMapFilter對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31910</t>
+  </si>
+  <si>
+    <t>CVE-2015-8448</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR Color對象釋放後重利用漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31909</t>
+  </si>
+  <si>
+    <t>CVE-2015-8447</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31908</t>
+  </si>
+  <si>
+    <t>CVE-2015-8449</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31907</t>
+  </si>
+  <si>
+    <t>CVE-2015-8454</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR ASLR保護機制繞過漏洞(APSB15-32)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31906</t>
+  </si>
+  <si>
+    <t>CVE-2015-8453</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31905</t>
+  </si>
+  <si>
+    <t>CVE-2015-8452</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31904</t>
+  </si>
+  <si>
+    <t>CVE-2015-8451</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31903</t>
+  </si>
+  <si>
+    <t>CVE-2015-8450</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31902</t>
+  </si>
+  <si>
+    <t>CVE-2015-8455</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player及AIR遠程代碼執行及棧緩衝區溢出漏洞（APSB15-32）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31901</t>
+  </si>
+  <si>
+    <t>CVE-2015-8457</t>
+  </si>
+  <si>
+    <t>多個F5產品中間人信息泄露漏洞（CVE-2014-8730）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31900</t>
+  </si>
+  <si>
+    <t>CVE-2014-8730</t>
+  </si>
+  <si>
+    <t>Microsoft IE及Edge ASLR安全措施繞過漏洞(MS15-125)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31880</t>
+  </si>
+  <si>
+    <t>CVE-2015-6161</t>
+  </si>
+  <si>
+    <t>Microsoft IE及Edge遠程內存破壞漏洞(MS15-125)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31879</t>
+  </si>
+  <si>
+    <t>CVE-2015-6155</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31878</t>
+  </si>
+  <si>
+    <t>CVE-2015-6159</t>
+  </si>
+  <si>
+    <t>Microsoft Silverlight遠程代碼執行漏洞(MS15-129)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31877</t>
+  </si>
+  <si>
+    <t>CVE-2015-6166</t>
+  </si>
+  <si>
+    <t>Microsoft Silverlight信息泄露漏洞(MS15-129)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31876</t>
+  </si>
+  <si>
+    <t>CVE-2015-6165</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31875</t>
+  </si>
+  <si>
+    <t>CVE-2015-6151</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31874</t>
+  </si>
+  <si>
+    <t>CVE-2015-6154</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31873</t>
+  </si>
+  <si>
+    <t>CVE-2015-6153</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Kernel本地權限提升漏洞(MS15-135)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31869</t>
+  </si>
+  <si>
+    <t>CVE-2015-6171</t>
+  </si>
+  <si>
+    <t>Microsoft Office遠程代碼執行漏洞(MS15-131)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31868</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31867</t>
+  </si>
+  <si>
+    <t>CVE-2015-6173</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31866</t>
+  </si>
+  <si>
+    <t>CVE-2015-6174</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31865</t>
+  </si>
+  <si>
+    <t>CVE-2015-6175</t>
+  </si>
+  <si>
+    <t>Microsoft Office內存破壞漏洞(MS15-131)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31864</t>
+  </si>
+  <si>
+    <t>CVE-2015-6177</t>
+  </si>
+  <si>
+    <t>Microsoft Edge欺騙漏洞(MS15-125)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31863</t>
+  </si>
+  <si>
+    <t>CVE-2015-6169</t>
+  </si>
+  <si>
+    <t>CVE-2015-6172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Wireshark - iseries_parse_packet Heap-Based Buffer Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38992/</t>
-  </si>
-  <si>
-    <t>Wireshark - dissect_tds7_colmetadata_token Stack-Based Buffer Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38993/</t>
-  </si>
-  <si>
-    <t>Wireshark - wmem_alloc Assertion Failure</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38994/</t>
-  </si>
-  <si>
-    <t>Wireshark - dissect_zcl_pwr_prof_pwrprofstatersp Static Out-of-Bounds Read</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38995/</t>
-  </si>
-  <si>
-    <t>Wireshark - dissct_rsl_ipaccess_msg Static Out-of-Bounds Read</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38996/</t>
-  </si>
-  <si>
-    <t>Wireshark - file_read (wtap_read_bytes_or_eof/mp2t_find_next_pcr) Stack-Based Buffer Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38997/</t>
-  </si>
-  <si>
-    <t>Wireshark - memcpy (get_value / dissect_btatt) SIGSEGV</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38998/</t>
-  </si>
-  <si>
-    <t>Wireshark - dissect_nbap_MACdPDU_Size SIGSEGV</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38999/</t>
-  </si>
-  <si>
-    <t>Wireshark - my_dgt_tbcd_unpack Static Buffer Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39000/</t>
-  </si>
-  <si>
-    <t>Wireshark - ascend_seek Static Out-of-Bounds Read</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39001/</t>
-  </si>
-  <si>
-    <t>Wireshark - addresses_equal (dissect_rsvp_common) Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39002/</t>
-  </si>
-  <si>
-    <t>Wireshark - dissect_diameter_base_framed_ipv6_prefix Stack-Based Buffer Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39003/</t>
-  </si>
-  <si>
-    <t>Wireshark - find_signature Stack-Based Out-of-Bounds Read</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39004/</t>
-  </si>
-  <si>
-    <t>Wireshark - AirPDcapPacketProcess Stack-Based Buffer Overflow</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39005/</t>
-  </si>
-  <si>
-    <t>Wireshark - getRate Stack-Based Out-of-Bounds Read</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39006/</t>
-  </si>
-  <si>
-    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - Invalid Pointer Dereference</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38978/</t>
-  </si>
-  <si>
-    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - _FXCLI_SetConfFileChunk Stack Buffer...</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38979/</t>
-  </si>
-  <si>
-    <t>IBM Tivoli Storage Manager FastBack Server 5.5.4.2 - _FXCLI_GetConfFileChunk Stack Buffer...</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38980/</t>
-  </si>
-  <si>
-    <t>Adobe Flash Type Confusion in IExternalizable.readExternal When Performing Local Serialization</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38969/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7647</t>
-  </si>
-  <si>
-    <t>Adobe Flash Type Confusion in Serialization with ObjectEncoder.dynamicPropertyWriter</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38970/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7648</t>
-  </si>
-  <si>
-    <t>Internet Explorer 11 MSHTML!CObjectElement Use-After-Free Vulnerability (MS15-124)</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38972/</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38930/</t>
-  </si>
-  <si>
-    <t>IBM WebSphere Application Server Multiple Vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121701</t>
-  </si>
-  <si>
-    <t>CVE-2014-3577,CVE-2012-6153</t>
-  </si>
-  <si>
-    <t>Apache TomEE Remote Code Execution Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121604</t>
-  </si>
-  <si>
-    <t>Mozilla Firefox Multiple vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121603</t>
-  </si>
-  <si>
-    <t>BIND Multiple Denial of Service Vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121602</t>
-  </si>
-  <si>
-    <t>CVE-2015-8000,CVE-2015-8461</t>
-  </si>
-  <si>
-    <t>Google Chrome Multiple vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121601</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Joomla Remote Code Execution Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121501</t>
-  </si>
-  <si>
-    <t>Apple iTunes Multiple vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121402</t>
-  </si>
-  <si>
-    <t>Fortinet Product OpenSSL Multiple vulnerabilities</t>
-  </si>
-  <si>
-    <t>openssl</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121401</t>
-  </si>
-  <si>
-    <t>CVE-2015-1788,CVE-2015-1789,CVE-2015-1790,CVE-2015-1791,CVE-2015-1792</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121001</t>
-  </si>
-  <si>
-    <t>Cisco Small Business TFTP固件圖形上傳漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32034</t>
-  </si>
-  <si>
-    <t>CVE-2015-6403</t>
-  </si>
-  <si>
-    <t>Schneider Electric ProClima 多個緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32033</t>
-  </si>
-  <si>
-    <t>libxml2 xmlParseXMLDecl函數信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32032</t>
-  </si>
-  <si>
-    <t>CVE-2015-8317</t>
-  </si>
-  <si>
-    <t>思科多個產品Java反序列化漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32031</t>
-  </si>
-  <si>
-    <t>CVE-2015-6420</t>
-  </si>
-  <si>
-    <t>Cacti host_new_graphs_save函數SQL注入漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32000</t>
-  </si>
-  <si>
-    <t>CVE-2015-8377</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31999</t>
-  </si>
-  <si>
-    <t>CVE-2015-8570</t>
-  </si>
-  <si>
-    <t>Autodesk Design Review整數溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31998</t>
-  </si>
-  <si>
-    <t>CVE-2015-8571</t>
-  </si>
-  <si>
-    <t>Autodesk Design Review緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31997</t>
-  </si>
-  <si>
-    <t>CVE-2015-8572</t>
-  </si>
-  <si>
-    <t>Adobe Reader DC AGM 遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31996</t>
-  </si>
-  <si>
-    <t>CVE-2015-8458</t>
-  </si>
-  <si>
-    <t>Apache TomEE遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31995</t>
-  </si>
-  <si>
-    <t>Apple Xcode安全漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31994</t>
-  </si>
-  <si>
-    <t>CVE-2015-7082</t>
-  </si>
-  <si>
-    <t>Apple Safari WebKit內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31993</t>
-  </si>
-  <si>
-    <t>CVE-2015-7101</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31992</t>
-  </si>
-  <si>
-    <t>CVE-2015-7102</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31991</t>
-  </si>
-  <si>
-    <t>CVE-2015-7103</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31990</t>
-  </si>
-  <si>
-    <t>CVE-2015-7100</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31989</t>
-  </si>
-  <si>
-    <t>CVE-2015-7098</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31988</t>
-  </si>
-  <si>
-    <t>CVE-2015-7099</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31987</t>
-  </si>
-  <si>
-    <t>CVE-2015-7097</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31986</t>
-  </si>
-  <si>
-    <t>CVE-2015-7084</t>
-  </si>
-  <si>
-    <t>Apple iOS kernel 內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31985</t>
-  </si>
-  <si>
-    <t>CVE-2015-7083</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31984</t>
-  </si>
-  <si>
-    <t>CVE-2015-7096</t>
-  </si>
-  <si>
-    <t>Apple Safari URL欺騙漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31983</t>
-  </si>
-  <si>
-    <t>CVE-2015-7093</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31982</t>
-  </si>
-  <si>
-    <t>CVE-2015-7095</t>
-  </si>
-  <si>
-    <t>Apple Safari HSTS機制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31981</t>
-  </si>
-  <si>
-    <t>CVE-2015-7094</t>
-  </si>
-  <si>
-    <t>PHP phar_parse_zipfile函數單字節溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32030</t>
-  </si>
-  <si>
-    <t>CVE-2015-7804</t>
-  </si>
-  <si>
-    <t>Cisco Unity Connection跨站請求僞造漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32029</t>
-  </si>
-  <si>
-    <t>CVE-2015-6408</t>
-  </si>
-  <si>
-    <t>Cisco Prime Service Catalog Web接口未授權訪問漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32028</t>
-  </si>
-  <si>
-    <t>CVE-2015-6395</t>
-  </si>
-  <si>
-    <t>Apple iOS LaunchServices組件內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32027</t>
-  </si>
-  <si>
-    <t>CVE-2015-7113</t>
-  </si>
-  <si>
-    <t>Apple iOS IOHIDFamily API內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32026</t>
-  </si>
-  <si>
-    <t>CVE-2015-7112</t>
-  </si>
-  <si>
-    <t>Apple OS X CoreMedia Playback內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32025</t>
-  </si>
-  <si>
-    <t>CVE-2015-7075</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32024</t>
-  </si>
-  <si>
-    <t>CVE-2015-7111</t>
-  </si>
-  <si>
-    <t>Apple iOS Intel Graphics Driver內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32023</t>
-  </si>
-  <si>
-    <t>CVE-2015-7106</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32022</t>
-  </si>
-  <si>
-    <t>CVE-2015-7104</t>
-  </si>
-  <si>
-    <t>Apple iOS QuickLook內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32021</t>
-  </si>
-  <si>
-    <t>CVE-2015-7107</t>
-  </si>
-  <si>
-    <t>Apple OS X IOAcceleratorFamily內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32020</t>
-  </si>
-  <si>
-    <t>CVE-2015-7109</t>
-  </si>
-  <si>
-    <t>Apple OS X Disk Images組件內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32019</t>
-  </si>
-  <si>
-    <t>CVE-2015-7110</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32018</t>
-  </si>
-  <si>
-    <t>CVE-2015-7074</t>
-  </si>
-  <si>
-    <t>Apple iOS CoreGraphics內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32017</t>
-  </si>
-  <si>
-    <t>CVE-2015-7105</t>
-  </si>
-  <si>
-    <t>Apple OS X 空指針間接引用漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32016</t>
-  </si>
-  <si>
-    <t>CVE-2015-7076</t>
-  </si>
-  <si>
-    <t>Apple OS X 內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32015</t>
-  </si>
-  <si>
-    <t>CVE-2015-7108</t>
-  </si>
-  <si>
-    <t>Apple OS X內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32014</t>
-  </si>
-  <si>
-    <t>CVE-2015-7073</t>
-  </si>
-  <si>
-    <t>Cisco Unified Computing System (UCS)拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32013</t>
-  </si>
-  <si>
-    <t>CVE-2015-6415</t>
-  </si>
-  <si>
-    <t>Cisco FireSIGHT Management Center GET請求信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32012</t>
-  </si>
-  <si>
-    <t>CVE-2015-6419</t>
-  </si>
-  <si>
-    <t>Cisco DPC3939路由器管理Web接口命令注入漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32011</t>
-  </si>
-  <si>
-    <t>CVE-2015-6361</t>
-  </si>
-  <si>
-    <t>Cisco Prime Collaboration Assurance默認帳戶憑證漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32010</t>
-  </si>
-  <si>
-    <t>CVE-2015-6389</t>
-  </si>
-  <si>
-    <t>Cisco Emergency Responder 跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32009</t>
-  </si>
-  <si>
-    <t>CVE-2015-6400</t>
-  </si>
-  <si>
-    <t>Cisco Emergency Responder 跨站請求僞造漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32008</t>
-  </si>
-  <si>
-    <t>CVE-2015-6405</t>
-  </si>
-  <si>
-    <t>Apple iOS iBooks信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32007</t>
-  </si>
-  <si>
-    <t>CVE-2015-7081</t>
-  </si>
-  <si>
-    <t>Cisco Emergency Responder 目錄遍歷漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32006</t>
-  </si>
-  <si>
-    <t>CVE-2015-6406</t>
-  </si>
-  <si>
-    <t>Apple iOS Siri信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32005</t>
-  </si>
-  <si>
-    <t>CVE-2015-7080</t>
-  </si>
-  <si>
-    <t>Apple iOS dyld 任意代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32004</t>
-  </si>
-  <si>
-    <t>CVE-2015-7079</t>
-  </si>
-  <si>
-    <t>Apple OS X 權限提升漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32003</t>
-  </si>
-  <si>
-    <t>CVE-2015-7078</t>
-  </si>
-  <si>
-    <t>Apple OS X 越界內存訪問漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32002</t>
-  </si>
-  <si>
-    <t>CVE-2015-7077</t>
-  </si>
-  <si>
-    <t>Cisco Emergency Responder Web框架任意文件上傳漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32001</t>
-  </si>
-  <si>
-    <t>CVE-2015-6407</t>
-  </si>
-  <si>
-    <t>Cisco Small Business RV路由器信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31980</t>
-  </si>
-  <si>
-    <t>CVE-2015-6418</t>
-  </si>
-  <si>
-    <t>Cisco TelePresence Video Communication Server信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31979</t>
-  </si>
-  <si>
-    <t>CVE-2015-6414</t>
-  </si>
-  <si>
-    <t>Cisco TelePresence Video Communication Server Expressway未授權訪問漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31978</t>
-  </si>
-  <si>
-    <t>CVE-2015-6413</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR內存破壞漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31977</t>
-  </si>
-  <si>
-    <t>CVE-2015-8419</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31976</t>
-  </si>
-  <si>
-    <t>CVE-2015-8408</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR訪問限制繞過漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31975</t>
-  </si>
-  <si>
-    <t>CVE-2015-8409</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31974</t>
-  </si>
-  <si>
-    <t>CVE-2015-8410</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31973</t>
-  </si>
-  <si>
-    <t>CVE-2015-8411</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31972</t>
-  </si>
-  <si>
-    <t>CVE-2015-8412</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31971</t>
-  </si>
-  <si>
-    <t>CVE-2015-8413</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31970</t>
-  </si>
-  <si>
-    <t>CVE-2015-8414</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31969</t>
-  </si>
-  <si>
-    <t>CVE-2015-8415</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31968</t>
-  </si>
-  <si>
-    <t>CVE-2015-8416</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31967</t>
-  </si>
-  <si>
-    <t>CVE-2015-8417</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31966</t>
-  </si>
-  <si>
-    <t>CVE-2015-8418</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR棧緩衝區溢出漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31965</t>
-  </si>
-  <si>
-    <t>CVE-2015-8407</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31964</t>
-  </si>
-  <si>
-    <t>CVE-2015-8406</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31963</t>
-  </si>
-  <si>
-    <t>CVE-2015-8405</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31962</t>
-  </si>
-  <si>
-    <t>CVE-2015-8404</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31961</t>
-  </si>
-  <si>
-    <t>CVE-2015-8403</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31960</t>
-  </si>
-  <si>
-    <t>CVE-2015-8402</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31959</t>
-  </si>
-  <si>
-    <t>CVE-2015-8401</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31958</t>
-  </si>
-  <si>
-    <t>CVE-2015-8071</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31957</t>
-  </si>
-  <si>
-    <t>CVE-2015-8069</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31956</t>
-  </si>
-  <si>
-    <t>CVE-2015-8068</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31955</t>
-  </si>
-  <si>
-    <t>CVE-2015-8067</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31954</t>
-  </si>
-  <si>
-    <t>CVE-2015-8066</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31953</t>
-  </si>
-  <si>
-    <t>CVE-2015-8065</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31952</t>
-  </si>
-  <si>
-    <t>CVE-2015-8064</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31951</t>
-  </si>
-  <si>
-    <t>CVE-2015-8063</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31950</t>
-  </si>
-  <si>
-    <t>CVE-2015-8062</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31949</t>
-  </si>
-  <si>
-    <t>CVE-2015-8061</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31948</t>
-  </si>
-  <si>
-    <t>CVE-2015-8060</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31947</t>
-  </si>
-  <si>
-    <t>CVE-2015-8059</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31946</t>
-  </si>
-  <si>
-    <t>CVE-2015-8058</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31945</t>
-  </si>
-  <si>
-    <t>CVE-2015-8056</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31944</t>
-  </si>
-  <si>
-    <t>CVE-2015-8057</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31943</t>
-  </si>
-  <si>
-    <t>CVE-2015-8055</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31942</t>
-  </si>
-  <si>
-    <t>CVE-2015-8050</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31941</t>
-  </si>
-  <si>
-    <t>CVE-2015-8049</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31940</t>
-  </si>
-  <si>
-    <t>CVE-2015-8048</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31939</t>
-  </si>
-  <si>
-    <t>CVE-2015-8047</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31938</t>
-  </si>
-  <si>
-    <t>CVE-2015-8045</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31937</t>
-  </si>
-  <si>
-    <t>CVE-2015-8420</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31936</t>
-  </si>
-  <si>
-    <t>CVE-2015-8421</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31935</t>
-  </si>
-  <si>
-    <t>CVE-2015-8422</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31934</t>
-  </si>
-  <si>
-    <t>CVE-2015-8423</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31933</t>
-  </si>
-  <si>
-    <t>CVE-2015-8424</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31932</t>
-  </si>
-  <si>
-    <t>CVE-2015-8425</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31931</t>
-  </si>
-  <si>
-    <t>CVE-2015-8426</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31930</t>
-  </si>
-  <si>
-    <t>CVE-2015-8427</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31929</t>
-  </si>
-  <si>
-    <t>CVE-2015-8428</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31928</t>
-  </si>
-  <si>
-    <t>CVE-2015-8429</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR類型混淆漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31927</t>
-  </si>
-  <si>
-    <t>CVE-2015-8439</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR堆緩衝區溢出漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31926</t>
-  </si>
-  <si>
-    <t>CVE-2015-8438</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR Selection對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31925</t>
-  </si>
-  <si>
-    <t>CVE-2015-8437</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR PrintJob對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31924</t>
-  </si>
-  <si>
-    <t>CVE-2015-8436</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31923</t>
-  </si>
-  <si>
-    <t>CVE-2015-8430</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31922</t>
-  </si>
-  <si>
-    <t>CVE-2015-8431</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31921</t>
-  </si>
-  <si>
-    <t>CVE-2015-8432</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31920</t>
-  </si>
-  <si>
-    <t>CVE-2015-8433</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31919</t>
-  </si>
-  <si>
-    <t>CVE-2015-8434</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31918</t>
-  </si>
-  <si>
-    <t>CVE-2015-8435</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31917</t>
-  </si>
-  <si>
-    <t>CVE-2015-8441</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31916</t>
-  </si>
-  <si>
-    <t>CVE-2015-8440</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31915</t>
-  </si>
-  <si>
-    <t>CVE-2015-8446</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR整數溢出漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31914</t>
-  </si>
-  <si>
-    <t>CVE-2015-8445</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31913</t>
-  </si>
-  <si>
-    <t>CVE-2015-8444</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31912</t>
-  </si>
-  <si>
-    <t>CVE-2015-8443</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR MovieClip對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31911</t>
-  </si>
-  <si>
-    <t>CVE-2015-8442</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR DisplacementMapFilter對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31910</t>
-  </si>
-  <si>
-    <t>CVE-2015-8448</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR Color對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31909</t>
-  </si>
-  <si>
-    <t>CVE-2015-8447</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31908</t>
-  </si>
-  <si>
-    <t>CVE-2015-8449</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31907</t>
-  </si>
-  <si>
-    <t>CVE-2015-8454</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR ASLR保護機制繞過漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31906</t>
-  </si>
-  <si>
-    <t>CVE-2015-8453</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31905</t>
-  </si>
-  <si>
-    <t>CVE-2015-8452</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31904</t>
-  </si>
-  <si>
-    <t>CVE-2015-8451</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31903</t>
-  </si>
-  <si>
-    <t>CVE-2015-8450</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31902</t>
-  </si>
-  <si>
-    <t>CVE-2015-8455</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR遠程代碼執行及棧緩衝區溢出漏洞（APSB15-32）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31901</t>
-  </si>
-  <si>
-    <t>CVE-2015-8457</t>
-  </si>
-  <si>
-    <t>多個F5產品中間人信息泄露漏洞（CVE-2014-8730）</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31900</t>
-  </si>
-  <si>
-    <t>CVE-2014-8730</t>
-  </si>
-  <si>
-    <t>Microsoft IE及Edge ASLR安全措施繞過漏洞(MS15-125)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31880</t>
-  </si>
-  <si>
-    <t>CVE-2015-6161</t>
-  </si>
-  <si>
-    <t>Microsoft IE及Edge遠程內存破壞漏洞(MS15-125)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31879</t>
-  </si>
-  <si>
-    <t>CVE-2015-6155</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31878</t>
-  </si>
-  <si>
-    <t>CVE-2015-6159</t>
-  </si>
-  <si>
-    <t>Microsoft Silverlight遠程代碼執行漏洞(MS15-129)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31877</t>
-  </si>
-  <si>
-    <t>CVE-2015-6166</t>
-  </si>
-  <si>
-    <t>Microsoft Silverlight信息泄露漏洞(MS15-129)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31876</t>
-  </si>
-  <si>
-    <t>CVE-2015-6165</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31875</t>
-  </si>
-  <si>
-    <t>CVE-2015-6151</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31874</t>
-  </si>
-  <si>
-    <t>CVE-2015-6154</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31873</t>
-  </si>
-  <si>
-    <t>CVE-2015-6153</t>
-  </si>
-  <si>
-    <t>Microsoft Windows Kernel本地權限提升漏洞(MS15-135)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31869</t>
-  </si>
-  <si>
-    <t>CVE-2015-6171</t>
-  </si>
-  <si>
-    <t>Microsoft Office遠程代碼執行漏洞(MS15-131)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31868</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31867</t>
-  </si>
-  <si>
-    <t>CVE-2015-6173</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31866</t>
-  </si>
-  <si>
-    <t>CVE-2015-6174</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31865</t>
-  </si>
-  <si>
-    <t>CVE-2015-6175</t>
-  </si>
-  <si>
-    <t>Microsoft Office內存破壞漏洞(MS15-131)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31864</t>
-  </si>
-  <si>
-    <t>CVE-2015-6177</t>
-  </si>
-  <si>
-    <t>Microsoft Edge欺騙漏洞(MS15-125)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31863</t>
-  </si>
-  <si>
-    <t>CVE-2015-6169</t>
-  </si>
-  <si>
-    <t>CVE-2015-6172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wireshark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4627,7 +4632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4652,6 +4657,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4667,7 +4678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4702,6 +4713,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5016,7 +5033,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5155,10 +5172,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5210,6 +5227,11 @@
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>1023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>1495</v>
       </c>
     </row>
   </sheetData>
@@ -13314,8 +13336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -13405,20 +13427,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="11" customFormat="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:7" s="13" customFormat="1">
+      <c r="A5" s="12">
         <v>42353</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>1034</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -13694,13 +13716,13 @@
         <v>42354</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1063</v>
+        <v>1494</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>33</v>
@@ -13711,13 +13733,13 @@
         <v>42354</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>33</v>
@@ -13728,13 +13750,13 @@
         <v>42354</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>33</v>
@@ -13745,13 +13767,13 @@
         <v>42354</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>33</v>
@@ -13762,13 +13784,13 @@
         <v>42354</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>33</v>
@@ -13779,13 +13801,13 @@
         <v>42354</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>33</v>
@@ -13796,13 +13818,13 @@
         <v>42354</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>33</v>
@@ -13813,13 +13835,13 @@
         <v>42354</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>33</v>
@@ -13830,13 +13852,13 @@
         <v>42354</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>33</v>
@@ -13847,13 +13869,13 @@
         <v>42354</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>33</v>
@@ -13864,13 +13886,13 @@
         <v>42354</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>33</v>
@@ -13881,13 +13903,13 @@
         <v>42354</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>33</v>
@@ -13898,13 +13920,13 @@
         <v>42354</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>33</v>
@@ -13915,13 +13937,13 @@
         <v>42354</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>33</v>
@@ -13932,13 +13954,13 @@
         <v>42354</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>33</v>
@@ -13949,13 +13971,13 @@
         <v>42353</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>33</v>
@@ -13966,13 +13988,13 @@
         <v>42353</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>33</v>
@@ -13983,13 +14005,13 @@
         <v>42353</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>33</v>
@@ -14000,16 +14022,16 @@
         <v>42352</v>
       </c>
       <c r="B39" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C39" t="s">
         <v>96</v>
       </c>
       <c r="D39" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E39" t="s">
         <v>1100</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1101</v>
       </c>
       <c r="F39" t="s">
         <v>99</v>
@@ -14023,16 +14045,16 @@
         <v>42352</v>
       </c>
       <c r="B40" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C40" t="s">
         <v>96</v>
       </c>
       <c r="D40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E40" t="s">
         <v>1103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1104</v>
       </c>
       <c r="F40" t="s">
         <v>99</v>
@@ -14046,13 +14068,13 @@
         <v>42352</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>1036</v>
@@ -14069,7 +14091,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>33</v>
@@ -14148,16 +14170,16 @@
         <v>42355</v>
       </c>
       <c r="B47" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C47" t="s">
         <v>512</v>
       </c>
       <c r="D47" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E47" t="s">
         <v>1109</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1110</v>
       </c>
       <c r="F47" t="s">
         <v>76</v>
@@ -14171,26 +14193,26 @@
         <v>42354</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>1111</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>1112</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="5" customFormat="1">
-      <c r="A49" s="4">
+    <row r="49" spans="1:7" s="13" customFormat="1">
+      <c r="A49" s="12">
         <v>42354</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>1113</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14199,13 +14221,13 @@
         <v>42354</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>1116</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>1117</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>40</v>
@@ -14219,13 +14241,13 @@
         <v>42354</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>1119</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1">
@@ -14233,10 +14255,10 @@
         <v>42353</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>1121</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>1122</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>33</v>
@@ -14247,13 +14269,13 @@
         <v>42352</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>1124</v>
-      </c>
       <c r="G53" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -14261,16 +14283,16 @@
         <v>42352</v>
       </c>
       <c r="B54" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C54" t="s">
         <v>1125</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>1126</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>1127</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1128</v>
       </c>
       <c r="F54" t="s">
         <v>76</v>
@@ -14284,13 +14306,13 @@
         <v>42348</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -14298,16 +14320,16 @@
         <v>42354</v>
       </c>
       <c r="B56" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C56" t="s">
         <v>229</v>
       </c>
       <c r="D56" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E56" t="s">
         <v>1131</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1132</v>
       </c>
       <c r="F56" t="s">
         <v>99</v>
@@ -14321,10 +14343,10 @@
         <v>42354</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>1133</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>1134</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>976</v>
@@ -14338,13 +14360,13 @@
         <v>42354</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>1136</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>1137</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>76</v>
@@ -14358,13 +14380,13 @@
         <v>42354</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>1139</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>1140</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>99</v>
@@ -14378,13 +14400,13 @@
         <v>42354</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>1142</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>1143</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>76</v>
@@ -14401,10 +14423,10 @@
         <v>870</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>1144</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>1145</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>99</v>
@@ -14418,16 +14440,16 @@
         <v>42354</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>1146</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="E62" s="11" t="s">
         <v>1147</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>1148</v>
-      </c>
       <c r="G62" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="11" customFormat="1">
@@ -14435,16 +14457,16 @@
         <v>42354</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>1149</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>1150</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>1151</v>
-      </c>
       <c r="G63" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -14452,16 +14474,16 @@
         <v>42353</v>
       </c>
       <c r="B64" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C64" t="s">
         <v>96</v>
       </c>
       <c r="D64" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E64" t="s">
         <v>1153</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1154</v>
       </c>
       <c r="F64" t="s">
         <v>40</v>
@@ -14475,13 +14497,13 @@
         <v>42353</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>491</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>100</v>
@@ -14492,16 +14514,16 @@
         <v>42353</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>1157</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="E66" s="11" t="s">
         <v>1158</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>1159</v>
-      </c>
       <c r="G66" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="11" customFormat="1">
@@ -14509,16 +14531,16 @@
         <v>42353</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>1162</v>
-      </c>
       <c r="G67" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="11" customFormat="1">
@@ -14526,16 +14548,16 @@
         <v>42353</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D68" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>1164</v>
-      </c>
       <c r="G68" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="11" customFormat="1">
@@ -14543,16 +14565,16 @@
         <v>42353</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D69" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>1166</v>
-      </c>
       <c r="G69" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="11" customFormat="1">
@@ -14560,16 +14582,16 @@
         <v>42353</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D70" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>1168</v>
-      </c>
       <c r="G70" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="11" customFormat="1">
@@ -14577,16 +14599,16 @@
         <v>42353</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D71" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>1169</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>1170</v>
-      </c>
       <c r="G71" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="11" customFormat="1">
@@ -14594,16 +14616,16 @@
         <v>42353</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D72" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>1171</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>1172</v>
-      </c>
       <c r="G72" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="11" customFormat="1">
@@ -14611,16 +14633,16 @@
         <v>42353</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D73" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="E73" s="11" t="s">
-        <v>1174</v>
-      </c>
       <c r="G73" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="11" customFormat="1">
@@ -14628,16 +14650,16 @@
         <v>42353</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D74" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>1175</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>1176</v>
-      </c>
       <c r="G74" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="11" customFormat="1">
@@ -14645,16 +14667,16 @@
         <v>42353</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>1177</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="E75" s="11" t="s">
         <v>1178</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>1179</v>
-      </c>
       <c r="G75" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="11" customFormat="1">
@@ -14662,16 +14684,16 @@
         <v>42353</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D76" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>1180</v>
       </c>
-      <c r="E76" s="11" t="s">
-        <v>1181</v>
-      </c>
       <c r="G76" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="11" customFormat="1">
@@ -14679,16 +14701,16 @@
         <v>42353</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>1182</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="E77" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>1184</v>
-      </c>
       <c r="G77" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="11" customFormat="1">
@@ -14696,16 +14718,16 @@
         <v>42353</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D78" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>1185</v>
       </c>
-      <c r="E78" s="11" t="s">
-        <v>1186</v>
-      </c>
       <c r="G78" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="11" customFormat="1">
@@ -14713,16 +14735,16 @@
         <v>42353</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>1187</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>1188</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>1189</v>
-      </c>
       <c r="G79" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -14730,16 +14752,16 @@
         <v>42352</v>
       </c>
       <c r="B80" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
       </c>
       <c r="D80" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E80" t="s">
         <v>1191</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1192</v>
       </c>
       <c r="F80" t="s">
         <v>76</v>
@@ -14753,16 +14775,16 @@
         <v>42352</v>
       </c>
       <c r="B81" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C81" t="s">
         <v>229</v>
       </c>
       <c r="D81" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E81" t="s">
         <v>1194</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1195</v>
       </c>
       <c r="F81" t="s">
         <v>76</v>
@@ -14776,16 +14798,16 @@
         <v>42352</v>
       </c>
       <c r="B82" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C82" t="s">
         <v>229</v>
       </c>
       <c r="D82" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E82" t="s">
         <v>1197</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1198</v>
       </c>
       <c r="F82" t="s">
         <v>76</v>
@@ -14799,16 +14821,16 @@
         <v>42352</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>1200</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>1201</v>
-      </c>
       <c r="G83" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="11" customFormat="1">
@@ -14816,16 +14838,16 @@
         <v>42352</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>1202</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>1204</v>
-      </c>
       <c r="G84" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="11" customFormat="1">
@@ -14833,16 +14855,16 @@
         <v>42352</v>
       </c>
       <c r="B85" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>1206</v>
       </c>
-      <c r="E85" s="11" t="s">
-        <v>1207</v>
-      </c>
       <c r="G85" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="11" customFormat="1">
@@ -14850,16 +14872,16 @@
         <v>42352</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D86" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>1208</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>1209</v>
-      </c>
       <c r="G86" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="11" customFormat="1">
@@ -14867,16 +14889,16 @@
         <v>42352</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>1210</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>1212</v>
-      </c>
       <c r="G87" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="11" customFormat="1">
@@ -14884,16 +14906,16 @@
         <v>42352</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D88" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="E88" s="11" t="s">
-        <v>1214</v>
-      </c>
       <c r="G88" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="11" customFormat="1">
@@ -14901,16 +14923,16 @@
         <v>42352</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>1215</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="E89" s="11" t="s">
         <v>1216</v>
       </c>
-      <c r="E89" s="11" t="s">
-        <v>1217</v>
-      </c>
       <c r="G89" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="11" customFormat="1">
@@ -14918,16 +14940,16 @@
         <v>42352</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>1218</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="E90" s="11" t="s">
         <v>1219</v>
       </c>
-      <c r="E90" s="11" t="s">
-        <v>1220</v>
-      </c>
       <c r="G90" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="11" customFormat="1">
@@ -14935,16 +14957,16 @@
         <v>42352</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>1221</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="E91" s="11" t="s">
         <v>1222</v>
       </c>
-      <c r="E91" s="11" t="s">
-        <v>1223</v>
-      </c>
       <c r="G91" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="11" customFormat="1">
@@ -14952,16 +14974,16 @@
         <v>42352</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D92" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>1224</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>1225</v>
-      </c>
       <c r="G92" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="11" customFormat="1">
@@ -14969,16 +14991,16 @@
         <v>42352</v>
       </c>
       <c r="B93" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="E93" s="11" t="s">
         <v>1227</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>1228</v>
-      </c>
       <c r="G93" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="11" customFormat="1">
@@ -14986,16 +15008,16 @@
         <v>42352</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>1229</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="E94" s="11" t="s">
         <v>1230</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>1231</v>
-      </c>
       <c r="G94" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="11" customFormat="1">
@@ -15003,16 +15025,16 @@
         <v>42352</v>
       </c>
       <c r="B95" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>1232</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="E95" s="11" t="s">
         <v>1233</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>1234</v>
-      </c>
       <c r="G95" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="11" customFormat="1">
@@ -15020,16 +15042,16 @@
         <v>42352</v>
       </c>
       <c r="B96" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>1235</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="E96" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="E96" s="11" t="s">
-        <v>1237</v>
-      </c>
       <c r="G96" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -15037,16 +15059,16 @@
         <v>42352</v>
       </c>
       <c r="B97" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C97" t="s">
         <v>229</v>
       </c>
       <c r="D97" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E97" t="s">
         <v>1239</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1240</v>
       </c>
       <c r="F97" t="s">
         <v>99</v>
@@ -15060,16 +15082,16 @@
         <v>42352</v>
       </c>
       <c r="B98" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C98" t="s">
         <v>229</v>
       </c>
       <c r="D98" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E98" t="s">
         <v>1242</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1243</v>
       </c>
       <c r="F98" t="s">
         <v>76</v>
@@ -15083,16 +15105,16 @@
         <v>42352</v>
       </c>
       <c r="B99" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C99" t="s">
         <v>229</v>
       </c>
       <c r="D99" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E99" t="s">
         <v>1245</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1246</v>
       </c>
       <c r="F99" t="s">
         <v>76</v>
@@ -15106,16 +15128,16 @@
         <v>42352</v>
       </c>
       <c r="B100" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C100" t="s">
         <v>229</v>
       </c>
       <c r="D100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E100" t="s">
         <v>1248</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1249</v>
       </c>
       <c r="F100" t="s">
         <v>99</v>
@@ -15129,16 +15151,16 @@
         <v>42352</v>
       </c>
       <c r="B101" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C101" t="s">
         <v>229</v>
       </c>
       <c r="D101" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E101" t="s">
         <v>1251</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1252</v>
       </c>
       <c r="F101" t="s">
         <v>76</v>
@@ -15152,16 +15174,16 @@
         <v>42352</v>
       </c>
       <c r="B102" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C102" t="s">
         <v>229</v>
       </c>
       <c r="D102" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E102" t="s">
         <v>1254</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1255</v>
       </c>
       <c r="F102" t="s">
         <v>76</v>
@@ -15175,16 +15197,16 @@
         <v>42352</v>
       </c>
       <c r="B103" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>1256</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="E103" s="11" t="s">
         <v>1257</v>
       </c>
-      <c r="E103" s="11" t="s">
-        <v>1258</v>
-      </c>
       <c r="G103" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -15192,16 +15214,16 @@
         <v>42352</v>
       </c>
       <c r="B104" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C104" t="s">
         <v>229</v>
       </c>
       <c r="D104" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E104" t="s">
         <v>1260</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1261</v>
       </c>
       <c r="F104" t="s">
         <v>76</v>
@@ -15215,16 +15237,16 @@
         <v>42352</v>
       </c>
       <c r="B105" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>1262</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="E105" s="11" t="s">
         <v>1263</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>1264</v>
-      </c>
       <c r="G105" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="11" customFormat="1">
@@ -15232,16 +15254,16 @@
         <v>42352</v>
       </c>
       <c r="B106" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>1265</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="E106" s="11" t="s">
         <v>1266</v>
       </c>
-      <c r="E106" s="11" t="s">
-        <v>1267</v>
-      </c>
       <c r="G106" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="11" customFormat="1">
@@ -15249,16 +15271,16 @@
         <v>42352</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>1268</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="E107" s="11" t="s">
         <v>1269</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>1270</v>
-      </c>
       <c r="G107" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="11" customFormat="1">
@@ -15266,16 +15288,16 @@
         <v>42352</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>1271</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="E108" s="11" t="s">
         <v>1272</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>1273</v>
-      </c>
       <c r="G108" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -15283,16 +15305,16 @@
         <v>42352</v>
       </c>
       <c r="B109" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C109" t="s">
         <v>229</v>
       </c>
       <c r="D109" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E109" t="s">
         <v>1275</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1276</v>
       </c>
       <c r="F109" t="s">
         <v>76</v>
@@ -15306,16 +15328,16 @@
         <v>42352</v>
       </c>
       <c r="B110" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C110" t="s">
         <v>229</v>
       </c>
       <c r="D110" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E110" t="s">
         <v>1278</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1279</v>
       </c>
       <c r="F110" t="s">
         <v>76</v>
@@ -15329,16 +15351,16 @@
         <v>42352</v>
       </c>
       <c r="B111" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C111" t="s">
         <v>229</v>
       </c>
       <c r="D111" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E111" t="s">
         <v>1281</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1282</v>
       </c>
       <c r="F111" t="s">
         <v>162</v>
@@ -15352,16 +15374,16 @@
         <v>42352</v>
       </c>
       <c r="B112" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C112" t="s">
         <v>229</v>
       </c>
       <c r="D112" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E112" t="s">
         <v>1284</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1285</v>
       </c>
       <c r="F112" t="s">
         <v>76</v>
@@ -15375,13 +15397,13 @@
         <v>42349</v>
       </c>
       <c r="B113" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>1286</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="E113" s="11" t="s">
         <v>1287</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>1288</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>1036</v>
@@ -15392,13 +15414,13 @@
         <v>42349</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D114" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>1289</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>1290</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>1036</v>
@@ -15409,13 +15431,13 @@
         <v>42349</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>1291</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="E115" s="11" t="s">
         <v>1292</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>1293</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>1036</v>
@@ -15426,13 +15448,13 @@
         <v>42349</v>
       </c>
       <c r="B116" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D116" s="11" t="s">
         <v>1294</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="E116" s="11" t="s">
         <v>1295</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>1296</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>1036</v>
@@ -15443,13 +15465,13 @@
         <v>42349</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D117" s="11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>1297</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>1298</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>1036</v>
@@ -15460,13 +15482,13 @@
         <v>42349</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D118" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>1299</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>1300</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>1036</v>
@@ -15477,13 +15499,13 @@
         <v>42349</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D119" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>1301</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>1302</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>1036</v>
@@ -15494,13 +15516,13 @@
         <v>42349</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D120" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>1303</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>1304</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>1036</v>
@@ -15511,13 +15533,13 @@
         <v>42349</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D121" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E121" s="11" t="s">
         <v>1305</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>1306</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>1036</v>
@@ -15528,13 +15550,13 @@
         <v>42349</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D122" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>1307</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>1308</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>1036</v>
@@ -15545,13 +15567,13 @@
         <v>42349</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D123" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E123" s="11" t="s">
         <v>1309</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>1310</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>1036</v>
@@ -15562,16 +15584,16 @@
         <v>42349</v>
       </c>
       <c r="B124" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C124" t="s">
         <v>96</v>
       </c>
       <c r="D124" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E124" t="s">
         <v>1311</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1312</v>
       </c>
       <c r="F124" t="s">
         <v>99</v>
@@ -15585,13 +15607,13 @@
         <v>42349</v>
       </c>
       <c r="B125" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>1313</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="E125" s="11" t="s">
         <v>1314</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>1315</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>1036</v>
@@ -15602,13 +15624,13 @@
         <v>42349</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D126" s="11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>1316</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>1317</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>1036</v>
@@ -15619,13 +15641,13 @@
         <v>42349</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D127" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>1318</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>1319</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>1036</v>
@@ -15636,13 +15658,13 @@
         <v>42349</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D128" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>1320</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>1321</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>1036</v>
@@ -15653,13 +15675,13 @@
         <v>42349</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D129" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>1322</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>1323</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>1036</v>
@@ -15670,13 +15692,13 @@
         <v>42349</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D130" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>1324</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>1325</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>1036</v>
@@ -15687,13 +15709,13 @@
         <v>42349</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D131" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>1326</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>1327</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>1036</v>
@@ -15704,13 +15726,13 @@
         <v>42349</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D132" s="11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>1328</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>1329</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>1036</v>
@@ -15721,13 +15743,13 @@
         <v>42349</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D133" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>1330</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>1331</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>1036</v>
@@ -15738,13 +15760,13 @@
         <v>42349</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D134" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E134" s="11" t="s">
         <v>1332</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>1333</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>1036</v>
@@ -15755,13 +15777,13 @@
         <v>42349</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D135" s="11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>1334</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>1335</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>1036</v>
@@ -15772,13 +15794,13 @@
         <v>42349</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D136" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E136" s="11" t="s">
         <v>1336</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>1337</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>1036</v>
@@ -15789,13 +15811,13 @@
         <v>42349</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D137" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E137" s="11" t="s">
         <v>1338</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>1339</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>1036</v>
@@ -15806,13 +15828,13 @@
         <v>42349</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D138" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>1340</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>1341</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>1036</v>
@@ -15823,13 +15845,13 @@
         <v>42349</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D139" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>1342</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>1343</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>1036</v>
@@ -15840,13 +15862,13 @@
         <v>42349</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D140" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E140" s="11" t="s">
         <v>1344</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>1345</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>1036</v>
@@ -15857,13 +15879,13 @@
         <v>42349</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D141" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>1346</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>1347</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>1036</v>
@@ -15874,13 +15896,13 @@
         <v>42349</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D142" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E142" s="11" t="s">
         <v>1348</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>1349</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>1036</v>
@@ -15891,13 +15913,13 @@
         <v>42349</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D143" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E143" s="11" t="s">
         <v>1350</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>1351</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>1036</v>
@@ -15908,13 +15930,13 @@
         <v>42349</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D144" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E144" s="11" t="s">
         <v>1352</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>1353</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>1036</v>
@@ -15925,13 +15947,13 @@
         <v>42349</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D145" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E145" s="11" t="s">
         <v>1354</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>1355</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>1036</v>
@@ -15942,13 +15964,13 @@
         <v>42349</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D146" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>1356</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>1357</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>1036</v>
@@ -15959,13 +15981,13 @@
         <v>42349</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D147" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E147" s="11" t="s">
         <v>1358</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>1359</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>1036</v>
@@ -15976,13 +15998,13 @@
         <v>42349</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D148" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E148" s="11" t="s">
         <v>1360</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>1361</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>1036</v>
@@ -15993,13 +16015,13 @@
         <v>42349</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D149" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E149" s="11" t="s">
         <v>1362</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>1363</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>1036</v>
@@ -16010,13 +16032,13 @@
         <v>42349</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D150" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E150" s="11" t="s">
         <v>1364</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>1365</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>1036</v>
@@ -16027,13 +16049,13 @@
         <v>42349</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D151" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E151" s="11" t="s">
         <v>1366</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>1367</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>1036</v>
@@ -16044,13 +16066,13 @@
         <v>42349</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D152" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E152" s="11" t="s">
         <v>1368</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>1369</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>1036</v>
@@ -16061,13 +16083,13 @@
         <v>42349</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D153" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E153" s="11" t="s">
         <v>1370</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>1371</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>1036</v>
@@ -16078,13 +16100,13 @@
         <v>42349</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D154" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E154" s="11" t="s">
         <v>1372</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>1373</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>1036</v>
@@ -16095,13 +16117,13 @@
         <v>42349</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D155" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E155" s="11" t="s">
         <v>1374</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>1375</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>1036</v>
@@ -16112,13 +16134,13 @@
         <v>42349</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D156" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E156" s="11" t="s">
         <v>1376</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>1377</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>1036</v>
@@ -16129,13 +16151,13 @@
         <v>42349</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D157" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E157" s="11" t="s">
         <v>1378</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>1379</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>1036</v>
@@ -16146,13 +16168,13 @@
         <v>42349</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D158" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E158" s="11" t="s">
         <v>1380</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>1381</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>1036</v>
@@ -16163,13 +16185,13 @@
         <v>42349</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D159" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E159" s="11" t="s">
         <v>1382</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>1383</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>1036</v>
@@ -16180,13 +16202,13 @@
         <v>42349</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D160" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E160" s="11" t="s">
         <v>1384</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>1385</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>1036</v>
@@ -16197,13 +16219,13 @@
         <v>42349</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D161" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>1386</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>1387</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>1036</v>
@@ -16214,13 +16236,13 @@
         <v>42349</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D162" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E162" s="11" t="s">
         <v>1388</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>1389</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>1036</v>
@@ -16231,13 +16253,13 @@
         <v>42349</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D163" s="11" t="s">
         <v>1390</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="E163" s="11" t="s">
         <v>1391</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>1392</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>1036</v>
@@ -16248,13 +16270,13 @@
         <v>42349</v>
       </c>
       <c r="B164" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D164" s="11" t="s">
         <v>1393</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="E164" s="11" t="s">
         <v>1394</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>1395</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>1036</v>
@@ -16265,13 +16287,13 @@
         <v>42349</v>
       </c>
       <c r="B165" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D165" s="11" t="s">
         <v>1396</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="E165" s="11" t="s">
         <v>1397</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>1398</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>1036</v>
@@ -16282,13 +16304,13 @@
         <v>42349</v>
       </c>
       <c r="B166" s="11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D166" s="11" t="s">
         <v>1399</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="E166" s="11" t="s">
         <v>1400</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>1401</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>1036</v>
@@ -16299,13 +16321,13 @@
         <v>42349</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D167" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E167" s="11" t="s">
         <v>1402</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>1403</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>1036</v>
@@ -16316,13 +16338,13 @@
         <v>42349</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D168" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E168" s="11" t="s">
         <v>1404</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>1405</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>1036</v>
@@ -16333,13 +16355,13 @@
         <v>42349</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D169" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E169" s="11" t="s">
         <v>1406</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>1407</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>1036</v>
@@ -16350,13 +16372,13 @@
         <v>42349</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D170" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E170" s="11" t="s">
         <v>1408</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>1409</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>1036</v>
@@ -16367,13 +16389,13 @@
         <v>42349</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D171" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E171" s="11" t="s">
         <v>1410</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>1411</v>
       </c>
       <c r="G171" s="11" t="s">
         <v>1036</v>
@@ -16384,13 +16406,13 @@
         <v>42349</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D172" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E172" s="11" t="s">
         <v>1412</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>1413</v>
       </c>
       <c r="G172" s="11" t="s">
         <v>1036</v>
@@ -16401,13 +16423,13 @@
         <v>42349</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D173" s="11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E173" s="11" t="s">
         <v>1414</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>1415</v>
       </c>
       <c r="G173" s="11" t="s">
         <v>1036</v>
@@ -16418,13 +16440,13 @@
         <v>42349</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D174" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E174" s="11" t="s">
         <v>1416</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>1417</v>
       </c>
       <c r="G174" s="11" t="s">
         <v>1036</v>
@@ -16435,13 +16457,13 @@
         <v>42349</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D175" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E175" s="11" t="s">
         <v>1418</v>
-      </c>
-      <c r="E175" s="11" t="s">
-        <v>1419</v>
       </c>
       <c r="G175" s="11" t="s">
         <v>1036</v>
@@ -16452,13 +16474,13 @@
         <v>42349</v>
       </c>
       <c r="B176" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D176" s="11" t="s">
         <v>1420</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="E176" s="11" t="s">
         <v>1421</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>1422</v>
       </c>
       <c r="G176" s="11" t="s">
         <v>1036</v>
@@ -16469,13 +16491,13 @@
         <v>42349</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D177" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E177" s="11" t="s">
         <v>1423</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>1424</v>
       </c>
       <c r="G177" s="11" t="s">
         <v>1036</v>
@@ -16486,13 +16508,13 @@
         <v>42349</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D178" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E178" s="11" t="s">
         <v>1425</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>1426</v>
       </c>
       <c r="G178" s="11" t="s">
         <v>1036</v>
@@ -16503,13 +16525,13 @@
         <v>42349</v>
       </c>
       <c r="B179" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D179" s="11" t="s">
         <v>1427</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="E179" s="11" t="s">
         <v>1428</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>1429</v>
       </c>
       <c r="G179" s="11" t="s">
         <v>1036</v>
@@ -16520,13 +16542,13 @@
         <v>42349</v>
       </c>
       <c r="B180" s="11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D180" s="11" t="s">
         <v>1430</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="E180" s="11" t="s">
         <v>1431</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>1432</v>
       </c>
       <c r="G180" s="11" t="s">
         <v>1036</v>
@@ -16537,13 +16559,13 @@
         <v>42349</v>
       </c>
       <c r="B181" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D181" s="11" t="s">
         <v>1433</v>
       </c>
-      <c r="D181" s="11" t="s">
+      <c r="E181" s="11" t="s">
         <v>1434</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>1435</v>
       </c>
       <c r="G181" s="11" t="s">
         <v>1036</v>
@@ -16554,13 +16576,13 @@
         <v>42349</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D182" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E182" s="11" t="s">
         <v>1436</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>1437</v>
       </c>
       <c r="G182" s="11" t="s">
         <v>1036</v>
@@ -16571,16 +16593,16 @@
         <v>42349</v>
       </c>
       <c r="B183" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C183" t="s">
         <v>96</v>
       </c>
       <c r="D183" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E183" t="s">
         <v>1438</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1439</v>
       </c>
       <c r="F183" t="s">
         <v>99</v>
@@ -16594,13 +16616,13 @@
         <v>42349</v>
       </c>
       <c r="B184" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D184" s="11" t="s">
         <v>1440</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="E184" s="11" t="s">
         <v>1441</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>1442</v>
       </c>
       <c r="G184" s="11" t="s">
         <v>1036</v>
@@ -16611,13 +16633,13 @@
         <v>42349</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D185" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E185" s="11" t="s">
         <v>1443</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>1444</v>
       </c>
       <c r="G185" s="11" t="s">
         <v>1036</v>
@@ -16628,13 +16650,13 @@
         <v>42349</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D186" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E186" s="11" t="s">
         <v>1445</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>1446</v>
       </c>
       <c r="G186" s="11" t="s">
         <v>1036</v>
@@ -16645,13 +16667,13 @@
         <v>42349</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D187" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E187" s="11" t="s">
         <v>1447</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>1448</v>
       </c>
       <c r="G187" s="11" t="s">
         <v>1036</v>
@@ -16662,16 +16684,16 @@
         <v>42349</v>
       </c>
       <c r="B188" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C188" t="s">
         <v>96</v>
       </c>
       <c r="D188" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E188" t="s">
         <v>1449</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1450</v>
       </c>
       <c r="F188" t="s">
         <v>99</v>
@@ -16685,16 +16707,16 @@
         <v>42349</v>
       </c>
       <c r="B189" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C189" t="s">
         <v>96</v>
       </c>
       <c r="D189" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E189" t="s">
         <v>1452</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1453</v>
       </c>
       <c r="F189" t="s">
         <v>99</v>
@@ -16708,16 +16730,16 @@
         <v>42349</v>
       </c>
       <c r="B190" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C190" t="s">
         <v>392</v>
       </c>
       <c r="D190" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E190" t="s">
         <v>1455</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1456</v>
       </c>
       <c r="F190" t="s">
         <v>76</v>
@@ -16731,13 +16753,13 @@
         <v>42348</v>
       </c>
       <c r="B191" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D191" s="11" t="s">
         <v>1457</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="E191" s="11" t="s">
         <v>1458</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>1459</v>
       </c>
       <c r="G191" s="11" t="s">
         <v>1036</v>
@@ -16748,13 +16770,13 @@
         <v>42348</v>
       </c>
       <c r="B192" s="11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D192" s="11" t="s">
         <v>1460</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="E192" s="11" t="s">
         <v>1461</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>1462</v>
       </c>
       <c r="G192" s="11" t="s">
         <v>1036</v>
@@ -16765,13 +16787,13 @@
         <v>42348</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D193" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E193" s="11" t="s">
         <v>1463</v>
-      </c>
-      <c r="E193" s="11" t="s">
-        <v>1464</v>
       </c>
       <c r="G193" s="11" t="s">
         <v>1036</v>
@@ -16782,13 +16804,13 @@
         <v>42348</v>
       </c>
       <c r="B194" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D194" s="11" t="s">
         <v>1465</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="E194" s="11" t="s">
         <v>1466</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>1467</v>
       </c>
       <c r="G194" s="11" t="s">
         <v>1036</v>
@@ -16799,13 +16821,13 @@
         <v>42348</v>
       </c>
       <c r="B195" s="11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D195" s="11" t="s">
         <v>1468</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="E195" s="11" t="s">
         <v>1469</v>
-      </c>
-      <c r="E195" s="11" t="s">
-        <v>1470</v>
       </c>
       <c r="G195" s="11" t="s">
         <v>1036</v>
@@ -16816,13 +16838,13 @@
         <v>42348</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D196" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E196" s="11" t="s">
         <v>1471</v>
-      </c>
-      <c r="E196" s="11" t="s">
-        <v>1472</v>
       </c>
       <c r="G196" s="11" t="s">
         <v>1036</v>
@@ -16833,13 +16855,13 @@
         <v>42348</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D197" s="11" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E197" s="11" t="s">
         <v>1473</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>1474</v>
       </c>
       <c r="G197" s="11" t="s">
         <v>1036</v>
@@ -16850,13 +16872,13 @@
         <v>42348</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D198" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E198" s="11" t="s">
         <v>1475</v>
-      </c>
-      <c r="E198" s="11" t="s">
-        <v>1476</v>
       </c>
       <c r="G198" s="11" t="s">
         <v>1036</v>
@@ -16867,13 +16889,13 @@
         <v>42348</v>
       </c>
       <c r="B199" s="11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D199" s="11" t="s">
         <v>1477</v>
       </c>
-      <c r="D199" s="11" t="s">
+      <c r="E199" s="11" t="s">
         <v>1478</v>
-      </c>
-      <c r="E199" s="11" t="s">
-        <v>1479</v>
       </c>
       <c r="G199" s="11" t="s">
         <v>1036</v>
@@ -16884,13 +16906,13 @@
         <v>42348</v>
       </c>
       <c r="B200" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D200" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="D200" s="11" t="s">
-        <v>1481</v>
-      </c>
       <c r="E200" s="11" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G200" s="11" t="s">
         <v>1036</v>
@@ -16901,13 +16923,13 @@
         <v>42348</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D201" s="11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E201" s="11" t="s">
         <v>1482</v>
-      </c>
-      <c r="E201" s="11" t="s">
-        <v>1483</v>
       </c>
       <c r="G201" s="11" t="s">
         <v>1036</v>
@@ -16918,13 +16940,13 @@
         <v>42348</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D202" s="11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E202" s="11" t="s">
         <v>1484</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>1485</v>
       </c>
       <c r="G202" s="11" t="s">
         <v>1036</v>
@@ -16935,13 +16957,13 @@
         <v>42348</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D203" s="11" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E203" s="11" t="s">
         <v>1486</v>
-      </c>
-      <c r="E203" s="11" t="s">
-        <v>1487</v>
       </c>
       <c r="G203" s="11" t="s">
         <v>1036</v>
@@ -16952,13 +16974,13 @@
         <v>42348</v>
       </c>
       <c r="B204" s="11" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D204" s="11" t="s">
         <v>1488</v>
       </c>
-      <c r="D204" s="11" t="s">
+      <c r="E204" s="11" t="s">
         <v>1489</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>1490</v>
       </c>
       <c r="G204" s="11" t="s">
         <v>1036</v>
@@ -16969,13 +16991,13 @@
         <v>42348</v>
       </c>
       <c r="B205" s="11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D205" s="11" t="s">
         <v>1491</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="E205" s="11" t="s">
         <v>1492</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>1493</v>
       </c>
       <c r="G205" s="11" t="s">
         <v>1036</v>
@@ -16984,5 +17006,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vulsHistory" sheetId="13" r:id="rId1"/>
     <sheet name="whiteList" sheetId="2" r:id="rId2"/>
     <sheet name="blackList" sheetId="3" r:id="rId3"/>
-    <sheet name="run1105_1203" sheetId="15" r:id="rId4"/>
+    <sheet name="run1105_1224" sheetId="15" r:id="rId4"/>
     <sheet name="run" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1434">
   <si>
     <t>wordpress</t>
   </si>
@@ -3180,66 +3180,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wireshark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FireEye Wormable Remote Code Execution in MIP JAR Analysis</t>
   </si>
   <si>
     <t>https://www.exploit-db.com/exploits/39007/</t>
   </si>
   <si>
+    <t>ManageEngine Desktop Central 9 FileUploadServlet ConnectionId Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38982/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8249</t>
+  </si>
+  <si>
+    <t>Siemens Simatic S7 1200 CPU Command Module (MSF)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38964/</t>
+  </si>
+  <si>
+    <t>Microsoft Office / COM Object DLL Planting with comsvcs.dll Delay Load of mqrt.dll (MS15-132)</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38968/</t>
+  </si>
+  <si>
+    <t>Legend Perl IRC Bot Remote Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38973/</t>
+  </si>
+  <si>
+    <t>Xdh / LinuxNet Perlbot / fBot IRC Bot Remote Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38974/</t>
+  </si>
+  <si>
+    <t>Ovidentia newsletter Module 2.2 - (admin.php) Remote File Inclusion Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/38991/</t>
+  </si>
+  <si>
     <t>Joomla 1.5 - 3.4.5 - Object Injection Remote Command Execution</t>
   </si>
   <si>
     <t>https://www.exploit-db.com/exploits/38977/</t>
   </si>
   <si>
-    <t>ManageEngine Desktop Central 9 FileUploadServlet ConnectionId Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38982/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8249</t>
-  </si>
-  <si>
-    <t>Jenkins CLI RMI Java Deserialization Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38983/</t>
-  </si>
-  <si>
-    <t>CVErepeat</t>
-  </si>
-  <si>
-    <t>Siemens Simatic S7 1200 CPU Command Module (MSF)</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38964/</t>
-  </si>
-  <si>
-    <t>Microsoft Office / COM Object DLL Planting with comsvcs.dll Delay Load of mqrt.dll (MS15-132)</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38968/</t>
-  </si>
-  <si>
-    <t>Legend Perl IRC Bot Remote Code Execution</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38973/</t>
-  </si>
-  <si>
-    <t>Xdh / LinuxNet Perlbot / fBot IRC Bot Remote Code Execution</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38974/</t>
-  </si>
-  <si>
-    <t>Ovidentia newsletter Module 2.2 - (admin.php) Remote File Inclusion Exploit</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38991/</t>
-  </si>
-  <si>
     <t>Ovidentia absences Module 2.64 - Remote File Inclusion</t>
   </si>
   <si>
@@ -3411,12 +3406,6 @@
     <t>CVE-2015-7648</t>
   </si>
   <si>
-    <t>Internet Explorer 11 MSHTML!CObjectElement Use-After-Free Vulnerability (MS15-124)</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/38972/</t>
-  </si>
-  <si>
     <t>https://www.exploit-db.com/exploits/38930/</t>
   </si>
   <si>
@@ -3435,12 +3424,6 @@
     <t>https://www.hkcert.org/my_url/en/alert/15121604</t>
   </si>
   <si>
-    <t>Mozilla Firefox Multiple vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121603</t>
-  </si>
-  <si>
     <t>BIND Multiple Denial of Service Vulnerabilities</t>
   </si>
   <si>
@@ -3450,27 +3433,12 @@
     <t>CVE-2015-8000,CVE-2015-8461</t>
   </si>
   <si>
-    <t>Google Chrome Multiple vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121601</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>Joomla Remote Code Execution Vulnerability</t>
   </si>
   <si>
     <t>https://www.hkcert.org/my_url/en/alert/15121501</t>
   </si>
   <si>
-    <t>Apple iTunes Multiple vulnerabilities</t>
-  </si>
-  <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121402</t>
-  </si>
-  <si>
     <t>Fortinet Product OpenSSL Multiple vulnerabilities</t>
   </si>
   <si>
@@ -3483,7 +3451,10 @@
     <t>CVE-2015-1788,CVE-2015-1789,CVE-2015-1790,CVE-2015-1791,CVE-2015-1792</t>
   </si>
   <si>
-    <t>https://www.hkcert.org/my_url/en/alert/15121001</t>
+    <t>Apache TomEE遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/31995</t>
   </si>
   <si>
     <t>Cisco Small Business TFTP固件圖形上傳漏洞</t>
@@ -3495,12 +3466,6 @@
     <t>CVE-2015-6403</t>
   </si>
   <si>
-    <t>Schneider Electric ProClima 多個緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32033</t>
-  </si>
-  <si>
     <t>libxml2 xmlParseXMLDecl函數信息泄露漏洞</t>
   </si>
   <si>
@@ -3534,24 +3499,6 @@
     <t>CVE-2015-8570</t>
   </si>
   <si>
-    <t>Autodesk Design Review整數溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31998</t>
-  </si>
-  <si>
-    <t>CVE-2015-8571</t>
-  </si>
-  <si>
-    <t>Autodesk Design Review緩衝區溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31997</t>
-  </si>
-  <si>
-    <t>CVE-2015-8572</t>
-  </si>
-  <si>
     <t>Adobe Reader DC AGM 遠程代碼執行漏洞</t>
   </si>
   <si>
@@ -3561,111 +3508,6 @@
     <t>CVE-2015-8458</t>
   </si>
   <si>
-    <t>Apache TomEE遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31995</t>
-  </si>
-  <si>
-    <t>Apple Xcode安全漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31994</t>
-  </si>
-  <si>
-    <t>CVE-2015-7082</t>
-  </si>
-  <si>
-    <t>Apple Safari WebKit內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31993</t>
-  </si>
-  <si>
-    <t>CVE-2015-7101</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31992</t>
-  </si>
-  <si>
-    <t>CVE-2015-7102</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31991</t>
-  </si>
-  <si>
-    <t>CVE-2015-7103</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31990</t>
-  </si>
-  <si>
-    <t>CVE-2015-7100</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31989</t>
-  </si>
-  <si>
-    <t>CVE-2015-7098</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31988</t>
-  </si>
-  <si>
-    <t>CVE-2015-7099</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31987</t>
-  </si>
-  <si>
-    <t>CVE-2015-7097</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31986</t>
-  </si>
-  <si>
-    <t>CVE-2015-7084</t>
-  </si>
-  <si>
-    <t>Apple iOS kernel 內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31985</t>
-  </si>
-  <si>
-    <t>CVE-2015-7083</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31984</t>
-  </si>
-  <si>
-    <t>CVE-2015-7096</t>
-  </si>
-  <si>
-    <t>Apple Safari URL欺騙漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31983</t>
-  </si>
-  <si>
-    <t>CVE-2015-7093</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31982</t>
-  </si>
-  <si>
-    <t>CVE-2015-7095</t>
-  </si>
-  <si>
-    <t>Apple Safari HSTS機制繞過漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31981</t>
-  </si>
-  <si>
-    <t>CVE-2015-7094</t>
-  </si>
-  <si>
     <t>PHP phar_parse_zipfile函數單字節溢出漏洞</t>
   </si>
   <si>
@@ -3693,123 +3535,6 @@
     <t>CVE-2015-6395</t>
   </si>
   <si>
-    <t>Apple iOS LaunchServices組件內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32027</t>
-  </si>
-  <si>
-    <t>CVE-2015-7113</t>
-  </si>
-  <si>
-    <t>Apple iOS IOHIDFamily API內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32026</t>
-  </si>
-  <si>
-    <t>CVE-2015-7112</t>
-  </si>
-  <si>
-    <t>Apple OS X CoreMedia Playback內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32025</t>
-  </si>
-  <si>
-    <t>CVE-2015-7075</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32024</t>
-  </si>
-  <si>
-    <t>CVE-2015-7111</t>
-  </si>
-  <si>
-    <t>Apple iOS Intel Graphics Driver內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32023</t>
-  </si>
-  <si>
-    <t>CVE-2015-7106</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32022</t>
-  </si>
-  <si>
-    <t>CVE-2015-7104</t>
-  </si>
-  <si>
-    <t>Apple iOS QuickLook內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32021</t>
-  </si>
-  <si>
-    <t>CVE-2015-7107</t>
-  </si>
-  <si>
-    <t>Apple OS X IOAcceleratorFamily內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32020</t>
-  </si>
-  <si>
-    <t>CVE-2015-7109</t>
-  </si>
-  <si>
-    <t>Apple OS X Disk Images組件內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32019</t>
-  </si>
-  <si>
-    <t>CVE-2015-7110</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32018</t>
-  </si>
-  <si>
-    <t>CVE-2015-7074</t>
-  </si>
-  <si>
-    <t>Apple iOS CoreGraphics內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32017</t>
-  </si>
-  <si>
-    <t>CVE-2015-7105</t>
-  </si>
-  <si>
-    <t>Apple OS X 空指針間接引用漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32016</t>
-  </si>
-  <si>
-    <t>CVE-2015-7076</t>
-  </si>
-  <si>
-    <t>Apple OS X 內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32015</t>
-  </si>
-  <si>
-    <t>CVE-2015-7108</t>
-  </si>
-  <si>
-    <t>Apple OS X內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32014</t>
-  </si>
-  <si>
-    <t>CVE-2015-7073</t>
-  </si>
-  <si>
     <t>Cisco Unified Computing System (UCS)拒絕服務漏洞</t>
   </si>
   <si>
@@ -3864,15 +3589,6 @@
     <t>CVE-2015-6405</t>
   </si>
   <si>
-    <t>Apple iOS iBooks信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32007</t>
-  </si>
-  <si>
-    <t>CVE-2015-7081</t>
-  </si>
-  <si>
     <t>Cisco Emergency Responder 目錄遍歷漏洞</t>
   </si>
   <si>
@@ -3882,42 +3598,6 @@
     <t>CVE-2015-6406</t>
   </si>
   <si>
-    <t>Apple iOS Siri信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32005</t>
-  </si>
-  <si>
-    <t>CVE-2015-7080</t>
-  </si>
-  <si>
-    <t>Apple iOS dyld 任意代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32004</t>
-  </si>
-  <si>
-    <t>CVE-2015-7079</t>
-  </si>
-  <si>
-    <t>Apple OS X 權限提升漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32003</t>
-  </si>
-  <si>
-    <t>CVE-2015-7078</t>
-  </si>
-  <si>
-    <t>Apple OS X 越界內存訪問漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32002</t>
-  </si>
-  <si>
-    <t>CVE-2015-7077</t>
-  </si>
-  <si>
     <t>Cisco Emergency Responder Web框架任意文件上傳漏洞</t>
   </si>
   <si>
@@ -3957,492 +3637,21 @@
     <t>Adobe Flash Player及AIR內存破壞漏洞(APSB15-32)</t>
   </si>
   <si>
-    <t>http://www.nsfocus.net/vulndb/31977</t>
-  </si>
-  <si>
-    <t>CVE-2015-8419</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31976</t>
-  </si>
-  <si>
-    <t>CVE-2015-8408</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR訪問限制繞過漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31975</t>
-  </si>
-  <si>
-    <t>CVE-2015-8409</t>
-  </si>
-  <si>
     <t>Adobe Flash Player及AIR釋放後重利用漏洞(APSB15-32)</t>
   </si>
   <si>
-    <t>http://www.nsfocus.net/vulndb/31974</t>
-  </si>
-  <si>
-    <t>CVE-2015-8410</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31973</t>
-  </si>
-  <si>
-    <t>CVE-2015-8411</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31972</t>
-  </si>
-  <si>
-    <t>CVE-2015-8412</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31971</t>
-  </si>
-  <si>
-    <t>CVE-2015-8413</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31970</t>
-  </si>
-  <si>
-    <t>CVE-2015-8414</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31969</t>
-  </si>
-  <si>
-    <t>CVE-2015-8415</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31968</t>
-  </si>
-  <si>
-    <t>CVE-2015-8416</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31967</t>
-  </si>
-  <si>
-    <t>CVE-2015-8417</t>
-  </si>
-  <si>
     <t>http://www.nsfocus.net/vulndb/31966</t>
   </si>
   <si>
     <t>CVE-2015-8418</t>
   </si>
   <si>
-    <t>Adobe Flash Player及AIR棧緩衝區溢出漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31965</t>
-  </si>
-  <si>
-    <t>CVE-2015-8407</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31964</t>
-  </si>
-  <si>
-    <t>CVE-2015-8406</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31963</t>
-  </si>
-  <si>
-    <t>CVE-2015-8405</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31962</t>
-  </si>
-  <si>
-    <t>CVE-2015-8404</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31961</t>
-  </si>
-  <si>
-    <t>CVE-2015-8403</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31960</t>
-  </si>
-  <si>
-    <t>CVE-2015-8402</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31959</t>
-  </si>
-  <si>
-    <t>CVE-2015-8401</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31958</t>
-  </si>
-  <si>
-    <t>CVE-2015-8071</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31957</t>
-  </si>
-  <si>
-    <t>CVE-2015-8069</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31956</t>
-  </si>
-  <si>
-    <t>CVE-2015-8068</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31955</t>
-  </si>
-  <si>
-    <t>CVE-2015-8067</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31954</t>
-  </si>
-  <si>
-    <t>CVE-2015-8066</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31953</t>
-  </si>
-  <si>
-    <t>CVE-2015-8065</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31952</t>
-  </si>
-  <si>
-    <t>CVE-2015-8064</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31951</t>
-  </si>
-  <si>
-    <t>CVE-2015-8063</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31950</t>
-  </si>
-  <si>
-    <t>CVE-2015-8062</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31949</t>
-  </si>
-  <si>
-    <t>CVE-2015-8061</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31948</t>
-  </si>
-  <si>
-    <t>CVE-2015-8060</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31947</t>
-  </si>
-  <si>
-    <t>CVE-2015-8059</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31946</t>
-  </si>
-  <si>
-    <t>CVE-2015-8058</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31945</t>
-  </si>
-  <si>
-    <t>CVE-2015-8056</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31944</t>
-  </si>
-  <si>
-    <t>CVE-2015-8057</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31943</t>
-  </si>
-  <si>
-    <t>CVE-2015-8055</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31942</t>
-  </si>
-  <si>
-    <t>CVE-2015-8050</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31941</t>
-  </si>
-  <si>
-    <t>CVE-2015-8049</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31940</t>
-  </si>
-  <si>
-    <t>CVE-2015-8048</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31939</t>
-  </si>
-  <si>
-    <t>CVE-2015-8047</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31938</t>
-  </si>
-  <si>
-    <t>CVE-2015-8045</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31937</t>
-  </si>
-  <si>
-    <t>CVE-2015-8420</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31936</t>
-  </si>
-  <si>
-    <t>CVE-2015-8421</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31935</t>
-  </si>
-  <si>
-    <t>CVE-2015-8422</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31934</t>
-  </si>
-  <si>
-    <t>CVE-2015-8423</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31933</t>
-  </si>
-  <si>
-    <t>CVE-2015-8424</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31932</t>
-  </si>
-  <si>
-    <t>CVE-2015-8425</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31931</t>
-  </si>
-  <si>
-    <t>CVE-2015-8426</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31930</t>
-  </si>
-  <si>
-    <t>CVE-2015-8427</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31929</t>
-  </si>
-  <si>
-    <t>CVE-2015-8428</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31928</t>
-  </si>
-  <si>
-    <t>CVE-2015-8429</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR類型混淆漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31927</t>
-  </si>
-  <si>
-    <t>CVE-2015-8439</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR堆緩衝區溢出漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31926</t>
-  </si>
-  <si>
-    <t>CVE-2015-8438</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR Selection對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31925</t>
-  </si>
-  <si>
-    <t>CVE-2015-8437</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR PrintJob對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31924</t>
-  </si>
-  <si>
-    <t>CVE-2015-8436</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31923</t>
-  </si>
-  <si>
-    <t>CVE-2015-8430</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31922</t>
-  </si>
-  <si>
-    <t>CVE-2015-8431</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31921</t>
-  </si>
-  <si>
-    <t>CVE-2015-8432</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31920</t>
-  </si>
-  <si>
-    <t>CVE-2015-8433</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31919</t>
-  </si>
-  <si>
-    <t>CVE-2015-8434</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31918</t>
-  </si>
-  <si>
-    <t>CVE-2015-8435</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31917</t>
-  </si>
-  <si>
-    <t>CVE-2015-8441</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31916</t>
-  </si>
-  <si>
-    <t>CVE-2015-8440</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31915</t>
-  </si>
-  <si>
-    <t>CVE-2015-8446</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR整數溢出漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31914</t>
-  </si>
-  <si>
-    <t>CVE-2015-8445</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31913</t>
-  </si>
-  <si>
-    <t>CVE-2015-8444</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31912</t>
-  </si>
-  <si>
-    <t>CVE-2015-8443</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR MovieClip對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31911</t>
-  </si>
-  <si>
-    <t>CVE-2015-8442</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR DisplacementMapFilter對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31910</t>
-  </si>
-  <si>
-    <t>CVE-2015-8448</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player及AIR Color對象釋放後重利用漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31909</t>
-  </si>
-  <si>
-    <t>CVE-2015-8447</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31908</t>
-  </si>
-  <si>
-    <t>CVE-2015-8449</t>
-  </si>
-  <si>
     <t>http://www.nsfocus.net/vulndb/31907</t>
   </si>
   <si>
     <t>CVE-2015-8454</t>
   </si>
   <si>
-    <t>Adobe Flash Player及AIR ASLR保護機制繞過漏洞(APSB15-32)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31906</t>
-  </si>
-  <si>
-    <t>CVE-2015-8453</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31905</t>
-  </si>
-  <si>
-    <t>CVE-2015-8452</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31904</t>
-  </si>
-  <si>
-    <t>CVE-2015-8451</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31903</t>
-  </si>
-  <si>
-    <t>CVE-2015-8450</t>
-  </si>
-  <si>
     <t>http://www.nsfocus.net/vulndb/31902</t>
   </si>
   <si>
@@ -4467,118 +3676,7 @@
     <t>CVE-2014-8730</t>
   </si>
   <si>
-    <t>Microsoft IE及Edge ASLR安全措施繞過漏洞(MS15-125)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31880</t>
-  </si>
-  <si>
-    <t>CVE-2015-6161</t>
-  </si>
-  <si>
-    <t>Microsoft IE及Edge遠程內存破壞漏洞(MS15-125)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31879</t>
-  </si>
-  <si>
-    <t>CVE-2015-6155</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31878</t>
-  </si>
-  <si>
-    <t>CVE-2015-6159</t>
-  </si>
-  <si>
-    <t>Microsoft Silverlight遠程代碼執行漏洞(MS15-129)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31877</t>
-  </si>
-  <si>
-    <t>CVE-2015-6166</t>
-  </si>
-  <si>
-    <t>Microsoft Silverlight信息泄露漏洞(MS15-129)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31876</t>
-  </si>
-  <si>
-    <t>CVE-2015-6165</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31875</t>
-  </si>
-  <si>
-    <t>CVE-2015-6151</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31874</t>
-  </si>
-  <si>
-    <t>CVE-2015-6154</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31873</t>
-  </si>
-  <si>
-    <t>CVE-2015-6153</t>
-  </si>
-  <si>
-    <t>Microsoft Windows Kernel本地權限提升漏洞(MS15-135)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31869</t>
-  </si>
-  <si>
-    <t>CVE-2015-6171</t>
-  </si>
-  <si>
-    <t>Microsoft Office遠程代碼執行漏洞(MS15-131)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31868</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31867</t>
-  </si>
-  <si>
-    <t>CVE-2015-6173</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31866</t>
-  </si>
-  <si>
-    <t>CVE-2015-6174</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31865</t>
-  </si>
-  <si>
-    <t>CVE-2015-6175</t>
-  </si>
-  <si>
-    <t>Microsoft Office內存破壞漏洞(MS15-131)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31864</t>
-  </si>
-  <si>
-    <t>CVE-2015-6177</t>
-  </si>
-  <si>
-    <t>Microsoft Edge欺騙漏洞(MS15-125)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/31863</t>
-  </si>
-  <si>
-    <t>CVE-2015-6169</t>
-  </si>
-  <si>
-    <t>CVE-2015-6172</t>
+    <t>1210_1217</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4586,7 +3684,724 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wireshark</t>
+    <t>Beezfud - Remote Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39093/</t>
+  </si>
+  <si>
+    <t>Rips Scanner 0.5 - (code.php) Local File Inclusion</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39094/</t>
+  </si>
+  <si>
+    <t>Bigware Shop 2.3.01 - Multiple Local File Inclusion Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39083/</t>
+  </si>
+  <si>
+    <t>Grawlix 1.0.3 - CSRF Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39084/</t>
+  </si>
+  <si>
+    <t>Arastta 1.1.5 - SQL Injection Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39085/</t>
+  </si>
+  <si>
+    <t>PhpSocial 2.0.0304_20222226 - CSRF Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39086/</t>
+  </si>
+  <si>
+    <t>Ovidentia online Module 2.8 - GLOBALS[babAddonPhpPath] Remote File Inclusion</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39068/</t>
+  </si>
+  <si>
+    <t>Ovidentia Widgets 1.0.61 - Remote Command Execution Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39069/</t>
+  </si>
+  <si>
+    <t>Joomla 1.5 - 3.4.5 - Object Injection RCE X-Forwarded-For Header</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39033/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8562</t>
+  </si>
+  <si>
+    <t>Ovidentia maillist Module 4.0 - Remote File Inclusion Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39034/</t>
+  </si>
+  <si>
+    <t>PFSense &amp;lt;= 2.2.5 - Directory Traversal</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39038/</t>
+  </si>
+  <si>
+    <t>Zen Cart 1.5.4 - Local File Inclusion</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39017/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8352</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39035/</t>
+  </si>
+  <si>
+    <t>CVE-2015-0057</t>
+  </si>
+  <si>
+    <t>Gentoo Local Priv Escalation in QEMU</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39010/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8556</t>
+  </si>
+  <si>
+    <t>PHP 7.0.0 - Format String Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39082/</t>
+  </si>
+  <si>
+    <t>Wireshark infer_pkt_encap - Heap-Based Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39076/</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Wireshark AirPDcapDecryptWPABroadcastKey - Heap-Based Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39077/</t>
+  </si>
+  <si>
+    <t>Notepad++ NPPFtp Plugin 0.26.3 - Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39067/</t>
+  </si>
+  <si>
+    <t>Base64 Decoder 1.1.2 - SEH OverWrite PoC</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39070/</t>
+  </si>
+  <si>
+    <t>Adobe Flash Sound.setTransform - Use-After-Free</t>
+  </si>
+  <si>
+    <t>win64</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39072/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8434</t>
+  </si>
+  <si>
+    <t>CVErepeat</t>
+  </si>
+  <si>
+    <t>Apache 2.4.17 - Denial of Service</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39037/</t>
+  </si>
+  <si>
+    <t>Google Chrome - Renderer Process to Browser Process Privilege Escalation</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39039/</t>
+  </si>
+  <si>
+    <t>Adobe Flash MovieClip.attachBitmap - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39040/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8410</t>
+  </si>
+  <si>
+    <t>Adobe Flash MovieClip.startDrag - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39041/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8411</t>
+  </si>
+  <si>
+    <t>Adobe Flash MovieClip.duplicateMovieClip - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39042/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8412</t>
+  </si>
+  <si>
+    <t>Adobe Flash Selection.SetSelection - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39043/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8413</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.sharpness Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39044/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8420</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.thickness Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39045/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8421</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.setFormat - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39046/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8422</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.replaceSel - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39047/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8423</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.replaceText - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39048/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8424</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField Variable - Use-After Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39049/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8425</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.variable Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39050/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8427</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.htmlText Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39051/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8428</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.type Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39052/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8429</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.text Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39053/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8430</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.tabIndex Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39054/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8431</t>
+  </si>
+  <si>
+    <t>Adobe Flash MovieClip.attachMovie - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39055/</t>
+  </si>
+  <si>
+    <t>Adobe Flash MovieClip.localToGlobal - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39056/</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.antiAliasType Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39019/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8046</t>
+  </si>
+  <si>
+    <t>Adobe Flash TextField.gridFitType Setter - Use-After-Free</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39020/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7652</t>
+  </si>
+  <si>
+    <t>Adobe Flash MovieClip.lineStyle - Use-After-Frees</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39021/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8044</t>
+  </si>
+  <si>
+    <t>Adobe Flash GradientFill - Use-After-Frees</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39022/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8043</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S6 Samsung Gallery - GIF Parsing Crash</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39023/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7898</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S6 Samsung Gallery - Bitmap Decoding Crash</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39024/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7895</t>
+  </si>
+  <si>
+    <t>Windows Kernel win32k!OffsetChildren - Null Pointer Dereference</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39025/</t>
+  </si>
+  <si>
+    <t>CVE-2015-6171</t>
+  </si>
+  <si>
+    <t>win32k Desktop and Clipboard - Null Pointer Derefence</t>
+  </si>
+  <si>
+    <t>win32</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39026/</t>
+  </si>
+  <si>
+    <t>CVE-2015-6174</t>
+  </si>
+  <si>
+    <t>win32k Clipboard Bitmap - Use-After-Free Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39027/</t>
+  </si>
+  <si>
+    <t>CVE-2015-6173</t>
+  </si>
+  <si>
+    <t>Joomla Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15122401</t>
+  </si>
+  <si>
+    <t>VMWare products Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>vmware</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15122202</t>
+  </si>
+  <si>
+    <t>CVE-2015-3269</t>
+  </si>
+  <si>
+    <t>Juniper ScreenOS Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15122201</t>
+  </si>
+  <si>
+    <t>CVE-2015-7755,CVE-2015-7756</t>
+  </si>
+  <si>
+    <t>EMC Secure Remote Services Virtual Edition路徑遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32082</t>
+  </si>
+  <si>
+    <t>CVE-2015-6852</t>
+  </si>
+  <si>
+    <t>Siemens RUGGEDCOM 基於ROX的設備NTP未授權修改漏洞（CVE-2015-7704）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32081</t>
+  </si>
+  <si>
+    <t>CVE-2015-7704</t>
+  </si>
+  <si>
+    <t>Siemens RUGGEDCOM 基於ROX的設備NTP輸入驗證漏洞（CVE-2015-5300）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32080</t>
+  </si>
+  <si>
+    <t>CVE-2015-5300</t>
+  </si>
+  <si>
+    <t>Siemens RUGGEDCOM 基於ROX的設備NTP拒絕服務漏洞（CVE-2015-7855）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32079</t>
+  </si>
+  <si>
+    <t>CVE-2015-7855</t>
+  </si>
+  <si>
+    <t>Siemens RUGGEDCOM 基於ROX的設備身份驗證繞過漏洞（CVE-2015-7871）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32078</t>
+  </si>
+  <si>
+    <t>CVE-2015-7871</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer遠程內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32077</t>
+  </si>
+  <si>
+    <t>CVE-2015-6083</t>
+  </si>
+  <si>
+    <t>Honeywell Midas Gas Detector信息泄露漏洞（CVE-2015-7908）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32076</t>
+  </si>
+  <si>
+    <t>CVE-2015-7908</t>
+  </si>
+  <si>
+    <t>SearchBlox拒絕服務漏洞（CVE-2015-7919）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32075</t>
+  </si>
+  <si>
+    <t>CVE-2015-7919</t>
+  </si>
+  <si>
+    <t>Honeywell Midas Gas Detector路徑遍歷漏洞（CVE-2015-7907）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32074</t>
+  </si>
+  <si>
+    <t>CVE-2015-7907</t>
+  </si>
+  <si>
+    <t>Kaspersky Antivirus多個內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>kaspersky</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32068</t>
+  </si>
+  <si>
+    <t>ISC Kea拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32067</t>
+  </si>
+  <si>
+    <t>CVE-2015-8373</t>
+  </si>
+  <si>
+    <t>giflib giffix堆緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32066</t>
+  </si>
+  <si>
+    <t>CVE-2015-7555</t>
+  </si>
+  <si>
+    <t>VMware多個產品任意命令執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32065</t>
+  </si>
+  <si>
+    <t>CVE-2015-6934</t>
+  </si>
+  <si>
+    <t>Schneider Electric Modicon M340緩衝區溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32064</t>
+  </si>
+  <si>
+    <t>CVE-2015-7937</t>
+  </si>
+  <si>
+    <t>Cisco Application Policy Infrastructure Controller不安全憑證漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32073</t>
+  </si>
+  <si>
+    <t>CVE-2015-6424</t>
+  </si>
+  <si>
+    <t>Cisco Prime Network Services Controller任意命令執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32072</t>
+  </si>
+  <si>
+    <t>CVE-2015-6426</t>
+  </si>
+  <si>
+    <t>Cisco FireSIGHT Management Center安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32071</t>
+  </si>
+  <si>
+    <t>CVE-2015-6427</t>
+  </si>
+  <si>
+    <t>Cisco DPQ3925信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32070</t>
+  </si>
+  <si>
+    <t>CVE-2015-6428</t>
+  </si>
+  <si>
+    <t>Symantec Endpoint Encryption內存轉儲信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32069</t>
+  </si>
+  <si>
+    <t>CVE-2015-6556</t>
+  </si>
+  <si>
+    <t>Juniper ScreenOS未授權訪問及信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32063</t>
+  </si>
+  <si>
+    <t>CVE-2015-7755</t>
+  </si>
+  <si>
+    <t>Juniper ScreenOS VPN解密信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32062</t>
+  </si>
+  <si>
+    <t>CVE-2015-7756</t>
+  </si>
+  <si>
+    <t>Cisco IOS及IOS XE Software IKEv1狀態機拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32061</t>
+  </si>
+  <si>
+    <t>CVE-2015-6429</t>
+  </si>
+  <si>
+    <t>Microsoft Windows庫加載遠程代碼執行漏洞(MS15-132)</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32060</t>
+  </si>
+  <si>
+    <t>CVE-2015-6132</t>
+  </si>
+  <si>
+    <t>tryton-server訪問權限漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32039</t>
+  </si>
+  <si>
+    <t>CVE-2015-0861</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32038</t>
+  </si>
+  <si>
+    <t>CVE-2015-4545</t>
+  </si>
+  <si>
+    <t>Apache cordova-plugin-file-transfer HTTP標頭注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32037</t>
+  </si>
+  <si>
+    <t>CVE-2015-5204</t>
+  </si>
+  <si>
+    <t>Apache Camel Java對象反序列化漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32036</t>
+  </si>
+  <si>
+    <t>CVE-2015-5348</t>
+  </si>
+  <si>
+    <t>Cisco Unified Communications Manager拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32052</t>
+  </si>
+  <si>
+    <t>CVE-2015-6425</t>
+  </si>
+  <si>
+    <t>ISC BIND 拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32044</t>
+  </si>
+  <si>
+    <t>CVE-2015-8000</t>
+  </si>
+  <si>
+    <t>McAfee VirusScan Enterprise BOP功能安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32043</t>
+  </si>
+  <si>
+    <t>CVE-2015-8577</t>
+  </si>
+  <si>
+    <t>Kaspersky Total Security功能安全限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32042</t>
+  </si>
+  <si>
+    <t>CVE-2015-8579</t>
+  </si>
+  <si>
+    <t>AVG Internet Security安全機制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32041</t>
+  </si>
+  <si>
+    <t>CVE-2015-8578</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32040</t>
+  </si>
+  <si>
+    <t>CVE-2015-8461</t>
+  </si>
+  <si>
+    <t>Foxit Reader/PhantomPDF 釋放後重利用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32035</t>
+  </si>
+  <si>
+    <t>CVE-2015-8580</t>
+  </si>
+  <si>
+    <t>CVE-2015-8581</t>
+  </si>
+  <si>
+    <t>Microsoft Windows win32k Local Privilege Escalation (MS15-010)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4632,7 +4447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4657,12 +4472,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4678,7 +4487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4713,12 +4522,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5231,7 +5034,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1495</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -5243,10 +5046,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G388"/>
+  <dimension ref="A1:G463"/>
   <sheetViews>
-    <sheetView topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13326,6 +13129,1535 @@
         <v>100</v>
       </c>
     </row>
+    <row r="389" spans="1:7">
+      <c r="A389" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D394" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E394" s="9"/>
+      <c r="F394" s="9"/>
+      <c r="G394" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C396" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E396" s="9"/>
+      <c r="F396" s="9"/>
+      <c r="G396" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="8">
+        <v>42354</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D397" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E397" s="9"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D400" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E400" s="9"/>
+      <c r="F400" s="9"/>
+      <c r="G400" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="8">
+        <v>42352</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C401" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E401" s="9"/>
+      <c r="F401" s="9"/>
+      <c r="G401" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G403" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D414" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C426" t="s">
+        <v>96</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F426" t="s">
+        <v>99</v>
+      </c>
+      <c r="G426" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C427" t="s">
+        <v>96</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F427" t="s">
+        <v>99</v>
+      </c>
+      <c r="G427" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="4">
+        <v>42348</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C433" t="s">
+        <v>512</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F433" t="s">
+        <v>76</v>
+      </c>
+      <c r="G433" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C435" s="5"/>
+      <c r="D435" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G435" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="4">
+        <v>42353</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C436" s="5"/>
+      <c r="D436" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F437" t="s">
+        <v>76</v>
+      </c>
+      <c r="G437" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="3">
+        <v>42354</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C438" t="s">
+        <v>229</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F438" t="s">
+        <v>99</v>
+      </c>
+      <c r="G438" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C439" s="5"/>
+      <c r="D439" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C440" s="5"/>
+      <c r="D440" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C441" s="5"/>
+      <c r="D441" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="4">
+        <v>42354</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="3">
+        <v>42353</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C443" t="s">
+        <v>96</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F443" t="s">
+        <v>40</v>
+      </c>
+      <c r="G443" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="8">
+        <v>42353</v>
+      </c>
+      <c r="B444" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D444" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E444" s="9"/>
+      <c r="F444" s="9"/>
+      <c r="G444" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C445" t="s">
+        <v>35</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F445" t="s">
+        <v>76</v>
+      </c>
+      <c r="G445" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C446" t="s">
+        <v>229</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F446" t="s">
+        <v>76</v>
+      </c>
+      <c r="G446" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C447" t="s">
+        <v>229</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F447" t="s">
+        <v>76</v>
+      </c>
+      <c r="G447" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C448" t="s">
+        <v>229</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F448" t="s">
+        <v>99</v>
+      </c>
+      <c r="G448" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C449" t="s">
+        <v>229</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F449" t="s">
+        <v>76</v>
+      </c>
+      <c r="G449" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C450" t="s">
+        <v>229</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F450" t="s">
+        <v>76</v>
+      </c>
+      <c r="G450" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C451" t="s">
+        <v>229</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F451" t="s">
+        <v>99</v>
+      </c>
+      <c r="G451" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C452" t="s">
+        <v>229</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F452" t="s">
+        <v>76</v>
+      </c>
+      <c r="G452" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C453" t="s">
+        <v>229</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F453" t="s">
+        <v>76</v>
+      </c>
+      <c r="G453" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C454" t="s">
+        <v>229</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F454" t="s">
+        <v>76</v>
+      </c>
+      <c r="G454" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C455" t="s">
+        <v>229</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F455" t="s">
+        <v>76</v>
+      </c>
+      <c r="G455" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C456" t="s">
+        <v>229</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F456" t="s">
+        <v>76</v>
+      </c>
+      <c r="G456" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C457" t="s">
+        <v>229</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F457" t="s">
+        <v>162</v>
+      </c>
+      <c r="G457" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="3">
+        <v>42352</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C458" t="s">
+        <v>229</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F458" t="s">
+        <v>76</v>
+      </c>
+      <c r="G458" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C459" t="s">
+        <v>96</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F459" t="s">
+        <v>99</v>
+      </c>
+      <c r="G459" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C460" t="s">
+        <v>96</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F460" t="s">
+        <v>99</v>
+      </c>
+      <c r="G460" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C461" t="s">
+        <v>96</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F461" t="s">
+        <v>99</v>
+      </c>
+      <c r="G461" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C462" t="s">
+        <v>96</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F462" t="s">
+        <v>99</v>
+      </c>
+      <c r="G462" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C463" t="s">
+        <v>392</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F463" t="s">
+        <v>76</v>
+      </c>
+      <c r="G463" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13334,17 +14666,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="81.625" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="60.375" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -13372,90 +14706,84 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1">
       <c r="A2" s="4">
-        <v>42354</v>
+        <v>42362</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1027</v>
+        <v>1194</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1028</v>
+        <v>1195</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
-      <c r="A3" s="4">
-        <v>42353</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:7" s="9" customFormat="1">
+      <c r="A3" s="8">
+        <v>42362</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>33</v>
+      <c r="D3" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
       <c r="A4" s="4">
-        <v>42353</v>
+        <v>42361</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1031</v>
+        <v>1198</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>1199</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="13" customFormat="1">
-      <c r="A5" s="12">
-        <v>42353</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>1036</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1">
+      <c r="A5" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1">
       <c r="A6" s="4">
-        <v>42352</v>
+        <v>42361</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1037</v>
+        <v>1202</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1038</v>
+        <v>1203</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>33</v>
@@ -13463,84 +14791,90 @@
     </row>
     <row r="7" spans="1:7" s="9" customFormat="1">
       <c r="A7" s="8">
-        <v>42352</v>
+        <v>42361</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1039</v>
+        <v>1204</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1040</v>
+        <v>1205</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1">
-      <c r="A8" s="4">
-        <v>42352</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G8" s="5" t="s">
+    <row r="8" spans="1:7" s="9" customFormat="1">
+      <c r="A8" s="8">
+        <v>42359</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1">
+      <c r="A9" s="4">
+        <v>42359</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1">
-      <c r="A9" s="8">
-        <v>42352</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="9" customFormat="1">
-      <c r="A10" s="8">
-        <v>42354</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="1:7" s="5" customFormat="1">
+      <c r="A10" s="4">
+        <v>42356</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>100</v>
+      <c r="D10" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1">
       <c r="A11" s="4">
-        <v>42353</v>
+        <v>42356</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1047</v>
+        <v>1213</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1048</v>
+        <v>1214</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>33</v>
@@ -13548,147 +14882,153 @@
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1">
       <c r="A12" s="4">
-        <v>42353</v>
+        <v>42356</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1049</v>
+        <v>1215</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1050</v>
+        <v>1216</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1">
-      <c r="A13" s="8">
-        <v>42352</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="1:7" s="5" customFormat="1">
+      <c r="A13" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1">
-      <c r="A14" s="8">
-        <v>42352</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="D13" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>42356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1">
       <c r="A15" s="4">
-        <v>42352</v>
+        <v>42355</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1055</v>
+        <v>1222</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1056</v>
+        <v>1223</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1">
-      <c r="A16" s="4">
-        <v>42352</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1">
+      <c r="A16" s="8">
+        <v>42361</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1">
-      <c r="A17" s="4">
-        <v>42352</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1">
-      <c r="A18" s="4">
-        <v>42348</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>33</v>
+      <c r="D16" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1">
+      <c r="A17" s="10">
+        <v>42360</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1">
+      <c r="A18" s="10">
+        <v>42360</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1">
       <c r="A19" s="4">
-        <v>42348</v>
+        <v>42359</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>757</v>
+        <v>1232</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>758</v>
+        <v>1233</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>33</v>
@@ -13696,720 +15036,801 @@
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1">
       <c r="A20" s="4">
-        <v>42348</v>
+        <v>42359</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>759</v>
+        <v>1234</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>760</v>
+        <v>1235</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="5" customFormat="1">
-      <c r="A21" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C21" s="5" t="s">
+    <row r="21" spans="1:7" s="11" customFormat="1">
+      <c r="A21" s="10">
+        <v>42359</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="9" customFormat="1">
+      <c r="A22" s="8">
+        <v>42356</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="11" customFormat="1">
+      <c r="A23" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1">
-      <c r="A22" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1">
-      <c r="A23" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1">
-      <c r="A24" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1">
-      <c r="A25" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1">
-      <c r="A26" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1">
-      <c r="A27" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1">
-      <c r="A28" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1">
-      <c r="A29" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1">
-      <c r="A30" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1">
-      <c r="A31" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1">
-      <c r="A32" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="5" customFormat="1">
-      <c r="A33" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1">
-      <c r="A34" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1">
-      <c r="A35" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1">
-      <c r="A36" s="4">
-        <v>42353</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D23" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1">
+      <c r="A24" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1">
-      <c r="A37" s="4">
-        <v>42353</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="D24" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="11" customFormat="1">
+      <c r="A25" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1">
-      <c r="A38" s="4">
-        <v>42353</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="D25" s="11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="11" customFormat="1">
+      <c r="A26" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D26" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1">
+      <c r="A27" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="11" customFormat="1">
+      <c r="A28" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1">
+      <c r="A29" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="11" customFormat="1">
+      <c r="A30" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="11" customFormat="1">
+      <c r="A31" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1">
+      <c r="A32" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="11" customFormat="1">
+      <c r="A33" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="11" customFormat="1">
+      <c r="A34" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="11" customFormat="1">
+      <c r="A35" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="11" customFormat="1">
+      <c r="A36" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="11" customFormat="1">
+      <c r="A37" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="11" customFormat="1">
+      <c r="A38" s="10">
+        <v>42356</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1">
+      <c r="A39" s="8">
+        <v>42356</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D39" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D39" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="9" customFormat="1">
+      <c r="A40" s="8">
+        <v>42356</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D40" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D40" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="11" customFormat="1">
       <c r="A41" s="10">
-        <v>42352</v>
+        <v>42355</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1104</v>
+        <v>1294</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1105</v>
+        <v>1295</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>1296</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="5" customFormat="1">
-      <c r="A42" s="4">
-        <v>42348</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="5" customFormat="1">
-      <c r="A43" s="4">
-        <v>42348</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="5" customFormat="1">
-      <c r="A44" s="4">
-        <v>42348</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>33</v>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="11" customFormat="1">
+      <c r="A42" s="10">
+        <v>42355</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="11" customFormat="1">
+      <c r="A43" s="10">
+        <v>42355</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="11" customFormat="1">
+      <c r="A44" s="10">
+        <v>42355</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="5" customFormat="1">
       <c r="A45" s="4">
-        <v>42348</v>
+        <v>42355</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>807</v>
+        <v>1306</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>38</v>
+        <v>1307</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>808</v>
+        <v>1308</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="5" customFormat="1">
       <c r="A46" s="4">
-        <v>42348</v>
+        <v>42355</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>809</v>
+        <v>1310</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="11" customFormat="1">
+      <c r="A47" s="10">
+        <v>42355</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="3">
+      <c r="D47" s="11" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="11" customFormat="1">
+      <c r="A48" s="10">
         <v>42355</v>
       </c>
-      <c r="B47" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="5" customFormat="1">
-      <c r="A48" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="13" customFormat="1">
-      <c r="A49" s="12">
-        <v>42354</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>33</v>
+      <c r="B48" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="11" customFormat="1">
+      <c r="A49" s="10">
+        <v>42355</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1">
       <c r="A50" s="4">
-        <v>42354</v>
+        <v>42362</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1114</v>
+        <v>1323</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>40</v>
+        <v>1324</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="11" customFormat="1">
-      <c r="A51" s="10">
-        <v>42354</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>1119</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1">
       <c r="A52" s="4">
-        <v>42353</v>
+        <v>42360</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1120</v>
+        <v>1329</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1121</v>
+        <v>1330</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="11" customFormat="1">
       <c r="A53" s="10">
-        <v>42352</v>
+        <v>42355</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>1123</v>
+        <v>1104</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>1105</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F54" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1">
+      <c r="A54" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="11" customFormat="1">
-      <c r="A55" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="3">
-        <v>42354</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C56" t="s">
-        <v>229</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="11" customFormat="1">
-      <c r="A57" s="10">
-        <v>42354</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>1036</v>
+      <c r="G54" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="5" customFormat="1">
+      <c r="A55" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="5" customFormat="1">
+      <c r="A56" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="5" customFormat="1">
+      <c r="A57" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1">
       <c r="A58" s="4">
-        <v>42354</v>
+        <v>42362</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1134</v>
+        <v>1344</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>1135</v>
+        <v>1345</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1136</v>
+        <v>1346</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1">
-      <c r="A59" s="4">
-        <v>42354</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>41</v>
+    <row r="59" spans="1:7" s="11" customFormat="1">
+      <c r="A59" s="10">
+        <v>42362</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1">
       <c r="A60" s="4">
-        <v>42354</v>
+        <v>42361</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1140</v>
+        <v>1350</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1141</v>
+        <v>1351</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1142</v>
+        <v>1352</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>41</v>
@@ -14417,354 +15838,411 @@
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1">
       <c r="A61" s="4">
-        <v>42354</v>
+        <v>42361</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>870</v>
+        <v>1353</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1143</v>
+        <v>1354</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1144</v>
+        <v>1355</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="11" customFormat="1">
-      <c r="A62" s="10">
-        <v>42354</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="11" customFormat="1">
-      <c r="A63" s="10">
-        <v>42354</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="3">
-        <v>42353</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C64" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F64" t="s">
+    <row r="62" spans="1:7" s="5" customFormat="1">
+      <c r="A62" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="9" customFormat="1">
+      <c r="A63" s="8">
+        <v>42361</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1">
+      <c r="A64" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="5" customFormat="1">
+      <c r="A65" s="4">
+        <v>42360</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="9" customFormat="1">
-      <c r="A65" s="8">
-        <v>42353</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="11" customFormat="1">
-      <c r="A66" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="11" customFormat="1">
-      <c r="A67" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="11" customFormat="1">
-      <c r="A68" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="11" customFormat="1">
-      <c r="A69" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="11" customFormat="1">
-      <c r="A70" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="11" customFormat="1">
-      <c r="A71" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="11" customFormat="1">
-      <c r="A72" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>1119</v>
+      <c r="G65" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1">
+      <c r="A67" s="4">
+        <v>42360</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C69" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="5" customFormat="1">
+      <c r="A72" s="4">
+        <v>42359</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="11" customFormat="1">
       <c r="A73" s="10">
-        <v>42353</v>
+        <v>42359</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1159</v>
+        <v>1389</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>1172</v>
+        <v>1390</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>1173</v>
+        <v>1391</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>1119</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="11" customFormat="1">
       <c r="A74" s="10">
-        <v>42353</v>
+        <v>42359</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1159</v>
+        <v>1392</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1174</v>
+        <v>1393</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>1175</v>
+        <v>1394</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="11" customFormat="1">
-      <c r="A75" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>1119</v>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C75" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F75" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="11" customFormat="1">
       <c r="A76" s="10">
-        <v>42353</v>
+        <v>42356</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>1159</v>
+        <v>1398</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>1179</v>
+        <v>1399</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>1180</v>
+        <v>1400</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="11" customFormat="1">
-      <c r="A77" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="11" customFormat="1">
-      <c r="A78" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="11" customFormat="1">
-      <c r="A79" s="10">
-        <v>42353</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>1119</v>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="5" customFormat="1">
+      <c r="A77" s="4">
+        <v>42356</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="5" customFormat="1">
+      <c r="A78" s="4">
+        <v>42356</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3">
+        <v>42356</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C79" t="s">
+        <v>491</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F79" t="s">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3">
-        <v>42352</v>
+        <v>42356</v>
       </c>
       <c r="B80" t="s">
-        <v>1189</v>
+        <v>1409</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>491</v>
       </c>
       <c r="D80" t="s">
-        <v>1190</v>
+        <v>1410</v>
       </c>
       <c r="E80" t="s">
-        <v>1191</v>
+        <v>1411</v>
       </c>
       <c r="F80" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
         <v>100</v>
@@ -14772,19 +16250,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3">
-        <v>42352</v>
+        <v>42355</v>
       </c>
       <c r="B81" t="s">
-        <v>1192</v>
+        <v>1412</v>
       </c>
       <c r="C81" t="s">
         <v>229</v>
       </c>
       <c r="D81" t="s">
-        <v>1193</v>
+        <v>1413</v>
       </c>
       <c r="E81" t="s">
-        <v>1194</v>
+        <v>1414</v>
       </c>
       <c r="F81" t="s">
         <v>76</v>
@@ -14793,2214 +16271,144 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C82" t="s">
-        <v>229</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F82" t="s">
+    <row r="82" spans="1:7" s="11" customFormat="1">
+      <c r="A82" s="10">
+        <v>42355</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1">
+      <c r="A83" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F84" t="s">
         <v>76</v>
       </c>
-      <c r="G82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="11" customFormat="1">
-      <c r="A83" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="11" customFormat="1">
-      <c r="A84" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="11" customFormat="1">
-      <c r="A85" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>1119</v>
+      <c r="G84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="A85" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="11" customFormat="1">
       <c r="A86" s="10">
-        <v>42352</v>
+        <v>42355</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>1201</v>
+        <v>1415</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>1207</v>
+        <v>1427</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>1208</v>
+        <v>1428</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="11" customFormat="1">
-      <c r="A87" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="11" customFormat="1">
-      <c r="A88" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="11" customFormat="1">
-      <c r="A89" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="11" customFormat="1">
-      <c r="A90" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="11" customFormat="1">
-      <c r="A91" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>1222</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="11" customFormat="1">
-      <c r="A92" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="11" customFormat="1">
-      <c r="A93" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="11" customFormat="1">
-      <c r="A94" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="11" customFormat="1">
-      <c r="A95" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>1233</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="11" customFormat="1">
-      <c r="A96" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C97" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F97" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="5" customFormat="1">
+      <c r="A87" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>491</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F88" t="s">
         <v>99</v>
       </c>
-      <c r="G97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C98" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F98" t="s">
-        <v>76</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C99" t="s">
-        <v>229</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C100" t="s">
-        <v>229</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C101" t="s">
-        <v>229</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F101" t="s">
-        <v>76</v>
-      </c>
-      <c r="G101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C102" t="s">
-        <v>229</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F102" t="s">
-        <v>76</v>
-      </c>
-      <c r="G102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="11" customFormat="1">
-      <c r="A103" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C104" t="s">
-        <v>229</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F104" t="s">
-        <v>76</v>
-      </c>
-      <c r="G104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="11" customFormat="1">
-      <c r="A105" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="11" customFormat="1">
-      <c r="A106" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="11" customFormat="1">
-      <c r="A107" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="11" customFormat="1">
-      <c r="A108" s="10">
-        <v>42352</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C109" t="s">
-        <v>229</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F109" t="s">
-        <v>76</v>
-      </c>
-      <c r="G109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C110" t="s">
-        <v>229</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F110" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C111" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F111" t="s">
-        <v>162</v>
-      </c>
-      <c r="G111" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="3">
-        <v>42352</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C112" t="s">
-        <v>229</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F112" t="s">
-        <v>76</v>
-      </c>
-      <c r="G112" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="11" customFormat="1">
-      <c r="A113" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="11" customFormat="1">
-      <c r="A114" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="11" customFormat="1">
-      <c r="A115" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="11" customFormat="1">
-      <c r="A116" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="11" customFormat="1">
-      <c r="A117" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="11" customFormat="1">
-      <c r="A118" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="11" customFormat="1">
-      <c r="A119" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="11" customFormat="1">
-      <c r="A120" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>1303</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="11" customFormat="1">
-      <c r="A121" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="11" customFormat="1">
-      <c r="A122" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="11" customFormat="1">
-      <c r="A123" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="3">
-        <v>42349</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C124" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F124" t="s">
-        <v>99</v>
-      </c>
-      <c r="G124" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="11" customFormat="1">
-      <c r="A125" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="11" customFormat="1">
-      <c r="A126" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="11" customFormat="1">
-      <c r="A127" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="11" customFormat="1">
-      <c r="A128" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="11" customFormat="1">
-      <c r="A129" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="11" customFormat="1">
-      <c r="A130" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="11" customFormat="1">
-      <c r="A131" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="11" customFormat="1">
-      <c r="A132" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="11" customFormat="1">
-      <c r="A133" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="11" customFormat="1">
-      <c r="A134" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="11" customFormat="1">
-      <c r="A135" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="11" customFormat="1">
-      <c r="A136" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>1336</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="11" customFormat="1">
-      <c r="A137" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="11" customFormat="1">
-      <c r="A138" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="11" customFormat="1">
-      <c r="A139" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G139" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="11" customFormat="1">
-      <c r="A140" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="11" customFormat="1">
-      <c r="A141" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="11" customFormat="1">
-      <c r="A142" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="11" customFormat="1">
-      <c r="A143" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="11" customFormat="1">
-      <c r="A144" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>1352</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="11" customFormat="1">
-      <c r="A145" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="11" customFormat="1">
-      <c r="A146" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="11" customFormat="1">
-      <c r="A147" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="11" customFormat="1">
-      <c r="A148" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" s="11" customFormat="1">
-      <c r="A149" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" s="11" customFormat="1">
-      <c r="A150" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" s="11" customFormat="1">
-      <c r="A151" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" s="11" customFormat="1">
-      <c r="A152" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" s="11" customFormat="1">
-      <c r="A153" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" s="11" customFormat="1">
-      <c r="A154" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" s="11" customFormat="1">
-      <c r="A155" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" s="11" customFormat="1">
-      <c r="A156" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" s="11" customFormat="1">
-      <c r="A157" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" s="11" customFormat="1">
-      <c r="A158" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" s="11" customFormat="1">
-      <c r="A159" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" s="11" customFormat="1">
-      <c r="A160" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="11" customFormat="1">
-      <c r="A161" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>1386</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="11" customFormat="1">
-      <c r="A162" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" s="11" customFormat="1">
-      <c r="A163" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" s="11" customFormat="1">
-      <c r="A164" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" s="11" customFormat="1">
-      <c r="A165" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="11" customFormat="1">
-      <c r="A166" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="11" customFormat="1">
-      <c r="A167" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" s="11" customFormat="1">
-      <c r="A168" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="11" customFormat="1">
-      <c r="A169" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" s="11" customFormat="1">
-      <c r="A170" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" s="11" customFormat="1">
-      <c r="A171" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" s="11" customFormat="1">
-      <c r="A172" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="11" customFormat="1">
-      <c r="A173" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" s="11" customFormat="1">
-      <c r="A174" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" s="11" customFormat="1">
-      <c r="A175" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E175" s="11" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" s="11" customFormat="1">
-      <c r="A176" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" s="11" customFormat="1">
-      <c r="A177" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" s="11" customFormat="1">
-      <c r="A178" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" s="11" customFormat="1">
-      <c r="A179" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G179" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" s="11" customFormat="1">
-      <c r="A180" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G180" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" s="11" customFormat="1">
-      <c r="A181" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G181" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" s="11" customFormat="1">
-      <c r="A182" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G182" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="3">
-        <v>42349</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C183" t="s">
-        <v>96</v>
-      </c>
-      <c r="D183" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F183" t="s">
-        <v>99</v>
-      </c>
-      <c r="G183" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" s="11" customFormat="1">
-      <c r="A184" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>1441</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" s="11" customFormat="1">
-      <c r="A185" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>1442</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>1443</v>
-      </c>
-      <c r="G185" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" s="11" customFormat="1">
-      <c r="A186" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>1445</v>
-      </c>
-      <c r="G186" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" s="11" customFormat="1">
-      <c r="A187" s="10">
-        <v>42349</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G187" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="3">
-        <v>42349</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C188" t="s">
-        <v>96</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1448</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F188" t="s">
-        <v>99</v>
-      </c>
-      <c r="G188" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="3">
-        <v>42349</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C189" t="s">
-        <v>96</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F189" t="s">
-        <v>99</v>
-      </c>
-      <c r="G189" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="3">
-        <v>42349</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C190" t="s">
-        <v>392</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F190" t="s">
-        <v>76</v>
-      </c>
-      <c r="G190" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" s="11" customFormat="1">
-      <c r="A191" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>1458</v>
-      </c>
-      <c r="G191" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" s="11" customFormat="1">
-      <c r="A192" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" s="11" customFormat="1">
-      <c r="A193" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E193" s="11" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" s="11" customFormat="1">
-      <c r="A194" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G194" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" s="11" customFormat="1">
-      <c r="A195" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E195" s="11" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G195" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" s="11" customFormat="1">
-      <c r="A196" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E196" s="11" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G196" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" s="11" customFormat="1">
-      <c r="A197" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>1473</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" s="11" customFormat="1">
-      <c r="A198" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E198" s="11" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G198" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" s="11" customFormat="1">
-      <c r="A199" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E199" s="11" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G199" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" s="11" customFormat="1">
-      <c r="A200" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G200" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" s="11" customFormat="1">
-      <c r="A201" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E201" s="11" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G201" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" s="11" customFormat="1">
-      <c r="A202" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G202" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" s="11" customFormat="1">
-      <c r="A203" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E203" s="11" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G203" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" s="11" customFormat="1">
-      <c r="A204" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G204" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" s="11" customFormat="1">
-      <c r="A205" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G205" s="11" t="s">
-        <v>1036</v>
+      <c r="G88" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="vulsHistory" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="1426">
   <si>
     <t>wordpress</t>
   </si>
@@ -3783,21 +3783,6 @@
     <t>https://www.exploit-db.com/exploits/39082/</t>
   </si>
   <si>
-    <t>Wireshark infer_pkt_encap - Heap-Based Out-of-Bounds Read</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39076/</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Wireshark AirPDcapDecryptWPABroadcastKey - Heap-Based Out-of-Bounds Read</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39077/</t>
-  </si>
-  <si>
     <t>Notepad++ NPPFtp Plugin 0.26.3 - Buffer Overflow</t>
   </si>
   <si>
@@ -3810,168 +3795,12 @@
     <t>https://www.exploit-db.com/exploits/39070/</t>
   </si>
   <si>
-    <t>Adobe Flash Sound.setTransform - Use-After-Free</t>
-  </si>
-  <si>
-    <t>win64</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39072/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8434</t>
-  </si>
-  <si>
-    <t>CVErepeat</t>
-  </si>
-  <si>
     <t>Apache 2.4.17 - Denial of Service</t>
   </si>
   <si>
     <t>https://www.exploit-db.com/exploits/39037/</t>
   </si>
   <si>
-    <t>Google Chrome - Renderer Process to Browser Process Privilege Escalation</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39039/</t>
-  </si>
-  <si>
-    <t>Adobe Flash MovieClip.attachBitmap - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39040/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8410</t>
-  </si>
-  <si>
-    <t>Adobe Flash MovieClip.startDrag - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39041/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8411</t>
-  </si>
-  <si>
-    <t>Adobe Flash MovieClip.duplicateMovieClip - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39042/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8412</t>
-  </si>
-  <si>
-    <t>Adobe Flash Selection.SetSelection - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39043/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8413</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.sharpness Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39044/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8420</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.thickness Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39045/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8421</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.setFormat - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39046/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8422</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.replaceSel - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39047/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8423</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.replaceText - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39048/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8424</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField Variable - Use-After Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39049/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8425</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.variable Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39050/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8427</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.htmlText Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39051/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8428</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.type Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39052/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8429</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.text Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39053/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8430</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.tabIndex Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39054/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8431</t>
-  </si>
-  <si>
     <t>Adobe Flash MovieClip.attachMovie - Use-After-Free</t>
   </si>
   <si>
@@ -3984,42 +3813,6 @@
     <t>https://www.exploit-db.com/exploits/39056/</t>
   </si>
   <si>
-    <t>Adobe Flash TextField.antiAliasType Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39019/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8046</t>
-  </si>
-  <si>
-    <t>Adobe Flash TextField.gridFitType Setter - Use-After-Free</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39020/</t>
-  </si>
-  <si>
-    <t>CVE-2015-7652</t>
-  </si>
-  <si>
-    <t>Adobe Flash MovieClip.lineStyle - Use-After-Frees</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39021/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8044</t>
-  </si>
-  <si>
-    <t>Adobe Flash GradientFill - Use-After-Frees</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39022/</t>
-  </si>
-  <si>
-    <t>CVE-2015-8043</t>
-  </si>
-  <si>
     <t>Samsung Galaxy S6 Samsung Gallery - GIF Parsing Crash</t>
   </si>
   <si>
@@ -4041,36 +3834,6 @@
     <t>CVE-2015-7895</t>
   </si>
   <si>
-    <t>Windows Kernel win32k!OffsetChildren - Null Pointer Dereference</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39025/</t>
-  </si>
-  <si>
-    <t>CVE-2015-6171</t>
-  </si>
-  <si>
-    <t>win32k Desktop and Clipboard - Null Pointer Derefence</t>
-  </si>
-  <si>
-    <t>win32</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39026/</t>
-  </si>
-  <si>
-    <t>CVE-2015-6174</t>
-  </si>
-  <si>
-    <t>win32k Clipboard Bitmap - Use-After-Free Vulnerability</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/exploits/39027/</t>
-  </si>
-  <si>
-    <t>CVE-2015-6173</t>
-  </si>
-  <si>
     <t>Joomla Multiple Vulnerabilities</t>
   </si>
   <si>
@@ -4143,15 +3906,6 @@
     <t>CVE-2015-7871</t>
   </si>
   <si>
-    <t>Microsoft Internet Explorer遠程內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32077</t>
-  </si>
-  <si>
-    <t>CVE-2015-6083</t>
-  </si>
-  <si>
     <t>Honeywell Midas Gas Detector信息泄露漏洞（CVE-2015-7908）</t>
   </si>
   <si>
@@ -4269,24 +4023,6 @@
     <t>CVE-2015-6556</t>
   </si>
   <si>
-    <t>Juniper ScreenOS未授權訪問及信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32063</t>
-  </si>
-  <si>
-    <t>CVE-2015-7755</t>
-  </si>
-  <si>
-    <t>Juniper ScreenOS VPN解密信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32062</t>
-  </si>
-  <si>
-    <t>CVE-2015-7756</t>
-  </si>
-  <si>
     <t>Cisco IOS及IOS XE Software IKEv1狀態機拒絕服務漏洞</t>
   </si>
   <si>
@@ -4296,15 +4032,6 @@
     <t>CVE-2015-6429</t>
   </si>
   <si>
-    <t>Microsoft Windows庫加載遠程代碼執行漏洞(MS15-132)</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32060</t>
-  </si>
-  <si>
-    <t>CVE-2015-6132</t>
-  </si>
-  <si>
     <t>tryton-server訪問權限漏洞</t>
   </si>
   <si>
@@ -4347,15 +4074,6 @@
     <t>CVE-2015-6425</t>
   </si>
   <si>
-    <t>ISC BIND 拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32044</t>
-  </si>
-  <si>
-    <t>CVE-2015-8000</t>
-  </si>
-  <si>
     <t>McAfee VirusScan Enterprise BOP功能安全限制繞過漏洞</t>
   </si>
   <si>
@@ -4381,12 +4099,6 @@
   </si>
   <si>
     <t>CVE-2015-8578</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32040</t>
-  </si>
-  <si>
-    <t>CVE-2015-8461</t>
   </si>
   <si>
     <t>Foxit Reader/PhantomPDF 釋放後重利用漏洞</t>
@@ -4403,6 +4115,271 @@
   <si>
     <t>Microsoft Windows win32k Local Privilege Escalation (MS15-010)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1217_1224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyCafe Server &amp;lt;= 2.2.14 Remote File Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39102/</t>
+  </si>
+  <si>
+    <t>AccessDiver 4.301 - Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39103/</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player Multiple vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15122901</t>
+  </si>
+  <si>
+    <t>CVE-2015-8459,CVE-2015-8460,CVE-2015-8634,CVE-2015-8635,CVE-2015-8636,CVE-2015-8638,CVE-2015-8639,CVE-2015-8640,CVE-2015-8641,CVE-2015-8642,CVE-2015-8643,CVE-2015-8644,CVE-2015-8645,CVE-2015-8646,CVE-2015-8647,CVE-2015-8648,CVE-2015-8649,CVE-2015-8650,CVE-2015-8651</t>
+  </si>
+  <si>
+    <t>Cisco IOS XE Denial of Service Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/15122801</t>
+  </si>
+  <si>
+    <t>CVE-2015-6431</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player釋放後重利用漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32111</t>
+  </si>
+  <si>
+    <t>CVE-2015-8640</t>
+  </si>
+  <si>
+    <t>CVErepeat</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32110</t>
+  </si>
+  <si>
+    <t>CVE-2015-8639</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32109</t>
+  </si>
+  <si>
+    <t>CVE-2015-8638</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32108</t>
+  </si>
+  <si>
+    <t>CVE-2015-8642</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32107</t>
+  </si>
+  <si>
+    <t>CVE-2015-8643</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player類型混淆漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32106</t>
+  </si>
+  <si>
+    <t>CVE-2015-8644</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32105</t>
+  </si>
+  <si>
+    <t>CVE-2015-8459</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32104</t>
+  </si>
+  <si>
+    <t>CVE-2015-8641</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32103</t>
+  </si>
+  <si>
+    <t>CVE-2015-8634</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32102</t>
+  </si>
+  <si>
+    <t>CVE-2015-8635</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32101</t>
+  </si>
+  <si>
+    <t>CVE-2015-8645</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32100</t>
+  </si>
+  <si>
+    <t>CVE-2015-8646</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32099</t>
+  </si>
+  <si>
+    <t>CVE-2015-8647</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32098</t>
+  </si>
+  <si>
+    <t>CVE-2015-8648</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32097</t>
+  </si>
+  <si>
+    <t>CVE-2015-8649</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32096</t>
+  </si>
+  <si>
+    <t>CVE-2015-8650</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32095</t>
+  </si>
+  <si>
+    <t>CVE-2015-8651</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32094</t>
+  </si>
+  <si>
+    <t>CVE-2015-8636</t>
+  </si>
+  <si>
+    <t>IPswitch WhatsUp Gold SQL注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32093</t>
+  </si>
+  <si>
+    <t>CVE-2015-6004</t>
+  </si>
+  <si>
+    <t>IPswitch WhatsUp Gold 跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32092</t>
+  </si>
+  <si>
+    <t>CVE-2015-6005</t>
+  </si>
+  <si>
+    <t>Cisco Jabber for Windows STARTTLS降級漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32091</t>
+  </si>
+  <si>
+    <t>CVE-2015-6409</t>
+  </si>
+  <si>
+    <t>phpMyAdmin libraries/config/messages.inc.php信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>phpmyadmin</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32090</t>
+  </si>
+  <si>
+    <t>CVE-2015-8669</t>
+  </si>
+  <si>
+    <t>Foxit Reader FlateDecode堆緩衝區溢出遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32089</t>
+  </si>
+  <si>
+    <t>Foxit FoxitCloudUpdateService本地權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32088</t>
+  </si>
+  <si>
+    <t>Google Chrome WebCursor::Deserialize函數整數溢出漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32087</t>
+  </si>
+  <si>
+    <t>CVE-2015-8664</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Google Chrome MIDI子系統應用崩潰漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32086</t>
+  </si>
+  <si>
+    <t>CVE-2015-6792</t>
+  </si>
+  <si>
+    <t>FFmpeg ff_get_buffer函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32085</t>
+  </si>
+  <si>
+    <t>CVE-2015-8663</t>
+  </si>
+  <si>
+    <t>FFmpeg ff_dwt_decode函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32084</t>
+  </si>
+  <si>
+    <t>CVE-2015-8662</t>
+  </si>
+  <si>
+    <t>FFmpeg h264_slice_header_init函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32083</t>
+  </si>
+  <si>
+    <t>CVE-2015-8661</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer遠程內存破壞漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32077</t>
+  </si>
+  <si>
+    <t>CVE-2015-6083</t>
   </si>
 </sst>
 </file>
@@ -5046,10 +5023,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G463"/>
+  <dimension ref="A1:G518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="D403" sqref="D403"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14658,6 +14635,1143 @@
         <v>100</v>
       </c>
     </row>
+    <row r="464" spans="1:7">
+      <c r="A464" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
+      <c r="G465" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="8">
+        <v>42362</v>
+      </c>
+      <c r="B466" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D466" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E466" s="9"/>
+      <c r="F466" s="9"/>
+      <c r="G466" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D467" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+      <c r="G468" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D469" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+      <c r="G469" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="8">
+        <v>42361</v>
+      </c>
+      <c r="B470" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C470" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D470" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E470" s="9"/>
+      <c r="F470" s="9"/>
+      <c r="G470" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="8">
+        <v>42359</v>
+      </c>
+      <c r="B471" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D471" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E471" s="9"/>
+      <c r="F471" s="9"/>
+      <c r="G471" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="4">
+        <v>42359</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D472" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+      <c r="G472" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" s="4">
+        <v>42356</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D473" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E473" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G473" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" s="4">
+        <v>42356</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D474" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
+      <c r="G474" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" s="4">
+        <v>42356</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D475" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+      <c r="G475" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G476" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" s="3">
+        <v>42356</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C477" t="s">
+        <v>102</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F477" t="s">
+        <v>99</v>
+      </c>
+      <c r="G477" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D478" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G478" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" s="8">
+        <v>42361</v>
+      </c>
+      <c r="B479" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D479" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E479" s="9"/>
+      <c r="F479" s="9"/>
+      <c r="G479" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" s="4">
+        <v>42359</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D480" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+      <c r="G480" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" s="4">
+        <v>42359</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D481" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E481" s="5"/>
+      <c r="F481" s="5"/>
+      <c r="G481" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="8">
+        <v>42356</v>
+      </c>
+      <c r="B482" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C482" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D482" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E482" s="9"/>
+      <c r="F482" s="9"/>
+      <c r="G482" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" s="8">
+        <v>42356</v>
+      </c>
+      <c r="B483" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D483" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E483" s="9"/>
+      <c r="F483" s="9"/>
+      <c r="G483" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="8">
+        <v>42356</v>
+      </c>
+      <c r="B484" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C484" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D484" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E484" s="9"/>
+      <c r="F484" s="9"/>
+      <c r="G484" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G485" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G486" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C487" s="5"/>
+      <c r="D487" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+      <c r="G487" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F488" t="s">
+        <v>76</v>
+      </c>
+      <c r="G488" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" s="4">
+        <v>42360</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C489" s="5"/>
+      <c r="D489" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G489" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="A490" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C490" s="5"/>
+      <c r="D490" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
+      <c r="A491" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C491" s="5"/>
+      <c r="D491" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G491" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C492" s="5"/>
+      <c r="D492" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
+      <c r="A493" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C493" s="5"/>
+      <c r="D493" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G493" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C494" s="5"/>
+      <c r="D494" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
+      <c r="A495" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C495" s="5"/>
+      <c r="D495" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E495" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G495" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
+      <c r="A496" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C496" s="5"/>
+      <c r="D496" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G496" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
+      <c r="A497" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C497" s="5"/>
+      <c r="D497" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G497" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
+      <c r="A498" s="8">
+        <v>42361</v>
+      </c>
+      <c r="B498" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C498" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D498" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E498" s="9"/>
+      <c r="F498" s="9"/>
+      <c r="G498" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="A499" s="4">
+        <v>42361</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C499" s="5"/>
+      <c r="D499" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G499" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
+      <c r="A500" s="4">
+        <v>42360</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C500" s="5"/>
+      <c r="D500" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
+      <c r="A501" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F501" t="s">
+        <v>99</v>
+      </c>
+      <c r="G501" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
+      <c r="A502" s="4">
+        <v>42360</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C502" s="5"/>
+      <c r="D502" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G502" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="A503" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C503" t="s">
+        <v>229</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F503" t="s">
+        <v>99</v>
+      </c>
+      <c r="G503" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7">
+      <c r="A504" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C504" t="s">
+        <v>229</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F504" t="s">
+        <v>99</v>
+      </c>
+      <c r="G504" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
+      <c r="A505" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C505" t="s">
+        <v>229</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F505" t="s">
+        <v>76</v>
+      </c>
+      <c r="G505" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
+      <c r="A506" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C506" t="s">
+        <v>229</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F506" t="s">
+        <v>76</v>
+      </c>
+      <c r="G506" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="A507" s="4">
+        <v>42359</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C507" s="5"/>
+      <c r="D507" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G507" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7">
+      <c r="A508" s="3">
+        <v>42359</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C508" t="s">
+        <v>229</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F508" t="s">
+        <v>76</v>
+      </c>
+      <c r="G508" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
+      <c r="A509" s="4">
+        <v>42356</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C509" s="5"/>
+      <c r="D509" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="A510" s="4">
+        <v>42356</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C510" s="5"/>
+      <c r="D510" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="A511" s="3">
+        <v>42356</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C511" t="s">
+        <v>491</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F511" t="s">
+        <v>76</v>
+      </c>
+      <c r="G511" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512" s="3">
+        <v>42356</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C512" t="s">
+        <v>491</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F512" t="s">
+        <v>40</v>
+      </c>
+      <c r="G512" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
+      <c r="A513" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C513" t="s">
+        <v>229</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F513" t="s">
+        <v>76</v>
+      </c>
+      <c r="G513" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
+      <c r="A514" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C514" s="5"/>
+      <c r="D514" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F515" t="s">
+        <v>76</v>
+      </c>
+      <c r="G515" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C516" s="5"/>
+      <c r="D516" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G516" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" s="4">
+        <v>42355</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C517" s="5"/>
+      <c r="D517" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E517" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G517" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C518" t="s">
+        <v>491</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F518" t="s">
+        <v>99</v>
+      </c>
+      <c r="G518" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14666,19 +15780,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="60.375" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14740,16 +15853,16 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
       <c r="A4" s="4">
-        <v>42361</v>
+        <v>42364</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1198</v>
+        <v>1339</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1199</v>
+        <v>1340</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>33</v>
@@ -14757,1658 +15870,695 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1">
       <c r="A5" s="4">
-        <v>42361</v>
+        <v>42364</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1200</v>
+        <v>1341</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1201</v>
+        <v>1342</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1">
-      <c r="A6" s="4">
-        <v>42361</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G6" s="5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>42367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>42366</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1">
+      <c r="A8" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1">
-      <c r="A7" s="8">
-        <v>42361</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="9" customFormat="1">
-      <c r="A8" s="8">
-        <v>42359</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1">
-      <c r="A9" s="4">
-        <v>42359</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1">
-      <c r="A10" s="4">
-        <v>42356</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1">
-      <c r="A11" s="4">
-        <v>42356</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1">
-      <c r="A12" s="4">
-        <v>42356</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1">
-      <c r="A13" s="4">
-        <v>42355</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
-        <v>42356</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1">
-      <c r="A15" s="4">
-        <v>42355</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="9" customFormat="1">
-      <c r="A16" s="8">
-        <v>42361</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>100</v>
+    <row r="9" spans="1:7" s="11" customFormat="1">
+      <c r="A9" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1">
+      <c r="A10" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1">
+      <c r="A11" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1">
+      <c r="A12" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1">
+      <c r="A13" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1">
+      <c r="A14" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1">
+      <c r="A15" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="A16" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="11" customFormat="1">
       <c r="A17" s="10">
-        <v>42360</v>
+        <v>42367</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>38</v>
+        <v>1349</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1228</v>
+        <v>1369</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1370</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>1229</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="11" customFormat="1">
       <c r="A18" s="10">
-        <v>42360</v>
+        <v>42367</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>38</v>
+        <v>1349</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>1231</v>
+        <v>1371</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>1372</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1">
-      <c r="A19" s="4">
-        <v>42359</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1">
-      <c r="A20" s="4">
-        <v>42359</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>33</v>
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1">
+      <c r="A19" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1">
+      <c r="A20" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="11" customFormat="1">
       <c r="A21" s="10">
-        <v>42359</v>
+        <v>42367</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>1237</v>
+        <v>1349</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1238</v>
+        <v>1377</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1239</v>
+        <v>1378</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="9" customFormat="1">
-      <c r="A22" s="8">
-        <v>42356</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>100</v>
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1">
+      <c r="A22" s="10">
+        <v>42367</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="11" customFormat="1">
       <c r="A23" s="10">
-        <v>42356</v>
+        <v>42367</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>38</v>
+        <v>1349</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1244</v>
+        <v>1381</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1382</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>1229</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="11" customFormat="1">
       <c r="A24" s="10">
-        <v>42356</v>
+        <v>42367</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>43</v>
+        <v>1349</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1246</v>
+        <v>1383</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1247</v>
+        <v>1384</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>1240</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="11" customFormat="1">
       <c r="A25" s="10">
-        <v>42356</v>
+        <v>42367</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>43</v>
+        <v>1385</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1249</v>
+        <v>1386</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>1250</v>
+        <v>1387</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>1240</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="11" customFormat="1">
       <c r="A26" s="10">
-        <v>42356</v>
+        <v>42367</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>43</v>
+        <v>1349</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1252</v>
+        <v>1388</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1253</v>
+        <v>1389</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="11" customFormat="1">
-      <c r="A27" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="11" customFormat="1">
-      <c r="A28" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="11" customFormat="1">
-      <c r="A29" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="11" customFormat="1">
-      <c r="A30" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="11" customFormat="1">
-      <c r="A31" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="11" customFormat="1">
-      <c r="A32" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>1240</v>
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1">
+      <c r="A27" s="4">
+        <v>42366</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1">
+      <c r="A28" s="4">
+        <v>42366</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>42366</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>42366</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1">
+      <c r="A31" s="4">
+        <v>42366</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1">
+      <c r="A32" s="4">
+        <v>42366</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="11" customFormat="1">
       <c r="A33" s="10">
-        <v>42356</v>
+        <v>42363</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>43</v>
+        <v>1407</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1273</v>
+        <v>1408</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1274</v>
+        <v>1409</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>1240</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="11" customFormat="1">
       <c r="A34" s="10">
-        <v>42356</v>
+        <v>42363</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>43</v>
+        <v>1411</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1276</v>
+        <v>1412</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1277</v>
+        <v>1413</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="11" customFormat="1">
-      <c r="A35" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="11" customFormat="1">
-      <c r="A36" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="11" customFormat="1">
-      <c r="A37" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>1240</v>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1">
+      <c r="A35" s="4">
+        <v>42363</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1">
+      <c r="A36" s="4">
+        <v>42363</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1">
+      <c r="A37" s="4">
+        <v>42363</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="11" customFormat="1">
       <c r="A38" s="10">
-        <v>42356</v>
+        <v>42362</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>43</v>
+        <v>1253</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1288</v>
+        <v>1254</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>1289</v>
+        <v>1255</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="9" customFormat="1">
-      <c r="A39" s="8">
-        <v>42356</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="9" customFormat="1">
-      <c r="A40" s="8">
-        <v>42356</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>100</v>
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="11" customFormat="1">
+      <c r="A39" s="10">
+        <v>42362</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="11" customFormat="1">
+      <c r="A40" s="10">
+        <v>42362</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="11" customFormat="1">
       <c r="A41" s="10">
-        <v>42355</v>
+        <v>42362</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>43</v>
+        <v>1262</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1295</v>
+        <v>1263</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>1296</v>
+        <v>1264</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>1240</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="11" customFormat="1">
       <c r="A42" s="10">
-        <v>42355</v>
+        <v>42362</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>43</v>
+        <v>1265</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>1298</v>
+        <v>1266</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>1299</v>
+        <v>1267</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>1240</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="11" customFormat="1">
       <c r="A43" s="10">
-        <v>42355</v>
+        <v>42362</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>43</v>
+        <v>1423</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1301</v>
+        <v>1424</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>1302</v>
+        <v>1425</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="11" customFormat="1">
-      <c r="A44" s="10">
-        <v>42355</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="5" customFormat="1">
-      <c r="A45" s="4">
-        <v>42355</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>1309</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="5" customFormat="1">
-      <c r="A46" s="4">
-        <v>42355</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="11" customFormat="1">
-      <c r="A47" s="10">
-        <v>42355</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="11" customFormat="1">
-      <c r="A48" s="10">
-        <v>42355</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="11" customFormat="1">
-      <c r="A49" s="10">
-        <v>42355</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="5" customFormat="1">
-      <c r="A50" s="4">
-        <v>42362</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="3">
-        <v>42360</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F51" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="5" customFormat="1">
-      <c r="A52" s="4">
-        <v>42360</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="11" customFormat="1">
-      <c r="A53" s="10">
-        <v>42355</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="5" customFormat="1">
-      <c r="A54" s="4">
-        <v>42362</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="5" customFormat="1">
-      <c r="A55" s="4">
-        <v>42362</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="5" customFormat="1">
-      <c r="A56" s="4">
-        <v>42362</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="5" customFormat="1">
-      <c r="A57" s="4">
-        <v>42362</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="5" customFormat="1">
-      <c r="A58" s="4">
-        <v>42362</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="11" customFormat="1">
-      <c r="A59" s="10">
-        <v>42362</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="5" customFormat="1">
-      <c r="A60" s="4">
-        <v>42361</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E60" s="5" t="s">
         <v>1352</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="5" customFormat="1">
-      <c r="A61" s="4">
-        <v>42361</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="5" customFormat="1">
-      <c r="A62" s="4">
-        <v>42361</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="9" customFormat="1">
-      <c r="A63" s="8">
-        <v>42361</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="5" customFormat="1">
-      <c r="A64" s="4">
-        <v>42361</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="5" customFormat="1">
-      <c r="A65" s="4">
-        <v>42360</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="3">
-        <v>42360</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="5" customFormat="1">
-      <c r="A67" s="4">
-        <v>42360</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="3">
-        <v>42359</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C68" t="s">
-        <v>229</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="3">
-        <v>42359</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C69" t="s">
-        <v>229</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F69" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="3">
-        <v>42359</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C70" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="3">
-        <v>42359</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C71" t="s">
-        <v>229</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="5" customFormat="1">
-      <c r="A72" s="4">
-        <v>42359</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="11" customFormat="1">
-      <c r="A73" s="10">
-        <v>42359</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="11" customFormat="1">
-      <c r="A74" s="10">
-        <v>42359</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="3">
-        <v>42359</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C75" t="s">
-        <v>229</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F75" t="s">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="11" customFormat="1">
-      <c r="A76" s="10">
-        <v>42356</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="5" customFormat="1">
-      <c r="A77" s="4">
-        <v>42356</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="5" customFormat="1">
-      <c r="A78" s="4">
-        <v>42356</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="3">
-        <v>42356</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C79" t="s">
-        <v>491</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F79" t="s">
-        <v>76</v>
-      </c>
-      <c r="G79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="3">
-        <v>42356</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C80" t="s">
-        <v>491</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F80" t="s">
-        <v>40</v>
-      </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="3">
-        <v>42355</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C81" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F81" t="s">
-        <v>76</v>
-      </c>
-      <c r="G81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="11" customFormat="1">
-      <c r="A82" s="10">
-        <v>42355</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="5" customFormat="1">
-      <c r="A83" s="4">
-        <v>42355</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="3">
-        <v>42355</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F84" t="s">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="5" customFormat="1">
-      <c r="A85" s="4">
-        <v>42355</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="11" customFormat="1">
-      <c r="A86" s="10">
-        <v>42355</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="5" customFormat="1">
-      <c r="A87" s="4">
-        <v>42355</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="3">
-        <v>42355</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C88" t="s">
-        <v>491</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/vulsList.xlsx
+++ b/vulsList.xlsx
@@ -10,7 +10,7 @@
     <sheet name="vulsHistory" sheetId="13" r:id="rId1"/>
     <sheet name="whiteList" sheetId="2" r:id="rId2"/>
     <sheet name="blackList" sheetId="3" r:id="rId3"/>
-    <sheet name="run1105_1224" sheetId="15" r:id="rId4"/>
+    <sheet name="run1105_1230" sheetId="15" r:id="rId4"/>
     <sheet name="run" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="1683">
   <si>
     <t>wordpress</t>
   </si>
@@ -4151,235 +4151,1006 @@
     <t>CVE-2015-6431</t>
   </si>
   <si>
-    <t>Adobe Flash Player釋放後重利用漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32111</t>
-  </si>
-  <si>
-    <t>CVE-2015-8640</t>
+    <t>IPswitch WhatsUp Gold SQL注入漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32093</t>
+  </si>
+  <si>
+    <t>CVE-2015-6004</t>
+  </si>
+  <si>
+    <t>IPswitch WhatsUp Gold 跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32092</t>
+  </si>
+  <si>
+    <t>CVE-2015-6005</t>
+  </si>
+  <si>
+    <t>Cisco Jabber for Windows STARTTLS降級漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32091</t>
+  </si>
+  <si>
+    <t>CVE-2015-6409</t>
+  </si>
+  <si>
+    <t>phpMyAdmin libraries/config/messages.inc.php信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>phpmyadmin</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32090</t>
+  </si>
+  <si>
+    <t>CVE-2015-8669</t>
+  </si>
+  <si>
+    <t>Foxit Reader FlateDecode堆緩衝區溢出遠程代碼執行漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32089</t>
+  </si>
+  <si>
+    <t>Foxit FoxitCloudUpdateService本地權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32088</t>
+  </si>
+  <si>
+    <t>FFmpeg ff_get_buffer函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32085</t>
+  </si>
+  <si>
+    <t>CVE-2015-8663</t>
+  </si>
+  <si>
+    <t>FFmpeg ff_dwt_decode函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32084</t>
+  </si>
+  <si>
+    <t>CVE-2015-8662</t>
+  </si>
+  <si>
+    <t>FFmpeg h264_slice_header_init函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32083</t>
+  </si>
+  <si>
+    <t>CVE-2015-8661</t>
+  </si>
+  <si>
+    <t>Rejetto HTTP File Server (HFS) 2.3.x - Remote Command Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39161/</t>
+  </si>
+  <si>
+    <t>CVE-2014-6287</t>
+  </si>
+  <si>
+    <t>D-Link DCS-931L File Upload</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39192/</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>OpenMRS Reporting Module 0.9.7 - Remote Code Execution</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39193/</t>
+  </si>
+  <si>
+    <t>AVM FRITZ!Box &amp;lt; 6.30 - Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39194/</t>
+  </si>
+  <si>
+    <t>MediaAccess TG788vn - Unauthenticated File Disclosure</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39184/</t>
+  </si>
+  <si>
+    <t>Online Airline Booking System - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39167/</t>
+  </si>
+  <si>
+    <t>Simple PHP Polling System - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39168/</t>
+  </si>
+  <si>
+    <t>Atlassian Confluence 5.2 / 5.8.14 / 5.8.15 - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39170/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8398,CVE-2015-8399</t>
+  </si>
+  <si>
+    <t>PHPIPAM 1.1.010 - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39171/</t>
+  </si>
+  <si>
+    <t>Open Audit SQL Injection Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39150/</t>
+  </si>
+  <si>
+    <t>Simple Ads Manager 2.9.4.116 - SQL Injection</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39133/</t>
+  </si>
+  <si>
+    <t>Ubuntu 14.04 LTS, 15.10 overlayfs - Local Root Exploit</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39166/</t>
+  </si>
+  <si>
+    <t>CVE-2015-8660</t>
+  </si>
+  <si>
+    <t>FTPShell Client 5.24 - Add to Favorites Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39159/</t>
+  </si>
+  <si>
+    <t>FTPShell Client 5.24 - Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39132/</t>
+  </si>
+  <si>
+    <t>DeleGate 9.9.13 - Local Root Vulnerability</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39134/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7556</t>
+  </si>
+  <si>
+    <t>Ganeti - Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39169/</t>
+  </si>
+  <si>
+    <t>CVE-2015-7944,CVE-2015-7945</t>
+  </si>
+  <si>
+    <t>pdfium CPDF_DIBSource::DownSampleScanline32Bit - Heap-Based Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39162/</t>
+  </si>
+  <si>
+    <t>CVE-2015-6787</t>
+  </si>
+  <si>
+    <t>pdfium CPDF_TextObject::CalcPositionData - Heap-Based Out-of-Bounds Read</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39163/</t>
   </si>
   <si>
     <t>CVErepeat</t>
   </si>
   <si>
-    <t>http://www.nsfocus.net/vulndb/32110</t>
-  </si>
-  <si>
-    <t>CVE-2015-8639</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32109</t>
-  </si>
-  <si>
-    <t>CVE-2015-8638</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32108</t>
-  </si>
-  <si>
-    <t>CVE-2015-8642</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32107</t>
-  </si>
-  <si>
-    <t>CVE-2015-8643</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player類型混淆漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32106</t>
-  </si>
-  <si>
-    <t>CVE-2015-8644</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32105</t>
-  </si>
-  <si>
-    <t>CVE-2015-8459</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32104</t>
-  </si>
-  <si>
-    <t>CVE-2015-8641</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32103</t>
-  </si>
-  <si>
-    <t>CVE-2015-8634</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32102</t>
-  </si>
-  <si>
-    <t>CVE-2015-8635</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32101</t>
-  </si>
-  <si>
-    <t>CVE-2015-8645</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32100</t>
-  </si>
-  <si>
-    <t>CVE-2015-8646</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32099</t>
-  </si>
-  <si>
-    <t>CVE-2015-8647</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32098</t>
-  </si>
-  <si>
-    <t>CVE-2015-8648</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32097</t>
-  </si>
-  <si>
-    <t>CVE-2015-8649</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32096</t>
-  </si>
-  <si>
-    <t>CVE-2015-8650</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player整數溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32095</t>
-  </si>
-  <si>
-    <t>CVE-2015-8651</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32094</t>
-  </si>
-  <si>
-    <t>CVE-2015-8636</t>
-  </si>
-  <si>
-    <t>IPswitch WhatsUp Gold SQL注入漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32093</t>
-  </si>
-  <si>
-    <t>CVE-2015-6004</t>
-  </si>
-  <si>
-    <t>IPswitch WhatsUp Gold 跨站腳本漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32092</t>
-  </si>
-  <si>
-    <t>CVE-2015-6005</t>
-  </si>
-  <si>
-    <t>Cisco Jabber for Windows STARTTLS降級漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32091</t>
-  </si>
-  <si>
-    <t>CVE-2015-6409</t>
-  </si>
-  <si>
-    <t>phpMyAdmin libraries/config/messages.inc.php信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>phpmyadmin</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32090</t>
-  </si>
-  <si>
-    <t>CVE-2015-8669</t>
-  </si>
-  <si>
-    <t>Foxit Reader FlateDecode堆緩衝區溢出遠程代碼執行漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32089</t>
-  </si>
-  <si>
-    <t>Foxit FoxitCloudUpdateService本地權限提升漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32088</t>
-  </si>
-  <si>
-    <t>Google Chrome WebCursor::Deserialize函數整數溢出漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32087</t>
-  </si>
-  <si>
-    <t>CVE-2015-8664</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Google Chrome MIDI子系統應用崩潰漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32086</t>
-  </si>
-  <si>
-    <t>CVE-2015-6792</t>
-  </si>
-  <si>
-    <t>FFmpeg ff_get_buffer函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32085</t>
-  </si>
-  <si>
-    <t>CVE-2015-8663</t>
-  </si>
-  <si>
-    <t>FFmpeg ff_dwt_decode函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32084</t>
-  </si>
-  <si>
-    <t>CVE-2015-8662</t>
-  </si>
-  <si>
-    <t>FFmpeg h264_slice_header_init函數拒絕服務漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32083</t>
-  </si>
-  <si>
-    <t>CVE-2015-8661</t>
-  </si>
-  <si>
-    <t>Microsoft Internet Explorer遠程內存破壞漏洞</t>
-  </si>
-  <si>
-    <t>http://www.nsfocus.net/vulndb/32077</t>
-  </si>
-  <si>
-    <t>CVE-2015-6083</t>
+    <t>pdfium IsFlagSet (v8 memory management) - SIGSEGV</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39164/</t>
+  </si>
+  <si>
+    <t>pdfium CPDF_Function::Call - Stack-Based Buffer Overflow</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/39165/</t>
+  </si>
+  <si>
+    <t>Google Android Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/16010701</t>
+  </si>
+  <si>
+    <t>Samba Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/16010504</t>
+  </si>
+  <si>
+    <t>CVE-2015-8467,CVE-2015-7540,CVE-2015-5330,CVE-2015-5299,CVE-2015-5296,CVE-2015-5252,CVE-2015-3223,CVE-2015-2535</t>
+  </si>
+  <si>
+    <t>Wireshark Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>https://www.hkcert.org/my_url/en/alert/16010503</t>
+  </si>
+  <si>
+    <t>Android mediaserver遠程代碼執行漏洞（CVE-2015-6636）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32190</t>
+  </si>
+  <si>
+    <t>CVE-2015-6636</t>
+  </si>
+  <si>
+    <t>Android Wi-Fi權限提升漏洞（CVE-2015-5310）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32189</t>
+  </si>
+  <si>
+    <t>CVE-2015-5310</t>
+  </si>
+  <si>
+    <t>Android MediaTek misc-sd權限提升漏洞（CVE-2015-6637）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32188</t>
+  </si>
+  <si>
+    <t>CVE-2015-6637</t>
+  </si>
+  <si>
+    <t>Android Imagination Technologies權限提升漏洞（CVE-2015-6638）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32187</t>
+  </si>
+  <si>
+    <t>CVE-2015-6638</t>
+  </si>
+  <si>
+    <t>Android Trustzone權限提升漏洞（CVE-2015-6639）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32186</t>
+  </si>
+  <si>
+    <t>CVE-2015-6639</t>
+  </si>
+  <si>
+    <t>Android Bluetooth權限提升漏洞（CVE-2015-6641）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32185</t>
+  </si>
+  <si>
+    <t>CVE-2015-6641</t>
+  </si>
+  <si>
+    <t>Android kernel/sys.c權限提升漏洞（CVE-2015-6640）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32184</t>
+  </si>
+  <si>
+    <t>CVE-2015-6640</t>
+  </si>
+  <si>
+    <t>Android Bouncy Castle信息泄露漏洞（CVE-2015-6644）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32183</t>
+  </si>
+  <si>
+    <t>CVE-2015-6644</t>
+  </si>
+  <si>
+    <t>Android Setup Wizard權限提升漏洞（CVE-2015-6643）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32182</t>
+  </si>
+  <si>
+    <t>CVE-2015-6643</t>
+  </si>
+  <si>
+    <t>Android kernel信息泄露漏洞（CVE-2015-6642）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32181</t>
+  </si>
+  <si>
+    <t>CVE-2015-6642</t>
+  </si>
+  <si>
+    <t>Android System V IPC拒絕服務漏洞（CVE-2015-6646）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32180</t>
+  </si>
+  <si>
+    <t>CVE-2015-6646</t>
+  </si>
+  <si>
+    <t>Android SyncManager拒絕服務漏洞（CVE-2015-6645）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32179</t>
+  </si>
+  <si>
+    <t>CVE-2015-6645</t>
+  </si>
+  <si>
+    <t>Android Trustzone權限提升漏洞（CVE-2015-6647）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32178</t>
+  </si>
+  <si>
+    <t>CVE-2015-6647</t>
+  </si>
+  <si>
+    <t>HPE Network Switches訪問限制繞過漏洞（CVE-2015-6860）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32196</t>
+  </si>
+  <si>
+    <t>CVE-2015-6860</t>
+  </si>
+  <si>
+    <t>HPE Network Switches訪問限制繞過漏洞（CVE-2015-6859）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32195</t>
+  </si>
+  <si>
+    <t>CVE-2015-6859</t>
+  </si>
+  <si>
+    <t>HP Insight Control信息泄露漏洞（CVE-2015-6858）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32194</t>
+  </si>
+  <si>
+    <t>CVE-2015-6858</t>
+  </si>
+  <si>
+    <t>HP StoreOnce Backup跨站腳本執行漏洞（CVE-2015-5447）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32193</t>
+  </si>
+  <si>
+    <t>CVE-2015-5447</t>
+  </si>
+  <si>
+    <t>HP StoreOnce Backup任意代碼執行漏洞（CVE-2015-5446）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32192</t>
+  </si>
+  <si>
+    <t>CVE-2015-5446</t>
+  </si>
+  <si>
+    <t>HPE Helion Eucalyptus訪問限制繞過漏洞（CVE-2015-6861）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32191</t>
+  </si>
+  <si>
+    <t>CVE-2015-6861</t>
+  </si>
+  <si>
+    <t>HP網絡產品及H3C Comware 5/7設備拒絕服務漏洞（CVE-2015-5434）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32177</t>
+  </si>
+  <si>
+    <t>CVE-2015-5434</t>
+  </si>
+  <si>
+    <t>HP StoreOnce Backup跨站請求僞造漏洞（CVE-2015-5445）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32176</t>
+  </si>
+  <si>
+    <t>CVE-2015-5445</t>
+  </si>
+  <si>
+    <t>HP Helion Eucalyptus訪問限制繞過漏洞（CVE-2014-5040）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32175</t>
+  </si>
+  <si>
+    <t>CVE-2014-5040</t>
+  </si>
+  <si>
+    <t>Cisco IOS XR拒絕服務漏洞（CVE-2015-6432）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32174</t>
+  </si>
+  <si>
+    <t>CVE-2015-6432</t>
+  </si>
+  <si>
+    <t>Wireshark NLM解析器拒絕服務漏洞（CVE-2015-8718）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32173</t>
+  </si>
+  <si>
+    <t>CVE-2015-8718</t>
+  </si>
+  <si>
+    <t>Wireshark SDP解析器拒絕服務漏洞（CVE-2015-8717）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32172</t>
+  </si>
+  <si>
+    <t>CVE-2015-8717</t>
+  </si>
+  <si>
+    <t>Wireshark T.38解析器拒絕服務漏洞（CVE-2015-8716）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32171</t>
+  </si>
+  <si>
+    <t>CVE-2015-8716</t>
+  </si>
+  <si>
+    <t>Wireshark AllJoyn解析器拒絕服務漏洞（CVE-2015-8715）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32170</t>
+  </si>
+  <si>
+    <t>CVE-2015-8715</t>
+  </si>
+  <si>
+    <t>Wireshark DCOM解析器拒絕服務漏洞（CVE-2015-8714）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32169</t>
+  </si>
+  <si>
+    <t>CVE-2015-8714</t>
+  </si>
+  <si>
+    <t>Wireshark UMTS FP解析器拒絕服務漏洞（CVE-2015-8712）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32168</t>
+  </si>
+  <si>
+    <t>CVE-2015-8712</t>
+  </si>
+  <si>
+    <t>Wireshark UMTS FP解析器拒絕服務漏洞（CVE-2015-8713）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32167</t>
+  </si>
+  <si>
+    <t>CVE-2015-8713</t>
+  </si>
+  <si>
+    <t>Wireshark DECnet NSP/RT解析器拒絕服務漏洞（CVE-2015-3182）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32166</t>
+  </si>
+  <si>
+    <t>CVE-2015-3182</t>
+  </si>
+  <si>
+    <t>Wireshark NBAP解析器拒絕服務漏洞（CVE-2015-8711）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32165</t>
+  </si>
+  <si>
+    <t>CVE-2015-8711</t>
+  </si>
+  <si>
+    <t>Wireshark DNS解析器拒絕服務漏洞（CVE-2015-8719）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32164</t>
+  </si>
+  <si>
+    <t>CVE-2015-8719</t>
+  </si>
+  <si>
+    <t>Wireshark tvb_uncompress緩衝區溢出漏洞（CVE-2015-8721）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32163</t>
+  </si>
+  <si>
+    <t>CVE-2015-8721</t>
+  </si>
+  <si>
+    <t>Wireshark BER解析器拒絕服務漏洞（CVE-2015-8720）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32162</t>
+  </si>
+  <si>
+    <t>CVE-2015-8720</t>
+  </si>
+  <si>
+    <t>Wireshark Ascend解析器拒絕服務漏洞（CVE-2015-8729）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32151</t>
+  </si>
+  <si>
+    <t>CVE-2015-8729</t>
+  </si>
+  <si>
+    <t>Wireshark Mobile Identity解析器拒絕服務漏洞（CVE-2015-8728）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32150</t>
+  </si>
+  <si>
+    <t>CVE-2015-8728</t>
+  </si>
+  <si>
+    <t>Wireshark VeriWave解析器拒絕服務漏洞（CVE-2015-8726）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32149</t>
+  </si>
+  <si>
+    <t>CVE-2015-8726</t>
+  </si>
+  <si>
+    <t>Wireshark RSVP解析器拒絕服務漏洞（CVE-2015-8727）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32148</t>
+  </si>
+  <si>
+    <t>CVE-2015-8727</t>
+  </si>
+  <si>
+    <t>Wireshark DIAMETER解析器拒絕服務漏洞（CVE-2015-8725）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32147</t>
+  </si>
+  <si>
+    <t>CVE-2015-8725</t>
+  </si>
+  <si>
+    <t>Wireshark 802.11解析器拒絕服務漏洞（CVE-2015-8723）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32146</t>
+  </si>
+  <si>
+    <t>CVE-2015-8723</t>
+  </si>
+  <si>
+    <t>Wireshark 802.11解析器拒絕服務漏洞（CVE-2015-8724）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32145</t>
+  </si>
+  <si>
+    <t>CVE-2015-8724</t>
+  </si>
+  <si>
+    <t>Wireshark SCTP解析器拒絕服務漏洞（CVE-2015-8722）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32144</t>
+  </si>
+  <si>
+    <t>CVE-2015-8722</t>
+  </si>
+  <si>
+    <t>Wireshark ZigBee ZCL解析器拒絕服務漏洞（CVE-2015-8732）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32161</t>
+  </si>
+  <si>
+    <t>CVE-2015-8732</t>
+  </si>
+  <si>
+    <t>Wireshark Sniffer解析器拒絕服務漏洞（CVE-2015-8733）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32160</t>
+  </si>
+  <si>
+    <t>CVE-2015-8733</t>
+  </si>
+  <si>
+    <t>Wireshark NWP解析器拒絕服務漏洞（CVE-2015-8734）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32159</t>
+  </si>
+  <si>
+    <t>CVE-2015-8734</t>
+  </si>
+  <si>
+    <t>Wireshark BT ATT解析器拒絕服務漏洞（CVE-2015-8735）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32158</t>
+  </si>
+  <si>
+    <t>CVE-2015-8735</t>
+  </si>
+  <si>
+    <t>Wireshark MP2T解析器拒絕服務漏洞（CVE-2015-8736）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32157</t>
+  </si>
+  <si>
+    <t>CVE-2015-8736</t>
+  </si>
+  <si>
+    <t>Wireshark MP2T 解析器拒絕服務漏洞（CVE-2015-8737）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32156</t>
+  </si>
+  <si>
+    <t>CVE-2015-8737</t>
+  </si>
+  <si>
+    <t>Wireshark S7COMM 解析器拒絕服務漏洞（CVE-2015-8738）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32155</t>
+  </si>
+  <si>
+    <t>CVE-2015-8738</t>
+  </si>
+  <si>
+    <t>Wireshark IPMI解析器拒絕服務漏洞（CVE-2015-8739）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32154</t>
+  </si>
+  <si>
+    <t>CVE-2015-8739</t>
+  </si>
+  <si>
+    <t>Wireshark NBAP解析器拒絕服務漏洞（CVE-2015-8730）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32153</t>
+  </si>
+  <si>
+    <t>CVE-2015-8730</t>
+  </si>
+  <si>
+    <t>Wireshark RSL解析器拒絕服務漏洞（CVE-2015-8731）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32152</t>
+  </si>
+  <si>
+    <t>CVE-2015-8731</t>
+  </si>
+  <si>
+    <t>Wireshark MS-WSP解析器拒絕服務漏洞（CVE-2015-8742）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32143</t>
+  </si>
+  <si>
+    <t>CVE-2015-8742</t>
+  </si>
+  <si>
+    <t>Wireshark PPI解析器拒絕服務漏洞（CVE-2015-8741）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32142</t>
+  </si>
+  <si>
+    <t>CVE-2015-8741</t>
+  </si>
+  <si>
+    <t>Wireshark TDS解析器拒絕服務漏洞（CVE-2015-8740）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32141</t>
+  </si>
+  <si>
+    <t>CVE-2015-8740</t>
+  </si>
+  <si>
+    <t>Belkin N600權限提升漏洞（CVE-2015-5988）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32140</t>
+  </si>
+  <si>
+    <t>CVE-2015-5988</t>
+  </si>
+  <si>
+    <t>Belkin N600欺騙漏洞（CVE-2015-5987）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32139</t>
+  </si>
+  <si>
+    <t>CVE-2015-5987</t>
+  </si>
+  <si>
+    <t>Belkin N600跨站請求僞造漏洞（CVE-2015-5990）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32138</t>
+  </si>
+  <si>
+    <t>CVE-2015-5990</t>
+  </si>
+  <si>
+    <t>Belkin N600權限提升漏洞（CVE-2015-5989）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32137</t>
+  </si>
+  <si>
+    <t>CVE-2015-5989</t>
+  </si>
+  <si>
+    <t>Bugzilla showdependencygraph.cgi跨站腳本漏洞（CVE-2015-8508）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32136</t>
+  </si>
+  <si>
+    <t>CVE-2015-8508</t>
+  </si>
+  <si>
+    <t>Bugzilla Template.pm信息泄露漏洞（CVE-2015-8509）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32135</t>
+  </si>
+  <si>
+    <t>CVE-2015-8509</t>
+  </si>
+  <si>
+    <t>Mediabridge Medialink MWN-WAPR300N權限提升漏洞（CVE-2015-5995）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32134</t>
+  </si>
+  <si>
+    <t>CVE-2015-5995</t>
+  </si>
+  <si>
+    <t>Mediabridge Medialink MWN-WAPR300N跨站請求僞造漏洞（CVE-2015-5996）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32133</t>
+  </si>
+  <si>
+    <t>CVE-2015-5996</t>
+  </si>
+  <si>
+    <t>OrientDB Server Community Edition Studio組件隨機值漏洞（CVE-2015-2913）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32132</t>
+  </si>
+  <si>
+    <t>CVE-2015-2913</t>
+  </si>
+  <si>
+    <t>OrientDB Server Community Edition Studio組件單擊劫持漏洞（CVE-2015-2918）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32131</t>
+  </si>
+  <si>
+    <t>CVE-2015-2918</t>
+  </si>
+  <si>
+    <t>Mediabridge Medialink MWN-WAPR300N權限提升漏洞（CVE-2015-5994）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32130</t>
+  </si>
+  <si>
+    <t>CVE-2015-5994</t>
+  </si>
+  <si>
+    <t>OrientDB Server Community Edition Studio組件CSRF漏洞（CVE-2015-2912）</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32129</t>
+  </si>
+  <si>
+    <t>CVE-2015-2912</t>
+  </si>
+  <si>
+    <t>Samba samldb_check_user_account_control_acl函數訪問限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32128</t>
+  </si>
+  <si>
+    <t>CVE-2015-8467</t>
+  </si>
+  <si>
+    <t>Samba LDAP服務器信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32127</t>
+  </si>
+  <si>
+    <t>CVE-2015-5330</t>
+  </si>
+  <si>
+    <t>Samba LDAP服務器拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32126</t>
+  </si>
+  <si>
+    <t>CVE-2015-7540</t>
+  </si>
+  <si>
+    <t>ZTE ZXHN H108N R1A跨站腳本漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32125</t>
+  </si>
+  <si>
+    <t>CVE-2015-7252</t>
+  </si>
+  <si>
+    <t>WinRAR file-execution功能權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32124</t>
+  </si>
+  <si>
+    <t>CVE-2015-5663</t>
+  </si>
+  <si>
+    <t>ZTE ZXHN H108N R1A訪問限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32123</t>
+  </si>
+  <si>
+    <t>CVE-2015-7249</t>
+  </si>
+  <si>
+    <t>ZTE ZXHN H108N R1A絕對路徑遍歷漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32122</t>
+  </si>
+  <si>
+    <t>CVE-2015-7250</t>
+  </si>
+  <si>
+    <t>ZTE ZXHN H108N R1A權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32121</t>
+  </si>
+  <si>
+    <t>CVE-2015-7251</t>
+  </si>
+  <si>
+    <t>ZTE ZXHN H108N R1A信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32120</t>
+  </si>
+  <si>
+    <t>CVE-2015-7248</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32119</t>
+  </si>
+  <si>
+    <t>CVE-2015-5299</t>
+  </si>
+  <si>
+    <t>Samba smbd vfs.c訪問限制繞過漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32118</t>
+  </si>
+  <si>
+    <t>CVE-2015-5252</t>
+  </si>
+  <si>
+    <t>Samba 中間人攻擊漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32117</t>
+  </si>
+  <si>
+    <t>CVE-2015-5296</t>
+  </si>
+  <si>
+    <t>Samba ldb_wildcard_compare函數拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32116</t>
+  </si>
+  <si>
+    <t>CVE-2015-3223</t>
+  </si>
+  <si>
+    <t>Corega CG-WLNCM4G拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32115</t>
+  </si>
+  <si>
+    <t>CVE-2015-7794</t>
+  </si>
+  <si>
+    <t>Corega CG-WLBARAGM拒絕服務漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32114</t>
+  </si>
+  <si>
+    <t>CVE-2015-7793</t>
+  </si>
+  <si>
+    <t>Corega CG-WLBARGS權限提升漏洞</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32113</t>
+  </si>
+  <si>
+    <t>CVE-2015-7792</t>
+  </si>
+  <si>
+    <t>http://www.nsfocus.net/vulndb/32112</t>
+  </si>
+  <si>
+    <t>CVE-2015-8703</t>
   </si>
 </sst>
 </file>
@@ -5023,10 +5794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G518"/>
+  <dimension ref="A1:G535"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465"/>
+    <sheetView topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15772,6 +16543,335 @@
         <v>100</v>
       </c>
     </row>
+    <row r="519" spans="1:7">
+      <c r="A519" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D520" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E520" s="5"/>
+      <c r="F520" s="5"/>
+      <c r="G520" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" s="8">
+        <v>42362</v>
+      </c>
+      <c r="B521" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C521" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D521" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E521" s="9"/>
+      <c r="F521" s="9"/>
+      <c r="G521" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522" s="4">
+        <v>42364</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E522" s="5"/>
+      <c r="F522" s="5"/>
+      <c r="G522" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523" s="4">
+        <v>42364</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D523" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E523" s="5"/>
+      <c r="F523" s="5"/>
+      <c r="G523" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524" s="3">
+        <v>42367</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C524" t="s">
+        <v>96</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F524" t="s">
+        <v>99</v>
+      </c>
+      <c r="G524" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
+      <c r="A525" s="3">
+        <v>42366</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C525" t="s">
+        <v>229</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F525" t="s">
+        <v>76</v>
+      </c>
+      <c r="G525" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
+      <c r="A526" s="4">
+        <v>42362</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C526" s="5"/>
+      <c r="D526" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E526" s="5"/>
+      <c r="F526" s="5"/>
+      <c r="G526" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527" s="4">
+        <v>42366</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C527" s="5"/>
+      <c r="D527" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E527" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G527" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528" s="4">
+        <v>42366</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C528" s="5"/>
+      <c r="D528" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529" s="3">
+        <v>42366</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C529" t="s">
+        <v>229</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F529" t="s">
+        <v>76</v>
+      </c>
+      <c r="G529" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530" s="3">
+        <v>42366</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F530" t="s">
+        <v>76</v>
+      </c>
+      <c r="G530" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" s="4">
+        <v>42366</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C531" s="5"/>
+      <c r="D531" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E531" s="5"/>
+      <c r="F531" s="5"/>
+      <c r="G531" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532" s="4">
+        <v>42366</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C532" s="5"/>
+      <c r="D532" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E532" s="5"/>
+      <c r="F532" s="5"/>
+      <c r="G532" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" s="4">
+        <v>42363</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C533" s="5"/>
+      <c r="D533" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E533" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G533" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="4">
+        <v>42363</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C534" s="5"/>
+      <c r="D534" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E534" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G534" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" s="4">
+        <v>42363</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C535" s="5"/>
+      <c r="D535" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E535" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G535" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15780,18 +16880,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="73.375" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15819,50 +16918,56 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1">
       <c r="A2" s="4">
-        <v>42362</v>
+        <v>42373</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1194</v>
+        <v>1375</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1195</v>
+        <v>1376</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1">
-      <c r="A3" s="8">
-        <v>42362</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1197</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="11" customFormat="1">
+      <c r="A3" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
       <c r="A4" s="4">
-        <v>42364</v>
+        <v>42376</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1339</v>
+        <v>1381</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1340</v>
+        <v>1382</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>33</v>
@@ -15870,695 +16975,1904 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1">
       <c r="A5" s="4">
-        <v>42364</v>
+        <v>42376</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1341</v>
+        <v>1383</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1342</v>
+        <v>1384</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>42367</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="6" spans="1:7" s="5" customFormat="1">
+      <c r="A6" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1">
+      <c r="A7" s="4">
+        <v>42374</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1">
+      <c r="A8" s="8">
+        <v>42374</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1">
+      <c r="A9" s="4">
+        <v>42374</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1">
+      <c r="A10" s="8">
+        <v>42374</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1">
+      <c r="A11" s="4">
+        <v>42371</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1">
+      <c r="A12" s="4">
+        <v>42368</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1">
+      <c r="A13" s="4">
+        <v>42374</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>42366</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1">
-      <c r="A8" s="4">
-        <v>42362</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
+      <c r="A14" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="11" customFormat="1">
-      <c r="A9" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="11" customFormat="1">
-      <c r="A10" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="11" customFormat="1">
-      <c r="A11" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1">
-      <c r="A12" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="11" customFormat="1">
-      <c r="A13" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="11" customFormat="1">
-      <c r="A14" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1">
-      <c r="A15" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="11" customFormat="1">
-      <c r="A16" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1">
-      <c r="A17" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1">
-      <c r="A18" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1352</v>
+    <row r="15" spans="1:7" s="5" customFormat="1">
+      <c r="A15" s="4">
+        <v>42368</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1">
+      <c r="A16" s="4">
+        <v>42368</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1">
+      <c r="A17" s="4">
+        <v>42374</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1">
+      <c r="A18" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="11" customFormat="1">
       <c r="A19" s="10">
-        <v>42367</v>
+        <v>42373</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1364</v>
+        <v>1416</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>1373</v>
+        <v>1417</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>1374</v>
+        <v>1415</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="11" customFormat="1">
-      <c r="A20" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>1352</v>
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1">
+      <c r="A20" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="11" customFormat="1">
       <c r="A21" s="10">
-        <v>42367</v>
+        <v>42373</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1349</v>
+        <v>1421</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1377</v>
+        <v>1422</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1378</v>
+        <v>1415</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>1352</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1">
       <c r="A22" s="10">
-        <v>42367</v>
+        <v>42376</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1349</v>
+        <v>1423</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E22" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>1380</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="11" customFormat="1">
-      <c r="A23" s="10">
-        <v>42367</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>1352</v>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1">
+      <c r="A23" s="4">
+        <v>42374</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="11" customFormat="1">
       <c r="A24" s="10">
-        <v>42367</v>
+        <v>42374</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1349</v>
+        <v>1428</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>1384</v>
+        <v>1429</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>1352</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="11" customFormat="1">
       <c r="A25" s="10">
-        <v>42367</v>
+        <v>42376</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1385</v>
+        <v>1430</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1386</v>
+        <v>1431</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>1387</v>
+        <v>1432</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>1352</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="11" customFormat="1">
       <c r="A26" s="10">
-        <v>42367</v>
+        <v>42376</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1349</v>
+        <v>1433</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1388</v>
+        <v>1434</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1389</v>
+        <v>1435</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1">
-      <c r="A27" s="4">
-        <v>42366</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1">
-      <c r="A28" s="4">
-        <v>42366</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3">
-        <v>42366</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C29" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3">
-        <v>42366</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1">
-      <c r="A31" s="4">
-        <v>42366</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1">
-      <c r="A32" s="4">
-        <v>42366</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>33</v>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1">
+      <c r="A27" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="11" customFormat="1">
+      <c r="A28" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1">
+      <c r="A29" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="11" customFormat="1">
+      <c r="A30" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="11" customFormat="1">
+      <c r="A31" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1">
+      <c r="A32" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="11" customFormat="1">
       <c r="A33" s="10">
-        <v>42363</v>
+        <v>42376</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1407</v>
+        <v>1454</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1408</v>
+        <v>1455</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1409</v>
+        <v>1456</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>1410</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="11" customFormat="1">
       <c r="A34" s="10">
-        <v>42363</v>
+        <v>42376</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>1411</v>
+        <v>1457</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1412</v>
+        <v>1458</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1413</v>
+        <v>1459</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1">
-      <c r="A35" s="4">
-        <v>42363</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F35" s="5" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="11" customFormat="1">
+      <c r="A35" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="11" customFormat="1">
+      <c r="A36" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="11" customFormat="1">
+      <c r="A37" s="10">
+        <v>42376</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1">
+      <c r="A38" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1">
-      <c r="A36" s="4">
-        <v>42363</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="G38" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1">
+      <c r="A39" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1">
+      <c r="A40" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1">
+      <c r="A41" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1">
+      <c r="A42" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1">
+      <c r="A43" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="5" customFormat="1">
+      <c r="A44" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1">
+      <c r="A45" s="4">
+        <v>42375</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1">
+      <c r="A46" s="4">
+        <v>42374</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>42374</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="11" customFormat="1">
+      <c r="A48" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="11" customFormat="1">
+      <c r="A49" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="11" customFormat="1">
+      <c r="A50" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="11" customFormat="1">
+      <c r="A51" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="11" customFormat="1">
+      <c r="A52" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="11" customFormat="1">
+      <c r="A53" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="11" customFormat="1">
+      <c r="A54" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="11" customFormat="1">
+      <c r="A55" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="11" customFormat="1">
+      <c r="A56" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="11" customFormat="1">
+      <c r="A57" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="11" customFormat="1">
+      <c r="A58" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="11" customFormat="1">
+      <c r="A59" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="11" customFormat="1">
+      <c r="A60" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="11" customFormat="1">
+      <c r="A61" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="11" customFormat="1">
+      <c r="A62" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="11" customFormat="1">
+      <c r="A63" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="11" customFormat="1">
+      <c r="A64" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="11" customFormat="1">
+      <c r="A65" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="11" customFormat="1">
+      <c r="A66" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="11" customFormat="1">
+      <c r="A67" s="10">
+        <v>42374</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="11" customFormat="1">
+      <c r="A68" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="11" customFormat="1">
+      <c r="A69" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="11" customFormat="1">
+      <c r="A70" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="11" customFormat="1">
+      <c r="A71" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="11" customFormat="1">
+      <c r="A72" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="11" customFormat="1">
+      <c r="A73" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="11" customFormat="1">
+      <c r="A74" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="11" customFormat="1">
+      <c r="A75" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="11" customFormat="1">
+      <c r="A76" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="11" customFormat="1">
+      <c r="A77" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="11" customFormat="1">
+      <c r="A78" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="11" customFormat="1">
+      <c r="A79" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="11" customFormat="1">
+      <c r="A80" s="10">
+        <v>42373</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="5" customFormat="1">
+      <c r="A81" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1">
+      <c r="A82" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1">
+      <c r="A83" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1">
+      <c r="A84" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="A85" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1">
+      <c r="A86" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="5" customFormat="1">
+      <c r="A87" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="5" customFormat="1">
+      <c r="A88" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1">
+      <c r="A89" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="5" customFormat="1">
+      <c r="A90" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1">
+      <c r="A91" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="5" customFormat="1">
+      <c r="A92" s="4">
+        <v>42373</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="11" customFormat="1">
+      <c r="A93" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>1418</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F36" s="5" t="s">
+    </row>
+    <row r="94" spans="1:7" s="11" customFormat="1">
+      <c r="A94" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="11" customFormat="1">
+      <c r="A95" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="11" customFormat="1">
+      <c r="A96" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1">
+      <c r="A97" s="4">
+        <v>42369</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="11" customFormat="1">
+      <c r="A98" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="11" customFormat="1">
+      <c r="A99" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="11" customFormat="1">
+      <c r="A100" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="11" customFormat="1">
+      <c r="A101" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="11" customFormat="1">
+      <c r="A102" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="11" customFormat="1">
+      <c r="A103" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="11" customFormat="1">
+      <c r="A104" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="11" customFormat="1">
+      <c r="A105" s="10">
+        <v>42369</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="5" customFormat="1">
+      <c r="A106" s="4">
+        <v>42369</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="5" customFormat="1">
+      <c r="A107" s="4">
+        <v>42369</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="5" customFormat="1">
+      <c r="A108" s="4">
+        <v>42369</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1">
-      <c r="A37" s="4">
-        <v>42363</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>1421</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="11" customFormat="1">
-      <c r="A38" s="10">
-        <v>42362</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="11" customFormat="1">
-      <c r="A39" s="10">
-        <v>42362</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="11" customFormat="1">
-      <c r="A40" s="10">
-        <v>42362</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="11" customFormat="1">
-      <c r="A41" s="10">
-        <v>42362</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="11" customFormat="1">
-      <c r="A42" s="10">
-        <v>42362</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="11" customFormat="1">
-      <c r="A43" s="10">
-        <v>42362</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>1352</v>
+      <c r="G108" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="5" customFormat="1">
+      <c r="A109" s="4">
+        <v>42369</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
